--- a/rcads/data/xls/23_InstrumentItemMap.xlsx
+++ b/rcads/data/xls/23_InstrumentItemMap.xlsx
@@ -55417,7 +55417,7 @@
       </c>
       <c r="B3022" s="5" t="inlineStr">
         <is>
-          <t>MTT-35-Y-ES-1</t>
+          <t>MTT-35-Y-EN-1</t>
         </is>
       </c>
       <c r="C3022" s="6" t="inlineStr">
@@ -55438,7 +55438,7 @@
       </c>
       <c r="B3023" s="5" t="inlineStr">
         <is>
-          <t>MTT-35-Y-ES-1</t>
+          <t>MTT-35-Y-EN-1</t>
         </is>
       </c>
       <c r="C3023" s="6" t="inlineStr">
@@ -55459,7 +55459,7 @@
       </c>
       <c r="B3024" s="5" t="inlineStr">
         <is>
-          <t>MTT-35-Y-ES-1</t>
+          <t>MTT-35-Y-EN-1</t>
         </is>
       </c>
       <c r="C3024" s="6" t="inlineStr">
@@ -55480,7 +55480,7 @@
       </c>
       <c r="B3025" s="5" t="inlineStr">
         <is>
-          <t>MTT-35-Y-ES-1</t>
+          <t>MTT-35-Y-EN-1</t>
         </is>
       </c>
       <c r="C3025" s="6" t="inlineStr">
@@ -55501,7 +55501,7 @@
       </c>
       <c r="B3026" s="5" t="inlineStr">
         <is>
-          <t>MTT-35-Y-ES-1</t>
+          <t>MTT-35-Y-EN-1</t>
         </is>
       </c>
       <c r="C3026" s="6" t="inlineStr">
@@ -55522,7 +55522,7 @@
       </c>
       <c r="B3027" s="5" t="inlineStr">
         <is>
-          <t>MTT-35-Y-ES-1</t>
+          <t>MTT-35-Y-EN-1</t>
         </is>
       </c>
       <c r="C3027" s="6" t="inlineStr">
@@ -55543,7 +55543,7 @@
       </c>
       <c r="B3028" s="5" t="inlineStr">
         <is>
-          <t>MTT-35-Y-ES-1</t>
+          <t>MTT-35-Y-EN-1</t>
         </is>
       </c>
       <c r="C3028" s="6" t="inlineStr">
@@ -55564,7 +55564,7 @@
       </c>
       <c r="B3029" s="5" t="inlineStr">
         <is>
-          <t>MTT-35-Y-ES-1</t>
+          <t>MTT-35-Y-EN-1</t>
         </is>
       </c>
       <c r="C3029" s="6" t="inlineStr">
@@ -55585,7 +55585,7 @@
       </c>
       <c r="B3030" s="5" t="inlineStr">
         <is>
-          <t>MTT-35-Y-ES-1</t>
+          <t>MTT-35-Y-EN-1</t>
         </is>
       </c>
       <c r="C3030" s="6" t="inlineStr">
@@ -55606,7 +55606,7 @@
       </c>
       <c r="B3031" s="5" t="inlineStr">
         <is>
-          <t>MTT-35-Y-ES-1</t>
+          <t>MTT-35-Y-EN-1</t>
         </is>
       </c>
       <c r="C3031" s="6" t="inlineStr">
@@ -55627,7 +55627,7 @@
       </c>
       <c r="B3032" s="5" t="inlineStr">
         <is>
-          <t>MTT-35-Y-ES-1</t>
+          <t>MTT-35-Y-EN-1</t>
         </is>
       </c>
       <c r="C3032" s="6" t="inlineStr">
@@ -55648,7 +55648,7 @@
       </c>
       <c r="B3033" s="5" t="inlineStr">
         <is>
-          <t>MTT-35-Y-ES-1</t>
+          <t>MTT-35-Y-EN-1</t>
         </is>
       </c>
       <c r="C3033" s="6" t="inlineStr">
@@ -55669,7 +55669,7 @@
       </c>
       <c r="B3034" s="5" t="inlineStr">
         <is>
-          <t>MTT-35-Y-ES-1</t>
+          <t>MTT-35-Y-EN-1</t>
         </is>
       </c>
       <c r="C3034" s="6" t="inlineStr">
@@ -55690,7 +55690,7 @@
       </c>
       <c r="B3035" s="5" t="inlineStr">
         <is>
-          <t>MTT-35-Y-ES-1</t>
+          <t>MTT-35-Y-EN-1</t>
         </is>
       </c>
       <c r="C3035" s="6" t="inlineStr">
@@ -55711,7 +55711,7 @@
       </c>
       <c r="B3036" s="5" t="inlineStr">
         <is>
-          <t>MTT-35-Y-ES-1</t>
+          <t>MTT-35-Y-EN-1</t>
         </is>
       </c>
       <c r="C3036" s="6" t="inlineStr">
@@ -55732,7 +55732,7 @@
       </c>
       <c r="B3037" s="5" t="inlineStr">
         <is>
-          <t>MTT-35-Y-ES-1</t>
+          <t>MTT-35-Y-EN-1</t>
         </is>
       </c>
       <c r="C3037" s="6" t="inlineStr">
@@ -55753,7 +55753,7 @@
       </c>
       <c r="B3038" s="5" t="inlineStr">
         <is>
-          <t>MTT-35-Y-ES-1</t>
+          <t>MTT-35-Y-EN-1</t>
         </is>
       </c>
       <c r="C3038" s="6" t="inlineStr">
@@ -55774,7 +55774,7 @@
       </c>
       <c r="B3039" s="5" t="inlineStr">
         <is>
-          <t>MTT-35-Y-ES-1</t>
+          <t>MTT-35-Y-EN-1</t>
         </is>
       </c>
       <c r="C3039" s="6" t="inlineStr">
@@ -55795,7 +55795,7 @@
       </c>
       <c r="B3040" s="5" t="inlineStr">
         <is>
-          <t>MTT-35-Y-ES-1</t>
+          <t>MTT-35-Y-EN-1</t>
         </is>
       </c>
       <c r="C3040" s="6" t="inlineStr">
@@ -55816,7 +55816,7 @@
       </c>
       <c r="B3041" s="5" t="inlineStr">
         <is>
-          <t>MTT-35-Y-ES-1</t>
+          <t>MTT-35-Y-EN-1</t>
         </is>
       </c>
       <c r="C3041" s="6" t="inlineStr">
@@ -55837,7 +55837,7 @@
       </c>
       <c r="B3042" s="5" t="inlineStr">
         <is>
-          <t>MTT-35-Y-ES-1</t>
+          <t>MTT-35-Y-EN-1</t>
         </is>
       </c>
       <c r="C3042" s="6" t="inlineStr">
@@ -55858,7 +55858,7 @@
       </c>
       <c r="B3043" s="5" t="inlineStr">
         <is>
-          <t>MTT-35-Y-ES-1</t>
+          <t>MTT-35-Y-EN-1</t>
         </is>
       </c>
       <c r="C3043" s="6" t="inlineStr">
@@ -55879,7 +55879,7 @@
       </c>
       <c r="B3044" s="5" t="inlineStr">
         <is>
-          <t>MTT-35-Y-ES-1</t>
+          <t>MTT-35-Y-EN-1</t>
         </is>
       </c>
       <c r="C3044" s="6" t="inlineStr">
@@ -55900,7 +55900,7 @@
       </c>
       <c r="B3045" s="5" t="inlineStr">
         <is>
-          <t>MTT-35-Y-ES-1</t>
+          <t>MTT-35-Y-EN-1</t>
         </is>
       </c>
       <c r="C3045" s="6" t="inlineStr">
@@ -55921,7 +55921,7 @@
       </c>
       <c r="B3046" s="5" t="inlineStr">
         <is>
-          <t>MTT-35-Y-ES-1</t>
+          <t>MTT-35-Y-EN-1</t>
         </is>
       </c>
       <c r="C3046" s="6" t="inlineStr">
@@ -55942,7 +55942,7 @@
       </c>
       <c r="B3047" s="5" t="inlineStr">
         <is>
-          <t>MTT-35-Y-ES-1</t>
+          <t>MTT-35-Y-EN-1</t>
         </is>
       </c>
       <c r="C3047" s="6" t="inlineStr">
@@ -55963,7 +55963,7 @@
       </c>
       <c r="B3048" s="5" t="inlineStr">
         <is>
-          <t>MTT-35-Y-ES-1</t>
+          <t>MTT-35-Y-EN-1</t>
         </is>
       </c>
       <c r="C3048" s="6" t="inlineStr">
@@ -55984,7 +55984,7 @@
       </c>
       <c r="B3049" s="5" t="inlineStr">
         <is>
-          <t>MTT-35-Y-ES-1</t>
+          <t>MTT-35-Y-EN-1</t>
         </is>
       </c>
       <c r="C3049" s="6" t="inlineStr">
@@ -56005,7 +56005,7 @@
       </c>
       <c r="B3050" s="5" t="inlineStr">
         <is>
-          <t>MTT-35-Y-ES-1</t>
+          <t>MTT-35-Y-EN-1</t>
         </is>
       </c>
       <c r="C3050" s="6" t="inlineStr">
@@ -56026,7 +56026,7 @@
       </c>
       <c r="B3051" s="5" t="inlineStr">
         <is>
-          <t>MTT-35-Y-ES-1</t>
+          <t>MTT-35-Y-EN-1</t>
         </is>
       </c>
       <c r="C3051" s="6" t="inlineStr">
@@ -56047,7 +56047,7 @@
       </c>
       <c r="B3052" s="5" t="inlineStr">
         <is>
-          <t>MTT-35-Y-ES-1</t>
+          <t>MTT-35-Y-EN-1</t>
         </is>
       </c>
       <c r="C3052" s="6" t="inlineStr">
@@ -56068,7 +56068,7 @@
       </c>
       <c r="B3053" s="5" t="inlineStr">
         <is>
-          <t>MTT-35-Y-ES-1</t>
+          <t>MTT-35-Y-EN-1</t>
         </is>
       </c>
       <c r="C3053" s="6" t="inlineStr">
@@ -56089,7 +56089,7 @@
       </c>
       <c r="B3054" s="5" t="inlineStr">
         <is>
-          <t>MTT-35-Y-ES-1</t>
+          <t>MTT-35-Y-EN-1</t>
         </is>
       </c>
       <c r="C3054" s="6" t="inlineStr">
@@ -56110,7 +56110,7 @@
       </c>
       <c r="B3055" s="5" t="inlineStr">
         <is>
-          <t>MTT-35-Y-ES-1</t>
+          <t>MTT-35-Y-EN-1</t>
         </is>
       </c>
       <c r="C3055" s="6" t="inlineStr">
@@ -56131,7 +56131,7 @@
       </c>
       <c r="B3056" s="5" t="inlineStr">
         <is>
-          <t>MTT-35-Y-ES-1</t>
+          <t>MTT-35-Y-EN-1</t>
         </is>
       </c>
       <c r="C3056" s="6" t="inlineStr">

--- a/rcads/data/xls/23_InstrumentItemMap.xlsx
+++ b/rcads/data/xls/23_InstrumentItemMap.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="_23_InstrumentItemMap"/>
   </sheets>
   <definedNames>
-    <definedName name="_23_InstrumentItemMap">'_23_InstrumentItemMap'!$A$1:$E$3275</definedName>
+    <definedName name="_23_InstrumentItemMap">'_23_InstrumentItemMap'!$A$1:$E$3855</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -343,7 +343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3275"/>
+  <dimension ref="A1:E3855"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -5284,7 +5284,7 @@
         <v>53</v>
       </c>
       <c r="C327" s="0">
-        <v>1081</v>
+        <v>2413</v>
       </c>
       <c r="D327" s="0">
         <v>25</v>
@@ -5603,10 +5603,10 @@
         <v>2590</v>
       </c>
       <c r="B350" s="0">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="C350" s="0">
-        <v>961</v>
+        <v>2366</v>
       </c>
       <c r="D350" s="0">
         <v>1</v>
@@ -5617,10 +5617,10 @@
         <v>2591</v>
       </c>
       <c r="B351" s="0">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="C351" s="0">
-        <v>962</v>
+        <v>2367</v>
       </c>
       <c r="D351" s="0">
         <v>2</v>
@@ -5631,10 +5631,10 @@
         <v>2592</v>
       </c>
       <c r="B352" s="0">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="C352" s="0">
-        <v>963</v>
+        <v>2368</v>
       </c>
       <c r="D352" s="0">
         <v>3</v>
@@ -5645,10 +5645,10 @@
         <v>2593</v>
       </c>
       <c r="B353" s="0">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="C353" s="0">
-        <v>964</v>
+        <v>2369</v>
       </c>
       <c r="D353" s="0">
         <v>4</v>
@@ -5659,10 +5659,10 @@
         <v>2594</v>
       </c>
       <c r="B354" s="0">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="C354" s="0">
-        <v>965</v>
+        <v>2370</v>
       </c>
       <c r="D354" s="0">
         <v>5</v>
@@ -5673,10 +5673,10 @@
         <v>2595</v>
       </c>
       <c r="B355" s="0">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="C355" s="0">
-        <v>966</v>
+        <v>2371</v>
       </c>
       <c r="D355" s="0">
         <v>6</v>
@@ -5687,10 +5687,10 @@
         <v>2596</v>
       </c>
       <c r="B356" s="0">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="C356" s="0">
-        <v>967</v>
+        <v>2372</v>
       </c>
       <c r="D356" s="0">
         <v>7</v>
@@ -5701,10 +5701,10 @@
         <v>2597</v>
       </c>
       <c r="B357" s="0">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="C357" s="0">
-        <v>968</v>
+        <v>2373</v>
       </c>
       <c r="D357" s="0">
         <v>8</v>
@@ -5715,10 +5715,10 @@
         <v>2598</v>
       </c>
       <c r="B358" s="0">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="C358" s="0">
-        <v>969</v>
+        <v>2374</v>
       </c>
       <c r="D358" s="0">
         <v>9</v>
@@ -5729,10 +5729,10 @@
         <v>2599</v>
       </c>
       <c r="B359" s="0">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="C359" s="0">
-        <v>970</v>
+        <v>2375</v>
       </c>
       <c r="D359" s="0">
         <v>10</v>
@@ -5743,10 +5743,10 @@
         <v>2600</v>
       </c>
       <c r="B360" s="0">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="C360" s="0">
-        <v>971</v>
+        <v>2376</v>
       </c>
       <c r="D360" s="0">
         <v>11</v>
@@ -5757,10 +5757,10 @@
         <v>2601</v>
       </c>
       <c r="B361" s="0">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="C361" s="0">
-        <v>972</v>
+        <v>2377</v>
       </c>
       <c r="D361" s="0">
         <v>12</v>
@@ -5771,10 +5771,10 @@
         <v>2602</v>
       </c>
       <c r="B362" s="0">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="C362" s="0">
-        <v>973</v>
+        <v>2378</v>
       </c>
       <c r="D362" s="0">
         <v>13</v>
@@ -5785,10 +5785,10 @@
         <v>2603</v>
       </c>
       <c r="B363" s="0">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="C363" s="0">
-        <v>974</v>
+        <v>2379</v>
       </c>
       <c r="D363" s="0">
         <v>14</v>
@@ -5799,10 +5799,10 @@
         <v>2604</v>
       </c>
       <c r="B364" s="0">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="C364" s="0">
-        <v>975</v>
+        <v>2380</v>
       </c>
       <c r="D364" s="0">
         <v>15</v>
@@ -5813,10 +5813,10 @@
         <v>2605</v>
       </c>
       <c r="B365" s="0">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="C365" s="0">
-        <v>976</v>
+        <v>2381</v>
       </c>
       <c r="D365" s="0">
         <v>16</v>
@@ -5827,10 +5827,10 @@
         <v>2606</v>
       </c>
       <c r="B366" s="0">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="C366" s="0">
-        <v>977</v>
+        <v>2382</v>
       </c>
       <c r="D366" s="0">
         <v>17</v>
@@ -5841,10 +5841,10 @@
         <v>2607</v>
       </c>
       <c r="B367" s="0">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="C367" s="0">
-        <v>978</v>
+        <v>2383</v>
       </c>
       <c r="D367" s="0">
         <v>18</v>
@@ -5855,10 +5855,10 @@
         <v>2608</v>
       </c>
       <c r="B368" s="0">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="C368" s="0">
-        <v>979</v>
+        <v>2384</v>
       </c>
       <c r="D368" s="0">
         <v>19</v>
@@ -5869,10 +5869,10 @@
         <v>2609</v>
       </c>
       <c r="B369" s="0">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="C369" s="0">
-        <v>980</v>
+        <v>2385</v>
       </c>
       <c r="D369" s="0">
         <v>20</v>
@@ -5883,10 +5883,10 @@
         <v>2610</v>
       </c>
       <c r="B370" s="0">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="C370" s="0">
-        <v>981</v>
+        <v>2386</v>
       </c>
       <c r="D370" s="0">
         <v>21</v>
@@ -5897,10 +5897,10 @@
         <v>2611</v>
       </c>
       <c r="B371" s="0">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="C371" s="0">
-        <v>982</v>
+        <v>2387</v>
       </c>
       <c r="D371" s="0">
         <v>22</v>
@@ -5911,10 +5911,10 @@
         <v>2612</v>
       </c>
       <c r="B372" s="0">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="C372" s="0">
-        <v>983</v>
+        <v>2388</v>
       </c>
       <c r="D372" s="0">
         <v>23</v>
@@ -5925,10 +5925,10 @@
         <v>2613</v>
       </c>
       <c r="B373" s="0">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="C373" s="0">
-        <v>984</v>
+        <v>2389</v>
       </c>
       <c r="D373" s="0">
         <v>24</v>
@@ -5939,10 +5939,10 @@
         <v>2614</v>
       </c>
       <c r="B374" s="0">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="C374" s="0">
-        <v>985</v>
+        <v>2390</v>
       </c>
       <c r="D374" s="0">
         <v>25</v>
@@ -5953,10 +5953,10 @@
         <v>2615</v>
       </c>
       <c r="B375" s="0">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="C375" s="0">
-        <v>986</v>
+        <v>2391</v>
       </c>
       <c r="D375" s="0">
         <v>26</v>
@@ -5967,10 +5967,10 @@
         <v>2616</v>
       </c>
       <c r="B376" s="0">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="C376" s="0">
-        <v>987</v>
+        <v>2392</v>
       </c>
       <c r="D376" s="0">
         <v>27</v>
@@ -5981,10 +5981,10 @@
         <v>2617</v>
       </c>
       <c r="B377" s="0">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="C377" s="0">
-        <v>988</v>
+        <v>2393</v>
       </c>
       <c r="D377" s="0">
         <v>28</v>
@@ -5995,10 +5995,10 @@
         <v>2618</v>
       </c>
       <c r="B378" s="0">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="C378" s="0">
-        <v>989</v>
+        <v>2394</v>
       </c>
       <c r="D378" s="0">
         <v>29</v>
@@ -6009,10 +6009,10 @@
         <v>2619</v>
       </c>
       <c r="B379" s="0">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="C379" s="0">
-        <v>990</v>
+        <v>2395</v>
       </c>
       <c r="D379" s="0">
         <v>30</v>
@@ -6023,10 +6023,10 @@
         <v>2620</v>
       </c>
       <c r="B380" s="0">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="C380" s="0">
-        <v>991</v>
+        <v>2396</v>
       </c>
       <c r="D380" s="0">
         <v>31</v>
@@ -6037,10 +6037,10 @@
         <v>2621</v>
       </c>
       <c r="B381" s="0">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="C381" s="0">
-        <v>992</v>
+        <v>2397</v>
       </c>
       <c r="D381" s="0">
         <v>32</v>
@@ -6051,10 +6051,10 @@
         <v>2622</v>
       </c>
       <c r="B382" s="0">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="C382" s="0">
-        <v>993</v>
+        <v>2398</v>
       </c>
       <c r="D382" s="0">
         <v>33</v>
@@ -6065,10 +6065,10 @@
         <v>2623</v>
       </c>
       <c r="B383" s="0">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="C383" s="0">
-        <v>994</v>
+        <v>2399</v>
       </c>
       <c r="D383" s="0">
         <v>34</v>
@@ -6079,10 +6079,10 @@
         <v>2624</v>
       </c>
       <c r="B384" s="0">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="C384" s="0">
-        <v>995</v>
+        <v>2400</v>
       </c>
       <c r="D384" s="0">
         <v>35</v>
@@ -6093,10 +6093,10 @@
         <v>2625</v>
       </c>
       <c r="B385" s="0">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="C385" s="0">
-        <v>996</v>
+        <v>2401</v>
       </c>
       <c r="D385" s="0">
         <v>36</v>
@@ -6107,10 +6107,10 @@
         <v>2626</v>
       </c>
       <c r="B386" s="0">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="C386" s="0">
-        <v>997</v>
+        <v>2402</v>
       </c>
       <c r="D386" s="0">
         <v>37</v>
@@ -6121,10 +6121,10 @@
         <v>2627</v>
       </c>
       <c r="B387" s="0">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="C387" s="0">
-        <v>998</v>
+        <v>2403</v>
       </c>
       <c r="D387" s="0">
         <v>38</v>
@@ -6135,10 +6135,10 @@
         <v>2628</v>
       </c>
       <c r="B388" s="0">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="C388" s="0">
-        <v>999</v>
+        <v>2404</v>
       </c>
       <c r="D388" s="0">
         <v>39</v>
@@ -6149,10 +6149,10 @@
         <v>2629</v>
       </c>
       <c r="B389" s="0">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="C389" s="0">
-        <v>1000</v>
+        <v>2405</v>
       </c>
       <c r="D389" s="0">
         <v>40</v>
@@ -6163,10 +6163,10 @@
         <v>2630</v>
       </c>
       <c r="B390" s="0">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="C390" s="0">
-        <v>1001</v>
+        <v>2406</v>
       </c>
       <c r="D390" s="0">
         <v>41</v>
@@ -6177,10 +6177,10 @@
         <v>2631</v>
       </c>
       <c r="B391" s="0">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="C391" s="0">
-        <v>1002</v>
+        <v>2407</v>
       </c>
       <c r="D391" s="0">
         <v>42</v>
@@ -6191,10 +6191,10 @@
         <v>2632</v>
       </c>
       <c r="B392" s="0">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="C392" s="0">
-        <v>1003</v>
+        <v>2408</v>
       </c>
       <c r="D392" s="0">
         <v>43</v>
@@ -6205,10 +6205,10 @@
         <v>2633</v>
       </c>
       <c r="B393" s="0">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="C393" s="0">
-        <v>1004</v>
+        <v>2409</v>
       </c>
       <c r="D393" s="0">
         <v>44</v>
@@ -6219,10 +6219,10 @@
         <v>2634</v>
       </c>
       <c r="B394" s="0">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="C394" s="0">
-        <v>1005</v>
+        <v>2410</v>
       </c>
       <c r="D394" s="0">
         <v>45</v>
@@ -6233,10 +6233,10 @@
         <v>2635</v>
       </c>
       <c r="B395" s="0">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="C395" s="0">
-        <v>1732</v>
+        <v>2411</v>
       </c>
       <c r="D395" s="0">
         <v>46</v>
@@ -6247,10 +6247,10 @@
         <v>2636</v>
       </c>
       <c r="B396" s="0">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="C396" s="0">
-        <v>1733</v>
+        <v>2412</v>
       </c>
       <c r="D396" s="0">
         <v>47</v>
@@ -19214,7 +19214,7 @@
         <v>56</v>
       </c>
       <c r="C1322" s="0">
-        <v>962</v>
+        <v>1058</v>
       </c>
       <c r="D1322" s="0">
         <v>1</v>
@@ -19228,7 +19228,7 @@
         <v>56</v>
       </c>
       <c r="C1323" s="0">
-        <v>964</v>
+        <v>2369</v>
       </c>
       <c r="D1323" s="0">
         <v>2</v>
@@ -19242,7 +19242,7 @@
         <v>56</v>
       </c>
       <c r="C1324" s="0">
-        <v>965</v>
+        <v>2370</v>
       </c>
       <c r="D1324" s="0">
         <v>3</v>
@@ -19256,7 +19256,7 @@
         <v>56</v>
       </c>
       <c r="C1325" s="0">
-        <v>966</v>
+        <v>2371</v>
       </c>
       <c r="D1325" s="0">
         <v>4</v>
@@ -19270,7 +19270,7 @@
         <v>56</v>
       </c>
       <c r="C1326" s="0">
-        <v>973</v>
+        <v>2378</v>
       </c>
       <c r="D1326" s="0">
         <v>5</v>
@@ -19284,7 +19284,7 @@
         <v>56</v>
       </c>
       <c r="C1327" s="0">
-        <v>993</v>
+        <v>2398</v>
       </c>
       <c r="D1327" s="0">
         <v>6</v>
@@ -19298,7 +19298,7 @@
         <v>56</v>
       </c>
       <c r="C1328" s="0">
-        <v>992</v>
+        <v>2397</v>
       </c>
       <c r="D1328" s="0">
         <v>7</v>
@@ -19312,7 +19312,7 @@
         <v>56</v>
       </c>
       <c r="C1329" s="0">
-        <v>971</v>
+        <v>2376</v>
       </c>
       <c r="D1329" s="0">
         <v>8</v>
@@ -19326,7 +19326,7 @@
         <v>56</v>
       </c>
       <c r="C1330" s="0">
-        <v>977</v>
+        <v>2382</v>
       </c>
       <c r="D1330" s="0">
         <v>9</v>
@@ -19340,7 +19340,7 @@
         <v>56</v>
       </c>
       <c r="C1331" s="0">
-        <v>975</v>
+        <v>2380</v>
       </c>
       <c r="D1331" s="0">
         <v>10</v>
@@ -19354,7 +19354,7 @@
         <v>56</v>
       </c>
       <c r="C1332" s="0">
-        <v>996</v>
+        <v>2401</v>
       </c>
       <c r="D1332" s="0">
         <v>11</v>
@@ -19368,7 +19368,7 @@
         <v>56</v>
       </c>
       <c r="C1333" s="0">
-        <v>1002</v>
+        <v>2407</v>
       </c>
       <c r="D1333" s="0">
         <v>12</v>
@@ -19382,7 +19382,7 @@
         <v>56</v>
       </c>
       <c r="C1334" s="0">
-        <v>979</v>
+        <v>2384</v>
       </c>
       <c r="D1334" s="0">
         <v>13</v>
@@ -19396,7 +19396,7 @@
         <v>56</v>
       </c>
       <c r="C1335" s="0">
-        <v>986</v>
+        <v>2391</v>
       </c>
       <c r="D1335" s="0">
         <v>14</v>
@@ -19410,7 +19410,7 @@
         <v>56</v>
       </c>
       <c r="C1336" s="0">
-        <v>985</v>
+        <v>2390</v>
       </c>
       <c r="D1336" s="0">
         <v>15</v>
@@ -19424,7 +19424,7 @@
         <v>56</v>
       </c>
       <c r="C1337" s="0">
-        <v>989</v>
+        <v>2394</v>
       </c>
       <c r="D1337" s="0">
         <v>16</v>
@@ -19438,7 +19438,7 @@
         <v>56</v>
       </c>
       <c r="C1338" s="0">
-        <v>991</v>
+        <v>2396</v>
       </c>
       <c r="D1338" s="0">
         <v>17</v>
@@ -19452,7 +19452,7 @@
         <v>56</v>
       </c>
       <c r="C1339" s="0">
-        <v>997</v>
+        <v>2402</v>
       </c>
       <c r="D1339" s="0">
         <v>18</v>
@@ -19466,7 +19466,7 @@
         <v>56</v>
       </c>
       <c r="C1340" s="0">
-        <v>1000</v>
+        <v>2405</v>
       </c>
       <c r="D1340" s="0">
         <v>19</v>
@@ -19480,7 +19480,7 @@
         <v>56</v>
       </c>
       <c r="C1341" s="0">
-        <v>1001</v>
+        <v>2406</v>
       </c>
       <c r="D1341" s="0">
         <v>20</v>
@@ -19494,7 +19494,7 @@
         <v>56</v>
       </c>
       <c r="C1342" s="0">
-        <v>981</v>
+        <v>2386</v>
       </c>
       <c r="D1342" s="0">
         <v>21</v>
@@ -19508,7 +19508,7 @@
         <v>56</v>
       </c>
       <c r="C1343" s="0">
-        <v>1003</v>
+        <v>2408</v>
       </c>
       <c r="D1343" s="0">
         <v>22</v>
@@ -19522,7 +19522,7 @@
         <v>56</v>
       </c>
       <c r="C1344" s="0">
-        <v>1004</v>
+        <v>2409</v>
       </c>
       <c r="D1344" s="0">
         <v>23</v>
@@ -19536,7 +19536,7 @@
         <v>56</v>
       </c>
       <c r="C1345" s="0">
-        <v>1733</v>
+        <v>2412</v>
       </c>
       <c r="D1345" s="0">
         <v>24</v>
@@ -19550,7 +19550,7 @@
         <v>56</v>
       </c>
       <c r="C1346" s="0">
-        <v>987</v>
+        <v>2392</v>
       </c>
       <c r="D1346" s="0">
         <v>25</v>
@@ -26887,7 +26887,7 @@
         <v>1</v>
       </c>
       <c r="C1863" s="0">
-        <v>15</v>
+        <v>1972</v>
       </c>
       <c r="D1863" s="0">
         <v>29</v>
@@ -47079,6 +47079,8126 @@
       </c>
       <c r="E3275" s="0">
         <v>35</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3276">
+      <c r="A3276" s="0">
+        <v>4240</v>
+      </c>
+      <c r="B3276" s="0">
+        <v>130</v>
+      </c>
+      <c r="C3276" s="0">
+        <v>1325</v>
+      </c>
+      <c r="D3276" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3277">
+      <c r="A3277" s="0">
+        <v>4241</v>
+      </c>
+      <c r="B3277" s="0">
+        <v>130</v>
+      </c>
+      <c r="C3277" s="0">
+        <v>1326</v>
+      </c>
+      <c r="D3277" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3278">
+      <c r="A3278" s="0">
+        <v>4242</v>
+      </c>
+      <c r="B3278" s="0">
+        <v>130</v>
+      </c>
+      <c r="C3278" s="0">
+        <v>1327</v>
+      </c>
+      <c r="D3278" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3279">
+      <c r="A3279" s="0">
+        <v>4243</v>
+      </c>
+      <c r="B3279" s="0">
+        <v>130</v>
+      </c>
+      <c r="C3279" s="0">
+        <v>1328</v>
+      </c>
+      <c r="D3279" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3280">
+      <c r="A3280" s="0">
+        <v>4244</v>
+      </c>
+      <c r="B3280" s="0">
+        <v>130</v>
+      </c>
+      <c r="C3280" s="0">
+        <v>1329</v>
+      </c>
+      <c r="D3280" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3281">
+      <c r="A3281" s="0">
+        <v>4245</v>
+      </c>
+      <c r="B3281" s="0">
+        <v>130</v>
+      </c>
+      <c r="C3281" s="0">
+        <v>1330</v>
+      </c>
+      <c r="D3281" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3282">
+      <c r="A3282" s="0">
+        <v>4246</v>
+      </c>
+      <c r="B3282" s="0">
+        <v>130</v>
+      </c>
+      <c r="C3282" s="0">
+        <v>1331</v>
+      </c>
+      <c r="D3282" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3283">
+      <c r="A3283" s="0">
+        <v>4247</v>
+      </c>
+      <c r="B3283" s="0">
+        <v>130</v>
+      </c>
+      <c r="C3283" s="0">
+        <v>1332</v>
+      </c>
+      <c r="D3283" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3284">
+      <c r="A3284" s="0">
+        <v>4248</v>
+      </c>
+      <c r="B3284" s="0">
+        <v>130</v>
+      </c>
+      <c r="C3284" s="0">
+        <v>1333</v>
+      </c>
+      <c r="D3284" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3285">
+      <c r="A3285" s="0">
+        <v>4249</v>
+      </c>
+      <c r="B3285" s="0">
+        <v>130</v>
+      </c>
+      <c r="C3285" s="0">
+        <v>1334</v>
+      </c>
+      <c r="D3285" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3286">
+      <c r="A3286" s="0">
+        <v>4250</v>
+      </c>
+      <c r="B3286" s="0">
+        <v>130</v>
+      </c>
+      <c r="C3286" s="0">
+        <v>1335</v>
+      </c>
+      <c r="D3286" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3287">
+      <c r="A3287" s="0">
+        <v>4251</v>
+      </c>
+      <c r="B3287" s="0">
+        <v>130</v>
+      </c>
+      <c r="C3287" s="0">
+        <v>1336</v>
+      </c>
+      <c r="D3287" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3288">
+      <c r="A3288" s="0">
+        <v>4252</v>
+      </c>
+      <c r="B3288" s="0">
+        <v>130</v>
+      </c>
+      <c r="C3288" s="0">
+        <v>1337</v>
+      </c>
+      <c r="D3288" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3289">
+      <c r="A3289" s="0">
+        <v>4253</v>
+      </c>
+      <c r="B3289" s="0">
+        <v>130</v>
+      </c>
+      <c r="C3289" s="0">
+        <v>1338</v>
+      </c>
+      <c r="D3289" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3290">
+      <c r="A3290" s="0">
+        <v>4254</v>
+      </c>
+      <c r="B3290" s="0">
+        <v>130</v>
+      </c>
+      <c r="C3290" s="0">
+        <v>1339</v>
+      </c>
+      <c r="D3290" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3291">
+      <c r="A3291" s="0">
+        <v>4255</v>
+      </c>
+      <c r="B3291" s="0">
+        <v>130</v>
+      </c>
+      <c r="C3291" s="0">
+        <v>1340</v>
+      </c>
+      <c r="D3291" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3292">
+      <c r="A3292" s="0">
+        <v>4256</v>
+      </c>
+      <c r="B3292" s="0">
+        <v>130</v>
+      </c>
+      <c r="C3292" s="0">
+        <v>1341</v>
+      </c>
+      <c r="D3292" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3293">
+      <c r="A3293" s="0">
+        <v>4257</v>
+      </c>
+      <c r="B3293" s="0">
+        <v>130</v>
+      </c>
+      <c r="C3293" s="0">
+        <v>1342</v>
+      </c>
+      <c r="D3293" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3294">
+      <c r="A3294" s="0">
+        <v>4258</v>
+      </c>
+      <c r="B3294" s="0">
+        <v>130</v>
+      </c>
+      <c r="C3294" s="0">
+        <v>1343</v>
+      </c>
+      <c r="D3294" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3295">
+      <c r="A3295" s="0">
+        <v>4259</v>
+      </c>
+      <c r="B3295" s="0">
+        <v>130</v>
+      </c>
+      <c r="C3295" s="0">
+        <v>1344</v>
+      </c>
+      <c r="D3295" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3296">
+      <c r="A3296" s="0">
+        <v>4260</v>
+      </c>
+      <c r="B3296" s="0">
+        <v>130</v>
+      </c>
+      <c r="C3296" s="0">
+        <v>1345</v>
+      </c>
+      <c r="D3296" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3297">
+      <c r="A3297" s="0">
+        <v>4261</v>
+      </c>
+      <c r="B3297" s="0">
+        <v>130</v>
+      </c>
+      <c r="C3297" s="0">
+        <v>2289</v>
+      </c>
+      <c r="D3297" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3298">
+      <c r="A3298" s="0">
+        <v>4262</v>
+      </c>
+      <c r="B3298" s="0">
+        <v>130</v>
+      </c>
+      <c r="C3298" s="0">
+        <v>1347</v>
+      </c>
+      <c r="D3298" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3299">
+      <c r="A3299" s="0">
+        <v>4263</v>
+      </c>
+      <c r="B3299" s="0">
+        <v>130</v>
+      </c>
+      <c r="C3299" s="0">
+        <v>1348</v>
+      </c>
+      <c r="D3299" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3300">
+      <c r="A3300" s="0">
+        <v>4264</v>
+      </c>
+      <c r="B3300" s="0">
+        <v>130</v>
+      </c>
+      <c r="C3300" s="0">
+        <v>1349</v>
+      </c>
+      <c r="D3300" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3301">
+      <c r="A3301" s="0">
+        <v>4265</v>
+      </c>
+      <c r="B3301" s="0">
+        <v>130</v>
+      </c>
+      <c r="C3301" s="0">
+        <v>1350</v>
+      </c>
+      <c r="D3301" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3302">
+      <c r="A3302" s="0">
+        <v>4266</v>
+      </c>
+      <c r="B3302" s="0">
+        <v>130</v>
+      </c>
+      <c r="C3302" s="0">
+        <v>1351</v>
+      </c>
+      <c r="D3302" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3303">
+      <c r="A3303" s="0">
+        <v>4267</v>
+      </c>
+      <c r="B3303" s="0">
+        <v>130</v>
+      </c>
+      <c r="C3303" s="0">
+        <v>1352</v>
+      </c>
+      <c r="D3303" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3304">
+      <c r="A3304" s="0">
+        <v>4268</v>
+      </c>
+      <c r="B3304" s="0">
+        <v>130</v>
+      </c>
+      <c r="C3304" s="0">
+        <v>1353</v>
+      </c>
+      <c r="D3304" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3305">
+      <c r="A3305" s="0">
+        <v>4269</v>
+      </c>
+      <c r="B3305" s="0">
+        <v>130</v>
+      </c>
+      <c r="C3305" s="0">
+        <v>1354</v>
+      </c>
+      <c r="D3305" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3306">
+      <c r="A3306" s="0">
+        <v>4270</v>
+      </c>
+      <c r="B3306" s="0">
+        <v>130</v>
+      </c>
+      <c r="C3306" s="0">
+        <v>1355</v>
+      </c>
+      <c r="D3306" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3307">
+      <c r="A3307" s="0">
+        <v>4271</v>
+      </c>
+      <c r="B3307" s="0">
+        <v>130</v>
+      </c>
+      <c r="C3307" s="0">
+        <v>1356</v>
+      </c>
+      <c r="D3307" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3308">
+      <c r="A3308" s="0">
+        <v>4272</v>
+      </c>
+      <c r="B3308" s="0">
+        <v>130</v>
+      </c>
+      <c r="C3308" s="0">
+        <v>1357</v>
+      </c>
+      <c r="D3308" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3309">
+      <c r="A3309" s="0">
+        <v>4273</v>
+      </c>
+      <c r="B3309" s="0">
+        <v>130</v>
+      </c>
+      <c r="C3309" s="0">
+        <v>1358</v>
+      </c>
+      <c r="D3309" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3310">
+      <c r="A3310" s="0">
+        <v>4274</v>
+      </c>
+      <c r="B3310" s="0">
+        <v>130</v>
+      </c>
+      <c r="C3310" s="0">
+        <v>1359</v>
+      </c>
+      <c r="D3310" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3311">
+      <c r="A3311" s="0">
+        <v>4275</v>
+      </c>
+      <c r="B3311" s="0">
+        <v>130</v>
+      </c>
+      <c r="C3311" s="0">
+        <v>1360</v>
+      </c>
+      <c r="D3311" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3312">
+      <c r="A3312" s="0">
+        <v>4276</v>
+      </c>
+      <c r="B3312" s="0">
+        <v>130</v>
+      </c>
+      <c r="C3312" s="0">
+        <v>1361</v>
+      </c>
+      <c r="D3312" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3313">
+      <c r="A3313" s="0">
+        <v>4277</v>
+      </c>
+      <c r="B3313" s="0">
+        <v>130</v>
+      </c>
+      <c r="C3313" s="0">
+        <v>1362</v>
+      </c>
+      <c r="D3313" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3314">
+      <c r="A3314" s="0">
+        <v>4278</v>
+      </c>
+      <c r="B3314" s="0">
+        <v>130</v>
+      </c>
+      <c r="C3314" s="0">
+        <v>1363</v>
+      </c>
+      <c r="D3314" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3315">
+      <c r="A3315" s="0">
+        <v>4279</v>
+      </c>
+      <c r="B3315" s="0">
+        <v>130</v>
+      </c>
+      <c r="C3315" s="0">
+        <v>1364</v>
+      </c>
+      <c r="D3315" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3316">
+      <c r="A3316" s="0">
+        <v>4280</v>
+      </c>
+      <c r="B3316" s="0">
+        <v>130</v>
+      </c>
+      <c r="C3316" s="0">
+        <v>1365</v>
+      </c>
+      <c r="D3316" s="0">
+        <v>41</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3317">
+      <c r="A3317" s="0">
+        <v>4281</v>
+      </c>
+      <c r="B3317" s="0">
+        <v>130</v>
+      </c>
+      <c r="C3317" s="0">
+        <v>1366</v>
+      </c>
+      <c r="D3317" s="0">
+        <v>42</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3318">
+      <c r="A3318" s="0">
+        <v>4282</v>
+      </c>
+      <c r="B3318" s="0">
+        <v>130</v>
+      </c>
+      <c r="C3318" s="0">
+        <v>1367</v>
+      </c>
+      <c r="D3318" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3319">
+      <c r="A3319" s="0">
+        <v>4283</v>
+      </c>
+      <c r="B3319" s="0">
+        <v>130</v>
+      </c>
+      <c r="C3319" s="0">
+        <v>1368</v>
+      </c>
+      <c r="D3319" s="0">
+        <v>44</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3320">
+      <c r="A3320" s="0">
+        <v>4284</v>
+      </c>
+      <c r="B3320" s="0">
+        <v>130</v>
+      </c>
+      <c r="C3320" s="0">
+        <v>1369</v>
+      </c>
+      <c r="D3320" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3321">
+      <c r="A3321" s="0">
+        <v>4285</v>
+      </c>
+      <c r="B3321" s="0">
+        <v>130</v>
+      </c>
+      <c r="C3321" s="0">
+        <v>1370</v>
+      </c>
+      <c r="D3321" s="0">
+        <v>46</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3322">
+      <c r="A3322" s="0">
+        <v>4286</v>
+      </c>
+      <c r="B3322" s="0">
+        <v>130</v>
+      </c>
+      <c r="C3322" s="0">
+        <v>1371</v>
+      </c>
+      <c r="D3322" s="0">
+        <v>47</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3323">
+      <c r="A3323" s="0">
+        <v>4333</v>
+      </c>
+      <c r="B3323" s="0">
+        <v>54</v>
+      </c>
+      <c r="C3323" s="0">
+        <v>2291</v>
+      </c>
+      <c r="D3323" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3324">
+      <c r="A3324" s="0">
+        <v>4335</v>
+      </c>
+      <c r="B3324" s="0">
+        <v>54</v>
+      </c>
+      <c r="C3324" s="0">
+        <v>2292</v>
+      </c>
+      <c r="D3324" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3325">
+      <c r="A3325" s="0">
+        <v>4336</v>
+      </c>
+      <c r="B3325" s="0">
+        <v>54</v>
+      </c>
+      <c r="C3325" s="0">
+        <v>2293</v>
+      </c>
+      <c r="D3325" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3326">
+      <c r="A3326" s="0">
+        <v>4337</v>
+      </c>
+      <c r="B3326" s="0">
+        <v>54</v>
+      </c>
+      <c r="C3326" s="0">
+        <v>2322</v>
+      </c>
+      <c r="D3326" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3327">
+      <c r="A3327" s="0">
+        <v>4338</v>
+      </c>
+      <c r="B3327" s="0">
+        <v>54</v>
+      </c>
+      <c r="C3327" s="0">
+        <v>2323</v>
+      </c>
+      <c r="D3327" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3328">
+      <c r="A3328" s="0">
+        <v>4339</v>
+      </c>
+      <c r="B3328" s="0">
+        <v>54</v>
+      </c>
+      <c r="C3328" s="0">
+        <v>2324</v>
+      </c>
+      <c r="D3328" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3329">
+      <c r="A3329" s="0">
+        <v>4340</v>
+      </c>
+      <c r="B3329" s="0">
+        <v>54</v>
+      </c>
+      <c r="C3329" s="0">
+        <v>2325</v>
+      </c>
+      <c r="D3329" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3330">
+      <c r="A3330" s="0">
+        <v>4341</v>
+      </c>
+      <c r="B3330" s="0">
+        <v>54</v>
+      </c>
+      <c r="C3330" s="0">
+        <v>2326</v>
+      </c>
+      <c r="D3330" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3331">
+      <c r="A3331" s="0">
+        <v>4342</v>
+      </c>
+      <c r="B3331" s="0">
+        <v>54</v>
+      </c>
+      <c r="C3331" s="0">
+        <v>2327</v>
+      </c>
+      <c r="D3331" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3332">
+      <c r="A3332" s="0">
+        <v>4343</v>
+      </c>
+      <c r="B3332" s="0">
+        <v>54</v>
+      </c>
+      <c r="C3332" s="0">
+        <v>2328</v>
+      </c>
+      <c r="D3332" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3333">
+      <c r="A3333" s="0">
+        <v>4344</v>
+      </c>
+      <c r="B3333" s="0">
+        <v>54</v>
+      </c>
+      <c r="C3333" s="0">
+        <v>2329</v>
+      </c>
+      <c r="D3333" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3334">
+      <c r="A3334" s="0">
+        <v>4345</v>
+      </c>
+      <c r="B3334" s="0">
+        <v>54</v>
+      </c>
+      <c r="C3334" s="0">
+        <v>2330</v>
+      </c>
+      <c r="D3334" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3335">
+      <c r="A3335" s="0">
+        <v>4346</v>
+      </c>
+      <c r="B3335" s="0">
+        <v>54</v>
+      </c>
+      <c r="C3335" s="0">
+        <v>2331</v>
+      </c>
+      <c r="D3335" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3336">
+      <c r="A3336" s="0">
+        <v>4347</v>
+      </c>
+      <c r="B3336" s="0">
+        <v>54</v>
+      </c>
+      <c r="C3336" s="0">
+        <v>2332</v>
+      </c>
+      <c r="D3336" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3337">
+      <c r="A3337" s="0">
+        <v>4348</v>
+      </c>
+      <c r="B3337" s="0">
+        <v>54</v>
+      </c>
+      <c r="C3337" s="0">
+        <v>2333</v>
+      </c>
+      <c r="D3337" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3338">
+      <c r="A3338" s="0">
+        <v>4349</v>
+      </c>
+      <c r="B3338" s="0">
+        <v>54</v>
+      </c>
+      <c r="C3338" s="0">
+        <v>2334</v>
+      </c>
+      <c r="D3338" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3339">
+      <c r="A3339" s="0">
+        <v>4350</v>
+      </c>
+      <c r="B3339" s="0">
+        <v>54</v>
+      </c>
+      <c r="C3339" s="0">
+        <v>2335</v>
+      </c>
+      <c r="D3339" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3340">
+      <c r="A3340" s="0">
+        <v>4351</v>
+      </c>
+      <c r="B3340" s="0">
+        <v>54</v>
+      </c>
+      <c r="C3340" s="0">
+        <v>2336</v>
+      </c>
+      <c r="D3340" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3341">
+      <c r="A3341" s="0">
+        <v>4352</v>
+      </c>
+      <c r="B3341" s="0">
+        <v>54</v>
+      </c>
+      <c r="C3341" s="0">
+        <v>2337</v>
+      </c>
+      <c r="D3341" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3342">
+      <c r="A3342" s="0">
+        <v>4353</v>
+      </c>
+      <c r="B3342" s="0">
+        <v>54</v>
+      </c>
+      <c r="C3342" s="0">
+        <v>2338</v>
+      </c>
+      <c r="D3342" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3343">
+      <c r="A3343" s="0">
+        <v>4354</v>
+      </c>
+      <c r="B3343" s="0">
+        <v>54</v>
+      </c>
+      <c r="C3343" s="0">
+        <v>2339</v>
+      </c>
+      <c r="D3343" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3344">
+      <c r="A3344" s="0">
+        <v>4355</v>
+      </c>
+      <c r="B3344" s="0">
+        <v>54</v>
+      </c>
+      <c r="C3344" s="0">
+        <v>2340</v>
+      </c>
+      <c r="D3344" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3345">
+      <c r="A3345" s="0">
+        <v>4356</v>
+      </c>
+      <c r="B3345" s="0">
+        <v>54</v>
+      </c>
+      <c r="C3345" s="0">
+        <v>2341</v>
+      </c>
+      <c r="D3345" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3346">
+      <c r="A3346" s="0">
+        <v>4357</v>
+      </c>
+      <c r="B3346" s="0">
+        <v>54</v>
+      </c>
+      <c r="C3346" s="0">
+        <v>2342</v>
+      </c>
+      <c r="D3346" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3347">
+      <c r="A3347" s="0">
+        <v>4358</v>
+      </c>
+      <c r="B3347" s="0">
+        <v>54</v>
+      </c>
+      <c r="C3347" s="0">
+        <v>2343</v>
+      </c>
+      <c r="D3347" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3348">
+      <c r="A3348" s="0">
+        <v>4359</v>
+      </c>
+      <c r="B3348" s="0">
+        <v>54</v>
+      </c>
+      <c r="C3348" s="0">
+        <v>2344</v>
+      </c>
+      <c r="D3348" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3349">
+      <c r="A3349" s="0">
+        <v>4360</v>
+      </c>
+      <c r="B3349" s="0">
+        <v>54</v>
+      </c>
+      <c r="C3349" s="0">
+        <v>2345</v>
+      </c>
+      <c r="D3349" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3350">
+      <c r="A3350" s="0">
+        <v>4361</v>
+      </c>
+      <c r="B3350" s="0">
+        <v>54</v>
+      </c>
+      <c r="C3350" s="0">
+        <v>2346</v>
+      </c>
+      <c r="D3350" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3351">
+      <c r="A3351" s="0">
+        <v>4362</v>
+      </c>
+      <c r="B3351" s="0">
+        <v>54</v>
+      </c>
+      <c r="C3351" s="0">
+        <v>2347</v>
+      </c>
+      <c r="D3351" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3352">
+      <c r="A3352" s="0">
+        <v>4363</v>
+      </c>
+      <c r="B3352" s="0">
+        <v>54</v>
+      </c>
+      <c r="C3352" s="0">
+        <v>2348</v>
+      </c>
+      <c r="D3352" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3353">
+      <c r="A3353" s="0">
+        <v>4364</v>
+      </c>
+      <c r="B3353" s="0">
+        <v>54</v>
+      </c>
+      <c r="C3353" s="0">
+        <v>2349</v>
+      </c>
+      <c r="D3353" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3354">
+      <c r="A3354" s="0">
+        <v>4365</v>
+      </c>
+      <c r="B3354" s="0">
+        <v>54</v>
+      </c>
+      <c r="C3354" s="0">
+        <v>2350</v>
+      </c>
+      <c r="D3354" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3355">
+      <c r="A3355" s="0">
+        <v>4366</v>
+      </c>
+      <c r="B3355" s="0">
+        <v>54</v>
+      </c>
+      <c r="C3355" s="0">
+        <v>2351</v>
+      </c>
+      <c r="D3355" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3356">
+      <c r="A3356" s="0">
+        <v>4367</v>
+      </c>
+      <c r="B3356" s="0">
+        <v>54</v>
+      </c>
+      <c r="C3356" s="0">
+        <v>2352</v>
+      </c>
+      <c r="D3356" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3357">
+      <c r="A3357" s="0">
+        <v>4368</v>
+      </c>
+      <c r="B3357" s="0">
+        <v>54</v>
+      </c>
+      <c r="C3357" s="0">
+        <v>2353</v>
+      </c>
+      <c r="D3357" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3358">
+      <c r="A3358" s="0">
+        <v>4369</v>
+      </c>
+      <c r="B3358" s="0">
+        <v>54</v>
+      </c>
+      <c r="C3358" s="0">
+        <v>2354</v>
+      </c>
+      <c r="D3358" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3359">
+      <c r="A3359" s="0">
+        <v>4370</v>
+      </c>
+      <c r="B3359" s="0">
+        <v>54</v>
+      </c>
+      <c r="C3359" s="0">
+        <v>2355</v>
+      </c>
+      <c r="D3359" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3360">
+      <c r="A3360" s="0">
+        <v>4371</v>
+      </c>
+      <c r="B3360" s="0">
+        <v>54</v>
+      </c>
+      <c r="C3360" s="0">
+        <v>2356</v>
+      </c>
+      <c r="D3360" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3361">
+      <c r="A3361" s="0">
+        <v>4372</v>
+      </c>
+      <c r="B3361" s="0">
+        <v>54</v>
+      </c>
+      <c r="C3361" s="0">
+        <v>2357</v>
+      </c>
+      <c r="D3361" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3362">
+      <c r="A3362" s="0">
+        <v>4373</v>
+      </c>
+      <c r="B3362" s="0">
+        <v>54</v>
+      </c>
+      <c r="C3362" s="0">
+        <v>2358</v>
+      </c>
+      <c r="D3362" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3363">
+      <c r="A3363" s="0">
+        <v>4374</v>
+      </c>
+      <c r="B3363" s="0">
+        <v>54</v>
+      </c>
+      <c r="C3363" s="0">
+        <v>2359</v>
+      </c>
+      <c r="D3363" s="0">
+        <v>41</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3364">
+      <c r="A3364" s="0">
+        <v>4375</v>
+      </c>
+      <c r="B3364" s="0">
+        <v>54</v>
+      </c>
+      <c r="C3364" s="0">
+        <v>2360</v>
+      </c>
+      <c r="D3364" s="0">
+        <v>42</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3365">
+      <c r="A3365" s="0">
+        <v>4376</v>
+      </c>
+      <c r="B3365" s="0">
+        <v>54</v>
+      </c>
+      <c r="C3365" s="0">
+        <v>2361</v>
+      </c>
+      <c r="D3365" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3366">
+      <c r="A3366" s="0">
+        <v>4377</v>
+      </c>
+      <c r="B3366" s="0">
+        <v>54</v>
+      </c>
+      <c r="C3366" s="0">
+        <v>2362</v>
+      </c>
+      <c r="D3366" s="0">
+        <v>44</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3367">
+      <c r="A3367" s="0">
+        <v>4378</v>
+      </c>
+      <c r="B3367" s="0">
+        <v>54</v>
+      </c>
+      <c r="C3367" s="0">
+        <v>2363</v>
+      </c>
+      <c r="D3367" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3368">
+      <c r="A3368" s="0">
+        <v>4379</v>
+      </c>
+      <c r="B3368" s="0">
+        <v>54</v>
+      </c>
+      <c r="C3368" s="0">
+        <v>2364</v>
+      </c>
+      <c r="D3368" s="0">
+        <v>46</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3369">
+      <c r="A3369" s="0">
+        <v>4380</v>
+      </c>
+      <c r="B3369" s="0">
+        <v>54</v>
+      </c>
+      <c r="C3369" s="0">
+        <v>2365</v>
+      </c>
+      <c r="D3369" s="0">
+        <v>47</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3370">
+      <c r="A3370" s="0">
+        <v>4382</v>
+      </c>
+      <c r="B3370" s="0">
+        <v>111</v>
+      </c>
+      <c r="C3370" s="0">
+        <v>1057</v>
+      </c>
+      <c r="D3370" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3371">
+      <c r="A3371" s="0">
+        <v>4383</v>
+      </c>
+      <c r="B3371" s="0">
+        <v>111</v>
+      </c>
+      <c r="C3371" s="0">
+        <v>1058</v>
+      </c>
+      <c r="D3371" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3372">
+      <c r="A3372" s="0">
+        <v>4384</v>
+      </c>
+      <c r="B3372" s="0">
+        <v>111</v>
+      </c>
+      <c r="C3372" s="0">
+        <v>1059</v>
+      </c>
+      <c r="D3372" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3373">
+      <c r="A3373" s="0">
+        <v>4385</v>
+      </c>
+      <c r="B3373" s="0">
+        <v>111</v>
+      </c>
+      <c r="C3373" s="0">
+        <v>1060</v>
+      </c>
+      <c r="D3373" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3374">
+      <c r="A3374" s="0">
+        <v>4386</v>
+      </c>
+      <c r="B3374" s="0">
+        <v>111</v>
+      </c>
+      <c r="C3374" s="0">
+        <v>1061</v>
+      </c>
+      <c r="D3374" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3375">
+      <c r="A3375" s="0">
+        <v>4387</v>
+      </c>
+      <c r="B3375" s="0">
+        <v>111</v>
+      </c>
+      <c r="C3375" s="0">
+        <v>1062</v>
+      </c>
+      <c r="D3375" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3376">
+      <c r="A3376" s="0">
+        <v>4388</v>
+      </c>
+      <c r="B3376" s="0">
+        <v>111</v>
+      </c>
+      <c r="C3376" s="0">
+        <v>1063</v>
+      </c>
+      <c r="D3376" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3377">
+      <c r="A3377" s="0">
+        <v>4389</v>
+      </c>
+      <c r="B3377" s="0">
+        <v>111</v>
+      </c>
+      <c r="C3377" s="0">
+        <v>1064</v>
+      </c>
+      <c r="D3377" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3378">
+      <c r="A3378" s="0">
+        <v>4390</v>
+      </c>
+      <c r="B3378" s="0">
+        <v>111</v>
+      </c>
+      <c r="C3378" s="0">
+        <v>1065</v>
+      </c>
+      <c r="D3378" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3379">
+      <c r="A3379" s="0">
+        <v>4391</v>
+      </c>
+      <c r="B3379" s="0">
+        <v>111</v>
+      </c>
+      <c r="C3379" s="0">
+        <v>1066</v>
+      </c>
+      <c r="D3379" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3380">
+      <c r="A3380" s="0">
+        <v>4392</v>
+      </c>
+      <c r="B3380" s="0">
+        <v>111</v>
+      </c>
+      <c r="C3380" s="0">
+        <v>1067</v>
+      </c>
+      <c r="D3380" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3381">
+      <c r="A3381" s="0">
+        <v>4393</v>
+      </c>
+      <c r="B3381" s="0">
+        <v>111</v>
+      </c>
+      <c r="C3381" s="0">
+        <v>1068</v>
+      </c>
+      <c r="D3381" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3382">
+      <c r="A3382" s="0">
+        <v>4394</v>
+      </c>
+      <c r="B3382" s="0">
+        <v>111</v>
+      </c>
+      <c r="C3382" s="0">
+        <v>1069</v>
+      </c>
+      <c r="D3382" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3383">
+      <c r="A3383" s="0">
+        <v>4395</v>
+      </c>
+      <c r="B3383" s="0">
+        <v>111</v>
+      </c>
+      <c r="C3383" s="0">
+        <v>1070</v>
+      </c>
+      <c r="D3383" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3384">
+      <c r="A3384" s="0">
+        <v>4396</v>
+      </c>
+      <c r="B3384" s="0">
+        <v>111</v>
+      </c>
+      <c r="C3384" s="0">
+        <v>1071</v>
+      </c>
+      <c r="D3384" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3385">
+      <c r="A3385" s="0">
+        <v>4397</v>
+      </c>
+      <c r="B3385" s="0">
+        <v>111</v>
+      </c>
+      <c r="C3385" s="0">
+        <v>1072</v>
+      </c>
+      <c r="D3385" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3386">
+      <c r="A3386" s="0">
+        <v>4398</v>
+      </c>
+      <c r="B3386" s="0">
+        <v>111</v>
+      </c>
+      <c r="C3386" s="0">
+        <v>1073</v>
+      </c>
+      <c r="D3386" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3387">
+      <c r="A3387" s="0">
+        <v>4399</v>
+      </c>
+      <c r="B3387" s="0">
+        <v>111</v>
+      </c>
+      <c r="C3387" s="0">
+        <v>1074</v>
+      </c>
+      <c r="D3387" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3388">
+      <c r="A3388" s="0">
+        <v>4400</v>
+      </c>
+      <c r="B3388" s="0">
+        <v>111</v>
+      </c>
+      <c r="C3388" s="0">
+        <v>1075</v>
+      </c>
+      <c r="D3388" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3389">
+      <c r="A3389" s="0">
+        <v>4401</v>
+      </c>
+      <c r="B3389" s="0">
+        <v>111</v>
+      </c>
+      <c r="C3389" s="0">
+        <v>1076</v>
+      </c>
+      <c r="D3389" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3390">
+      <c r="A3390" s="0">
+        <v>4402</v>
+      </c>
+      <c r="B3390" s="0">
+        <v>111</v>
+      </c>
+      <c r="C3390" s="0">
+        <v>1077</v>
+      </c>
+      <c r="D3390" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3391">
+      <c r="A3391" s="0">
+        <v>4403</v>
+      </c>
+      <c r="B3391" s="0">
+        <v>111</v>
+      </c>
+      <c r="C3391" s="0">
+        <v>1078</v>
+      </c>
+      <c r="D3391" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3392">
+      <c r="A3392" s="0">
+        <v>4404</v>
+      </c>
+      <c r="B3392" s="0">
+        <v>111</v>
+      </c>
+      <c r="C3392" s="0">
+        <v>1079</v>
+      </c>
+      <c r="D3392" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3393">
+      <c r="A3393" s="0">
+        <v>4405</v>
+      </c>
+      <c r="B3393" s="0">
+        <v>111</v>
+      </c>
+      <c r="C3393" s="0">
+        <v>1080</v>
+      </c>
+      <c r="D3393" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3394">
+      <c r="A3394" s="0">
+        <v>4406</v>
+      </c>
+      <c r="B3394" s="0">
+        <v>111</v>
+      </c>
+      <c r="C3394" s="0">
+        <v>1081</v>
+      </c>
+      <c r="D3394" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3395">
+      <c r="A3395" s="0">
+        <v>4407</v>
+      </c>
+      <c r="B3395" s="0">
+        <v>111</v>
+      </c>
+      <c r="C3395" s="0">
+        <v>1082</v>
+      </c>
+      <c r="D3395" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3396">
+      <c r="A3396" s="0">
+        <v>4408</v>
+      </c>
+      <c r="B3396" s="0">
+        <v>111</v>
+      </c>
+      <c r="C3396" s="0">
+        <v>1083</v>
+      </c>
+      <c r="D3396" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3397">
+      <c r="A3397" s="0">
+        <v>4409</v>
+      </c>
+      <c r="B3397" s="0">
+        <v>111</v>
+      </c>
+      <c r="C3397" s="0">
+        <v>1084</v>
+      </c>
+      <c r="D3397" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3398">
+      <c r="A3398" s="0">
+        <v>4410</v>
+      </c>
+      <c r="B3398" s="0">
+        <v>111</v>
+      </c>
+      <c r="C3398" s="0">
+        <v>1085</v>
+      </c>
+      <c r="D3398" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3399">
+      <c r="A3399" s="0">
+        <v>4411</v>
+      </c>
+      <c r="B3399" s="0">
+        <v>111</v>
+      </c>
+      <c r="C3399" s="0">
+        <v>1086</v>
+      </c>
+      <c r="D3399" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3400">
+      <c r="A3400" s="0">
+        <v>4412</v>
+      </c>
+      <c r="B3400" s="0">
+        <v>111</v>
+      </c>
+      <c r="C3400" s="0">
+        <v>1087</v>
+      </c>
+      <c r="D3400" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3401">
+      <c r="A3401" s="0">
+        <v>4413</v>
+      </c>
+      <c r="B3401" s="0">
+        <v>111</v>
+      </c>
+      <c r="C3401" s="0">
+        <v>1088</v>
+      </c>
+      <c r="D3401" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3402">
+      <c r="A3402" s="0">
+        <v>4414</v>
+      </c>
+      <c r="B3402" s="0">
+        <v>111</v>
+      </c>
+      <c r="C3402" s="0">
+        <v>1089</v>
+      </c>
+      <c r="D3402" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3403">
+      <c r="A3403" s="0">
+        <v>4415</v>
+      </c>
+      <c r="B3403" s="0">
+        <v>111</v>
+      </c>
+      <c r="C3403" s="0">
+        <v>1090</v>
+      </c>
+      <c r="D3403" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3404">
+      <c r="A3404" s="0">
+        <v>4416</v>
+      </c>
+      <c r="B3404" s="0">
+        <v>111</v>
+      </c>
+      <c r="C3404" s="0">
+        <v>1091</v>
+      </c>
+      <c r="D3404" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3405">
+      <c r="A3405" s="0">
+        <v>4417</v>
+      </c>
+      <c r="B3405" s="0">
+        <v>111</v>
+      </c>
+      <c r="C3405" s="0">
+        <v>1092</v>
+      </c>
+      <c r="D3405" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3406">
+      <c r="A3406" s="0">
+        <v>4418</v>
+      </c>
+      <c r="B3406" s="0">
+        <v>111</v>
+      </c>
+      <c r="C3406" s="0">
+        <v>1093</v>
+      </c>
+      <c r="D3406" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3407">
+      <c r="A3407" s="0">
+        <v>4419</v>
+      </c>
+      <c r="B3407" s="0">
+        <v>111</v>
+      </c>
+      <c r="C3407" s="0">
+        <v>1094</v>
+      </c>
+      <c r="D3407" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3408">
+      <c r="A3408" s="0">
+        <v>4420</v>
+      </c>
+      <c r="B3408" s="0">
+        <v>111</v>
+      </c>
+      <c r="C3408" s="0">
+        <v>1095</v>
+      </c>
+      <c r="D3408" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3409">
+      <c r="A3409" s="0">
+        <v>4421</v>
+      </c>
+      <c r="B3409" s="0">
+        <v>111</v>
+      </c>
+      <c r="C3409" s="0">
+        <v>1096</v>
+      </c>
+      <c r="D3409" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3410">
+      <c r="A3410" s="0">
+        <v>4422</v>
+      </c>
+      <c r="B3410" s="0">
+        <v>111</v>
+      </c>
+      <c r="C3410" s="0">
+        <v>1097</v>
+      </c>
+      <c r="D3410" s="0">
+        <v>41</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3411">
+      <c r="A3411" s="0">
+        <v>4423</v>
+      </c>
+      <c r="B3411" s="0">
+        <v>111</v>
+      </c>
+      <c r="C3411" s="0">
+        <v>1098</v>
+      </c>
+      <c r="D3411" s="0">
+        <v>42</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3412">
+      <c r="A3412" s="0">
+        <v>4424</v>
+      </c>
+      <c r="B3412" s="0">
+        <v>111</v>
+      </c>
+      <c r="C3412" s="0">
+        <v>1099</v>
+      </c>
+      <c r="D3412" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3413">
+      <c r="A3413" s="0">
+        <v>4425</v>
+      </c>
+      <c r="B3413" s="0">
+        <v>111</v>
+      </c>
+      <c r="C3413" s="0">
+        <v>1100</v>
+      </c>
+      <c r="D3413" s="0">
+        <v>44</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3414">
+      <c r="A3414" s="0">
+        <v>4426</v>
+      </c>
+      <c r="B3414" s="0">
+        <v>111</v>
+      </c>
+      <c r="C3414" s="0">
+        <v>1101</v>
+      </c>
+      <c r="D3414" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3415">
+      <c r="A3415" s="0">
+        <v>4427</v>
+      </c>
+      <c r="B3415" s="0">
+        <v>111</v>
+      </c>
+      <c r="C3415" s="0">
+        <v>1102</v>
+      </c>
+      <c r="D3415" s="0">
+        <v>46</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3416">
+      <c r="A3416" s="0">
+        <v>4428</v>
+      </c>
+      <c r="B3416" s="0">
+        <v>111</v>
+      </c>
+      <c r="C3416" s="0">
+        <v>1103</v>
+      </c>
+      <c r="D3416" s="0">
+        <v>47</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3417">
+      <c r="A3417" s="0">
+        <v>4429</v>
+      </c>
+      <c r="B3417" s="0">
+        <v>131</v>
+      </c>
+      <c r="C3417" s="0">
+        <v>2315</v>
+      </c>
+      <c r="D3417" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3418">
+      <c r="A3418" s="0">
+        <v>4430</v>
+      </c>
+      <c r="B3418" s="0">
+        <v>131</v>
+      </c>
+      <c r="C3418" s="0">
+        <v>2318</v>
+      </c>
+      <c r="D3418" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3419">
+      <c r="A3419" s="0">
+        <v>4431</v>
+      </c>
+      <c r="B3419" s="0">
+        <v>131</v>
+      </c>
+      <c r="C3419" s="0">
+        <v>2319</v>
+      </c>
+      <c r="D3419" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3420">
+      <c r="A3420" s="0">
+        <v>4432</v>
+      </c>
+      <c r="B3420" s="0">
+        <v>131</v>
+      </c>
+      <c r="C3420" s="0">
+        <v>2320</v>
+      </c>
+      <c r="D3420" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3421">
+      <c r="A3421" s="0">
+        <v>4433</v>
+      </c>
+      <c r="B3421" s="0">
+        <v>131</v>
+      </c>
+      <c r="C3421" s="0">
+        <v>2321</v>
+      </c>
+      <c r="D3421" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3422">
+      <c r="A3422" s="0">
+        <v>4434</v>
+      </c>
+      <c r="B3422" s="0">
+        <v>131</v>
+      </c>
+      <c r="C3422" s="0">
+        <v>2316</v>
+      </c>
+      <c r="D3422" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3423">
+      <c r="A3423" s="0">
+        <v>4435</v>
+      </c>
+      <c r="B3423" s="0">
+        <v>131</v>
+      </c>
+      <c r="C3423" s="0">
+        <v>2317</v>
+      </c>
+      <c r="D3423" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3424">
+      <c r="A3424" s="0">
+        <v>4436</v>
+      </c>
+      <c r="B3424" s="0">
+        <v>133</v>
+      </c>
+      <c r="C3424" s="0">
+        <v>2461</v>
+      </c>
+      <c r="D3424" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3425">
+      <c r="A3425" s="0">
+        <v>4437</v>
+      </c>
+      <c r="B3425" s="0">
+        <v>133</v>
+      </c>
+      <c r="C3425" s="0">
+        <v>2462</v>
+      </c>
+      <c r="D3425" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3426">
+      <c r="A3426" s="0">
+        <v>4438</v>
+      </c>
+      <c r="B3426" s="0">
+        <v>133</v>
+      </c>
+      <c r="C3426" s="0">
+        <v>2463</v>
+      </c>
+      <c r="D3426" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3427">
+      <c r="A3427" s="0">
+        <v>4439</v>
+      </c>
+      <c r="B3427" s="0">
+        <v>133</v>
+      </c>
+      <c r="C3427" s="0">
+        <v>2464</v>
+      </c>
+      <c r="D3427" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3428">
+      <c r="A3428" s="0">
+        <v>4440</v>
+      </c>
+      <c r="B3428" s="0">
+        <v>133</v>
+      </c>
+      <c r="C3428" s="0">
+        <v>2465</v>
+      </c>
+      <c r="D3428" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3429">
+      <c r="A3429" s="0">
+        <v>4441</v>
+      </c>
+      <c r="B3429" s="0">
+        <v>133</v>
+      </c>
+      <c r="C3429" s="0">
+        <v>2466</v>
+      </c>
+      <c r="D3429" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3430">
+      <c r="A3430" s="0">
+        <v>4442</v>
+      </c>
+      <c r="B3430" s="0">
+        <v>133</v>
+      </c>
+      <c r="C3430" s="0">
+        <v>2467</v>
+      </c>
+      <c r="D3430" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3431">
+      <c r="A3431" s="0">
+        <v>4443</v>
+      </c>
+      <c r="B3431" s="0">
+        <v>133</v>
+      </c>
+      <c r="C3431" s="0">
+        <v>2468</v>
+      </c>
+      <c r="D3431" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3432">
+      <c r="A3432" s="0">
+        <v>4444</v>
+      </c>
+      <c r="B3432" s="0">
+        <v>133</v>
+      </c>
+      <c r="C3432" s="0">
+        <v>2469</v>
+      </c>
+      <c r="D3432" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3433">
+      <c r="A3433" s="0">
+        <v>4445</v>
+      </c>
+      <c r="B3433" s="0">
+        <v>133</v>
+      </c>
+      <c r="C3433" s="0">
+        <v>2470</v>
+      </c>
+      <c r="D3433" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3434">
+      <c r="A3434" s="0">
+        <v>4446</v>
+      </c>
+      <c r="B3434" s="0">
+        <v>133</v>
+      </c>
+      <c r="C3434" s="0">
+        <v>2471</v>
+      </c>
+      <c r="D3434" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3435">
+      <c r="A3435" s="0">
+        <v>4447</v>
+      </c>
+      <c r="B3435" s="0">
+        <v>133</v>
+      </c>
+      <c r="C3435" s="0">
+        <v>2472</v>
+      </c>
+      <c r="D3435" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3436">
+      <c r="A3436" s="0">
+        <v>4448</v>
+      </c>
+      <c r="B3436" s="0">
+        <v>133</v>
+      </c>
+      <c r="C3436" s="0">
+        <v>2473</v>
+      </c>
+      <c r="D3436" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3437">
+      <c r="A3437" s="0">
+        <v>4449</v>
+      </c>
+      <c r="B3437" s="0">
+        <v>133</v>
+      </c>
+      <c r="C3437" s="0">
+        <v>2474</v>
+      </c>
+      <c r="D3437" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3438">
+      <c r="A3438" s="0">
+        <v>4450</v>
+      </c>
+      <c r="B3438" s="0">
+        <v>133</v>
+      </c>
+      <c r="C3438" s="0">
+        <v>2475</v>
+      </c>
+      <c r="D3438" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3439">
+      <c r="A3439" s="0">
+        <v>4451</v>
+      </c>
+      <c r="B3439" s="0">
+        <v>133</v>
+      </c>
+      <c r="C3439" s="0">
+        <v>2476</v>
+      </c>
+      <c r="D3439" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3440">
+      <c r="A3440" s="0">
+        <v>4452</v>
+      </c>
+      <c r="B3440" s="0">
+        <v>133</v>
+      </c>
+      <c r="C3440" s="0">
+        <v>2477</v>
+      </c>
+      <c r="D3440" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3441">
+      <c r="A3441" s="0">
+        <v>4453</v>
+      </c>
+      <c r="B3441" s="0">
+        <v>133</v>
+      </c>
+      <c r="C3441" s="0">
+        <v>2478</v>
+      </c>
+      <c r="D3441" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3442">
+      <c r="A3442" s="0">
+        <v>4454</v>
+      </c>
+      <c r="B3442" s="0">
+        <v>133</v>
+      </c>
+      <c r="C3442" s="0">
+        <v>2479</v>
+      </c>
+      <c r="D3442" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3443">
+      <c r="A3443" s="0">
+        <v>4455</v>
+      </c>
+      <c r="B3443" s="0">
+        <v>133</v>
+      </c>
+      <c r="C3443" s="0">
+        <v>2480</v>
+      </c>
+      <c r="D3443" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3444">
+      <c r="A3444" s="0">
+        <v>4456</v>
+      </c>
+      <c r="B3444" s="0">
+        <v>133</v>
+      </c>
+      <c r="C3444" s="0">
+        <v>2481</v>
+      </c>
+      <c r="D3444" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3445">
+      <c r="A3445" s="0">
+        <v>4457</v>
+      </c>
+      <c r="B3445" s="0">
+        <v>133</v>
+      </c>
+      <c r="C3445" s="0">
+        <v>2482</v>
+      </c>
+      <c r="D3445" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3446">
+      <c r="A3446" s="0">
+        <v>4458</v>
+      </c>
+      <c r="B3446" s="0">
+        <v>133</v>
+      </c>
+      <c r="C3446" s="0">
+        <v>2483</v>
+      </c>
+      <c r="D3446" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3447">
+      <c r="A3447" s="0">
+        <v>4459</v>
+      </c>
+      <c r="B3447" s="0">
+        <v>133</v>
+      </c>
+      <c r="C3447" s="0">
+        <v>2484</v>
+      </c>
+      <c r="D3447" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3448">
+      <c r="A3448" s="0">
+        <v>4460</v>
+      </c>
+      <c r="B3448" s="0">
+        <v>133</v>
+      </c>
+      <c r="C3448" s="0">
+        <v>2485</v>
+      </c>
+      <c r="D3448" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3449">
+      <c r="A3449" s="0">
+        <v>4461</v>
+      </c>
+      <c r="B3449" s="0">
+        <v>133</v>
+      </c>
+      <c r="C3449" s="0">
+        <v>2486</v>
+      </c>
+      <c r="D3449" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3450">
+      <c r="A3450" s="0">
+        <v>4462</v>
+      </c>
+      <c r="B3450" s="0">
+        <v>133</v>
+      </c>
+      <c r="C3450" s="0">
+        <v>2482</v>
+      </c>
+      <c r="D3450" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3451">
+      <c r="A3451" s="0">
+        <v>4463</v>
+      </c>
+      <c r="B3451" s="0">
+        <v>133</v>
+      </c>
+      <c r="C3451" s="0">
+        <v>2488</v>
+      </c>
+      <c r="D3451" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3452">
+      <c r="A3452" s="0">
+        <v>4464</v>
+      </c>
+      <c r="B3452" s="0">
+        <v>133</v>
+      </c>
+      <c r="C3452" s="0">
+        <v>2489</v>
+      </c>
+      <c r="D3452" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3453">
+      <c r="A3453" s="0">
+        <v>4465</v>
+      </c>
+      <c r="B3453" s="0">
+        <v>133</v>
+      </c>
+      <c r="C3453" s="0">
+        <v>2490</v>
+      </c>
+      <c r="D3453" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3454">
+      <c r="A3454" s="0">
+        <v>4466</v>
+      </c>
+      <c r="B3454" s="0">
+        <v>133</v>
+      </c>
+      <c r="C3454" s="0">
+        <v>2491</v>
+      </c>
+      <c r="D3454" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3455">
+      <c r="A3455" s="0">
+        <v>4467</v>
+      </c>
+      <c r="B3455" s="0">
+        <v>133</v>
+      </c>
+      <c r="C3455" s="0">
+        <v>2492</v>
+      </c>
+      <c r="D3455" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3456">
+      <c r="A3456" s="0">
+        <v>4468</v>
+      </c>
+      <c r="B3456" s="0">
+        <v>133</v>
+      </c>
+      <c r="C3456" s="0">
+        <v>2493</v>
+      </c>
+      <c r="D3456" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3457">
+      <c r="A3457" s="0">
+        <v>4469</v>
+      </c>
+      <c r="B3457" s="0">
+        <v>133</v>
+      </c>
+      <c r="C3457" s="0">
+        <v>2494</v>
+      </c>
+      <c r="D3457" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3458">
+      <c r="A3458" s="0">
+        <v>4470</v>
+      </c>
+      <c r="B3458" s="0">
+        <v>133</v>
+      </c>
+      <c r="C3458" s="0">
+        <v>2495</v>
+      </c>
+      <c r="D3458" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3459">
+      <c r="A3459" s="0">
+        <v>4471</v>
+      </c>
+      <c r="B3459" s="0">
+        <v>133</v>
+      </c>
+      <c r="C3459" s="0">
+        <v>2496</v>
+      </c>
+      <c r="D3459" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3460">
+      <c r="A3460" s="0">
+        <v>4472</v>
+      </c>
+      <c r="B3460" s="0">
+        <v>133</v>
+      </c>
+      <c r="C3460" s="0">
+        <v>2497</v>
+      </c>
+      <c r="D3460" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3461">
+      <c r="A3461" s="0">
+        <v>4473</v>
+      </c>
+      <c r="B3461" s="0">
+        <v>133</v>
+      </c>
+      <c r="C3461" s="0">
+        <v>2498</v>
+      </c>
+      <c r="D3461" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3462">
+      <c r="A3462" s="0">
+        <v>4474</v>
+      </c>
+      <c r="B3462" s="0">
+        <v>133</v>
+      </c>
+      <c r="C3462" s="0">
+        <v>2499</v>
+      </c>
+      <c r="D3462" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3463">
+      <c r="A3463" s="0">
+        <v>4475</v>
+      </c>
+      <c r="B3463" s="0">
+        <v>133</v>
+      </c>
+      <c r="C3463" s="0">
+        <v>2500</v>
+      </c>
+      <c r="D3463" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3464">
+      <c r="A3464" s="0">
+        <v>4476</v>
+      </c>
+      <c r="B3464" s="0">
+        <v>133</v>
+      </c>
+      <c r="C3464" s="0">
+        <v>2501</v>
+      </c>
+      <c r="D3464" s="0">
+        <v>41</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3465">
+      <c r="A3465" s="0">
+        <v>4477</v>
+      </c>
+      <c r="B3465" s="0">
+        <v>133</v>
+      </c>
+      <c r="C3465" s="0">
+        <v>2502</v>
+      </c>
+      <c r="D3465" s="0">
+        <v>42</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3466">
+      <c r="A3466" s="0">
+        <v>4478</v>
+      </c>
+      <c r="B3466" s="0">
+        <v>133</v>
+      </c>
+      <c r="C3466" s="0">
+        <v>2503</v>
+      </c>
+      <c r="D3466" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3467">
+      <c r="A3467" s="0">
+        <v>4479</v>
+      </c>
+      <c r="B3467" s="0">
+        <v>133</v>
+      </c>
+      <c r="C3467" s="0">
+        <v>2504</v>
+      </c>
+      <c r="D3467" s="0">
+        <v>44</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3468">
+      <c r="A3468" s="0">
+        <v>4480</v>
+      </c>
+      <c r="B3468" s="0">
+        <v>133</v>
+      </c>
+      <c r="C3468" s="0">
+        <v>2505</v>
+      </c>
+      <c r="D3468" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3469">
+      <c r="A3469" s="0">
+        <v>4481</v>
+      </c>
+      <c r="B3469" s="0">
+        <v>133</v>
+      </c>
+      <c r="C3469" s="0">
+        <v>2506</v>
+      </c>
+      <c r="D3469" s="0">
+        <v>46</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3470">
+      <c r="A3470" s="0">
+        <v>4482</v>
+      </c>
+      <c r="B3470" s="0">
+        <v>133</v>
+      </c>
+      <c r="C3470" s="0">
+        <v>2507</v>
+      </c>
+      <c r="D3470" s="0">
+        <v>47</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3471">
+      <c r="A3471" s="0">
+        <v>4483</v>
+      </c>
+      <c r="B3471" s="0">
+        <v>132</v>
+      </c>
+      <c r="C3471" s="0">
+        <v>2508</v>
+      </c>
+      <c r="D3471" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3472">
+      <c r="A3472" s="0">
+        <v>4484</v>
+      </c>
+      <c r="B3472" s="0">
+        <v>132</v>
+      </c>
+      <c r="C3472" s="0">
+        <v>2509</v>
+      </c>
+      <c r="D3472" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3473">
+      <c r="A3473" s="0">
+        <v>4485</v>
+      </c>
+      <c r="B3473" s="0">
+        <v>132</v>
+      </c>
+      <c r="C3473" s="0">
+        <v>2510</v>
+      </c>
+      <c r="D3473" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3474">
+      <c r="A3474" s="0">
+        <v>4486</v>
+      </c>
+      <c r="B3474" s="0">
+        <v>132</v>
+      </c>
+      <c r="C3474" s="0">
+        <v>2511</v>
+      </c>
+      <c r="D3474" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3475">
+      <c r="A3475" s="0">
+        <v>4487</v>
+      </c>
+      <c r="B3475" s="0">
+        <v>132</v>
+      </c>
+      <c r="C3475" s="0">
+        <v>2513</v>
+      </c>
+      <c r="D3475" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3476">
+      <c r="A3476" s="0">
+        <v>4488</v>
+      </c>
+      <c r="B3476" s="0">
+        <v>132</v>
+      </c>
+      <c r="C3476" s="0">
+        <v>2524</v>
+      </c>
+      <c r="D3476" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3477">
+      <c r="A3477" s="0">
+        <v>4489</v>
+      </c>
+      <c r="B3477" s="0">
+        <v>132</v>
+      </c>
+      <c r="C3477" s="0">
+        <v>2523</v>
+      </c>
+      <c r="D3477" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3478">
+      <c r="A3478" s="0">
+        <v>4490</v>
+      </c>
+      <c r="B3478" s="0">
+        <v>132</v>
+      </c>
+      <c r="C3478" s="0">
+        <v>2512</v>
+      </c>
+      <c r="D3478" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3479">
+      <c r="A3479" s="0">
+        <v>4491</v>
+      </c>
+      <c r="B3479" s="0">
+        <v>132</v>
+      </c>
+      <c r="C3479" s="0">
+        <v>2515</v>
+      </c>
+      <c r="D3479" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3480">
+      <c r="A3480" s="0">
+        <v>4492</v>
+      </c>
+      <c r="B3480" s="0">
+        <v>132</v>
+      </c>
+      <c r="C3480" s="0">
+        <v>2514</v>
+      </c>
+      <c r="D3480" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3481">
+      <c r="A3481" s="0">
+        <v>4493</v>
+      </c>
+      <c r="B3481" s="0">
+        <v>132</v>
+      </c>
+      <c r="C3481" s="0">
+        <v>2525</v>
+      </c>
+      <c r="D3481" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3482">
+      <c r="A3482" s="0">
+        <v>4494</v>
+      </c>
+      <c r="B3482" s="0">
+        <v>132</v>
+      </c>
+      <c r="C3482" s="0">
+        <v>2529</v>
+      </c>
+      <c r="D3482" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3483">
+      <c r="A3483" s="0">
+        <v>4495</v>
+      </c>
+      <c r="B3483" s="0">
+        <v>132</v>
+      </c>
+      <c r="C3483" s="0">
+        <v>2516</v>
+      </c>
+      <c r="D3483" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3484">
+      <c r="A3484" s="0">
+        <v>4496</v>
+      </c>
+      <c r="B3484" s="0">
+        <v>132</v>
+      </c>
+      <c r="C3484" s="0">
+        <v>2519</v>
+      </c>
+      <c r="D3484" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3485">
+      <c r="A3485" s="0">
+        <v>4497</v>
+      </c>
+      <c r="B3485" s="0">
+        <v>132</v>
+      </c>
+      <c r="C3485" s="0">
+        <v>2518</v>
+      </c>
+      <c r="D3485" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3486">
+      <c r="A3486" s="0">
+        <v>4498</v>
+      </c>
+      <c r="B3486" s="0">
+        <v>132</v>
+      </c>
+      <c r="C3486" s="0">
+        <v>2521</v>
+      </c>
+      <c r="D3486" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3487">
+      <c r="A3487" s="0">
+        <v>4499</v>
+      </c>
+      <c r="B3487" s="0">
+        <v>132</v>
+      </c>
+      <c r="C3487" s="0">
+        <v>2522</v>
+      </c>
+      <c r="D3487" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3488">
+      <c r="A3488" s="0">
+        <v>4500</v>
+      </c>
+      <c r="B3488" s="0">
+        <v>132</v>
+      </c>
+      <c r="C3488" s="0">
+        <v>2526</v>
+      </c>
+      <c r="D3488" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3489">
+      <c r="A3489" s="0">
+        <v>4501</v>
+      </c>
+      <c r="B3489" s="0">
+        <v>132</v>
+      </c>
+      <c r="C3489" s="0">
+        <v>2527</v>
+      </c>
+      <c r="D3489" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3490">
+      <c r="A3490" s="0">
+        <v>4502</v>
+      </c>
+      <c r="B3490" s="0">
+        <v>132</v>
+      </c>
+      <c r="C3490" s="0">
+        <v>2528</v>
+      </c>
+      <c r="D3490" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3491">
+      <c r="A3491" s="0">
+        <v>4503</v>
+      </c>
+      <c r="B3491" s="0">
+        <v>132</v>
+      </c>
+      <c r="C3491" s="0">
+        <v>2517</v>
+      </c>
+      <c r="D3491" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3492">
+      <c r="A3492" s="0">
+        <v>4504</v>
+      </c>
+      <c r="B3492" s="0">
+        <v>132</v>
+      </c>
+      <c r="C3492" s="0">
+        <v>2530</v>
+      </c>
+      <c r="D3492" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3493">
+      <c r="A3493" s="0">
+        <v>4505</v>
+      </c>
+      <c r="B3493" s="0">
+        <v>132</v>
+      </c>
+      <c r="C3493" s="0">
+        <v>2531</v>
+      </c>
+      <c r="D3493" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3494">
+      <c r="A3494" s="0">
+        <v>4506</v>
+      </c>
+      <c r="B3494" s="0">
+        <v>132</v>
+      </c>
+      <c r="C3494" s="0">
+        <v>2532</v>
+      </c>
+      <c r="D3494" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3495">
+      <c r="A3495" s="0">
+        <v>4507</v>
+      </c>
+      <c r="B3495" s="0">
+        <v>132</v>
+      </c>
+      <c r="C3495" s="0">
+        <v>2520</v>
+      </c>
+      <c r="D3495" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3496">
+      <c r="A3496" s="0">
+        <v>4508</v>
+      </c>
+      <c r="B3496" s="0">
+        <v>135</v>
+      </c>
+      <c r="C3496" s="0">
+        <v>2462</v>
+      </c>
+      <c r="D3496" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3497">
+      <c r="A3497" s="0">
+        <v>4509</v>
+      </c>
+      <c r="B3497" s="0">
+        <v>135</v>
+      </c>
+      <c r="C3497" s="0">
+        <v>2464</v>
+      </c>
+      <c r="D3497" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3498">
+      <c r="A3498" s="0">
+        <v>4510</v>
+      </c>
+      <c r="B3498" s="0">
+        <v>135</v>
+      </c>
+      <c r="C3498" s="0">
+        <v>2465</v>
+      </c>
+      <c r="D3498" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3499">
+      <c r="A3499" s="0">
+        <v>4511</v>
+      </c>
+      <c r="B3499" s="0">
+        <v>135</v>
+      </c>
+      <c r="C3499" s="0">
+        <v>2466</v>
+      </c>
+      <c r="D3499" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3500">
+      <c r="A3500" s="0">
+        <v>4512</v>
+      </c>
+      <c r="B3500" s="0">
+        <v>135</v>
+      </c>
+      <c r="C3500" s="0">
+        <v>2473</v>
+      </c>
+      <c r="D3500" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3501">
+      <c r="A3501" s="0">
+        <v>4513</v>
+      </c>
+      <c r="B3501" s="0">
+        <v>135</v>
+      </c>
+      <c r="C3501" s="0">
+        <v>2493</v>
+      </c>
+      <c r="D3501" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3502">
+      <c r="A3502" s="0">
+        <v>4514</v>
+      </c>
+      <c r="B3502" s="0">
+        <v>135</v>
+      </c>
+      <c r="C3502" s="0">
+        <v>2492</v>
+      </c>
+      <c r="D3502" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3503">
+      <c r="A3503" s="0">
+        <v>4515</v>
+      </c>
+      <c r="B3503" s="0">
+        <v>135</v>
+      </c>
+      <c r="C3503" s="0">
+        <v>2471</v>
+      </c>
+      <c r="D3503" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3504">
+      <c r="A3504" s="0">
+        <v>4516</v>
+      </c>
+      <c r="B3504" s="0">
+        <v>135</v>
+      </c>
+      <c r="C3504" s="0">
+        <v>2477</v>
+      </c>
+      <c r="D3504" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3505">
+      <c r="A3505" s="0">
+        <v>4517</v>
+      </c>
+      <c r="B3505" s="0">
+        <v>135</v>
+      </c>
+      <c r="C3505" s="0">
+        <v>2475</v>
+      </c>
+      <c r="D3505" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3506">
+      <c r="A3506" s="0">
+        <v>4518</v>
+      </c>
+      <c r="B3506" s="0">
+        <v>135</v>
+      </c>
+      <c r="C3506" s="0">
+        <v>2496</v>
+      </c>
+      <c r="D3506" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3507">
+      <c r="A3507" s="0">
+        <v>4519</v>
+      </c>
+      <c r="B3507" s="0">
+        <v>135</v>
+      </c>
+      <c r="C3507" s="0">
+        <v>2502</v>
+      </c>
+      <c r="D3507" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3508">
+      <c r="A3508" s="0">
+        <v>4520</v>
+      </c>
+      <c r="B3508" s="0">
+        <v>135</v>
+      </c>
+      <c r="C3508" s="0">
+        <v>2479</v>
+      </c>
+      <c r="D3508" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3509">
+      <c r="A3509" s="0">
+        <v>4521</v>
+      </c>
+      <c r="B3509" s="0">
+        <v>135</v>
+      </c>
+      <c r="C3509" s="0">
+        <v>2486</v>
+      </c>
+      <c r="D3509" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3510">
+      <c r="A3510" s="0">
+        <v>4522</v>
+      </c>
+      <c r="B3510" s="0">
+        <v>135</v>
+      </c>
+      <c r="C3510" s="0">
+        <v>2485</v>
+      </c>
+      <c r="D3510" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3511">
+      <c r="A3511" s="0">
+        <v>4523</v>
+      </c>
+      <c r="B3511" s="0">
+        <v>135</v>
+      </c>
+      <c r="C3511" s="0">
+        <v>2489</v>
+      </c>
+      <c r="D3511" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3512">
+      <c r="A3512" s="0">
+        <v>4524</v>
+      </c>
+      <c r="B3512" s="0">
+        <v>135</v>
+      </c>
+      <c r="C3512" s="0">
+        <v>2491</v>
+      </c>
+      <c r="D3512" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3513">
+      <c r="A3513" s="0">
+        <v>4525</v>
+      </c>
+      <c r="B3513" s="0">
+        <v>135</v>
+      </c>
+      <c r="C3513" s="0">
+        <v>2497</v>
+      </c>
+      <c r="D3513" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3514">
+      <c r="A3514" s="0">
+        <v>4526</v>
+      </c>
+      <c r="B3514" s="0">
+        <v>135</v>
+      </c>
+      <c r="C3514" s="0">
+        <v>2500</v>
+      </c>
+      <c r="D3514" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3515">
+      <c r="A3515" s="0">
+        <v>4527</v>
+      </c>
+      <c r="B3515" s="0">
+        <v>135</v>
+      </c>
+      <c r="C3515" s="0">
+        <v>2501</v>
+      </c>
+      <c r="D3515" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3516">
+      <c r="A3516" s="0">
+        <v>4528</v>
+      </c>
+      <c r="B3516" s="0">
+        <v>135</v>
+      </c>
+      <c r="C3516" s="0">
+        <v>2481</v>
+      </c>
+      <c r="D3516" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3517">
+      <c r="A3517" s="0">
+        <v>4529</v>
+      </c>
+      <c r="B3517" s="0">
+        <v>135</v>
+      </c>
+      <c r="C3517" s="0">
+        <v>2503</v>
+      </c>
+      <c r="D3517" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3518">
+      <c r="A3518" s="0">
+        <v>4530</v>
+      </c>
+      <c r="B3518" s="0">
+        <v>135</v>
+      </c>
+      <c r="C3518" s="0">
+        <v>2504</v>
+      </c>
+      <c r="D3518" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3519">
+      <c r="A3519" s="0">
+        <v>4531</v>
+      </c>
+      <c r="B3519" s="0">
+        <v>135</v>
+      </c>
+      <c r="C3519" s="0">
+        <v>2507</v>
+      </c>
+      <c r="D3519" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3520">
+      <c r="A3520" s="0">
+        <v>4532</v>
+      </c>
+      <c r="B3520" s="0">
+        <v>135</v>
+      </c>
+      <c r="C3520" s="0">
+        <v>2482</v>
+      </c>
+      <c r="D3520" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3521">
+      <c r="A3521" s="0">
+        <v>4533</v>
+      </c>
+      <c r="B3521" s="0">
+        <v>134</v>
+      </c>
+      <c r="C3521" s="0">
+        <v>2533</v>
+      </c>
+      <c r="D3521" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3522">
+      <c r="A3522" s="0">
+        <v>4534</v>
+      </c>
+      <c r="B3522" s="0">
+        <v>134</v>
+      </c>
+      <c r="C3522" s="0">
+        <v>2534</v>
+      </c>
+      <c r="D3522" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3523">
+      <c r="A3523" s="0">
+        <v>4535</v>
+      </c>
+      <c r="B3523" s="0">
+        <v>134</v>
+      </c>
+      <c r="C3523" s="0">
+        <v>2535</v>
+      </c>
+      <c r="D3523" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3524">
+      <c r="A3524" s="0">
+        <v>4536</v>
+      </c>
+      <c r="B3524" s="0">
+        <v>134</v>
+      </c>
+      <c r="C3524" s="0">
+        <v>2536</v>
+      </c>
+      <c r="D3524" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3525">
+      <c r="A3525" s="0">
+        <v>4537</v>
+      </c>
+      <c r="B3525" s="0">
+        <v>134</v>
+      </c>
+      <c r="C3525" s="0">
+        <v>2537</v>
+      </c>
+      <c r="D3525" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3526">
+      <c r="A3526" s="0">
+        <v>4538</v>
+      </c>
+      <c r="B3526" s="0">
+        <v>134</v>
+      </c>
+      <c r="C3526" s="0">
+        <v>2538</v>
+      </c>
+      <c r="D3526" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3527">
+      <c r="A3527" s="0">
+        <v>4539</v>
+      </c>
+      <c r="B3527" s="0">
+        <v>134</v>
+      </c>
+      <c r="C3527" s="0">
+        <v>2539</v>
+      </c>
+      <c r="D3527" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3528">
+      <c r="A3528" s="0">
+        <v>4540</v>
+      </c>
+      <c r="B3528" s="0">
+        <v>134</v>
+      </c>
+      <c r="C3528" s="0">
+        <v>2540</v>
+      </c>
+      <c r="D3528" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3529">
+      <c r="A3529" s="0">
+        <v>4541</v>
+      </c>
+      <c r="B3529" s="0">
+        <v>134</v>
+      </c>
+      <c r="C3529" s="0">
+        <v>2541</v>
+      </c>
+      <c r="D3529" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3530">
+      <c r="A3530" s="0">
+        <v>4542</v>
+      </c>
+      <c r="B3530" s="0">
+        <v>134</v>
+      </c>
+      <c r="C3530" s="0">
+        <v>2542</v>
+      </c>
+      <c r="D3530" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3531">
+      <c r="A3531" s="0">
+        <v>4543</v>
+      </c>
+      <c r="B3531" s="0">
+        <v>134</v>
+      </c>
+      <c r="C3531" s="0">
+        <v>2543</v>
+      </c>
+      <c r="D3531" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3532">
+      <c r="A3532" s="0">
+        <v>4544</v>
+      </c>
+      <c r="B3532" s="0">
+        <v>134</v>
+      </c>
+      <c r="C3532" s="0">
+        <v>2544</v>
+      </c>
+      <c r="D3532" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3533">
+      <c r="A3533" s="0">
+        <v>4545</v>
+      </c>
+      <c r="B3533" s="0">
+        <v>134</v>
+      </c>
+      <c r="C3533" s="0">
+        <v>2545</v>
+      </c>
+      <c r="D3533" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3534">
+      <c r="A3534" s="0">
+        <v>4546</v>
+      </c>
+      <c r="B3534" s="0">
+        <v>134</v>
+      </c>
+      <c r="C3534" s="0">
+        <v>2546</v>
+      </c>
+      <c r="D3534" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3535">
+      <c r="A3535" s="0">
+        <v>4547</v>
+      </c>
+      <c r="B3535" s="0">
+        <v>134</v>
+      </c>
+      <c r="C3535" s="0">
+        <v>2547</v>
+      </c>
+      <c r="D3535" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3536">
+      <c r="A3536" s="0">
+        <v>4548</v>
+      </c>
+      <c r="B3536" s="0">
+        <v>134</v>
+      </c>
+      <c r="C3536" s="0">
+        <v>2548</v>
+      </c>
+      <c r="D3536" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3537">
+      <c r="A3537" s="0">
+        <v>4549</v>
+      </c>
+      <c r="B3537" s="0">
+        <v>134</v>
+      </c>
+      <c r="C3537" s="0">
+        <v>2549</v>
+      </c>
+      <c r="D3537" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3538">
+      <c r="A3538" s="0">
+        <v>4550</v>
+      </c>
+      <c r="B3538" s="0">
+        <v>134</v>
+      </c>
+      <c r="C3538" s="0">
+        <v>2550</v>
+      </c>
+      <c r="D3538" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3539">
+      <c r="A3539" s="0">
+        <v>4551</v>
+      </c>
+      <c r="B3539" s="0">
+        <v>134</v>
+      </c>
+      <c r="C3539" s="0">
+        <v>2551</v>
+      </c>
+      <c r="D3539" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3540">
+      <c r="A3540" s="0">
+        <v>4552</v>
+      </c>
+      <c r="B3540" s="0">
+        <v>134</v>
+      </c>
+      <c r="C3540" s="0">
+        <v>2552</v>
+      </c>
+      <c r="D3540" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3541">
+      <c r="A3541" s="0">
+        <v>4553</v>
+      </c>
+      <c r="B3541" s="0">
+        <v>134</v>
+      </c>
+      <c r="C3541" s="0">
+        <v>2553</v>
+      </c>
+      <c r="D3541" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3542">
+      <c r="A3542" s="0">
+        <v>4554</v>
+      </c>
+      <c r="B3542" s="0">
+        <v>134</v>
+      </c>
+      <c r="C3542" s="0">
+        <v>2554</v>
+      </c>
+      <c r="D3542" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3543">
+      <c r="A3543" s="0">
+        <v>4555</v>
+      </c>
+      <c r="B3543" s="0">
+        <v>134</v>
+      </c>
+      <c r="C3543" s="0">
+        <v>2555</v>
+      </c>
+      <c r="D3543" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3544">
+      <c r="A3544" s="0">
+        <v>4556</v>
+      </c>
+      <c r="B3544" s="0">
+        <v>134</v>
+      </c>
+      <c r="C3544" s="0">
+        <v>2556</v>
+      </c>
+      <c r="D3544" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3545">
+      <c r="A3545" s="0">
+        <v>4557</v>
+      </c>
+      <c r="B3545" s="0">
+        <v>134</v>
+      </c>
+      <c r="C3545" s="0">
+        <v>2557</v>
+      </c>
+      <c r="D3545" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3546">
+      <c r="A3546" s="0">
+        <v>4558</v>
+      </c>
+      <c r="B3546" s="0">
+        <v>134</v>
+      </c>
+      <c r="C3546" s="0">
+        <v>2558</v>
+      </c>
+      <c r="D3546" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3547">
+      <c r="A3547" s="0">
+        <v>4559</v>
+      </c>
+      <c r="B3547" s="0">
+        <v>134</v>
+      </c>
+      <c r="C3547" s="0">
+        <v>2559</v>
+      </c>
+      <c r="D3547" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3548">
+      <c r="A3548" s="0">
+        <v>4560</v>
+      </c>
+      <c r="B3548" s="0">
+        <v>134</v>
+      </c>
+      <c r="C3548" s="0">
+        <v>2560</v>
+      </c>
+      <c r="D3548" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3549">
+      <c r="A3549" s="0">
+        <v>4561</v>
+      </c>
+      <c r="B3549" s="0">
+        <v>134</v>
+      </c>
+      <c r="C3549" s="0">
+        <v>2561</v>
+      </c>
+      <c r="D3549" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3550">
+      <c r="A3550" s="0">
+        <v>4562</v>
+      </c>
+      <c r="B3550" s="0">
+        <v>134</v>
+      </c>
+      <c r="C3550" s="0">
+        <v>2562</v>
+      </c>
+      <c r="D3550" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3551">
+      <c r="A3551" s="0">
+        <v>4563</v>
+      </c>
+      <c r="B3551" s="0">
+        <v>134</v>
+      </c>
+      <c r="C3551" s="0">
+        <v>2563</v>
+      </c>
+      <c r="D3551" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3552">
+      <c r="A3552" s="0">
+        <v>4564</v>
+      </c>
+      <c r="B3552" s="0">
+        <v>134</v>
+      </c>
+      <c r="C3552" s="0">
+        <v>2564</v>
+      </c>
+      <c r="D3552" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3553">
+      <c r="A3553" s="0">
+        <v>4565</v>
+      </c>
+      <c r="B3553" s="0">
+        <v>134</v>
+      </c>
+      <c r="C3553" s="0">
+        <v>2565</v>
+      </c>
+      <c r="D3553" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3554">
+      <c r="A3554" s="0">
+        <v>4566</v>
+      </c>
+      <c r="B3554" s="0">
+        <v>134</v>
+      </c>
+      <c r="C3554" s="0">
+        <v>2566</v>
+      </c>
+      <c r="D3554" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3555">
+      <c r="A3555" s="0">
+        <v>4567</v>
+      </c>
+      <c r="B3555" s="0">
+        <v>134</v>
+      </c>
+      <c r="C3555" s="0">
+        <v>2567</v>
+      </c>
+      <c r="D3555" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3556">
+      <c r="A3556" s="0">
+        <v>4568</v>
+      </c>
+      <c r="B3556" s="0">
+        <v>134</v>
+      </c>
+      <c r="C3556" s="0">
+        <v>2568</v>
+      </c>
+      <c r="D3556" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3557">
+      <c r="A3557" s="0">
+        <v>4569</v>
+      </c>
+      <c r="B3557" s="0">
+        <v>134</v>
+      </c>
+      <c r="C3557" s="0">
+        <v>2569</v>
+      </c>
+      <c r="D3557" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3558">
+      <c r="A3558" s="0">
+        <v>4570</v>
+      </c>
+      <c r="B3558" s="0">
+        <v>134</v>
+      </c>
+      <c r="C3558" s="0">
+        <v>2570</v>
+      </c>
+      <c r="D3558" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3559">
+      <c r="A3559" s="0">
+        <v>4571</v>
+      </c>
+      <c r="B3559" s="0">
+        <v>134</v>
+      </c>
+      <c r="C3559" s="0">
+        <v>2571</v>
+      </c>
+      <c r="D3559" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3560">
+      <c r="A3560" s="0">
+        <v>4572</v>
+      </c>
+      <c r="B3560" s="0">
+        <v>134</v>
+      </c>
+      <c r="C3560" s="0">
+        <v>2572</v>
+      </c>
+      <c r="D3560" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3561">
+      <c r="A3561" s="0">
+        <v>4573</v>
+      </c>
+      <c r="B3561" s="0">
+        <v>134</v>
+      </c>
+      <c r="C3561" s="0">
+        <v>2573</v>
+      </c>
+      <c r="D3561" s="0">
+        <v>41</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3562">
+      <c r="A3562" s="0">
+        <v>4574</v>
+      </c>
+      <c r="B3562" s="0">
+        <v>134</v>
+      </c>
+      <c r="C3562" s="0">
+        <v>2574</v>
+      </c>
+      <c r="D3562" s="0">
+        <v>42</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3563">
+      <c r="A3563" s="0">
+        <v>4575</v>
+      </c>
+      <c r="B3563" s="0">
+        <v>134</v>
+      </c>
+      <c r="C3563" s="0">
+        <v>2575</v>
+      </c>
+      <c r="D3563" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3564">
+      <c r="A3564" s="0">
+        <v>4576</v>
+      </c>
+      <c r="B3564" s="0">
+        <v>134</v>
+      </c>
+      <c r="C3564" s="0">
+        <v>2576</v>
+      </c>
+      <c r="D3564" s="0">
+        <v>44</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3565">
+      <c r="A3565" s="0">
+        <v>4577</v>
+      </c>
+      <c r="B3565" s="0">
+        <v>134</v>
+      </c>
+      <c r="C3565" s="0">
+        <v>2577</v>
+      </c>
+      <c r="D3565" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3566">
+      <c r="A3566" s="0">
+        <v>4578</v>
+      </c>
+      <c r="B3566" s="0">
+        <v>134</v>
+      </c>
+      <c r="C3566" s="0">
+        <v>2578</v>
+      </c>
+      <c r="D3566" s="0">
+        <v>46</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3567">
+      <c r="A3567" s="0">
+        <v>4579</v>
+      </c>
+      <c r="B3567" s="0">
+        <v>134</v>
+      </c>
+      <c r="C3567" s="0">
+        <v>2579</v>
+      </c>
+      <c r="D3567" s="0">
+        <v>47</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3568">
+      <c r="A3568" s="0">
+        <v>4580</v>
+      </c>
+      <c r="B3568" s="0">
+        <v>136</v>
+      </c>
+      <c r="C3568" s="0">
+        <v>2534</v>
+      </c>
+      <c r="D3568" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3569">
+      <c r="A3569" s="0">
+        <v>4581</v>
+      </c>
+      <c r="B3569" s="0">
+        <v>136</v>
+      </c>
+      <c r="C3569" s="0">
+        <v>2536</v>
+      </c>
+      <c r="D3569" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3570">
+      <c r="A3570" s="0">
+        <v>4582</v>
+      </c>
+      <c r="B3570" s="0">
+        <v>136</v>
+      </c>
+      <c r="C3570" s="0">
+        <v>2537</v>
+      </c>
+      <c r="D3570" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3571">
+      <c r="A3571" s="0">
+        <v>4583</v>
+      </c>
+      <c r="B3571" s="0">
+        <v>136</v>
+      </c>
+      <c r="C3571" s="0">
+        <v>2538</v>
+      </c>
+      <c r="D3571" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3572">
+      <c r="A3572" s="0">
+        <v>4584</v>
+      </c>
+      <c r="B3572" s="0">
+        <v>136</v>
+      </c>
+      <c r="C3572" s="0">
+        <v>2545</v>
+      </c>
+      <c r="D3572" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3573">
+      <c r="A3573" s="0">
+        <v>4585</v>
+      </c>
+      <c r="B3573" s="0">
+        <v>136</v>
+      </c>
+      <c r="C3573" s="0">
+        <v>2565</v>
+      </c>
+      <c r="D3573" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3574">
+      <c r="A3574" s="0">
+        <v>4586</v>
+      </c>
+      <c r="B3574" s="0">
+        <v>136</v>
+      </c>
+      <c r="C3574" s="0">
+        <v>2564</v>
+      </c>
+      <c r="D3574" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3575">
+      <c r="A3575" s="0">
+        <v>4587</v>
+      </c>
+      <c r="B3575" s="0">
+        <v>136</v>
+      </c>
+      <c r="C3575" s="0">
+        <v>2543</v>
+      </c>
+      <c r="D3575" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3576">
+      <c r="A3576" s="0">
+        <v>4588</v>
+      </c>
+      <c r="B3576" s="0">
+        <v>136</v>
+      </c>
+      <c r="C3576" s="0">
+        <v>2549</v>
+      </c>
+      <c r="D3576" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3577">
+      <c r="A3577" s="0">
+        <v>4589</v>
+      </c>
+      <c r="B3577" s="0">
+        <v>136</v>
+      </c>
+      <c r="C3577" s="0">
+        <v>2547</v>
+      </c>
+      <c r="D3577" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3578">
+      <c r="A3578" s="0">
+        <v>4590</v>
+      </c>
+      <c r="B3578" s="0">
+        <v>136</v>
+      </c>
+      <c r="C3578" s="0">
+        <v>2568</v>
+      </c>
+      <c r="D3578" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3579">
+      <c r="A3579" s="0">
+        <v>4591</v>
+      </c>
+      <c r="B3579" s="0">
+        <v>136</v>
+      </c>
+      <c r="C3579" s="0">
+        <v>2574</v>
+      </c>
+      <c r="D3579" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3580">
+      <c r="A3580" s="0">
+        <v>4592</v>
+      </c>
+      <c r="B3580" s="0">
+        <v>136</v>
+      </c>
+      <c r="C3580" s="0">
+        <v>2551</v>
+      </c>
+      <c r="D3580" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3581">
+      <c r="A3581" s="0">
+        <v>4593</v>
+      </c>
+      <c r="B3581" s="0">
+        <v>136</v>
+      </c>
+      <c r="C3581" s="0">
+        <v>2558</v>
+      </c>
+      <c r="D3581" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3582">
+      <c r="A3582" s="0">
+        <v>4594</v>
+      </c>
+      <c r="B3582" s="0">
+        <v>136</v>
+      </c>
+      <c r="C3582" s="0">
+        <v>2557</v>
+      </c>
+      <c r="D3582" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3583">
+      <c r="A3583" s="0">
+        <v>4595</v>
+      </c>
+      <c r="B3583" s="0">
+        <v>136</v>
+      </c>
+      <c r="C3583" s="0">
+        <v>2561</v>
+      </c>
+      <c r="D3583" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3584">
+      <c r="A3584" s="0">
+        <v>4596</v>
+      </c>
+      <c r="B3584" s="0">
+        <v>136</v>
+      </c>
+      <c r="C3584" s="0">
+        <v>2563</v>
+      </c>
+      <c r="D3584" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3585">
+      <c r="A3585" s="0">
+        <v>4597</v>
+      </c>
+      <c r="B3585" s="0">
+        <v>136</v>
+      </c>
+      <c r="C3585" s="0">
+        <v>2569</v>
+      </c>
+      <c r="D3585" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3586">
+      <c r="A3586" s="0">
+        <v>4598</v>
+      </c>
+      <c r="B3586" s="0">
+        <v>136</v>
+      </c>
+      <c r="C3586" s="0">
+        <v>2572</v>
+      </c>
+      <c r="D3586" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3587">
+      <c r="A3587" s="0">
+        <v>4599</v>
+      </c>
+      <c r="B3587" s="0">
+        <v>136</v>
+      </c>
+      <c r="C3587" s="0">
+        <v>2573</v>
+      </c>
+      <c r="D3587" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3588">
+      <c r="A3588" s="0">
+        <v>4600</v>
+      </c>
+      <c r="B3588" s="0">
+        <v>136</v>
+      </c>
+      <c r="C3588" s="0">
+        <v>2553</v>
+      </c>
+      <c r="D3588" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3589">
+      <c r="A3589" s="0">
+        <v>4601</v>
+      </c>
+      <c r="B3589" s="0">
+        <v>136</v>
+      </c>
+      <c r="C3589" s="0">
+        <v>2575</v>
+      </c>
+      <c r="D3589" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3590">
+      <c r="A3590" s="0">
+        <v>4602</v>
+      </c>
+      <c r="B3590" s="0">
+        <v>136</v>
+      </c>
+      <c r="C3590" s="0">
+        <v>2576</v>
+      </c>
+      <c r="D3590" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3591">
+      <c r="A3591" s="0">
+        <v>4603</v>
+      </c>
+      <c r="B3591" s="0">
+        <v>136</v>
+      </c>
+      <c r="C3591" s="0">
+        <v>2579</v>
+      </c>
+      <c r="D3591" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3592">
+      <c r="A3592" s="0">
+        <v>4604</v>
+      </c>
+      <c r="B3592" s="0">
+        <v>136</v>
+      </c>
+      <c r="C3592" s="0">
+        <v>2559</v>
+      </c>
+      <c r="D3592" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3593">
+      <c r="A3593" s="0">
+        <v>4605</v>
+      </c>
+      <c r="B3593" s="0">
+        <v>139</v>
+      </c>
+      <c r="C3593" s="0">
+        <v>2581</v>
+      </c>
+      <c r="D3593" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3594">
+      <c r="A3594" s="0">
+        <v>4606</v>
+      </c>
+      <c r="B3594" s="0">
+        <v>139</v>
+      </c>
+      <c r="C3594" s="0">
+        <v>2583</v>
+      </c>
+      <c r="D3594" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3595">
+      <c r="A3595" s="0">
+        <v>4607</v>
+      </c>
+      <c r="B3595" s="0">
+        <v>139</v>
+      </c>
+      <c r="C3595" s="0">
+        <v>2584</v>
+      </c>
+      <c r="D3595" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3596">
+      <c r="A3596" s="0">
+        <v>4608</v>
+      </c>
+      <c r="B3596" s="0">
+        <v>139</v>
+      </c>
+      <c r="C3596" s="0">
+        <v>2585</v>
+      </c>
+      <c r="D3596" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3597">
+      <c r="A3597" s="0">
+        <v>4609</v>
+      </c>
+      <c r="B3597" s="0">
+        <v>139</v>
+      </c>
+      <c r="C3597" s="0">
+        <v>2592</v>
+      </c>
+      <c r="D3597" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3598">
+      <c r="A3598" s="0">
+        <v>4610</v>
+      </c>
+      <c r="B3598" s="0">
+        <v>139</v>
+      </c>
+      <c r="C3598" s="0">
+        <v>2612</v>
+      </c>
+      <c r="D3598" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3599">
+      <c r="A3599" s="0">
+        <v>4611</v>
+      </c>
+      <c r="B3599" s="0">
+        <v>139</v>
+      </c>
+      <c r="C3599" s="0">
+        <v>2611</v>
+      </c>
+      <c r="D3599" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3600">
+      <c r="A3600" s="0">
+        <v>4612</v>
+      </c>
+      <c r="B3600" s="0">
+        <v>139</v>
+      </c>
+      <c r="C3600" s="0">
+        <v>2590</v>
+      </c>
+      <c r="D3600" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3601">
+      <c r="A3601" s="0">
+        <v>4613</v>
+      </c>
+      <c r="B3601" s="0">
+        <v>139</v>
+      </c>
+      <c r="C3601" s="0">
+        <v>2596</v>
+      </c>
+      <c r="D3601" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3602">
+      <c r="A3602" s="0">
+        <v>4614</v>
+      </c>
+      <c r="B3602" s="0">
+        <v>139</v>
+      </c>
+      <c r="C3602" s="0">
+        <v>2594</v>
+      </c>
+      <c r="D3602" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3603">
+      <c r="A3603" s="0">
+        <v>4615</v>
+      </c>
+      <c r="B3603" s="0">
+        <v>139</v>
+      </c>
+      <c r="C3603" s="0">
+        <v>2615</v>
+      </c>
+      <c r="D3603" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3604">
+      <c r="A3604" s="0">
+        <v>4616</v>
+      </c>
+      <c r="B3604" s="0">
+        <v>139</v>
+      </c>
+      <c r="C3604" s="0">
+        <v>2621</v>
+      </c>
+      <c r="D3604" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3605">
+      <c r="A3605" s="0">
+        <v>4617</v>
+      </c>
+      <c r="B3605" s="0">
+        <v>139</v>
+      </c>
+      <c r="C3605" s="0">
+        <v>2598</v>
+      </c>
+      <c r="D3605" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3606">
+      <c r="A3606" s="0">
+        <v>4618</v>
+      </c>
+      <c r="B3606" s="0">
+        <v>139</v>
+      </c>
+      <c r="C3606" s="0">
+        <v>2605</v>
+      </c>
+      <c r="D3606" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3607">
+      <c r="A3607" s="0">
+        <v>4619</v>
+      </c>
+      <c r="B3607" s="0">
+        <v>139</v>
+      </c>
+      <c r="C3607" s="0">
+        <v>2604</v>
+      </c>
+      <c r="D3607" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3608">
+      <c r="A3608" s="0">
+        <v>4620</v>
+      </c>
+      <c r="B3608" s="0">
+        <v>139</v>
+      </c>
+      <c r="C3608" s="0">
+        <v>2608</v>
+      </c>
+      <c r="D3608" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3609">
+      <c r="A3609" s="0">
+        <v>4621</v>
+      </c>
+      <c r="B3609" s="0">
+        <v>139</v>
+      </c>
+      <c r="C3609" s="0">
+        <v>2610</v>
+      </c>
+      <c r="D3609" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3610">
+      <c r="A3610" s="0">
+        <v>4622</v>
+      </c>
+      <c r="B3610" s="0">
+        <v>139</v>
+      </c>
+      <c r="C3610" s="0">
+        <v>2616</v>
+      </c>
+      <c r="D3610" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3611">
+      <c r="A3611" s="0">
+        <v>4623</v>
+      </c>
+      <c r="B3611" s="0">
+        <v>139</v>
+      </c>
+      <c r="C3611" s="0">
+        <v>2619</v>
+      </c>
+      <c r="D3611" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3612">
+      <c r="A3612" s="0">
+        <v>4624</v>
+      </c>
+      <c r="B3612" s="0">
+        <v>139</v>
+      </c>
+      <c r="C3612" s="0">
+        <v>2620</v>
+      </c>
+      <c r="D3612" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3613">
+      <c r="A3613" s="0">
+        <v>4625</v>
+      </c>
+      <c r="B3613" s="0">
+        <v>139</v>
+      </c>
+      <c r="C3613" s="0">
+        <v>2600</v>
+      </c>
+      <c r="D3613" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3614">
+      <c r="A3614" s="0">
+        <v>4626</v>
+      </c>
+      <c r="B3614" s="0">
+        <v>139</v>
+      </c>
+      <c r="C3614" s="0">
+        <v>2622</v>
+      </c>
+      <c r="D3614" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3615">
+      <c r="A3615" s="0">
+        <v>4627</v>
+      </c>
+      <c r="B3615" s="0">
+        <v>139</v>
+      </c>
+      <c r="C3615" s="0">
+        <v>2623</v>
+      </c>
+      <c r="D3615" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3616">
+      <c r="A3616" s="0">
+        <v>4628</v>
+      </c>
+      <c r="B3616" s="0">
+        <v>139</v>
+      </c>
+      <c r="C3616" s="0">
+        <v>2626</v>
+      </c>
+      <c r="D3616" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3617">
+      <c r="A3617" s="0">
+        <v>4629</v>
+      </c>
+      <c r="B3617" s="0">
+        <v>139</v>
+      </c>
+      <c r="C3617" s="0">
+        <v>2606</v>
+      </c>
+      <c r="D3617" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3618">
+      <c r="A3618" s="0">
+        <v>4630</v>
+      </c>
+      <c r="B3618" s="0">
+        <v>140</v>
+      </c>
+      <c r="C3618" s="0">
+        <v>2628</v>
+      </c>
+      <c r="D3618" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3619">
+      <c r="A3619" s="0">
+        <v>4631</v>
+      </c>
+      <c r="B3619" s="0">
+        <v>140</v>
+      </c>
+      <c r="C3619" s="0">
+        <v>2630</v>
+      </c>
+      <c r="D3619" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3620">
+      <c r="A3620" s="0">
+        <v>4632</v>
+      </c>
+      <c r="B3620" s="0">
+        <v>140</v>
+      </c>
+      <c r="C3620" s="0">
+        <v>2631</v>
+      </c>
+      <c r="D3620" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3621">
+      <c r="A3621" s="0">
+        <v>4633</v>
+      </c>
+      <c r="B3621" s="0">
+        <v>140</v>
+      </c>
+      <c r="C3621" s="0">
+        <v>2632</v>
+      </c>
+      <c r="D3621" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3622">
+      <c r="A3622" s="0">
+        <v>4634</v>
+      </c>
+      <c r="B3622" s="0">
+        <v>140</v>
+      </c>
+      <c r="C3622" s="0">
+        <v>2639</v>
+      </c>
+      <c r="D3622" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3623">
+      <c r="A3623" s="0">
+        <v>4635</v>
+      </c>
+      <c r="B3623" s="0">
+        <v>140</v>
+      </c>
+      <c r="C3623" s="0">
+        <v>2659</v>
+      </c>
+      <c r="D3623" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3624">
+      <c r="A3624" s="0">
+        <v>4636</v>
+      </c>
+      <c r="B3624" s="0">
+        <v>140</v>
+      </c>
+      <c r="C3624" s="0">
+        <v>2658</v>
+      </c>
+      <c r="D3624" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3625">
+      <c r="A3625" s="0">
+        <v>4637</v>
+      </c>
+      <c r="B3625" s="0">
+        <v>140</v>
+      </c>
+      <c r="C3625" s="0">
+        <v>2637</v>
+      </c>
+      <c r="D3625" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3626">
+      <c r="A3626" s="0">
+        <v>4638</v>
+      </c>
+      <c r="B3626" s="0">
+        <v>140</v>
+      </c>
+      <c r="C3626" s="0">
+        <v>2643</v>
+      </c>
+      <c r="D3626" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3627">
+      <c r="A3627" s="0">
+        <v>4639</v>
+      </c>
+      <c r="B3627" s="0">
+        <v>140</v>
+      </c>
+      <c r="C3627" s="0">
+        <v>2641</v>
+      </c>
+      <c r="D3627" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3628">
+      <c r="A3628" s="0">
+        <v>4640</v>
+      </c>
+      <c r="B3628" s="0">
+        <v>140</v>
+      </c>
+      <c r="C3628" s="0">
+        <v>2662</v>
+      </c>
+      <c r="D3628" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3629">
+      <c r="A3629" s="0">
+        <v>4641</v>
+      </c>
+      <c r="B3629" s="0">
+        <v>140</v>
+      </c>
+      <c r="C3629" s="0">
+        <v>2668</v>
+      </c>
+      <c r="D3629" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3630">
+      <c r="A3630" s="0">
+        <v>4642</v>
+      </c>
+      <c r="B3630" s="0">
+        <v>140</v>
+      </c>
+      <c r="C3630" s="0">
+        <v>2645</v>
+      </c>
+      <c r="D3630" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3631">
+      <c r="A3631" s="0">
+        <v>4643</v>
+      </c>
+      <c r="B3631" s="0">
+        <v>140</v>
+      </c>
+      <c r="C3631" s="0">
+        <v>2652</v>
+      </c>
+      <c r="D3631" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3632">
+      <c r="A3632" s="0">
+        <v>4644</v>
+      </c>
+      <c r="B3632" s="0">
+        <v>140</v>
+      </c>
+      <c r="C3632" s="0">
+        <v>2651</v>
+      </c>
+      <c r="D3632" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3633">
+      <c r="A3633" s="0">
+        <v>4645</v>
+      </c>
+      <c r="B3633" s="0">
+        <v>140</v>
+      </c>
+      <c r="C3633" s="0">
+        <v>2655</v>
+      </c>
+      <c r="D3633" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3634">
+      <c r="A3634" s="0">
+        <v>4646</v>
+      </c>
+      <c r="B3634" s="0">
+        <v>140</v>
+      </c>
+      <c r="C3634" s="0">
+        <v>2657</v>
+      </c>
+      <c r="D3634" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3635">
+      <c r="A3635" s="0">
+        <v>4647</v>
+      </c>
+      <c r="B3635" s="0">
+        <v>140</v>
+      </c>
+      <c r="C3635" s="0">
+        <v>2663</v>
+      </c>
+      <c r="D3635" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3636">
+      <c r="A3636" s="0">
+        <v>4648</v>
+      </c>
+      <c r="B3636" s="0">
+        <v>140</v>
+      </c>
+      <c r="C3636" s="0">
+        <v>2666</v>
+      </c>
+      <c r="D3636" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3637">
+      <c r="A3637" s="0">
+        <v>4649</v>
+      </c>
+      <c r="B3637" s="0">
+        <v>140</v>
+      </c>
+      <c r="C3637" s="0">
+        <v>2667</v>
+      </c>
+      <c r="D3637" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3638">
+      <c r="A3638" s="0">
+        <v>4650</v>
+      </c>
+      <c r="B3638" s="0">
+        <v>140</v>
+      </c>
+      <c r="C3638" s="0">
+        <v>2647</v>
+      </c>
+      <c r="D3638" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3639">
+      <c r="A3639" s="0">
+        <v>4651</v>
+      </c>
+      <c r="B3639" s="0">
+        <v>140</v>
+      </c>
+      <c r="C3639" s="0">
+        <v>2669</v>
+      </c>
+      <c r="D3639" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3640">
+      <c r="A3640" s="0">
+        <v>4652</v>
+      </c>
+      <c r="B3640" s="0">
+        <v>140</v>
+      </c>
+      <c r="C3640" s="0">
+        <v>2670</v>
+      </c>
+      <c r="D3640" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3641">
+      <c r="A3641" s="0">
+        <v>4653</v>
+      </c>
+      <c r="B3641" s="0">
+        <v>140</v>
+      </c>
+      <c r="C3641" s="0">
+        <v>2673</v>
+      </c>
+      <c r="D3641" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3642">
+      <c r="A3642" s="0">
+        <v>4654</v>
+      </c>
+      <c r="B3642" s="0">
+        <v>140</v>
+      </c>
+      <c r="C3642" s="0">
+        <v>2653</v>
+      </c>
+      <c r="D3642" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3643">
+      <c r="A3643" s="0">
+        <v>4655</v>
+      </c>
+      <c r="B3643" s="0">
+        <v>137</v>
+      </c>
+      <c r="C3643" s="0">
+        <v>2580</v>
+      </c>
+      <c r="D3643" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3644">
+      <c r="A3644" s="0">
+        <v>4656</v>
+      </c>
+      <c r="B3644" s="0">
+        <v>137</v>
+      </c>
+      <c r="C3644" s="0">
+        <v>2581</v>
+      </c>
+      <c r="D3644" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3645">
+      <c r="A3645" s="0">
+        <v>4657</v>
+      </c>
+      <c r="B3645" s="0">
+        <v>137</v>
+      </c>
+      <c r="C3645" s="0">
+        <v>2582</v>
+      </c>
+      <c r="D3645" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3646">
+      <c r="A3646" s="0">
+        <v>4658</v>
+      </c>
+      <c r="B3646" s="0">
+        <v>137</v>
+      </c>
+      <c r="C3646" s="0">
+        <v>2583</v>
+      </c>
+      <c r="D3646" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3647">
+      <c r="A3647" s="0">
+        <v>4659</v>
+      </c>
+      <c r="B3647" s="0">
+        <v>137</v>
+      </c>
+      <c r="C3647" s="0">
+        <v>2584</v>
+      </c>
+      <c r="D3647" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3648">
+      <c r="A3648" s="0">
+        <v>4660</v>
+      </c>
+      <c r="B3648" s="0">
+        <v>137</v>
+      </c>
+      <c r="C3648" s="0">
+        <v>2585</v>
+      </c>
+      <c r="D3648" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3649">
+      <c r="A3649" s="0">
+        <v>4661</v>
+      </c>
+      <c r="B3649" s="0">
+        <v>137</v>
+      </c>
+      <c r="C3649" s="0">
+        <v>2586</v>
+      </c>
+      <c r="D3649" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3650">
+      <c r="A3650" s="0">
+        <v>4662</v>
+      </c>
+      <c r="B3650" s="0">
+        <v>137</v>
+      </c>
+      <c r="C3650" s="0">
+        <v>2587</v>
+      </c>
+      <c r="D3650" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3651">
+      <c r="A3651" s="0">
+        <v>4663</v>
+      </c>
+      <c r="B3651" s="0">
+        <v>137</v>
+      </c>
+      <c r="C3651" s="0">
+        <v>2588</v>
+      </c>
+      <c r="D3651" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3652">
+      <c r="A3652" s="0">
+        <v>4664</v>
+      </c>
+      <c r="B3652" s="0">
+        <v>137</v>
+      </c>
+      <c r="C3652" s="0">
+        <v>2589</v>
+      </c>
+      <c r="D3652" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3653">
+      <c r="A3653" s="0">
+        <v>4665</v>
+      </c>
+      <c r="B3653" s="0">
+        <v>137</v>
+      </c>
+      <c r="C3653" s="0">
+        <v>2590</v>
+      </c>
+      <c r="D3653" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3654">
+      <c r="A3654" s="0">
+        <v>4666</v>
+      </c>
+      <c r="B3654" s="0">
+        <v>137</v>
+      </c>
+      <c r="C3654" s="0">
+        <v>2591</v>
+      </c>
+      <c r="D3654" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3655">
+      <c r="A3655" s="0">
+        <v>4667</v>
+      </c>
+      <c r="B3655" s="0">
+        <v>137</v>
+      </c>
+      <c r="C3655" s="0">
+        <v>2592</v>
+      </c>
+      <c r="D3655" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3656">
+      <c r="A3656" s="0">
+        <v>4668</v>
+      </c>
+      <c r="B3656" s="0">
+        <v>137</v>
+      </c>
+      <c r="C3656" s="0">
+        <v>2593</v>
+      </c>
+      <c r="D3656" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3657">
+      <c r="A3657" s="0">
+        <v>4669</v>
+      </c>
+      <c r="B3657" s="0">
+        <v>137</v>
+      </c>
+      <c r="C3657" s="0">
+        <v>2594</v>
+      </c>
+      <c r="D3657" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3658">
+      <c r="A3658" s="0">
+        <v>4670</v>
+      </c>
+      <c r="B3658" s="0">
+        <v>137</v>
+      </c>
+      <c r="C3658" s="0">
+        <v>2595</v>
+      </c>
+      <c r="D3658" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3659">
+      <c r="A3659" s="0">
+        <v>4671</v>
+      </c>
+      <c r="B3659" s="0">
+        <v>137</v>
+      </c>
+      <c r="C3659" s="0">
+        <v>2596</v>
+      </c>
+      <c r="D3659" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3660">
+      <c r="A3660" s="0">
+        <v>4672</v>
+      </c>
+      <c r="B3660" s="0">
+        <v>137</v>
+      </c>
+      <c r="C3660" s="0">
+        <v>2597</v>
+      </c>
+      <c r="D3660" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3661">
+      <c r="A3661" s="0">
+        <v>4673</v>
+      </c>
+      <c r="B3661" s="0">
+        <v>137</v>
+      </c>
+      <c r="C3661" s="0">
+        <v>2598</v>
+      </c>
+      <c r="D3661" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3662">
+      <c r="A3662" s="0">
+        <v>4674</v>
+      </c>
+      <c r="B3662" s="0">
+        <v>137</v>
+      </c>
+      <c r="C3662" s="0">
+        <v>2599</v>
+      </c>
+      <c r="D3662" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3663">
+      <c r="A3663" s="0">
+        <v>4675</v>
+      </c>
+      <c r="B3663" s="0">
+        <v>137</v>
+      </c>
+      <c r="C3663" s="0">
+        <v>2600</v>
+      </c>
+      <c r="D3663" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3664">
+      <c r="A3664" s="0">
+        <v>4676</v>
+      </c>
+      <c r="B3664" s="0">
+        <v>137</v>
+      </c>
+      <c r="C3664" s="0">
+        <v>2601</v>
+      </c>
+      <c r="D3664" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3665">
+      <c r="A3665" s="0">
+        <v>4677</v>
+      </c>
+      <c r="B3665" s="0">
+        <v>137</v>
+      </c>
+      <c r="C3665" s="0">
+        <v>2602</v>
+      </c>
+      <c r="D3665" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3666">
+      <c r="A3666" s="0">
+        <v>4678</v>
+      </c>
+      <c r="B3666" s="0">
+        <v>137</v>
+      </c>
+      <c r="C3666" s="0">
+        <v>2603</v>
+      </c>
+      <c r="D3666" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3667">
+      <c r="A3667" s="0">
+        <v>4679</v>
+      </c>
+      <c r="B3667" s="0">
+        <v>137</v>
+      </c>
+      <c r="C3667" s="0">
+        <v>2604</v>
+      </c>
+      <c r="D3667" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3668">
+      <c r="A3668" s="0">
+        <v>4680</v>
+      </c>
+      <c r="B3668" s="0">
+        <v>137</v>
+      </c>
+      <c r="C3668" s="0">
+        <v>2605</v>
+      </c>
+      <c r="D3668" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3669">
+      <c r="A3669" s="0">
+        <v>4681</v>
+      </c>
+      <c r="B3669" s="0">
+        <v>137</v>
+      </c>
+      <c r="C3669" s="0">
+        <v>2606</v>
+      </c>
+      <c r="D3669" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3670">
+      <c r="A3670" s="0">
+        <v>4682</v>
+      </c>
+      <c r="B3670" s="0">
+        <v>137</v>
+      </c>
+      <c r="C3670" s="0">
+        <v>2607</v>
+      </c>
+      <c r="D3670" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3671">
+      <c r="A3671" s="0">
+        <v>4683</v>
+      </c>
+      <c r="B3671" s="0">
+        <v>137</v>
+      </c>
+      <c r="C3671" s="0">
+        <v>2608</v>
+      </c>
+      <c r="D3671" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3672">
+      <c r="A3672" s="0">
+        <v>4684</v>
+      </c>
+      <c r="B3672" s="0">
+        <v>137</v>
+      </c>
+      <c r="C3672" s="0">
+        <v>2609</v>
+      </c>
+      <c r="D3672" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3673">
+      <c r="A3673" s="0">
+        <v>4685</v>
+      </c>
+      <c r="B3673" s="0">
+        <v>137</v>
+      </c>
+      <c r="C3673" s="0">
+        <v>2610</v>
+      </c>
+      <c r="D3673" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3674">
+      <c r="A3674" s="0">
+        <v>4686</v>
+      </c>
+      <c r="B3674" s="0">
+        <v>137</v>
+      </c>
+      <c r="C3674" s="0">
+        <v>2611</v>
+      </c>
+      <c r="D3674" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3675">
+      <c r="A3675" s="0">
+        <v>4687</v>
+      </c>
+      <c r="B3675" s="0">
+        <v>137</v>
+      </c>
+      <c r="C3675" s="0">
+        <v>2612</v>
+      </c>
+      <c r="D3675" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3676">
+      <c r="A3676" s="0">
+        <v>4688</v>
+      </c>
+      <c r="B3676" s="0">
+        <v>137</v>
+      </c>
+      <c r="C3676" s="0">
+        <v>2613</v>
+      </c>
+      <c r="D3676" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3677">
+      <c r="A3677" s="0">
+        <v>4689</v>
+      </c>
+      <c r="B3677" s="0">
+        <v>137</v>
+      </c>
+      <c r="C3677" s="0">
+        <v>2614</v>
+      </c>
+      <c r="D3677" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3678">
+      <c r="A3678" s="0">
+        <v>4690</v>
+      </c>
+      <c r="B3678" s="0">
+        <v>137</v>
+      </c>
+      <c r="C3678" s="0">
+        <v>2615</v>
+      </c>
+      <c r="D3678" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3679">
+      <c r="A3679" s="0">
+        <v>4691</v>
+      </c>
+      <c r="B3679" s="0">
+        <v>137</v>
+      </c>
+      <c r="C3679" s="0">
+        <v>2616</v>
+      </c>
+      <c r="D3679" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3680">
+      <c r="A3680" s="0">
+        <v>4692</v>
+      </c>
+      <c r="B3680" s="0">
+        <v>137</v>
+      </c>
+      <c r="C3680" s="0">
+        <v>2617</v>
+      </c>
+      <c r="D3680" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3681">
+      <c r="A3681" s="0">
+        <v>4693</v>
+      </c>
+      <c r="B3681" s="0">
+        <v>137</v>
+      </c>
+      <c r="C3681" s="0">
+        <v>2618</v>
+      </c>
+      <c r="D3681" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3682">
+      <c r="A3682" s="0">
+        <v>4694</v>
+      </c>
+      <c r="B3682" s="0">
+        <v>137</v>
+      </c>
+      <c r="C3682" s="0">
+        <v>2619</v>
+      </c>
+      <c r="D3682" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3683">
+      <c r="A3683" s="0">
+        <v>4695</v>
+      </c>
+      <c r="B3683" s="0">
+        <v>137</v>
+      </c>
+      <c r="C3683" s="0">
+        <v>2620</v>
+      </c>
+      <c r="D3683" s="0">
+        <v>41</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3684">
+      <c r="A3684" s="0">
+        <v>4696</v>
+      </c>
+      <c r="B3684" s="0">
+        <v>137</v>
+      </c>
+      <c r="C3684" s="0">
+        <v>2621</v>
+      </c>
+      <c r="D3684" s="0">
+        <v>42</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3685">
+      <c r="A3685" s="0">
+        <v>4697</v>
+      </c>
+      <c r="B3685" s="0">
+        <v>137</v>
+      </c>
+      <c r="C3685" s="0">
+        <v>2622</v>
+      </c>
+      <c r="D3685" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3686">
+      <c r="A3686" s="0">
+        <v>4698</v>
+      </c>
+      <c r="B3686" s="0">
+        <v>137</v>
+      </c>
+      <c r="C3686" s="0">
+        <v>2623</v>
+      </c>
+      <c r="D3686" s="0">
+        <v>44</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3687">
+      <c r="A3687" s="0">
+        <v>4699</v>
+      </c>
+      <c r="B3687" s="0">
+        <v>137</v>
+      </c>
+      <c r="C3687" s="0">
+        <v>2624</v>
+      </c>
+      <c r="D3687" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3688">
+      <c r="A3688" s="0">
+        <v>4700</v>
+      </c>
+      <c r="B3688" s="0">
+        <v>137</v>
+      </c>
+      <c r="C3688" s="0">
+        <v>2625</v>
+      </c>
+      <c r="D3688" s="0">
+        <v>46</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3689">
+      <c r="A3689" s="0">
+        <v>4701</v>
+      </c>
+      <c r="B3689" s="0">
+        <v>137</v>
+      </c>
+      <c r="C3689" s="0">
+        <v>2626</v>
+      </c>
+      <c r="D3689" s="0">
+        <v>47</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3690">
+      <c r="A3690" s="0">
+        <v>4702</v>
+      </c>
+      <c r="B3690" s="0">
+        <v>138</v>
+      </c>
+      <c r="C3690" s="0">
+        <v>2627</v>
+      </c>
+      <c r="D3690" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3691">
+      <c r="A3691" s="0">
+        <v>4703</v>
+      </c>
+      <c r="B3691" s="0">
+        <v>138</v>
+      </c>
+      <c r="C3691" s="0">
+        <v>2628</v>
+      </c>
+      <c r="D3691" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3692">
+      <c r="A3692" s="0">
+        <v>4704</v>
+      </c>
+      <c r="B3692" s="0">
+        <v>138</v>
+      </c>
+      <c r="C3692" s="0">
+        <v>2629</v>
+      </c>
+      <c r="D3692" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3693">
+      <c r="A3693" s="0">
+        <v>4705</v>
+      </c>
+      <c r="B3693" s="0">
+        <v>138</v>
+      </c>
+      <c r="C3693" s="0">
+        <v>2630</v>
+      </c>
+      <c r="D3693" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3694">
+      <c r="A3694" s="0">
+        <v>4706</v>
+      </c>
+      <c r="B3694" s="0">
+        <v>138</v>
+      </c>
+      <c r="C3694" s="0">
+        <v>2631</v>
+      </c>
+      <c r="D3694" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3695">
+      <c r="A3695" s="0">
+        <v>4707</v>
+      </c>
+      <c r="B3695" s="0">
+        <v>138</v>
+      </c>
+      <c r="C3695" s="0">
+        <v>2632</v>
+      </c>
+      <c r="D3695" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3696">
+      <c r="A3696" s="0">
+        <v>4708</v>
+      </c>
+      <c r="B3696" s="0">
+        <v>138</v>
+      </c>
+      <c r="C3696" s="0">
+        <v>2633</v>
+      </c>
+      <c r="D3696" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3697">
+      <c r="A3697" s="0">
+        <v>4709</v>
+      </c>
+      <c r="B3697" s="0">
+        <v>138</v>
+      </c>
+      <c r="C3697" s="0">
+        <v>2634</v>
+      </c>
+      <c r="D3697" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3698">
+      <c r="A3698" s="0">
+        <v>4710</v>
+      </c>
+      <c r="B3698" s="0">
+        <v>138</v>
+      </c>
+      <c r="C3698" s="0">
+        <v>2635</v>
+      </c>
+      <c r="D3698" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3699">
+      <c r="A3699" s="0">
+        <v>4711</v>
+      </c>
+      <c r="B3699" s="0">
+        <v>138</v>
+      </c>
+      <c r="C3699" s="0">
+        <v>2636</v>
+      </c>
+      <c r="D3699" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3700">
+      <c r="A3700" s="0">
+        <v>4712</v>
+      </c>
+      <c r="B3700" s="0">
+        <v>138</v>
+      </c>
+      <c r="C3700" s="0">
+        <v>2637</v>
+      </c>
+      <c r="D3700" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3701">
+      <c r="A3701" s="0">
+        <v>4713</v>
+      </c>
+      <c r="B3701" s="0">
+        <v>138</v>
+      </c>
+      <c r="C3701" s="0">
+        <v>2638</v>
+      </c>
+      <c r="D3701" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3702">
+      <c r="A3702" s="0">
+        <v>4714</v>
+      </c>
+      <c r="B3702" s="0">
+        <v>138</v>
+      </c>
+      <c r="C3702" s="0">
+        <v>2639</v>
+      </c>
+      <c r="D3702" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3703">
+      <c r="A3703" s="0">
+        <v>4715</v>
+      </c>
+      <c r="B3703" s="0">
+        <v>138</v>
+      </c>
+      <c r="C3703" s="0">
+        <v>2640</v>
+      </c>
+      <c r="D3703" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3704">
+      <c r="A3704" s="0">
+        <v>4716</v>
+      </c>
+      <c r="B3704" s="0">
+        <v>138</v>
+      </c>
+      <c r="C3704" s="0">
+        <v>2641</v>
+      </c>
+      <c r="D3704" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3705">
+      <c r="A3705" s="0">
+        <v>4717</v>
+      </c>
+      <c r="B3705" s="0">
+        <v>138</v>
+      </c>
+      <c r="C3705" s="0">
+        <v>2642</v>
+      </c>
+      <c r="D3705" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3706">
+      <c r="A3706" s="0">
+        <v>4718</v>
+      </c>
+      <c r="B3706" s="0">
+        <v>138</v>
+      </c>
+      <c r="C3706" s="0">
+        <v>2643</v>
+      </c>
+      <c r="D3706" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3707">
+      <c r="A3707" s="0">
+        <v>4719</v>
+      </c>
+      <c r="B3707" s="0">
+        <v>138</v>
+      </c>
+      <c r="C3707" s="0">
+        <v>2644</v>
+      </c>
+      <c r="D3707" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3708">
+      <c r="A3708" s="0">
+        <v>4720</v>
+      </c>
+      <c r="B3708" s="0">
+        <v>138</v>
+      </c>
+      <c r="C3708" s="0">
+        <v>2645</v>
+      </c>
+      <c r="D3708" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3709">
+      <c r="A3709" s="0">
+        <v>4721</v>
+      </c>
+      <c r="B3709" s="0">
+        <v>138</v>
+      </c>
+      <c r="C3709" s="0">
+        <v>2646</v>
+      </c>
+      <c r="D3709" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3710">
+      <c r="A3710" s="0">
+        <v>4722</v>
+      </c>
+      <c r="B3710" s="0">
+        <v>138</v>
+      </c>
+      <c r="C3710" s="0">
+        <v>2647</v>
+      </c>
+      <c r="D3710" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3711">
+      <c r="A3711" s="0">
+        <v>4723</v>
+      </c>
+      <c r="B3711" s="0">
+        <v>138</v>
+      </c>
+      <c r="C3711" s="0">
+        <v>2648</v>
+      </c>
+      <c r="D3711" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3712">
+      <c r="A3712" s="0">
+        <v>4724</v>
+      </c>
+      <c r="B3712" s="0">
+        <v>138</v>
+      </c>
+      <c r="C3712" s="0">
+        <v>2649</v>
+      </c>
+      <c r="D3712" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3713">
+      <c r="A3713" s="0">
+        <v>4725</v>
+      </c>
+      <c r="B3713" s="0">
+        <v>138</v>
+      </c>
+      <c r="C3713" s="0">
+        <v>2650</v>
+      </c>
+      <c r="D3713" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3714">
+      <c r="A3714" s="0">
+        <v>4726</v>
+      </c>
+      <c r="B3714" s="0">
+        <v>138</v>
+      </c>
+      <c r="C3714" s="0">
+        <v>2651</v>
+      </c>
+      <c r="D3714" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3715">
+      <c r="A3715" s="0">
+        <v>4727</v>
+      </c>
+      <c r="B3715" s="0">
+        <v>138</v>
+      </c>
+      <c r="C3715" s="0">
+        <v>2652</v>
+      </c>
+      <c r="D3715" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3716">
+      <c r="A3716" s="0">
+        <v>4728</v>
+      </c>
+      <c r="B3716" s="0">
+        <v>138</v>
+      </c>
+      <c r="C3716" s="0">
+        <v>2653</v>
+      </c>
+      <c r="D3716" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3717">
+      <c r="A3717" s="0">
+        <v>4729</v>
+      </c>
+      <c r="B3717" s="0">
+        <v>138</v>
+      </c>
+      <c r="C3717" s="0">
+        <v>2654</v>
+      </c>
+      <c r="D3717" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3718">
+      <c r="A3718" s="0">
+        <v>4730</v>
+      </c>
+      <c r="B3718" s="0">
+        <v>138</v>
+      </c>
+      <c r="C3718" s="0">
+        <v>2655</v>
+      </c>
+      <c r="D3718" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3719">
+      <c r="A3719" s="0">
+        <v>4731</v>
+      </c>
+      <c r="B3719" s="0">
+        <v>138</v>
+      </c>
+      <c r="C3719" s="0">
+        <v>2656</v>
+      </c>
+      <c r="D3719" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3720">
+      <c r="A3720" s="0">
+        <v>4732</v>
+      </c>
+      <c r="B3720" s="0">
+        <v>138</v>
+      </c>
+      <c r="C3720" s="0">
+        <v>2657</v>
+      </c>
+      <c r="D3720" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3721">
+      <c r="A3721" s="0">
+        <v>4733</v>
+      </c>
+      <c r="B3721" s="0">
+        <v>138</v>
+      </c>
+      <c r="C3721" s="0">
+        <v>2658</v>
+      </c>
+      <c r="D3721" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3722">
+      <c r="A3722" s="0">
+        <v>4734</v>
+      </c>
+      <c r="B3722" s="0">
+        <v>138</v>
+      </c>
+      <c r="C3722" s="0">
+        <v>2659</v>
+      </c>
+      <c r="D3722" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3723">
+      <c r="A3723" s="0">
+        <v>4735</v>
+      </c>
+      <c r="B3723" s="0">
+        <v>138</v>
+      </c>
+      <c r="C3723" s="0">
+        <v>2660</v>
+      </c>
+      <c r="D3723" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3724">
+      <c r="A3724" s="0">
+        <v>4736</v>
+      </c>
+      <c r="B3724" s="0">
+        <v>138</v>
+      </c>
+      <c r="C3724" s="0">
+        <v>2661</v>
+      </c>
+      <c r="D3724" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3725">
+      <c r="A3725" s="0">
+        <v>4737</v>
+      </c>
+      <c r="B3725" s="0">
+        <v>138</v>
+      </c>
+      <c r="C3725" s="0">
+        <v>2662</v>
+      </c>
+      <c r="D3725" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3726">
+      <c r="A3726" s="0">
+        <v>4738</v>
+      </c>
+      <c r="B3726" s="0">
+        <v>138</v>
+      </c>
+      <c r="C3726" s="0">
+        <v>2663</v>
+      </c>
+      <c r="D3726" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3727">
+      <c r="A3727" s="0">
+        <v>4739</v>
+      </c>
+      <c r="B3727" s="0">
+        <v>138</v>
+      </c>
+      <c r="C3727" s="0">
+        <v>2664</v>
+      </c>
+      <c r="D3727" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3728">
+      <c r="A3728" s="0">
+        <v>4740</v>
+      </c>
+      <c r="B3728" s="0">
+        <v>138</v>
+      </c>
+      <c r="C3728" s="0">
+        <v>2665</v>
+      </c>
+      <c r="D3728" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3729">
+      <c r="A3729" s="0">
+        <v>4741</v>
+      </c>
+      <c r="B3729" s="0">
+        <v>138</v>
+      </c>
+      <c r="C3729" s="0">
+        <v>2666</v>
+      </c>
+      <c r="D3729" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3730">
+      <c r="A3730" s="0">
+        <v>4742</v>
+      </c>
+      <c r="B3730" s="0">
+        <v>138</v>
+      </c>
+      <c r="C3730" s="0">
+        <v>2667</v>
+      </c>
+      <c r="D3730" s="0">
+        <v>41</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3731">
+      <c r="A3731" s="0">
+        <v>4743</v>
+      </c>
+      <c r="B3731" s="0">
+        <v>138</v>
+      </c>
+      <c r="C3731" s="0">
+        <v>2668</v>
+      </c>
+      <c r="D3731" s="0">
+        <v>42</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3732">
+      <c r="A3732" s="0">
+        <v>4744</v>
+      </c>
+      <c r="B3732" s="0">
+        <v>138</v>
+      </c>
+      <c r="C3732" s="0">
+        <v>2669</v>
+      </c>
+      <c r="D3732" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3733">
+      <c r="A3733" s="0">
+        <v>4745</v>
+      </c>
+      <c r="B3733" s="0">
+        <v>138</v>
+      </c>
+      <c r="C3733" s="0">
+        <v>2670</v>
+      </c>
+      <c r="D3733" s="0">
+        <v>44</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3734">
+      <c r="A3734" s="0">
+        <v>4746</v>
+      </c>
+      <c r="B3734" s="0">
+        <v>138</v>
+      </c>
+      <c r="C3734" s="0">
+        <v>2671</v>
+      </c>
+      <c r="D3734" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3735">
+      <c r="A3735" s="0">
+        <v>4747</v>
+      </c>
+      <c r="B3735" s="0">
+        <v>138</v>
+      </c>
+      <c r="C3735" s="0">
+        <v>2672</v>
+      </c>
+      <c r="D3735" s="0">
+        <v>46</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3736">
+      <c r="A3736" s="0">
+        <v>4748</v>
+      </c>
+      <c r="B3736" s="0">
+        <v>138</v>
+      </c>
+      <c r="C3736" s="0">
+        <v>2673</v>
+      </c>
+      <c r="D3736" s="0">
+        <v>47</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3737">
+      <c r="A3737" s="0">
+        <v>4749</v>
+      </c>
+      <c r="B3737" s="0">
+        <v>73</v>
+      </c>
+      <c r="C3737" s="0">
+        <v>2721</v>
+      </c>
+      <c r="D3737" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3738">
+      <c r="A3738" s="0">
+        <v>4750</v>
+      </c>
+      <c r="B3738" s="0">
+        <v>73</v>
+      </c>
+      <c r="C3738" s="0">
+        <v>2722</v>
+      </c>
+      <c r="D3738" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3739">
+      <c r="A3739" s="0">
+        <v>4751</v>
+      </c>
+      <c r="B3739" s="0">
+        <v>73</v>
+      </c>
+      <c r="C3739" s="0">
+        <v>2723</v>
+      </c>
+      <c r="D3739" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3740">
+      <c r="A3740" s="0">
+        <v>4752</v>
+      </c>
+      <c r="B3740" s="0">
+        <v>73</v>
+      </c>
+      <c r="C3740" s="0">
+        <v>2724</v>
+      </c>
+      <c r="D3740" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3741">
+      <c r="A3741" s="0">
+        <v>4753</v>
+      </c>
+      <c r="B3741" s="0">
+        <v>73</v>
+      </c>
+      <c r="C3741" s="0">
+        <v>2725</v>
+      </c>
+      <c r="D3741" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3742">
+      <c r="A3742" s="0">
+        <v>4754</v>
+      </c>
+      <c r="B3742" s="0">
+        <v>73</v>
+      </c>
+      <c r="C3742" s="0">
+        <v>2726</v>
+      </c>
+      <c r="D3742" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3743">
+      <c r="A3743" s="0">
+        <v>4755</v>
+      </c>
+      <c r="B3743" s="0">
+        <v>73</v>
+      </c>
+      <c r="C3743" s="0">
+        <v>2727</v>
+      </c>
+      <c r="D3743" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3744">
+      <c r="A3744" s="0">
+        <v>4756</v>
+      </c>
+      <c r="B3744" s="0">
+        <v>73</v>
+      </c>
+      <c r="C3744" s="0">
+        <v>2728</v>
+      </c>
+      <c r="D3744" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3745">
+      <c r="A3745" s="0">
+        <v>4757</v>
+      </c>
+      <c r="B3745" s="0">
+        <v>73</v>
+      </c>
+      <c r="C3745" s="0">
+        <v>2729</v>
+      </c>
+      <c r="D3745" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3746">
+      <c r="A3746" s="0">
+        <v>4758</v>
+      </c>
+      <c r="B3746" s="0">
+        <v>73</v>
+      </c>
+      <c r="C3746" s="0">
+        <v>2730</v>
+      </c>
+      <c r="D3746" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3747">
+      <c r="A3747" s="0">
+        <v>4759</v>
+      </c>
+      <c r="B3747" s="0">
+        <v>73</v>
+      </c>
+      <c r="C3747" s="0">
+        <v>2731</v>
+      </c>
+      <c r="D3747" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3748">
+      <c r="A3748" s="0">
+        <v>4760</v>
+      </c>
+      <c r="B3748" s="0">
+        <v>73</v>
+      </c>
+      <c r="C3748" s="0">
+        <v>2732</v>
+      </c>
+      <c r="D3748" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3749">
+      <c r="A3749" s="0">
+        <v>4761</v>
+      </c>
+      <c r="B3749" s="0">
+        <v>73</v>
+      </c>
+      <c r="C3749" s="0">
+        <v>2733</v>
+      </c>
+      <c r="D3749" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3750">
+      <c r="A3750" s="0">
+        <v>4762</v>
+      </c>
+      <c r="B3750" s="0">
+        <v>73</v>
+      </c>
+      <c r="C3750" s="0">
+        <v>2734</v>
+      </c>
+      <c r="D3750" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3751">
+      <c r="A3751" s="0">
+        <v>4763</v>
+      </c>
+      <c r="B3751" s="0">
+        <v>73</v>
+      </c>
+      <c r="C3751" s="0">
+        <v>2735</v>
+      </c>
+      <c r="D3751" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3752">
+      <c r="A3752" s="0">
+        <v>4764</v>
+      </c>
+      <c r="B3752" s="0">
+        <v>73</v>
+      </c>
+      <c r="C3752" s="0">
+        <v>2736</v>
+      </c>
+      <c r="D3752" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3753">
+      <c r="A3753" s="0">
+        <v>4765</v>
+      </c>
+      <c r="B3753" s="0">
+        <v>73</v>
+      </c>
+      <c r="C3753" s="0">
+        <v>2737</v>
+      </c>
+      <c r="D3753" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3754">
+      <c r="A3754" s="0">
+        <v>4766</v>
+      </c>
+      <c r="B3754" s="0">
+        <v>73</v>
+      </c>
+      <c r="C3754" s="0">
+        <v>2738</v>
+      </c>
+      <c r="D3754" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3755">
+      <c r="A3755" s="0">
+        <v>4767</v>
+      </c>
+      <c r="B3755" s="0">
+        <v>73</v>
+      </c>
+      <c r="C3755" s="0">
+        <v>2739</v>
+      </c>
+      <c r="D3755" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3756">
+      <c r="A3756" s="0">
+        <v>4768</v>
+      </c>
+      <c r="B3756" s="0">
+        <v>73</v>
+      </c>
+      <c r="C3756" s="0">
+        <v>2740</v>
+      </c>
+      <c r="D3756" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3757">
+      <c r="A3757" s="0">
+        <v>4769</v>
+      </c>
+      <c r="B3757" s="0">
+        <v>73</v>
+      </c>
+      <c r="C3757" s="0">
+        <v>2741</v>
+      </c>
+      <c r="D3757" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3758">
+      <c r="A3758" s="0">
+        <v>4770</v>
+      </c>
+      <c r="B3758" s="0">
+        <v>73</v>
+      </c>
+      <c r="C3758" s="0">
+        <v>2742</v>
+      </c>
+      <c r="D3758" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3759">
+      <c r="A3759" s="0">
+        <v>4771</v>
+      </c>
+      <c r="B3759" s="0">
+        <v>73</v>
+      </c>
+      <c r="C3759" s="0">
+        <v>2743</v>
+      </c>
+      <c r="D3759" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3760">
+      <c r="A3760" s="0">
+        <v>4772</v>
+      </c>
+      <c r="B3760" s="0">
+        <v>73</v>
+      </c>
+      <c r="C3760" s="0">
+        <v>2744</v>
+      </c>
+      <c r="D3760" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3761">
+      <c r="A3761" s="0">
+        <v>4773</v>
+      </c>
+      <c r="B3761" s="0">
+        <v>73</v>
+      </c>
+      <c r="C3761" s="0">
+        <v>2745</v>
+      </c>
+      <c r="D3761" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3762">
+      <c r="A3762" s="0">
+        <v>4774</v>
+      </c>
+      <c r="B3762" s="0">
+        <v>73</v>
+      </c>
+      <c r="C3762" s="0">
+        <v>2746</v>
+      </c>
+      <c r="D3762" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3763">
+      <c r="A3763" s="0">
+        <v>4775</v>
+      </c>
+      <c r="B3763" s="0">
+        <v>73</v>
+      </c>
+      <c r="C3763" s="0">
+        <v>2747</v>
+      </c>
+      <c r="D3763" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3764">
+      <c r="A3764" s="0">
+        <v>4776</v>
+      </c>
+      <c r="B3764" s="0">
+        <v>73</v>
+      </c>
+      <c r="C3764" s="0">
+        <v>2748</v>
+      </c>
+      <c r="D3764" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3765">
+      <c r="A3765" s="0">
+        <v>4777</v>
+      </c>
+      <c r="B3765" s="0">
+        <v>73</v>
+      </c>
+      <c r="C3765" s="0">
+        <v>2749</v>
+      </c>
+      <c r="D3765" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3766">
+      <c r="A3766" s="0">
+        <v>4778</v>
+      </c>
+      <c r="B3766" s="0">
+        <v>73</v>
+      </c>
+      <c r="C3766" s="0">
+        <v>2750</v>
+      </c>
+      <c r="D3766" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3767">
+      <c r="A3767" s="0">
+        <v>4779</v>
+      </c>
+      <c r="B3767" s="0">
+        <v>73</v>
+      </c>
+      <c r="C3767" s="0">
+        <v>2751</v>
+      </c>
+      <c r="D3767" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3768">
+      <c r="A3768" s="0">
+        <v>4780</v>
+      </c>
+      <c r="B3768" s="0">
+        <v>73</v>
+      </c>
+      <c r="C3768" s="0">
+        <v>2752</v>
+      </c>
+      <c r="D3768" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3769">
+      <c r="A3769" s="0">
+        <v>4781</v>
+      </c>
+      <c r="B3769" s="0">
+        <v>73</v>
+      </c>
+      <c r="C3769" s="0">
+        <v>2753</v>
+      </c>
+      <c r="D3769" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3770">
+      <c r="A3770" s="0">
+        <v>4782</v>
+      </c>
+      <c r="B3770" s="0">
+        <v>73</v>
+      </c>
+      <c r="C3770" s="0">
+        <v>2754</v>
+      </c>
+      <c r="D3770" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3771">
+      <c r="A3771" s="0">
+        <v>4783</v>
+      </c>
+      <c r="B3771" s="0">
+        <v>73</v>
+      </c>
+      <c r="C3771" s="0">
+        <v>2755</v>
+      </c>
+      <c r="D3771" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3772">
+      <c r="A3772" s="0">
+        <v>4784</v>
+      </c>
+      <c r="B3772" s="0">
+        <v>73</v>
+      </c>
+      <c r="C3772" s="0">
+        <v>2756</v>
+      </c>
+      <c r="D3772" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3773">
+      <c r="A3773" s="0">
+        <v>4785</v>
+      </c>
+      <c r="B3773" s="0">
+        <v>73</v>
+      </c>
+      <c r="C3773" s="0">
+        <v>2757</v>
+      </c>
+      <c r="D3773" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3774">
+      <c r="A3774" s="0">
+        <v>4786</v>
+      </c>
+      <c r="B3774" s="0">
+        <v>73</v>
+      </c>
+      <c r="C3774" s="0">
+        <v>2758</v>
+      </c>
+      <c r="D3774" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3775">
+      <c r="A3775" s="0">
+        <v>4787</v>
+      </c>
+      <c r="B3775" s="0">
+        <v>73</v>
+      </c>
+      <c r="C3775" s="0">
+        <v>2759</v>
+      </c>
+      <c r="D3775" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3776">
+      <c r="A3776" s="0">
+        <v>4788</v>
+      </c>
+      <c r="B3776" s="0">
+        <v>73</v>
+      </c>
+      <c r="C3776" s="0">
+        <v>2760</v>
+      </c>
+      <c r="D3776" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3777">
+      <c r="A3777" s="0">
+        <v>4789</v>
+      </c>
+      <c r="B3777" s="0">
+        <v>73</v>
+      </c>
+      <c r="C3777" s="0">
+        <v>2761</v>
+      </c>
+      <c r="D3777" s="0">
+        <v>41</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3778">
+      <c r="A3778" s="0">
+        <v>4790</v>
+      </c>
+      <c r="B3778" s="0">
+        <v>73</v>
+      </c>
+      <c r="C3778" s="0">
+        <v>2762</v>
+      </c>
+      <c r="D3778" s="0">
+        <v>42</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3779">
+      <c r="A3779" s="0">
+        <v>4791</v>
+      </c>
+      <c r="B3779" s="0">
+        <v>73</v>
+      </c>
+      <c r="C3779" s="0">
+        <v>2763</v>
+      </c>
+      <c r="D3779" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3780">
+      <c r="A3780" s="0">
+        <v>4792</v>
+      </c>
+      <c r="B3780" s="0">
+        <v>73</v>
+      </c>
+      <c r="C3780" s="0">
+        <v>2764</v>
+      </c>
+      <c r="D3780" s="0">
+        <v>44</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3781">
+      <c r="A3781" s="0">
+        <v>4793</v>
+      </c>
+      <c r="B3781" s="0">
+        <v>73</v>
+      </c>
+      <c r="C3781" s="0">
+        <v>2765</v>
+      </c>
+      <c r="D3781" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3782">
+      <c r="A3782" s="0">
+        <v>4794</v>
+      </c>
+      <c r="B3782" s="0">
+        <v>73</v>
+      </c>
+      <c r="C3782" s="0">
+        <v>2766</v>
+      </c>
+      <c r="D3782" s="0">
+        <v>46</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3783">
+      <c r="A3783" s="0">
+        <v>4795</v>
+      </c>
+      <c r="B3783" s="0">
+        <v>73</v>
+      </c>
+      <c r="C3783" s="0">
+        <v>2767</v>
+      </c>
+      <c r="D3783" s="0">
+        <v>47</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3784">
+      <c r="A3784" s="0">
+        <v>4796</v>
+      </c>
+      <c r="B3784" s="0">
+        <v>75</v>
+      </c>
+      <c r="C3784" s="0">
+        <v>2722</v>
+      </c>
+      <c r="D3784" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3785">
+      <c r="A3785" s="0">
+        <v>4797</v>
+      </c>
+      <c r="B3785" s="0">
+        <v>75</v>
+      </c>
+      <c r="C3785" s="0">
+        <v>2724</v>
+      </c>
+      <c r="D3785" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3786">
+      <c r="A3786" s="0">
+        <v>4798</v>
+      </c>
+      <c r="B3786" s="0">
+        <v>75</v>
+      </c>
+      <c r="C3786" s="0">
+        <v>2725</v>
+      </c>
+      <c r="D3786" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3787">
+      <c r="A3787" s="0">
+        <v>4799</v>
+      </c>
+      <c r="B3787" s="0">
+        <v>75</v>
+      </c>
+      <c r="C3787" s="0">
+        <v>2726</v>
+      </c>
+      <c r="D3787" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3788">
+      <c r="A3788" s="0">
+        <v>4800</v>
+      </c>
+      <c r="B3788" s="0">
+        <v>75</v>
+      </c>
+      <c r="C3788" s="0">
+        <v>2733</v>
+      </c>
+      <c r="D3788" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3789">
+      <c r="A3789" s="0">
+        <v>4801</v>
+      </c>
+      <c r="B3789" s="0">
+        <v>75</v>
+      </c>
+      <c r="C3789" s="0">
+        <v>2753</v>
+      </c>
+      <c r="D3789" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3790">
+      <c r="A3790" s="0">
+        <v>4802</v>
+      </c>
+      <c r="B3790" s="0">
+        <v>75</v>
+      </c>
+      <c r="C3790" s="0">
+        <v>2752</v>
+      </c>
+      <c r="D3790" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3791">
+      <c r="A3791" s="0">
+        <v>4803</v>
+      </c>
+      <c r="B3791" s="0">
+        <v>75</v>
+      </c>
+      <c r="C3791" s="0">
+        <v>2731</v>
+      </c>
+      <c r="D3791" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3792">
+      <c r="A3792" s="0">
+        <v>4804</v>
+      </c>
+      <c r="B3792" s="0">
+        <v>75</v>
+      </c>
+      <c r="C3792" s="0">
+        <v>2737</v>
+      </c>
+      <c r="D3792" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3793">
+      <c r="A3793" s="0">
+        <v>4805</v>
+      </c>
+      <c r="B3793" s="0">
+        <v>75</v>
+      </c>
+      <c r="C3793" s="0">
+        <v>2735</v>
+      </c>
+      <c r="D3793" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3794">
+      <c r="A3794" s="0">
+        <v>4806</v>
+      </c>
+      <c r="B3794" s="0">
+        <v>75</v>
+      </c>
+      <c r="C3794" s="0">
+        <v>2756</v>
+      </c>
+      <c r="D3794" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3795">
+      <c r="A3795" s="0">
+        <v>4807</v>
+      </c>
+      <c r="B3795" s="0">
+        <v>75</v>
+      </c>
+      <c r="C3795" s="0">
+        <v>2762</v>
+      </c>
+      <c r="D3795" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3796">
+      <c r="A3796" s="0">
+        <v>4808</v>
+      </c>
+      <c r="B3796" s="0">
+        <v>75</v>
+      </c>
+      <c r="C3796" s="0">
+        <v>2739</v>
+      </c>
+      <c r="D3796" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3797">
+      <c r="A3797" s="0">
+        <v>4809</v>
+      </c>
+      <c r="B3797" s="0">
+        <v>75</v>
+      </c>
+      <c r="C3797" s="0">
+        <v>2746</v>
+      </c>
+      <c r="D3797" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3798">
+      <c r="A3798" s="0">
+        <v>4810</v>
+      </c>
+      <c r="B3798" s="0">
+        <v>75</v>
+      </c>
+      <c r="C3798" s="0">
+        <v>2745</v>
+      </c>
+      <c r="D3798" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3799">
+      <c r="A3799" s="0">
+        <v>4811</v>
+      </c>
+      <c r="B3799" s="0">
+        <v>75</v>
+      </c>
+      <c r="C3799" s="0">
+        <v>2749</v>
+      </c>
+      <c r="D3799" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3800">
+      <c r="A3800" s="0">
+        <v>4812</v>
+      </c>
+      <c r="B3800" s="0">
+        <v>75</v>
+      </c>
+      <c r="C3800" s="0">
+        <v>2751</v>
+      </c>
+      <c r="D3800" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3801">
+      <c r="A3801" s="0">
+        <v>4813</v>
+      </c>
+      <c r="B3801" s="0">
+        <v>75</v>
+      </c>
+      <c r="C3801" s="0">
+        <v>2757</v>
+      </c>
+      <c r="D3801" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3802">
+      <c r="A3802" s="0">
+        <v>4814</v>
+      </c>
+      <c r="B3802" s="0">
+        <v>75</v>
+      </c>
+      <c r="C3802" s="0">
+        <v>2760</v>
+      </c>
+      <c r="D3802" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3803">
+      <c r="A3803" s="0">
+        <v>4815</v>
+      </c>
+      <c r="B3803" s="0">
+        <v>75</v>
+      </c>
+      <c r="C3803" s="0">
+        <v>2761</v>
+      </c>
+      <c r="D3803" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3804">
+      <c r="A3804" s="0">
+        <v>4816</v>
+      </c>
+      <c r="B3804" s="0">
+        <v>75</v>
+      </c>
+      <c r="C3804" s="0">
+        <v>2741</v>
+      </c>
+      <c r="D3804" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3805">
+      <c r="A3805" s="0">
+        <v>4817</v>
+      </c>
+      <c r="B3805" s="0">
+        <v>75</v>
+      </c>
+      <c r="C3805" s="0">
+        <v>2763</v>
+      </c>
+      <c r="D3805" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3806">
+      <c r="A3806" s="0">
+        <v>4818</v>
+      </c>
+      <c r="B3806" s="0">
+        <v>75</v>
+      </c>
+      <c r="C3806" s="0">
+        <v>2764</v>
+      </c>
+      <c r="D3806" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3807">
+      <c r="A3807" s="0">
+        <v>4819</v>
+      </c>
+      <c r="B3807" s="0">
+        <v>75</v>
+      </c>
+      <c r="C3807" s="0">
+        <v>2767</v>
+      </c>
+      <c r="D3807" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3808">
+      <c r="A3808" s="0">
+        <v>4820</v>
+      </c>
+      <c r="B3808" s="0">
+        <v>75</v>
+      </c>
+      <c r="C3808" s="0">
+        <v>2747</v>
+      </c>
+      <c r="D3808" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3809">
+      <c r="A3809" s="0">
+        <v>4821</v>
+      </c>
+      <c r="B3809" s="0">
+        <v>113</v>
+      </c>
+      <c r="C3809" s="0">
+        <v>2768</v>
+      </c>
+      <c r="D3809" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3810">
+      <c r="A3810" s="0">
+        <v>4822</v>
+      </c>
+      <c r="B3810" s="0">
+        <v>113</v>
+      </c>
+      <c r="C3810" s="0">
+        <v>754</v>
+      </c>
+      <c r="D3810" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3811">
+      <c r="A3811" s="0">
+        <v>4823</v>
+      </c>
+      <c r="B3811" s="0">
+        <v>113</v>
+      </c>
+      <c r="C3811" s="0">
+        <v>2769</v>
+      </c>
+      <c r="D3811" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3812">
+      <c r="A3812" s="0">
+        <v>4824</v>
+      </c>
+      <c r="B3812" s="0">
+        <v>113</v>
+      </c>
+      <c r="C3812" s="0">
+        <v>2770</v>
+      </c>
+      <c r="D3812" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3813">
+      <c r="A3813" s="0">
+        <v>4825</v>
+      </c>
+      <c r="B3813" s="0">
+        <v>113</v>
+      </c>
+      <c r="C3813" s="0">
+        <v>2771</v>
+      </c>
+      <c r="D3813" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3814">
+      <c r="A3814" s="0">
+        <v>4826</v>
+      </c>
+      <c r="B3814" s="0">
+        <v>113</v>
+      </c>
+      <c r="C3814" s="0">
+        <v>2772</v>
+      </c>
+      <c r="D3814" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3815">
+      <c r="A3815" s="0">
+        <v>4827</v>
+      </c>
+      <c r="B3815" s="0">
+        <v>113</v>
+      </c>
+      <c r="C3815" s="0">
+        <v>2773</v>
+      </c>
+      <c r="D3815" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3816">
+      <c r="A3816" s="0">
+        <v>4828</v>
+      </c>
+      <c r="B3816" s="0">
+        <v>113</v>
+      </c>
+      <c r="C3816" s="0">
+        <v>2774</v>
+      </c>
+      <c r="D3816" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3817">
+      <c r="A3817" s="0">
+        <v>4829</v>
+      </c>
+      <c r="B3817" s="0">
+        <v>113</v>
+      </c>
+      <c r="C3817" s="0">
+        <v>2775</v>
+      </c>
+      <c r="D3817" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3818">
+      <c r="A3818" s="0">
+        <v>4830</v>
+      </c>
+      <c r="B3818" s="0">
+        <v>113</v>
+      </c>
+      <c r="C3818" s="0">
+        <v>2776</v>
+      </c>
+      <c r="D3818" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3819">
+      <c r="A3819" s="0">
+        <v>4831</v>
+      </c>
+      <c r="B3819" s="0">
+        <v>113</v>
+      </c>
+      <c r="C3819" s="0">
+        <v>763</v>
+      </c>
+      <c r="D3819" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3820">
+      <c r="A3820" s="0">
+        <v>4832</v>
+      </c>
+      <c r="B3820" s="0">
+        <v>113</v>
+      </c>
+      <c r="C3820" s="0">
+        <v>764</v>
+      </c>
+      <c r="D3820" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3821">
+      <c r="A3821" s="0">
+        <v>4833</v>
+      </c>
+      <c r="B3821" s="0">
+        <v>113</v>
+      </c>
+      <c r="C3821" s="0">
+        <v>2777</v>
+      </c>
+      <c r="D3821" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3822">
+      <c r="A3822" s="0">
+        <v>4834</v>
+      </c>
+      <c r="B3822" s="0">
+        <v>113</v>
+      </c>
+      <c r="C3822" s="0">
+        <v>2778</v>
+      </c>
+      <c r="D3822" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3823">
+      <c r="A3823" s="0">
+        <v>4835</v>
+      </c>
+      <c r="B3823" s="0">
+        <v>113</v>
+      </c>
+      <c r="C3823" s="0">
+        <v>767</v>
+      </c>
+      <c r="D3823" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3824">
+      <c r="A3824" s="0">
+        <v>4836</v>
+      </c>
+      <c r="B3824" s="0">
+        <v>113</v>
+      </c>
+      <c r="C3824" s="0">
+        <v>2779</v>
+      </c>
+      <c r="D3824" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3825">
+      <c r="A3825" s="0">
+        <v>4837</v>
+      </c>
+      <c r="B3825" s="0">
+        <v>113</v>
+      </c>
+      <c r="C3825" s="0">
+        <v>2780</v>
+      </c>
+      <c r="D3825" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3826">
+      <c r="A3826" s="0">
+        <v>4838</v>
+      </c>
+      <c r="B3826" s="0">
+        <v>113</v>
+      </c>
+      <c r="C3826" s="0">
+        <v>2781</v>
+      </c>
+      <c r="D3826" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3827">
+      <c r="A3827" s="0">
+        <v>4839</v>
+      </c>
+      <c r="B3827" s="0">
+        <v>113</v>
+      </c>
+      <c r="C3827" s="0">
+        <v>2782</v>
+      </c>
+      <c r="D3827" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3828">
+      <c r="A3828" s="0">
+        <v>4840</v>
+      </c>
+      <c r="B3828" s="0">
+        <v>113</v>
+      </c>
+      <c r="C3828" s="0">
+        <v>2783</v>
+      </c>
+      <c r="D3828" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3829">
+      <c r="A3829" s="0">
+        <v>4841</v>
+      </c>
+      <c r="B3829" s="0">
+        <v>113</v>
+      </c>
+      <c r="C3829" s="0">
+        <v>2784</v>
+      </c>
+      <c r="D3829" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3830">
+      <c r="A3830" s="0">
+        <v>4842</v>
+      </c>
+      <c r="B3830" s="0">
+        <v>113</v>
+      </c>
+      <c r="C3830" s="0">
+        <v>2785</v>
+      </c>
+      <c r="D3830" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3831">
+      <c r="A3831" s="0">
+        <v>4843</v>
+      </c>
+      <c r="B3831" s="0">
+        <v>113</v>
+      </c>
+      <c r="C3831" s="0">
+        <v>2786</v>
+      </c>
+      <c r="D3831" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3832">
+      <c r="A3832" s="0">
+        <v>4844</v>
+      </c>
+      <c r="B3832" s="0">
+        <v>113</v>
+      </c>
+      <c r="C3832" s="0">
+        <v>2787</v>
+      </c>
+      <c r="D3832" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3833">
+      <c r="A3833" s="0">
+        <v>4845</v>
+      </c>
+      <c r="B3833" s="0">
+        <v>113</v>
+      </c>
+      <c r="C3833" s="0">
+        <v>2788</v>
+      </c>
+      <c r="D3833" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3834">
+      <c r="A3834" s="0">
+        <v>4846</v>
+      </c>
+      <c r="B3834" s="0">
+        <v>113</v>
+      </c>
+      <c r="C3834" s="0">
+        <v>2789</v>
+      </c>
+      <c r="D3834" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3835">
+      <c r="A3835" s="0">
+        <v>4847</v>
+      </c>
+      <c r="B3835" s="0">
+        <v>113</v>
+      </c>
+      <c r="C3835" s="0">
+        <v>2790</v>
+      </c>
+      <c r="D3835" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3836">
+      <c r="A3836" s="0">
+        <v>4848</v>
+      </c>
+      <c r="B3836" s="0">
+        <v>113</v>
+      </c>
+      <c r="C3836" s="0">
+        <v>780</v>
+      </c>
+      <c r="D3836" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3837">
+      <c r="A3837" s="0">
+        <v>4849</v>
+      </c>
+      <c r="B3837" s="0">
+        <v>113</v>
+      </c>
+      <c r="C3837" s="0">
+        <v>2791</v>
+      </c>
+      <c r="D3837" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3838">
+      <c r="A3838" s="0">
+        <v>4850</v>
+      </c>
+      <c r="B3838" s="0">
+        <v>113</v>
+      </c>
+      <c r="C3838" s="0">
+        <v>2792</v>
+      </c>
+      <c r="D3838" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3839">
+      <c r="A3839" s="0">
+        <v>4851</v>
+      </c>
+      <c r="B3839" s="0">
+        <v>113</v>
+      </c>
+      <c r="C3839" s="0">
+        <v>2793</v>
+      </c>
+      <c r="D3839" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3840">
+      <c r="A3840" s="0">
+        <v>4852</v>
+      </c>
+      <c r="B3840" s="0">
+        <v>113</v>
+      </c>
+      <c r="C3840" s="0">
+        <v>784</v>
+      </c>
+      <c r="D3840" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3841">
+      <c r="A3841" s="0">
+        <v>4853</v>
+      </c>
+      <c r="B3841" s="0">
+        <v>113</v>
+      </c>
+      <c r="C3841" s="0">
+        <v>2794</v>
+      </c>
+      <c r="D3841" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3842">
+      <c r="A3842" s="0">
+        <v>4854</v>
+      </c>
+      <c r="B3842" s="0">
+        <v>113</v>
+      </c>
+      <c r="C3842" s="0">
+        <v>2795</v>
+      </c>
+      <c r="D3842" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3843">
+      <c r="A3843" s="0">
+        <v>4855</v>
+      </c>
+      <c r="B3843" s="0">
+        <v>113</v>
+      </c>
+      <c r="C3843" s="0">
+        <v>2796</v>
+      </c>
+      <c r="D3843" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3844">
+      <c r="A3844" s="0">
+        <v>4856</v>
+      </c>
+      <c r="B3844" s="0">
+        <v>113</v>
+      </c>
+      <c r="C3844" s="0">
+        <v>2797</v>
+      </c>
+      <c r="D3844" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3845">
+      <c r="A3845" s="0">
+        <v>4857</v>
+      </c>
+      <c r="B3845" s="0">
+        <v>113</v>
+      </c>
+      <c r="C3845" s="0">
+        <v>789</v>
+      </c>
+      <c r="D3845" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3846">
+      <c r="A3846" s="0">
+        <v>4858</v>
+      </c>
+      <c r="B3846" s="0">
+        <v>113</v>
+      </c>
+      <c r="C3846" s="0">
+        <v>2798</v>
+      </c>
+      <c r="D3846" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3847">
+      <c r="A3847" s="0">
+        <v>4859</v>
+      </c>
+      <c r="B3847" s="0">
+        <v>113</v>
+      </c>
+      <c r="C3847" s="0">
+        <v>2799</v>
+      </c>
+      <c r="D3847" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3848">
+      <c r="A3848" s="0">
+        <v>4860</v>
+      </c>
+      <c r="B3848" s="0">
+        <v>113</v>
+      </c>
+      <c r="C3848" s="0">
+        <v>2800</v>
+      </c>
+      <c r="D3848" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3849">
+      <c r="A3849" s="0">
+        <v>4861</v>
+      </c>
+      <c r="B3849" s="0">
+        <v>113</v>
+      </c>
+      <c r="C3849" s="0">
+        <v>2801</v>
+      </c>
+      <c r="D3849" s="0">
+        <v>41</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3850">
+      <c r="A3850" s="0">
+        <v>4862</v>
+      </c>
+      <c r="B3850" s="0">
+        <v>113</v>
+      </c>
+      <c r="C3850" s="0">
+        <v>794</v>
+      </c>
+      <c r="D3850" s="0">
+        <v>42</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3851">
+      <c r="A3851" s="0">
+        <v>4863</v>
+      </c>
+      <c r="B3851" s="0">
+        <v>113</v>
+      </c>
+      <c r="C3851" s="0">
+        <v>2802</v>
+      </c>
+      <c r="D3851" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3852">
+      <c r="A3852" s="0">
+        <v>4864</v>
+      </c>
+      <c r="B3852" s="0">
+        <v>113</v>
+      </c>
+      <c r="C3852" s="0">
+        <v>2803</v>
+      </c>
+      <c r="D3852" s="0">
+        <v>44</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3853">
+      <c r="A3853" s="0">
+        <v>4865</v>
+      </c>
+      <c r="B3853" s="0">
+        <v>113</v>
+      </c>
+      <c r="C3853" s="0">
+        <v>797</v>
+      </c>
+      <c r="D3853" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3854">
+      <c r="A3854" s="0">
+        <v>4866</v>
+      </c>
+      <c r="B3854" s="0">
+        <v>113</v>
+      </c>
+      <c r="C3854" s="0">
+        <v>2804</v>
+      </c>
+      <c r="D3854" s="0">
+        <v>46</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3855">
+      <c r="A3855" s="0">
+        <v>4867</v>
+      </c>
+      <c r="B3855" s="0">
+        <v>113</v>
+      </c>
+      <c r="C3855" s="0">
+        <v>799</v>
+      </c>
+      <c r="D3855" s="0">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/rcads/data/xls/23_InstrumentItemMap.xlsx
+++ b/rcads/data/xls/23_InstrumentItemMap.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="_23_InstrumentItemMap"/>
   </sheets>
   <definedNames>
-    <definedName name="_23_InstrumentItemMap">'_23_InstrumentItemMap'!$A$1:$E$3855</definedName>
+    <definedName name="_23_InstrumentItemMap">'_23_InstrumentItemMap'!$A$1:$E$4070</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -343,7 +343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3855"/>
+  <dimension ref="A1:E4070"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -55201,6 +55201,3016 @@
         <v>47</v>
       </c>
     </row>
+    <row outlineLevel="0" r="3856">
+      <c r="A3856" s="0">
+        <v>4868</v>
+      </c>
+      <c r="B3856" s="0">
+        <v>93</v>
+      </c>
+      <c r="C3856" s="0">
+        <v>2806</v>
+      </c>
+      <c r="D3856" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3857">
+      <c r="A3857" s="0">
+        <v>4869</v>
+      </c>
+      <c r="B3857" s="0">
+        <v>93</v>
+      </c>
+      <c r="C3857" s="0">
+        <v>2807</v>
+      </c>
+      <c r="D3857" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3858">
+      <c r="A3858" s="0">
+        <v>4870</v>
+      </c>
+      <c r="B3858" s="0">
+        <v>93</v>
+      </c>
+      <c r="C3858" s="0">
+        <v>2808</v>
+      </c>
+      <c r="D3858" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3859">
+      <c r="A3859" s="0">
+        <v>4871</v>
+      </c>
+      <c r="B3859" s="0">
+        <v>93</v>
+      </c>
+      <c r="C3859" s="0">
+        <v>2809</v>
+      </c>
+      <c r="D3859" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3860">
+      <c r="A3860" s="0">
+        <v>4872</v>
+      </c>
+      <c r="B3860" s="0">
+        <v>93</v>
+      </c>
+      <c r="C3860" s="0">
+        <v>2810</v>
+      </c>
+      <c r="D3860" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3861">
+      <c r="A3861" s="0">
+        <v>4873</v>
+      </c>
+      <c r="B3861" s="0">
+        <v>93</v>
+      </c>
+      <c r="C3861" s="0">
+        <v>2811</v>
+      </c>
+      <c r="D3861" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3862">
+      <c r="A3862" s="0">
+        <v>4874</v>
+      </c>
+      <c r="B3862" s="0">
+        <v>93</v>
+      </c>
+      <c r="C3862" s="0">
+        <v>2812</v>
+      </c>
+      <c r="D3862" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3863">
+      <c r="A3863" s="0">
+        <v>4875</v>
+      </c>
+      <c r="B3863" s="0">
+        <v>93</v>
+      </c>
+      <c r="C3863" s="0">
+        <v>2813</v>
+      </c>
+      <c r="D3863" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3864">
+      <c r="A3864" s="0">
+        <v>4876</v>
+      </c>
+      <c r="B3864" s="0">
+        <v>93</v>
+      </c>
+      <c r="C3864" s="0">
+        <v>2814</v>
+      </c>
+      <c r="D3864" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3865">
+      <c r="A3865" s="0">
+        <v>4877</v>
+      </c>
+      <c r="B3865" s="0">
+        <v>93</v>
+      </c>
+      <c r="C3865" s="0">
+        <v>2815</v>
+      </c>
+      <c r="D3865" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3866">
+      <c r="A3866" s="0">
+        <v>4878</v>
+      </c>
+      <c r="B3866" s="0">
+        <v>93</v>
+      </c>
+      <c r="C3866" s="0">
+        <v>2816</v>
+      </c>
+      <c r="D3866" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3867">
+      <c r="A3867" s="0">
+        <v>4879</v>
+      </c>
+      <c r="B3867" s="0">
+        <v>93</v>
+      </c>
+      <c r="C3867" s="0">
+        <v>2817</v>
+      </c>
+      <c r="D3867" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3868">
+      <c r="A3868" s="0">
+        <v>4880</v>
+      </c>
+      <c r="B3868" s="0">
+        <v>93</v>
+      </c>
+      <c r="C3868" s="0">
+        <v>2818</v>
+      </c>
+      <c r="D3868" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3869">
+      <c r="A3869" s="0">
+        <v>4881</v>
+      </c>
+      <c r="B3869" s="0">
+        <v>93</v>
+      </c>
+      <c r="C3869" s="0">
+        <v>2819</v>
+      </c>
+      <c r="D3869" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3870">
+      <c r="A3870" s="0">
+        <v>4882</v>
+      </c>
+      <c r="B3870" s="0">
+        <v>93</v>
+      </c>
+      <c r="C3870" s="0">
+        <v>2820</v>
+      </c>
+      <c r="D3870" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3871">
+      <c r="A3871" s="0">
+        <v>4883</v>
+      </c>
+      <c r="B3871" s="0">
+        <v>93</v>
+      </c>
+      <c r="C3871" s="0">
+        <v>2821</v>
+      </c>
+      <c r="D3871" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3872">
+      <c r="A3872" s="0">
+        <v>4884</v>
+      </c>
+      <c r="B3872" s="0">
+        <v>93</v>
+      </c>
+      <c r="C3872" s="0">
+        <v>2822</v>
+      </c>
+      <c r="D3872" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3873">
+      <c r="A3873" s="0">
+        <v>4885</v>
+      </c>
+      <c r="B3873" s="0">
+        <v>93</v>
+      </c>
+      <c r="C3873" s="0">
+        <v>2823</v>
+      </c>
+      <c r="D3873" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3874">
+      <c r="A3874" s="0">
+        <v>4886</v>
+      </c>
+      <c r="B3874" s="0">
+        <v>93</v>
+      </c>
+      <c r="C3874" s="0">
+        <v>2824</v>
+      </c>
+      <c r="D3874" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3875">
+      <c r="A3875" s="0">
+        <v>4887</v>
+      </c>
+      <c r="B3875" s="0">
+        <v>93</v>
+      </c>
+      <c r="C3875" s="0">
+        <v>2825</v>
+      </c>
+      <c r="D3875" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3876">
+      <c r="A3876" s="0">
+        <v>4888</v>
+      </c>
+      <c r="B3876" s="0">
+        <v>93</v>
+      </c>
+      <c r="C3876" s="0">
+        <v>2826</v>
+      </c>
+      <c r="D3876" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3877">
+      <c r="A3877" s="0">
+        <v>4889</v>
+      </c>
+      <c r="B3877" s="0">
+        <v>93</v>
+      </c>
+      <c r="C3877" s="0">
+        <v>2827</v>
+      </c>
+      <c r="D3877" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3878">
+      <c r="A3878" s="0">
+        <v>4890</v>
+      </c>
+      <c r="B3878" s="0">
+        <v>93</v>
+      </c>
+      <c r="C3878" s="0">
+        <v>2828</v>
+      </c>
+      <c r="D3878" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3879">
+      <c r="A3879" s="0">
+        <v>4891</v>
+      </c>
+      <c r="B3879" s="0">
+        <v>93</v>
+      </c>
+      <c r="C3879" s="0">
+        <v>2829</v>
+      </c>
+      <c r="D3879" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3880">
+      <c r="A3880" s="0">
+        <v>4892</v>
+      </c>
+      <c r="B3880" s="0">
+        <v>93</v>
+      </c>
+      <c r="C3880" s="0">
+        <v>2830</v>
+      </c>
+      <c r="D3880" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3881">
+      <c r="A3881" s="0">
+        <v>4893</v>
+      </c>
+      <c r="B3881" s="0">
+        <v>93</v>
+      </c>
+      <c r="C3881" s="0">
+        <v>2831</v>
+      </c>
+      <c r="D3881" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3882">
+      <c r="A3882" s="0">
+        <v>4894</v>
+      </c>
+      <c r="B3882" s="0">
+        <v>93</v>
+      </c>
+      <c r="C3882" s="0">
+        <v>2832</v>
+      </c>
+      <c r="D3882" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3883">
+      <c r="A3883" s="0">
+        <v>4895</v>
+      </c>
+      <c r="B3883" s="0">
+        <v>93</v>
+      </c>
+      <c r="C3883" s="0">
+        <v>2833</v>
+      </c>
+      <c r="D3883" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3884">
+      <c r="A3884" s="0">
+        <v>4896</v>
+      </c>
+      <c r="B3884" s="0">
+        <v>93</v>
+      </c>
+      <c r="C3884" s="0">
+        <v>2834</v>
+      </c>
+      <c r="D3884" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3885">
+      <c r="A3885" s="0">
+        <v>4897</v>
+      </c>
+      <c r="B3885" s="0">
+        <v>93</v>
+      </c>
+      <c r="C3885" s="0">
+        <v>2835</v>
+      </c>
+      <c r="D3885" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3886">
+      <c r="A3886" s="0">
+        <v>4898</v>
+      </c>
+      <c r="B3886" s="0">
+        <v>93</v>
+      </c>
+      <c r="C3886" s="0">
+        <v>2836</v>
+      </c>
+      <c r="D3886" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3887">
+      <c r="A3887" s="0">
+        <v>4899</v>
+      </c>
+      <c r="B3887" s="0">
+        <v>93</v>
+      </c>
+      <c r="C3887" s="0">
+        <v>2837</v>
+      </c>
+      <c r="D3887" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3888">
+      <c r="A3888" s="0">
+        <v>4900</v>
+      </c>
+      <c r="B3888" s="0">
+        <v>93</v>
+      </c>
+      <c r="C3888" s="0">
+        <v>2838</v>
+      </c>
+      <c r="D3888" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3889">
+      <c r="A3889" s="0">
+        <v>4901</v>
+      </c>
+      <c r="B3889" s="0">
+        <v>93</v>
+      </c>
+      <c r="C3889" s="0">
+        <v>2839</v>
+      </c>
+      <c r="D3889" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3890">
+      <c r="A3890" s="0">
+        <v>4902</v>
+      </c>
+      <c r="B3890" s="0">
+        <v>93</v>
+      </c>
+      <c r="C3890" s="0">
+        <v>2840</v>
+      </c>
+      <c r="D3890" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3891">
+      <c r="A3891" s="0">
+        <v>4903</v>
+      </c>
+      <c r="B3891" s="0">
+        <v>93</v>
+      </c>
+      <c r="C3891" s="0">
+        <v>2841</v>
+      </c>
+      <c r="D3891" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3892">
+      <c r="A3892" s="0">
+        <v>4904</v>
+      </c>
+      <c r="B3892" s="0">
+        <v>93</v>
+      </c>
+      <c r="C3892" s="0">
+        <v>2842</v>
+      </c>
+      <c r="D3892" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3893">
+      <c r="A3893" s="0">
+        <v>4905</v>
+      </c>
+      <c r="B3893" s="0">
+        <v>93</v>
+      </c>
+      <c r="C3893" s="0">
+        <v>2843</v>
+      </c>
+      <c r="D3893" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3894">
+      <c r="A3894" s="0">
+        <v>4906</v>
+      </c>
+      <c r="B3894" s="0">
+        <v>93</v>
+      </c>
+      <c r="C3894" s="0">
+        <v>2844</v>
+      </c>
+      <c r="D3894" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3895">
+      <c r="A3895" s="0">
+        <v>4907</v>
+      </c>
+      <c r="B3895" s="0">
+        <v>93</v>
+      </c>
+      <c r="C3895" s="0">
+        <v>2845</v>
+      </c>
+      <c r="D3895" s="0">
+        <v>41</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3896">
+      <c r="A3896" s="0">
+        <v>4908</v>
+      </c>
+      <c r="B3896" s="0">
+        <v>93</v>
+      </c>
+      <c r="C3896" s="0">
+        <v>2846</v>
+      </c>
+      <c r="D3896" s="0">
+        <v>42</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3897">
+      <c r="A3897" s="0">
+        <v>4909</v>
+      </c>
+      <c r="B3897" s="0">
+        <v>93</v>
+      </c>
+      <c r="C3897" s="0">
+        <v>2847</v>
+      </c>
+      <c r="D3897" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3898">
+      <c r="A3898" s="0">
+        <v>4910</v>
+      </c>
+      <c r="B3898" s="0">
+        <v>93</v>
+      </c>
+      <c r="C3898" s="0">
+        <v>2848</v>
+      </c>
+      <c r="D3898" s="0">
+        <v>44</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3899">
+      <c r="A3899" s="0">
+        <v>4911</v>
+      </c>
+      <c r="B3899" s="0">
+        <v>93</v>
+      </c>
+      <c r="C3899" s="0">
+        <v>2849</v>
+      </c>
+      <c r="D3899" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3900">
+      <c r="A3900" s="0">
+        <v>4912</v>
+      </c>
+      <c r="B3900" s="0">
+        <v>93</v>
+      </c>
+      <c r="C3900" s="0">
+        <v>2850</v>
+      </c>
+      <c r="D3900" s="0">
+        <v>46</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3901">
+      <c r="A3901" s="0">
+        <v>4913</v>
+      </c>
+      <c r="B3901" s="0">
+        <v>93</v>
+      </c>
+      <c r="C3901" s="0">
+        <v>2851</v>
+      </c>
+      <c r="D3901" s="0">
+        <v>47</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3902">
+      <c r="A3902" s="0">
+        <v>4914</v>
+      </c>
+      <c r="B3902" s="0">
+        <v>94</v>
+      </c>
+      <c r="C3902" s="0">
+        <v>2852</v>
+      </c>
+      <c r="D3902" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3903">
+      <c r="A3903" s="0">
+        <v>4915</v>
+      </c>
+      <c r="B3903" s="0">
+        <v>94</v>
+      </c>
+      <c r="C3903" s="0">
+        <v>2853</v>
+      </c>
+      <c r="D3903" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3904">
+      <c r="A3904" s="0">
+        <v>4916</v>
+      </c>
+      <c r="B3904" s="0">
+        <v>94</v>
+      </c>
+      <c r="C3904" s="0">
+        <v>2854</v>
+      </c>
+      <c r="D3904" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3905">
+      <c r="A3905" s="0">
+        <v>4917</v>
+      </c>
+      <c r="B3905" s="0">
+        <v>94</v>
+      </c>
+      <c r="C3905" s="0">
+        <v>2855</v>
+      </c>
+      <c r="D3905" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3906">
+      <c r="A3906" s="0">
+        <v>4918</v>
+      </c>
+      <c r="B3906" s="0">
+        <v>94</v>
+      </c>
+      <c r="C3906" s="0">
+        <v>2856</v>
+      </c>
+      <c r="D3906" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3907">
+      <c r="A3907" s="0">
+        <v>4919</v>
+      </c>
+      <c r="B3907" s="0">
+        <v>94</v>
+      </c>
+      <c r="C3907" s="0">
+        <v>2857</v>
+      </c>
+      <c r="D3907" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3908">
+      <c r="A3908" s="0">
+        <v>4920</v>
+      </c>
+      <c r="B3908" s="0">
+        <v>94</v>
+      </c>
+      <c r="C3908" s="0">
+        <v>2858</v>
+      </c>
+      <c r="D3908" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3909">
+      <c r="A3909" s="0">
+        <v>4921</v>
+      </c>
+      <c r="B3909" s="0">
+        <v>94</v>
+      </c>
+      <c r="C3909" s="0">
+        <v>2859</v>
+      </c>
+      <c r="D3909" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3910">
+      <c r="A3910" s="0">
+        <v>4922</v>
+      </c>
+      <c r="B3910" s="0">
+        <v>94</v>
+      </c>
+      <c r="C3910" s="0">
+        <v>2860</v>
+      </c>
+      <c r="D3910" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3911">
+      <c r="A3911" s="0">
+        <v>4923</v>
+      </c>
+      <c r="B3911" s="0">
+        <v>94</v>
+      </c>
+      <c r="C3911" s="0">
+        <v>2861</v>
+      </c>
+      <c r="D3911" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3912">
+      <c r="A3912" s="0">
+        <v>4924</v>
+      </c>
+      <c r="B3912" s="0">
+        <v>94</v>
+      </c>
+      <c r="C3912" s="0">
+        <v>2862</v>
+      </c>
+      <c r="D3912" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3913">
+      <c r="A3913" s="0">
+        <v>4925</v>
+      </c>
+      <c r="B3913" s="0">
+        <v>94</v>
+      </c>
+      <c r="C3913" s="0">
+        <v>2863</v>
+      </c>
+      <c r="D3913" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3914">
+      <c r="A3914" s="0">
+        <v>4926</v>
+      </c>
+      <c r="B3914" s="0">
+        <v>94</v>
+      </c>
+      <c r="C3914" s="0">
+        <v>2864</v>
+      </c>
+      <c r="D3914" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3915">
+      <c r="A3915" s="0">
+        <v>4927</v>
+      </c>
+      <c r="B3915" s="0">
+        <v>94</v>
+      </c>
+      <c r="C3915" s="0">
+        <v>2865</v>
+      </c>
+      <c r="D3915" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3916">
+      <c r="A3916" s="0">
+        <v>4928</v>
+      </c>
+      <c r="B3916" s="0">
+        <v>94</v>
+      </c>
+      <c r="C3916" s="0">
+        <v>2866</v>
+      </c>
+      <c r="D3916" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3917">
+      <c r="A3917" s="0">
+        <v>4929</v>
+      </c>
+      <c r="B3917" s="0">
+        <v>94</v>
+      </c>
+      <c r="C3917" s="0">
+        <v>2867</v>
+      </c>
+      <c r="D3917" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3918">
+      <c r="A3918" s="0">
+        <v>4930</v>
+      </c>
+      <c r="B3918" s="0">
+        <v>94</v>
+      </c>
+      <c r="C3918" s="0">
+        <v>2868</v>
+      </c>
+      <c r="D3918" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3919">
+      <c r="A3919" s="0">
+        <v>4931</v>
+      </c>
+      <c r="B3919" s="0">
+        <v>94</v>
+      </c>
+      <c r="C3919" s="0">
+        <v>2869</v>
+      </c>
+      <c r="D3919" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3920">
+      <c r="A3920" s="0">
+        <v>4932</v>
+      </c>
+      <c r="B3920" s="0">
+        <v>94</v>
+      </c>
+      <c r="C3920" s="0">
+        <v>2870</v>
+      </c>
+      <c r="D3920" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3921">
+      <c r="A3921" s="0">
+        <v>4933</v>
+      </c>
+      <c r="B3921" s="0">
+        <v>94</v>
+      </c>
+      <c r="C3921" s="0">
+        <v>2871</v>
+      </c>
+      <c r="D3921" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3922">
+      <c r="A3922" s="0">
+        <v>4934</v>
+      </c>
+      <c r="B3922" s="0">
+        <v>94</v>
+      </c>
+      <c r="C3922" s="0">
+        <v>2872</v>
+      </c>
+      <c r="D3922" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3923">
+      <c r="A3923" s="0">
+        <v>4935</v>
+      </c>
+      <c r="B3923" s="0">
+        <v>94</v>
+      </c>
+      <c r="C3923" s="0">
+        <v>2873</v>
+      </c>
+      <c r="D3923" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3924">
+      <c r="A3924" s="0">
+        <v>4936</v>
+      </c>
+      <c r="B3924" s="0">
+        <v>94</v>
+      </c>
+      <c r="C3924" s="0">
+        <v>2874</v>
+      </c>
+      <c r="D3924" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3925">
+      <c r="A3925" s="0">
+        <v>4937</v>
+      </c>
+      <c r="B3925" s="0">
+        <v>94</v>
+      </c>
+      <c r="C3925" s="0">
+        <v>2875</v>
+      </c>
+      <c r="D3925" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3926">
+      <c r="A3926" s="0">
+        <v>4938</v>
+      </c>
+      <c r="B3926" s="0">
+        <v>94</v>
+      </c>
+      <c r="C3926" s="0">
+        <v>2876</v>
+      </c>
+      <c r="D3926" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3927">
+      <c r="A3927" s="0">
+        <v>4939</v>
+      </c>
+      <c r="B3927" s="0">
+        <v>94</v>
+      </c>
+      <c r="C3927" s="0">
+        <v>2877</v>
+      </c>
+      <c r="D3927" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3928">
+      <c r="A3928" s="0">
+        <v>4940</v>
+      </c>
+      <c r="B3928" s="0">
+        <v>94</v>
+      </c>
+      <c r="C3928" s="0">
+        <v>2878</v>
+      </c>
+      <c r="D3928" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3929">
+      <c r="A3929" s="0">
+        <v>4941</v>
+      </c>
+      <c r="B3929" s="0">
+        <v>94</v>
+      </c>
+      <c r="C3929" s="0">
+        <v>2879</v>
+      </c>
+      <c r="D3929" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3930">
+      <c r="A3930" s="0">
+        <v>4942</v>
+      </c>
+      <c r="B3930" s="0">
+        <v>94</v>
+      </c>
+      <c r="C3930" s="0">
+        <v>2880</v>
+      </c>
+      <c r="D3930" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3931">
+      <c r="A3931" s="0">
+        <v>4943</v>
+      </c>
+      <c r="B3931" s="0">
+        <v>94</v>
+      </c>
+      <c r="C3931" s="0">
+        <v>2881</v>
+      </c>
+      <c r="D3931" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3932">
+      <c r="A3932" s="0">
+        <v>4944</v>
+      </c>
+      <c r="B3932" s="0">
+        <v>94</v>
+      </c>
+      <c r="C3932" s="0">
+        <v>2882</v>
+      </c>
+      <c r="D3932" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3933">
+      <c r="A3933" s="0">
+        <v>4945</v>
+      </c>
+      <c r="B3933" s="0">
+        <v>94</v>
+      </c>
+      <c r="C3933" s="0">
+        <v>2883</v>
+      </c>
+      <c r="D3933" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3934">
+      <c r="A3934" s="0">
+        <v>4946</v>
+      </c>
+      <c r="B3934" s="0">
+        <v>94</v>
+      </c>
+      <c r="C3934" s="0">
+        <v>2884</v>
+      </c>
+      <c r="D3934" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3935">
+      <c r="A3935" s="0">
+        <v>4947</v>
+      </c>
+      <c r="B3935" s="0">
+        <v>94</v>
+      </c>
+      <c r="C3935" s="0">
+        <v>2885</v>
+      </c>
+      <c r="D3935" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3936">
+      <c r="A3936" s="0">
+        <v>4948</v>
+      </c>
+      <c r="B3936" s="0">
+        <v>94</v>
+      </c>
+      <c r="C3936" s="0">
+        <v>2886</v>
+      </c>
+      <c r="D3936" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3937">
+      <c r="A3937" s="0">
+        <v>4949</v>
+      </c>
+      <c r="B3937" s="0">
+        <v>94</v>
+      </c>
+      <c r="C3937" s="0">
+        <v>2887</v>
+      </c>
+      <c r="D3937" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3938">
+      <c r="A3938" s="0">
+        <v>4950</v>
+      </c>
+      <c r="B3938" s="0">
+        <v>94</v>
+      </c>
+      <c r="C3938" s="0">
+        <v>2888</v>
+      </c>
+      <c r="D3938" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3939">
+      <c r="A3939" s="0">
+        <v>4951</v>
+      </c>
+      <c r="B3939" s="0">
+        <v>94</v>
+      </c>
+      <c r="C3939" s="0">
+        <v>2889</v>
+      </c>
+      <c r="D3939" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3940">
+      <c r="A3940" s="0">
+        <v>4952</v>
+      </c>
+      <c r="B3940" s="0">
+        <v>94</v>
+      </c>
+      <c r="C3940" s="0">
+        <v>2890</v>
+      </c>
+      <c r="D3940" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3941">
+      <c r="A3941" s="0">
+        <v>4953</v>
+      </c>
+      <c r="B3941" s="0">
+        <v>94</v>
+      </c>
+      <c r="C3941" s="0">
+        <v>2891</v>
+      </c>
+      <c r="D3941" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3942">
+      <c r="A3942" s="0">
+        <v>4954</v>
+      </c>
+      <c r="B3942" s="0">
+        <v>94</v>
+      </c>
+      <c r="C3942" s="0">
+        <v>2892</v>
+      </c>
+      <c r="D3942" s="0">
+        <v>41</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3943">
+      <c r="A3943" s="0">
+        <v>4955</v>
+      </c>
+      <c r="B3943" s="0">
+        <v>94</v>
+      </c>
+      <c r="C3943" s="0">
+        <v>2893</v>
+      </c>
+      <c r="D3943" s="0">
+        <v>42</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3944">
+      <c r="A3944" s="0">
+        <v>4956</v>
+      </c>
+      <c r="B3944" s="0">
+        <v>94</v>
+      </c>
+      <c r="C3944" s="0">
+        <v>2894</v>
+      </c>
+      <c r="D3944" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3945">
+      <c r="A3945" s="0">
+        <v>4957</v>
+      </c>
+      <c r="B3945" s="0">
+        <v>94</v>
+      </c>
+      <c r="C3945" s="0">
+        <v>2895</v>
+      </c>
+      <c r="D3945" s="0">
+        <v>44</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3946">
+      <c r="A3946" s="0">
+        <v>4958</v>
+      </c>
+      <c r="B3946" s="0">
+        <v>94</v>
+      </c>
+      <c r="C3946" s="0">
+        <v>2896</v>
+      </c>
+      <c r="D3946" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3947">
+      <c r="A3947" s="0">
+        <v>4959</v>
+      </c>
+      <c r="B3947" s="0">
+        <v>94</v>
+      </c>
+      <c r="C3947" s="0">
+        <v>2897</v>
+      </c>
+      <c r="D3947" s="0">
+        <v>46</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3948">
+      <c r="A3948" s="0">
+        <v>4960</v>
+      </c>
+      <c r="B3948" s="0">
+        <v>94</v>
+      </c>
+      <c r="C3948" s="0">
+        <v>2899</v>
+      </c>
+      <c r="D3948" s="0">
+        <v>47</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3949">
+      <c r="A3949" s="0">
+        <v>4961</v>
+      </c>
+      <c r="B3949" s="0">
+        <v>95</v>
+      </c>
+      <c r="C3949" s="0">
+        <v>2807</v>
+      </c>
+      <c r="D3949" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3950">
+      <c r="A3950" s="0">
+        <v>4962</v>
+      </c>
+      <c r="B3950" s="0">
+        <v>95</v>
+      </c>
+      <c r="C3950" s="0">
+        <v>2809</v>
+      </c>
+      <c r="D3950" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3951">
+      <c r="A3951" s="0">
+        <v>4963</v>
+      </c>
+      <c r="B3951" s="0">
+        <v>95</v>
+      </c>
+      <c r="C3951" s="0">
+        <v>2810</v>
+      </c>
+      <c r="D3951" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3952">
+      <c r="A3952" s="0">
+        <v>4964</v>
+      </c>
+      <c r="B3952" s="0">
+        <v>95</v>
+      </c>
+      <c r="C3952" s="0">
+        <v>2811</v>
+      </c>
+      <c r="D3952" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3953">
+      <c r="A3953" s="0">
+        <v>4965</v>
+      </c>
+      <c r="B3953" s="0">
+        <v>95</v>
+      </c>
+      <c r="C3953" s="0">
+        <v>2818</v>
+      </c>
+      <c r="D3953" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3954">
+      <c r="A3954" s="0">
+        <v>4966</v>
+      </c>
+      <c r="B3954" s="0">
+        <v>95</v>
+      </c>
+      <c r="C3954" s="0">
+        <v>2838</v>
+      </c>
+      <c r="D3954" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3955">
+      <c r="A3955" s="0">
+        <v>4967</v>
+      </c>
+      <c r="B3955" s="0">
+        <v>95</v>
+      </c>
+      <c r="C3955" s="0">
+        <v>2837</v>
+      </c>
+      <c r="D3955" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3956">
+      <c r="A3956" s="0">
+        <v>4968</v>
+      </c>
+      <c r="B3956" s="0">
+        <v>95</v>
+      </c>
+      <c r="C3956" s="0">
+        <v>2816</v>
+      </c>
+      <c r="D3956" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3957">
+      <c r="A3957" s="0">
+        <v>4969</v>
+      </c>
+      <c r="B3957" s="0">
+        <v>95</v>
+      </c>
+      <c r="C3957" s="0">
+        <v>2822</v>
+      </c>
+      <c r="D3957" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3958">
+      <c r="A3958" s="0">
+        <v>4970</v>
+      </c>
+      <c r="B3958" s="0">
+        <v>95</v>
+      </c>
+      <c r="C3958" s="0">
+        <v>2820</v>
+      </c>
+      <c r="D3958" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3959">
+      <c r="A3959" s="0">
+        <v>4971</v>
+      </c>
+      <c r="B3959" s="0">
+        <v>95</v>
+      </c>
+      <c r="C3959" s="0">
+        <v>2840</v>
+      </c>
+      <c r="D3959" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3960">
+      <c r="A3960" s="0">
+        <v>4972</v>
+      </c>
+      <c r="B3960" s="0">
+        <v>95</v>
+      </c>
+      <c r="C3960" s="0">
+        <v>2846</v>
+      </c>
+      <c r="D3960" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3961">
+      <c r="A3961" s="0">
+        <v>4973</v>
+      </c>
+      <c r="B3961" s="0">
+        <v>95</v>
+      </c>
+      <c r="C3961" s="0">
+        <v>2824</v>
+      </c>
+      <c r="D3961" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3962">
+      <c r="A3962" s="0">
+        <v>4974</v>
+      </c>
+      <c r="B3962" s="0">
+        <v>95</v>
+      </c>
+      <c r="C3962" s="0">
+        <v>2831</v>
+      </c>
+      <c r="D3962" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3963">
+      <c r="A3963" s="0">
+        <v>4975</v>
+      </c>
+      <c r="B3963" s="0">
+        <v>95</v>
+      </c>
+      <c r="C3963" s="0">
+        <v>2830</v>
+      </c>
+      <c r="D3963" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3964">
+      <c r="A3964" s="0">
+        <v>4976</v>
+      </c>
+      <c r="B3964" s="0">
+        <v>95</v>
+      </c>
+      <c r="C3964" s="0">
+        <v>2834</v>
+      </c>
+      <c r="D3964" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3965">
+      <c r="A3965" s="0">
+        <v>4977</v>
+      </c>
+      <c r="B3965" s="0">
+        <v>95</v>
+      </c>
+      <c r="C3965" s="0">
+        <v>2836</v>
+      </c>
+      <c r="D3965" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3966">
+      <c r="A3966" s="0">
+        <v>4978</v>
+      </c>
+      <c r="B3966" s="0">
+        <v>95</v>
+      </c>
+      <c r="C3966" s="0">
+        <v>2841</v>
+      </c>
+      <c r="D3966" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3967">
+      <c r="A3967" s="0">
+        <v>4979</v>
+      </c>
+      <c r="B3967" s="0">
+        <v>95</v>
+      </c>
+      <c r="C3967" s="0">
+        <v>2844</v>
+      </c>
+      <c r="D3967" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3968">
+      <c r="A3968" s="0">
+        <v>4980</v>
+      </c>
+      <c r="B3968" s="0">
+        <v>95</v>
+      </c>
+      <c r="C3968" s="0">
+        <v>2845</v>
+      </c>
+      <c r="D3968" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3969">
+      <c r="A3969" s="0">
+        <v>4981</v>
+      </c>
+      <c r="B3969" s="0">
+        <v>95</v>
+      </c>
+      <c r="C3969" s="0">
+        <v>2826</v>
+      </c>
+      <c r="D3969" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3970">
+      <c r="A3970" s="0">
+        <v>4982</v>
+      </c>
+      <c r="B3970" s="0">
+        <v>95</v>
+      </c>
+      <c r="C3970" s="0">
+        <v>2847</v>
+      </c>
+      <c r="D3970" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3971">
+      <c r="A3971" s="0">
+        <v>4983</v>
+      </c>
+      <c r="B3971" s="0">
+        <v>95</v>
+      </c>
+      <c r="C3971" s="0">
+        <v>2848</v>
+      </c>
+      <c r="D3971" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3972">
+      <c r="A3972" s="0">
+        <v>4984</v>
+      </c>
+      <c r="B3972" s="0">
+        <v>95</v>
+      </c>
+      <c r="C3972" s="0">
+        <v>2851</v>
+      </c>
+      <c r="D3972" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3973">
+      <c r="A3973" s="0">
+        <v>4985</v>
+      </c>
+      <c r="B3973" s="0">
+        <v>95</v>
+      </c>
+      <c r="C3973" s="0">
+        <v>2832</v>
+      </c>
+      <c r="D3973" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3974">
+      <c r="A3974" s="0">
+        <v>4986</v>
+      </c>
+      <c r="B3974" s="0">
+        <v>96</v>
+      </c>
+      <c r="C3974" s="0">
+        <v>2853</v>
+      </c>
+      <c r="D3974" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3975">
+      <c r="A3975" s="0">
+        <v>4987</v>
+      </c>
+      <c r="B3975" s="0">
+        <v>96</v>
+      </c>
+      <c r="C3975" s="0">
+        <v>2855</v>
+      </c>
+      <c r="D3975" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3976">
+      <c r="A3976" s="0">
+        <v>4988</v>
+      </c>
+      <c r="B3976" s="0">
+        <v>96</v>
+      </c>
+      <c r="C3976" s="0">
+        <v>2856</v>
+      </c>
+      <c r="D3976" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3977">
+      <c r="A3977" s="0">
+        <v>4989</v>
+      </c>
+      <c r="B3977" s="0">
+        <v>96</v>
+      </c>
+      <c r="C3977" s="0">
+        <v>2857</v>
+      </c>
+      <c r="D3977" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3978">
+      <c r="A3978" s="0">
+        <v>4990</v>
+      </c>
+      <c r="B3978" s="0">
+        <v>96</v>
+      </c>
+      <c r="C3978" s="0">
+        <v>2864</v>
+      </c>
+      <c r="D3978" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3979">
+      <c r="A3979" s="0">
+        <v>4991</v>
+      </c>
+      <c r="B3979" s="0">
+        <v>96</v>
+      </c>
+      <c r="C3979" s="0">
+        <v>2884</v>
+      </c>
+      <c r="D3979" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3980">
+      <c r="A3980" s="0">
+        <v>4992</v>
+      </c>
+      <c r="B3980" s="0">
+        <v>96</v>
+      </c>
+      <c r="C3980" s="0">
+        <v>2883</v>
+      </c>
+      <c r="D3980" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3981">
+      <c r="A3981" s="0">
+        <v>4993</v>
+      </c>
+      <c r="B3981" s="0">
+        <v>96</v>
+      </c>
+      <c r="C3981" s="0">
+        <v>2862</v>
+      </c>
+      <c r="D3981" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3982">
+      <c r="A3982" s="0">
+        <v>4994</v>
+      </c>
+      <c r="B3982" s="0">
+        <v>96</v>
+      </c>
+      <c r="C3982" s="0">
+        <v>2868</v>
+      </c>
+      <c r="D3982" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3983">
+      <c r="A3983" s="0">
+        <v>4995</v>
+      </c>
+      <c r="B3983" s="0">
+        <v>96</v>
+      </c>
+      <c r="C3983" s="0">
+        <v>2866</v>
+      </c>
+      <c r="D3983" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3984">
+      <c r="A3984" s="0">
+        <v>4996</v>
+      </c>
+      <c r="B3984" s="0">
+        <v>96</v>
+      </c>
+      <c r="C3984" s="0">
+        <v>2887</v>
+      </c>
+      <c r="D3984" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3985">
+      <c r="A3985" s="0">
+        <v>4997</v>
+      </c>
+      <c r="B3985" s="0">
+        <v>96</v>
+      </c>
+      <c r="C3985" s="0">
+        <v>2893</v>
+      </c>
+      <c r="D3985" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3986">
+      <c r="A3986" s="0">
+        <v>4998</v>
+      </c>
+      <c r="B3986" s="0">
+        <v>96</v>
+      </c>
+      <c r="C3986" s="0">
+        <v>2870</v>
+      </c>
+      <c r="D3986" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3987">
+      <c r="A3987" s="0">
+        <v>4999</v>
+      </c>
+      <c r="B3987" s="0">
+        <v>96</v>
+      </c>
+      <c r="C3987" s="0">
+        <v>2877</v>
+      </c>
+      <c r="D3987" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3988">
+      <c r="A3988" s="0">
+        <v>5000</v>
+      </c>
+      <c r="B3988" s="0">
+        <v>96</v>
+      </c>
+      <c r="C3988" s="0">
+        <v>2876</v>
+      </c>
+      <c r="D3988" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3989">
+      <c r="A3989" s="0">
+        <v>5001</v>
+      </c>
+      <c r="B3989" s="0">
+        <v>96</v>
+      </c>
+      <c r="C3989" s="0">
+        <v>2880</v>
+      </c>
+      <c r="D3989" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3990">
+      <c r="A3990" s="0">
+        <v>5002</v>
+      </c>
+      <c r="B3990" s="0">
+        <v>96</v>
+      </c>
+      <c r="C3990" s="0">
+        <v>2882</v>
+      </c>
+      <c r="D3990" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3991">
+      <c r="A3991" s="0">
+        <v>5003</v>
+      </c>
+      <c r="B3991" s="0">
+        <v>96</v>
+      </c>
+      <c r="C3991" s="0">
+        <v>2888</v>
+      </c>
+      <c r="D3991" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3992">
+      <c r="A3992" s="0">
+        <v>5004</v>
+      </c>
+      <c r="B3992" s="0">
+        <v>96</v>
+      </c>
+      <c r="C3992" s="0">
+        <v>2891</v>
+      </c>
+      <c r="D3992" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3993">
+      <c r="A3993" s="0">
+        <v>5005</v>
+      </c>
+      <c r="B3993" s="0">
+        <v>96</v>
+      </c>
+      <c r="C3993" s="0">
+        <v>2892</v>
+      </c>
+      <c r="D3993" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3994">
+      <c r="A3994" s="0">
+        <v>5006</v>
+      </c>
+      <c r="B3994" s="0">
+        <v>96</v>
+      </c>
+      <c r="C3994" s="0">
+        <v>2872</v>
+      </c>
+      <c r="D3994" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3995">
+      <c r="A3995" s="0">
+        <v>5007</v>
+      </c>
+      <c r="B3995" s="0">
+        <v>96</v>
+      </c>
+      <c r="C3995" s="0">
+        <v>2894</v>
+      </c>
+      <c r="D3995" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3996">
+      <c r="A3996" s="0">
+        <v>5008</v>
+      </c>
+      <c r="B3996" s="0">
+        <v>96</v>
+      </c>
+      <c r="C3996" s="0">
+        <v>2895</v>
+      </c>
+      <c r="D3996" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3997">
+      <c r="A3997" s="0">
+        <v>5009</v>
+      </c>
+      <c r="B3997" s="0">
+        <v>96</v>
+      </c>
+      <c r="C3997" s="0">
+        <v>2899</v>
+      </c>
+      <c r="D3997" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3998">
+      <c r="A3998" s="0">
+        <v>5010</v>
+      </c>
+      <c r="B3998" s="0">
+        <v>96</v>
+      </c>
+      <c r="C3998" s="0">
+        <v>2878</v>
+      </c>
+      <c r="D3998" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3999">
+      <c r="A3999" s="0">
+        <v>5011</v>
+      </c>
+      <c r="B3999" s="0">
+        <v>77</v>
+      </c>
+      <c r="C3999" s="0">
+        <v>1499</v>
+      </c>
+      <c r="D3999" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4000">
+      <c r="A4000" s="0">
+        <v>5012</v>
+      </c>
+      <c r="B4000" s="0">
+        <v>77</v>
+      </c>
+      <c r="C4000" s="0">
+        <v>1500</v>
+      </c>
+      <c r="D4000" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4001">
+      <c r="A4001" s="0">
+        <v>5013</v>
+      </c>
+      <c r="B4001" s="0">
+        <v>77</v>
+      </c>
+      <c r="C4001" s="0">
+        <v>1501</v>
+      </c>
+      <c r="D4001" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4002">
+      <c r="A4002" s="0">
+        <v>5014</v>
+      </c>
+      <c r="B4002" s="0">
+        <v>77</v>
+      </c>
+      <c r="C4002" s="0">
+        <v>1502</v>
+      </c>
+      <c r="D4002" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4003">
+      <c r="A4003" s="0">
+        <v>5015</v>
+      </c>
+      <c r="B4003" s="0">
+        <v>77</v>
+      </c>
+      <c r="C4003" s="0">
+        <v>1503</v>
+      </c>
+      <c r="D4003" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4004">
+      <c r="A4004" s="0">
+        <v>5016</v>
+      </c>
+      <c r="B4004" s="0">
+        <v>77</v>
+      </c>
+      <c r="C4004" s="0">
+        <v>1504</v>
+      </c>
+      <c r="D4004" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4005">
+      <c r="A4005" s="0">
+        <v>5017</v>
+      </c>
+      <c r="B4005" s="0">
+        <v>77</v>
+      </c>
+      <c r="C4005" s="0">
+        <v>1505</v>
+      </c>
+      <c r="D4005" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4006">
+      <c r="A4006" s="0">
+        <v>5018</v>
+      </c>
+      <c r="B4006" s="0">
+        <v>77</v>
+      </c>
+      <c r="C4006" s="0">
+        <v>1506</v>
+      </c>
+      <c r="D4006" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4007">
+      <c r="A4007" s="0">
+        <v>5019</v>
+      </c>
+      <c r="B4007" s="0">
+        <v>77</v>
+      </c>
+      <c r="C4007" s="0">
+        <v>1507</v>
+      </c>
+      <c r="D4007" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4008">
+      <c r="A4008" s="0">
+        <v>5020</v>
+      </c>
+      <c r="B4008" s="0">
+        <v>77</v>
+      </c>
+      <c r="C4008" s="0">
+        <v>1508</v>
+      </c>
+      <c r="D4008" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4009">
+      <c r="A4009" s="0">
+        <v>5021</v>
+      </c>
+      <c r="B4009" s="0">
+        <v>77</v>
+      </c>
+      <c r="C4009" s="0">
+        <v>1509</v>
+      </c>
+      <c r="D4009" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4010">
+      <c r="A4010" s="0">
+        <v>5022</v>
+      </c>
+      <c r="B4010" s="0">
+        <v>77</v>
+      </c>
+      <c r="C4010" s="0">
+        <v>1510</v>
+      </c>
+      <c r="D4010" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4011">
+      <c r="A4011" s="0">
+        <v>5023</v>
+      </c>
+      <c r="B4011" s="0">
+        <v>77</v>
+      </c>
+      <c r="C4011" s="0">
+        <v>1511</v>
+      </c>
+      <c r="D4011" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4012">
+      <c r="A4012" s="0">
+        <v>5024</v>
+      </c>
+      <c r="B4012" s="0">
+        <v>77</v>
+      </c>
+      <c r="C4012" s="0">
+        <v>1512</v>
+      </c>
+      <c r="D4012" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4013">
+      <c r="A4013" s="0">
+        <v>5025</v>
+      </c>
+      <c r="B4013" s="0">
+        <v>77</v>
+      </c>
+      <c r="C4013" s="0">
+        <v>1513</v>
+      </c>
+      <c r="D4013" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4014">
+      <c r="A4014" s="0">
+        <v>5026</v>
+      </c>
+      <c r="B4014" s="0">
+        <v>77</v>
+      </c>
+      <c r="C4014" s="0">
+        <v>1514</v>
+      </c>
+      <c r="D4014" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4015">
+      <c r="A4015" s="0">
+        <v>5027</v>
+      </c>
+      <c r="B4015" s="0">
+        <v>77</v>
+      </c>
+      <c r="C4015" s="0">
+        <v>1515</v>
+      </c>
+      <c r="D4015" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4016">
+      <c r="A4016" s="0">
+        <v>5028</v>
+      </c>
+      <c r="B4016" s="0">
+        <v>77</v>
+      </c>
+      <c r="C4016" s="0">
+        <v>1516</v>
+      </c>
+      <c r="D4016" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4017">
+      <c r="A4017" s="0">
+        <v>5029</v>
+      </c>
+      <c r="B4017" s="0">
+        <v>77</v>
+      </c>
+      <c r="C4017" s="0">
+        <v>1517</v>
+      </c>
+      <c r="D4017" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4018">
+      <c r="A4018" s="0">
+        <v>5030</v>
+      </c>
+      <c r="B4018" s="0">
+        <v>77</v>
+      </c>
+      <c r="C4018" s="0">
+        <v>1518</v>
+      </c>
+      <c r="D4018" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4019">
+      <c r="A4019" s="0">
+        <v>5031</v>
+      </c>
+      <c r="B4019" s="0">
+        <v>77</v>
+      </c>
+      <c r="C4019" s="0">
+        <v>1519</v>
+      </c>
+      <c r="D4019" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4020">
+      <c r="A4020" s="0">
+        <v>5032</v>
+      </c>
+      <c r="B4020" s="0">
+        <v>77</v>
+      </c>
+      <c r="C4020" s="0">
+        <v>1520</v>
+      </c>
+      <c r="D4020" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4021">
+      <c r="A4021" s="0">
+        <v>5033</v>
+      </c>
+      <c r="B4021" s="0">
+        <v>77</v>
+      </c>
+      <c r="C4021" s="0">
+        <v>2900</v>
+      </c>
+      <c r="D4021" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4022">
+      <c r="A4022" s="0">
+        <v>5034</v>
+      </c>
+      <c r="B4022" s="0">
+        <v>77</v>
+      </c>
+      <c r="C4022" s="0">
+        <v>2901</v>
+      </c>
+      <c r="D4022" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4023">
+      <c r="A4023" s="0">
+        <v>5035</v>
+      </c>
+      <c r="B4023" s="0">
+        <v>77</v>
+      </c>
+      <c r="C4023" s="0">
+        <v>2902</v>
+      </c>
+      <c r="D4023" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4024">
+      <c r="A4024" s="0">
+        <v>5036</v>
+      </c>
+      <c r="B4024" s="0">
+        <v>77</v>
+      </c>
+      <c r="C4024" s="0">
+        <v>2903</v>
+      </c>
+      <c r="D4024" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4025">
+      <c r="A4025" s="0">
+        <v>5037</v>
+      </c>
+      <c r="B4025" s="0">
+        <v>77</v>
+      </c>
+      <c r="C4025" s="0">
+        <v>2904</v>
+      </c>
+      <c r="D4025" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4026">
+      <c r="A4026" s="0">
+        <v>5038</v>
+      </c>
+      <c r="B4026" s="0">
+        <v>77</v>
+      </c>
+      <c r="C4026" s="0">
+        <v>2905</v>
+      </c>
+      <c r="D4026" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4027">
+      <c r="A4027" s="0">
+        <v>5039</v>
+      </c>
+      <c r="B4027" s="0">
+        <v>77</v>
+      </c>
+      <c r="C4027" s="0">
+        <v>2906</v>
+      </c>
+      <c r="D4027" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4028">
+      <c r="A4028" s="0">
+        <v>5040</v>
+      </c>
+      <c r="B4028" s="0">
+        <v>77</v>
+      </c>
+      <c r="C4028" s="0">
+        <v>2907</v>
+      </c>
+      <c r="D4028" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4029">
+      <c r="A4029" s="0">
+        <v>5041</v>
+      </c>
+      <c r="B4029" s="0">
+        <v>77</v>
+      </c>
+      <c r="C4029" s="0">
+        <v>2908</v>
+      </c>
+      <c r="D4029" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4030">
+      <c r="A4030" s="0">
+        <v>5042</v>
+      </c>
+      <c r="B4030" s="0">
+        <v>77</v>
+      </c>
+      <c r="C4030" s="0">
+        <v>2909</v>
+      </c>
+      <c r="D4030" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4031">
+      <c r="A4031" s="0">
+        <v>5043</v>
+      </c>
+      <c r="B4031" s="0">
+        <v>77</v>
+      </c>
+      <c r="C4031" s="0">
+        <v>2910</v>
+      </c>
+      <c r="D4031" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4032">
+      <c r="A4032" s="0">
+        <v>5044</v>
+      </c>
+      <c r="B4032" s="0">
+        <v>77</v>
+      </c>
+      <c r="C4032" s="0">
+        <v>2911</v>
+      </c>
+      <c r="D4032" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4033">
+      <c r="A4033" s="0">
+        <v>5045</v>
+      </c>
+      <c r="B4033" s="0">
+        <v>77</v>
+      </c>
+      <c r="C4033" s="0">
+        <v>2912</v>
+      </c>
+      <c r="D4033" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4034">
+      <c r="A4034" s="0">
+        <v>5046</v>
+      </c>
+      <c r="B4034" s="0">
+        <v>77</v>
+      </c>
+      <c r="C4034" s="0">
+        <v>2913</v>
+      </c>
+      <c r="D4034" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4035">
+      <c r="A4035" s="0">
+        <v>5047</v>
+      </c>
+      <c r="B4035" s="0">
+        <v>77</v>
+      </c>
+      <c r="C4035" s="0">
+        <v>2914</v>
+      </c>
+      <c r="D4035" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4036">
+      <c r="A4036" s="0">
+        <v>5048</v>
+      </c>
+      <c r="B4036" s="0">
+        <v>77</v>
+      </c>
+      <c r="C4036" s="0">
+        <v>2915</v>
+      </c>
+      <c r="D4036" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4037">
+      <c r="A4037" s="0">
+        <v>5049</v>
+      </c>
+      <c r="B4037" s="0">
+        <v>77</v>
+      </c>
+      <c r="C4037" s="0">
+        <v>2916</v>
+      </c>
+      <c r="D4037" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4038">
+      <c r="A4038" s="0">
+        <v>5050</v>
+      </c>
+      <c r="B4038" s="0">
+        <v>77</v>
+      </c>
+      <c r="C4038" s="0">
+        <v>2917</v>
+      </c>
+      <c r="D4038" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4039">
+      <c r="A4039" s="0">
+        <v>5051</v>
+      </c>
+      <c r="B4039" s="0">
+        <v>77</v>
+      </c>
+      <c r="C4039" s="0">
+        <v>2918</v>
+      </c>
+      <c r="D4039" s="0">
+        <v>41</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4040">
+      <c r="A4040" s="0">
+        <v>5052</v>
+      </c>
+      <c r="B4040" s="0">
+        <v>77</v>
+      </c>
+      <c r="C4040" s="0">
+        <v>2919</v>
+      </c>
+      <c r="D4040" s="0">
+        <v>42</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4041">
+      <c r="A4041" s="0">
+        <v>5053</v>
+      </c>
+      <c r="B4041" s="0">
+        <v>77</v>
+      </c>
+      <c r="C4041" s="0">
+        <v>2920</v>
+      </c>
+      <c r="D4041" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4042">
+      <c r="A4042" s="0">
+        <v>5054</v>
+      </c>
+      <c r="B4042" s="0">
+        <v>77</v>
+      </c>
+      <c r="C4042" s="0">
+        <v>2921</v>
+      </c>
+      <c r="D4042" s="0">
+        <v>44</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4043">
+      <c r="A4043" s="0">
+        <v>5055</v>
+      </c>
+      <c r="B4043" s="0">
+        <v>77</v>
+      </c>
+      <c r="C4043" s="0">
+        <v>2922</v>
+      </c>
+      <c r="D4043" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4044">
+      <c r="A4044" s="0">
+        <v>5056</v>
+      </c>
+      <c r="B4044" s="0">
+        <v>77</v>
+      </c>
+      <c r="C4044" s="0">
+        <v>2923</v>
+      </c>
+      <c r="D4044" s="0">
+        <v>46</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4045">
+      <c r="A4045" s="0">
+        <v>5057</v>
+      </c>
+      <c r="B4045" s="0">
+        <v>77</v>
+      </c>
+      <c r="C4045" s="0">
+        <v>2924</v>
+      </c>
+      <c r="D4045" s="0">
+        <v>47</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4046">
+      <c r="A4046" s="0">
+        <v>5058</v>
+      </c>
+      <c r="B4046" s="0">
+        <v>79</v>
+      </c>
+      <c r="C4046" s="0">
+        <v>1500</v>
+      </c>
+      <c r="D4046" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4047">
+      <c r="A4047" s="0">
+        <v>5059</v>
+      </c>
+      <c r="B4047" s="0">
+        <v>79</v>
+      </c>
+      <c r="C4047" s="0">
+        <v>1502</v>
+      </c>
+      <c r="D4047" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4048">
+      <c r="A4048" s="0">
+        <v>5060</v>
+      </c>
+      <c r="B4048" s="0">
+        <v>79</v>
+      </c>
+      <c r="C4048" s="0">
+        <v>1503</v>
+      </c>
+      <c r="D4048" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4049">
+      <c r="A4049" s="0">
+        <v>5061</v>
+      </c>
+      <c r="B4049" s="0">
+        <v>79</v>
+      </c>
+      <c r="C4049" s="0">
+        <v>1504</v>
+      </c>
+      <c r="D4049" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4050">
+      <c r="A4050" s="0">
+        <v>5062</v>
+      </c>
+      <c r="B4050" s="0">
+        <v>79</v>
+      </c>
+      <c r="C4050" s="0">
+        <v>1511</v>
+      </c>
+      <c r="D4050" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4051">
+      <c r="A4051" s="0">
+        <v>5063</v>
+      </c>
+      <c r="B4051" s="0">
+        <v>79</v>
+      </c>
+      <c r="C4051" s="0">
+        <v>2910</v>
+      </c>
+      <c r="D4051" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4052">
+      <c r="A4052" s="0">
+        <v>5064</v>
+      </c>
+      <c r="B4052" s="0">
+        <v>79</v>
+      </c>
+      <c r="C4052" s="0">
+        <v>2909</v>
+      </c>
+      <c r="D4052" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4053">
+      <c r="A4053" s="0">
+        <v>5065</v>
+      </c>
+      <c r="B4053" s="0">
+        <v>79</v>
+      </c>
+      <c r="C4053" s="0">
+        <v>1509</v>
+      </c>
+      <c r="D4053" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4054">
+      <c r="A4054" s="0">
+        <v>5066</v>
+      </c>
+      <c r="B4054" s="0">
+        <v>79</v>
+      </c>
+      <c r="C4054" s="0">
+        <v>1515</v>
+      </c>
+      <c r="D4054" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4055">
+      <c r="A4055" s="0">
+        <v>5067</v>
+      </c>
+      <c r="B4055" s="0">
+        <v>79</v>
+      </c>
+      <c r="C4055" s="0">
+        <v>1513</v>
+      </c>
+      <c r="D4055" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4056">
+      <c r="A4056" s="0">
+        <v>5068</v>
+      </c>
+      <c r="B4056" s="0">
+        <v>79</v>
+      </c>
+      <c r="C4056" s="0">
+        <v>2913</v>
+      </c>
+      <c r="D4056" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4057">
+      <c r="A4057" s="0">
+        <v>5069</v>
+      </c>
+      <c r="B4057" s="0">
+        <v>79</v>
+      </c>
+      <c r="C4057" s="0">
+        <v>2919</v>
+      </c>
+      <c r="D4057" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4058">
+      <c r="A4058" s="0">
+        <v>5070</v>
+      </c>
+      <c r="B4058" s="0">
+        <v>79</v>
+      </c>
+      <c r="C4058" s="0">
+        <v>1517</v>
+      </c>
+      <c r="D4058" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4059">
+      <c r="A4059" s="0">
+        <v>5071</v>
+      </c>
+      <c r="B4059" s="0">
+        <v>79</v>
+      </c>
+      <c r="C4059" s="0">
+        <v>2903</v>
+      </c>
+      <c r="D4059" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4060">
+      <c r="A4060" s="0">
+        <v>5072</v>
+      </c>
+      <c r="B4060" s="0">
+        <v>79</v>
+      </c>
+      <c r="C4060" s="0">
+        <v>2902</v>
+      </c>
+      <c r="D4060" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4061">
+      <c r="A4061" s="0">
+        <v>5073</v>
+      </c>
+      <c r="B4061" s="0">
+        <v>79</v>
+      </c>
+      <c r="C4061" s="0">
+        <v>2906</v>
+      </c>
+      <c r="D4061" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4062">
+      <c r="A4062" s="0">
+        <v>5074</v>
+      </c>
+      <c r="B4062" s="0">
+        <v>79</v>
+      </c>
+      <c r="C4062" s="0">
+        <v>2908</v>
+      </c>
+      <c r="D4062" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4063">
+      <c r="A4063" s="0">
+        <v>5075</v>
+      </c>
+      <c r="B4063" s="0">
+        <v>79</v>
+      </c>
+      <c r="C4063" s="0">
+        <v>2914</v>
+      </c>
+      <c r="D4063" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4064">
+      <c r="A4064" s="0">
+        <v>5076</v>
+      </c>
+      <c r="B4064" s="0">
+        <v>79</v>
+      </c>
+      <c r="C4064" s="0">
+        <v>2917</v>
+      </c>
+      <c r="D4064" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4065">
+      <c r="A4065" s="0">
+        <v>5077</v>
+      </c>
+      <c r="B4065" s="0">
+        <v>79</v>
+      </c>
+      <c r="C4065" s="0">
+        <v>2918</v>
+      </c>
+      <c r="D4065" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4066">
+      <c r="A4066" s="0">
+        <v>5078</v>
+      </c>
+      <c r="B4066" s="0">
+        <v>79</v>
+      </c>
+      <c r="C4066" s="0">
+        <v>1519</v>
+      </c>
+      <c r="D4066" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4067">
+      <c r="A4067" s="0">
+        <v>5079</v>
+      </c>
+      <c r="B4067" s="0">
+        <v>79</v>
+      </c>
+      <c r="C4067" s="0">
+        <v>2920</v>
+      </c>
+      <c r="D4067" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4068">
+      <c r="A4068" s="0">
+        <v>5080</v>
+      </c>
+      <c r="B4068" s="0">
+        <v>79</v>
+      </c>
+      <c r="C4068" s="0">
+        <v>2921</v>
+      </c>
+      <c r="D4068" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4069">
+      <c r="A4069" s="0">
+        <v>5081</v>
+      </c>
+      <c r="B4069" s="0">
+        <v>79</v>
+      </c>
+      <c r="C4069" s="0">
+        <v>2924</v>
+      </c>
+      <c r="D4069" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4070">
+      <c r="A4070" s="0">
+        <v>5082</v>
+      </c>
+      <c r="B4070" s="0">
+        <v>79</v>
+      </c>
+      <c r="C4070" s="0">
+        <v>2904</v>
+      </c>
+      <c r="D4070" s="0">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rcads/data/xls/23_InstrumentItemMap.xlsx
+++ b/rcads/data/xls/23_InstrumentItemMap.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="_23_InstrumentItemMap"/>
   </sheets>
   <definedNames>
-    <definedName name="_23_InstrumentItemMap">'_23_InstrumentItemMap'!$A$1:$E$4070</definedName>
+    <definedName name="_23_InstrumentItemMap">'_23_InstrumentItemMap'!$A$1:$E$4287</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -343,7 +343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4070"/>
+  <dimension ref="A1:E4287"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -58211,6 +58211,3044 @@
         <v>25</v>
       </c>
     </row>
+    <row outlineLevel="0" r="4071">
+      <c r="A4071" s="0">
+        <v>5083</v>
+      </c>
+      <c r="B4071" s="0">
+        <v>22</v>
+      </c>
+      <c r="C4071" s="0">
+        <v>2925</v>
+      </c>
+      <c r="D4071" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4072">
+      <c r="A4072" s="0">
+        <v>5084</v>
+      </c>
+      <c r="B4072" s="0">
+        <v>22</v>
+      </c>
+      <c r="C4072" s="0">
+        <v>2926</v>
+      </c>
+      <c r="D4072" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4073">
+      <c r="A4073" s="0">
+        <v>5085</v>
+      </c>
+      <c r="B4073" s="0">
+        <v>22</v>
+      </c>
+      <c r="C4073" s="0">
+        <v>2927</v>
+      </c>
+      <c r="D4073" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4074">
+      <c r="A4074" s="0">
+        <v>5086</v>
+      </c>
+      <c r="B4074" s="0">
+        <v>22</v>
+      </c>
+      <c r="C4074" s="0">
+        <v>2928</v>
+      </c>
+      <c r="D4074" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4075">
+      <c r="A4075" s="0">
+        <v>5087</v>
+      </c>
+      <c r="B4075" s="0">
+        <v>22</v>
+      </c>
+      <c r="C4075" s="0">
+        <v>2929</v>
+      </c>
+      <c r="D4075" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4076">
+      <c r="A4076" s="0">
+        <v>5088</v>
+      </c>
+      <c r="B4076" s="0">
+        <v>22</v>
+      </c>
+      <c r="C4076" s="0">
+        <v>2930</v>
+      </c>
+      <c r="D4076" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4077">
+      <c r="A4077" s="0">
+        <v>5089</v>
+      </c>
+      <c r="B4077" s="0">
+        <v>22</v>
+      </c>
+      <c r="C4077" s="0">
+        <v>2931</v>
+      </c>
+      <c r="D4077" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4078">
+      <c r="A4078" s="0">
+        <v>5090</v>
+      </c>
+      <c r="B4078" s="0">
+        <v>22</v>
+      </c>
+      <c r="C4078" s="0">
+        <v>2932</v>
+      </c>
+      <c r="D4078" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4079">
+      <c r="A4079" s="0">
+        <v>5091</v>
+      </c>
+      <c r="B4079" s="0">
+        <v>22</v>
+      </c>
+      <c r="C4079" s="0">
+        <v>2933</v>
+      </c>
+      <c r="D4079" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4080">
+      <c r="A4080" s="0">
+        <v>5092</v>
+      </c>
+      <c r="B4080" s="0">
+        <v>22</v>
+      </c>
+      <c r="C4080" s="0">
+        <v>2934</v>
+      </c>
+      <c r="D4080" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4081">
+      <c r="A4081" s="0">
+        <v>5093</v>
+      </c>
+      <c r="B4081" s="0">
+        <v>22</v>
+      </c>
+      <c r="C4081" s="0">
+        <v>2935</v>
+      </c>
+      <c r="D4081" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4082">
+      <c r="A4082" s="0">
+        <v>5094</v>
+      </c>
+      <c r="B4082" s="0">
+        <v>22</v>
+      </c>
+      <c r="C4082" s="0">
+        <v>2936</v>
+      </c>
+      <c r="D4082" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4083">
+      <c r="A4083" s="0">
+        <v>5095</v>
+      </c>
+      <c r="B4083" s="0">
+        <v>22</v>
+      </c>
+      <c r="C4083" s="0">
+        <v>2937</v>
+      </c>
+      <c r="D4083" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4084">
+      <c r="A4084" s="0">
+        <v>5096</v>
+      </c>
+      <c r="B4084" s="0">
+        <v>22</v>
+      </c>
+      <c r="C4084" s="0">
+        <v>2938</v>
+      </c>
+      <c r="D4084" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4085">
+      <c r="A4085" s="0">
+        <v>5097</v>
+      </c>
+      <c r="B4085" s="0">
+        <v>22</v>
+      </c>
+      <c r="C4085" s="0">
+        <v>2939</v>
+      </c>
+      <c r="D4085" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4086">
+      <c r="A4086" s="0">
+        <v>5098</v>
+      </c>
+      <c r="B4086" s="0">
+        <v>22</v>
+      </c>
+      <c r="C4086" s="0">
+        <v>2940</v>
+      </c>
+      <c r="D4086" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4087">
+      <c r="A4087" s="0">
+        <v>5099</v>
+      </c>
+      <c r="B4087" s="0">
+        <v>22</v>
+      </c>
+      <c r="C4087" s="0">
+        <v>2941</v>
+      </c>
+      <c r="D4087" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4088">
+      <c r="A4088" s="0">
+        <v>5100</v>
+      </c>
+      <c r="B4088" s="0">
+        <v>22</v>
+      </c>
+      <c r="C4088" s="0">
+        <v>2942</v>
+      </c>
+      <c r="D4088" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4089">
+      <c r="A4089" s="0">
+        <v>5101</v>
+      </c>
+      <c r="B4089" s="0">
+        <v>22</v>
+      </c>
+      <c r="C4089" s="0">
+        <v>2943</v>
+      </c>
+      <c r="D4089" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4090">
+      <c r="A4090" s="0">
+        <v>5102</v>
+      </c>
+      <c r="B4090" s="0">
+        <v>22</v>
+      </c>
+      <c r="C4090" s="0">
+        <v>2944</v>
+      </c>
+      <c r="D4090" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4091">
+      <c r="A4091" s="0">
+        <v>5103</v>
+      </c>
+      <c r="B4091" s="0">
+        <v>22</v>
+      </c>
+      <c r="C4091" s="0">
+        <v>2945</v>
+      </c>
+      <c r="D4091" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4092">
+      <c r="A4092" s="0">
+        <v>5104</v>
+      </c>
+      <c r="B4092" s="0">
+        <v>22</v>
+      </c>
+      <c r="C4092" s="0">
+        <v>2946</v>
+      </c>
+      <c r="D4092" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4093">
+      <c r="A4093" s="0">
+        <v>5105</v>
+      </c>
+      <c r="B4093" s="0">
+        <v>22</v>
+      </c>
+      <c r="C4093" s="0">
+        <v>2947</v>
+      </c>
+      <c r="D4093" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4094">
+      <c r="A4094" s="0">
+        <v>5106</v>
+      </c>
+      <c r="B4094" s="0">
+        <v>22</v>
+      </c>
+      <c r="C4094" s="0">
+        <v>2948</v>
+      </c>
+      <c r="D4094" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4095">
+      <c r="A4095" s="0">
+        <v>5107</v>
+      </c>
+      <c r="B4095" s="0">
+        <v>22</v>
+      </c>
+      <c r="C4095" s="0">
+        <v>2949</v>
+      </c>
+      <c r="D4095" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4096">
+      <c r="A4096" s="0">
+        <v>5108</v>
+      </c>
+      <c r="B4096" s="0">
+        <v>22</v>
+      </c>
+      <c r="C4096" s="0">
+        <v>2950</v>
+      </c>
+      <c r="D4096" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4097">
+      <c r="A4097" s="0">
+        <v>5109</v>
+      </c>
+      <c r="B4097" s="0">
+        <v>22</v>
+      </c>
+      <c r="C4097" s="0">
+        <v>2951</v>
+      </c>
+      <c r="D4097" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4098">
+      <c r="A4098" s="0">
+        <v>5110</v>
+      </c>
+      <c r="B4098" s="0">
+        <v>22</v>
+      </c>
+      <c r="C4098" s="0">
+        <v>2952</v>
+      </c>
+      <c r="D4098" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4099">
+      <c r="A4099" s="0">
+        <v>5111</v>
+      </c>
+      <c r="B4099" s="0">
+        <v>22</v>
+      </c>
+      <c r="C4099" s="0">
+        <v>2953</v>
+      </c>
+      <c r="D4099" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4100">
+      <c r="A4100" s="0">
+        <v>5112</v>
+      </c>
+      <c r="B4100" s="0">
+        <v>22</v>
+      </c>
+      <c r="C4100" s="0">
+        <v>2954</v>
+      </c>
+      <c r="D4100" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4101">
+      <c r="A4101" s="0">
+        <v>5113</v>
+      </c>
+      <c r="B4101" s="0">
+        <v>22</v>
+      </c>
+      <c r="C4101" s="0">
+        <v>2955</v>
+      </c>
+      <c r="D4101" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4102">
+      <c r="A4102" s="0">
+        <v>5114</v>
+      </c>
+      <c r="B4102" s="0">
+        <v>22</v>
+      </c>
+      <c r="C4102" s="0">
+        <v>2956</v>
+      </c>
+      <c r="D4102" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4103">
+      <c r="A4103" s="0">
+        <v>5115</v>
+      </c>
+      <c r="B4103" s="0">
+        <v>22</v>
+      </c>
+      <c r="C4103" s="0">
+        <v>2957</v>
+      </c>
+      <c r="D4103" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4104">
+      <c r="A4104" s="0">
+        <v>5116</v>
+      </c>
+      <c r="B4104" s="0">
+        <v>22</v>
+      </c>
+      <c r="C4104" s="0">
+        <v>2958</v>
+      </c>
+      <c r="D4104" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4105">
+      <c r="A4105" s="0">
+        <v>5117</v>
+      </c>
+      <c r="B4105" s="0">
+        <v>22</v>
+      </c>
+      <c r="C4105" s="0">
+        <v>2959</v>
+      </c>
+      <c r="D4105" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4106">
+      <c r="A4106" s="0">
+        <v>5118</v>
+      </c>
+      <c r="B4106" s="0">
+        <v>22</v>
+      </c>
+      <c r="C4106" s="0">
+        <v>2960</v>
+      </c>
+      <c r="D4106" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4107">
+      <c r="A4107" s="0">
+        <v>5119</v>
+      </c>
+      <c r="B4107" s="0">
+        <v>22</v>
+      </c>
+      <c r="C4107" s="0">
+        <v>2961</v>
+      </c>
+      <c r="D4107" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4108">
+      <c r="A4108" s="0">
+        <v>5120</v>
+      </c>
+      <c r="B4108" s="0">
+        <v>22</v>
+      </c>
+      <c r="C4108" s="0">
+        <v>2962</v>
+      </c>
+      <c r="D4108" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4109">
+      <c r="A4109" s="0">
+        <v>5121</v>
+      </c>
+      <c r="B4109" s="0">
+        <v>22</v>
+      </c>
+      <c r="C4109" s="0">
+        <v>2963</v>
+      </c>
+      <c r="D4109" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4110">
+      <c r="A4110" s="0">
+        <v>5122</v>
+      </c>
+      <c r="B4110" s="0">
+        <v>22</v>
+      </c>
+      <c r="C4110" s="0">
+        <v>2964</v>
+      </c>
+      <c r="D4110" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4111">
+      <c r="A4111" s="0">
+        <v>5123</v>
+      </c>
+      <c r="B4111" s="0">
+        <v>22</v>
+      </c>
+      <c r="C4111" s="0">
+        <v>2965</v>
+      </c>
+      <c r="D4111" s="0">
+        <v>41</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4112">
+      <c r="A4112" s="0">
+        <v>5124</v>
+      </c>
+      <c r="B4112" s="0">
+        <v>22</v>
+      </c>
+      <c r="C4112" s="0">
+        <v>2966</v>
+      </c>
+      <c r="D4112" s="0">
+        <v>42</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4113">
+      <c r="A4113" s="0">
+        <v>5125</v>
+      </c>
+      <c r="B4113" s="0">
+        <v>22</v>
+      </c>
+      <c r="C4113" s="0">
+        <v>2967</v>
+      </c>
+      <c r="D4113" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4114">
+      <c r="A4114" s="0">
+        <v>5126</v>
+      </c>
+      <c r="B4114" s="0">
+        <v>22</v>
+      </c>
+      <c r="C4114" s="0">
+        <v>2968</v>
+      </c>
+      <c r="D4114" s="0">
+        <v>44</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4115">
+      <c r="A4115" s="0">
+        <v>5127</v>
+      </c>
+      <c r="B4115" s="0">
+        <v>22</v>
+      </c>
+      <c r="C4115" s="0">
+        <v>2969</v>
+      </c>
+      <c r="D4115" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4116">
+      <c r="A4116" s="0">
+        <v>5128</v>
+      </c>
+      <c r="B4116" s="0">
+        <v>22</v>
+      </c>
+      <c r="C4116" s="0">
+        <v>2970</v>
+      </c>
+      <c r="D4116" s="0">
+        <v>46</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4117">
+      <c r="A4117" s="0">
+        <v>5129</v>
+      </c>
+      <c r="B4117" s="0">
+        <v>22</v>
+      </c>
+      <c r="C4117" s="0">
+        <v>2971</v>
+      </c>
+      <c r="D4117" s="0">
+        <v>47</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4118">
+      <c r="A4118" s="0">
+        <v>5130</v>
+      </c>
+      <c r="B4118" s="0">
+        <v>24</v>
+      </c>
+      <c r="C4118" s="0">
+        <v>2926</v>
+      </c>
+      <c r="D4118" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4119">
+      <c r="A4119" s="0">
+        <v>5131</v>
+      </c>
+      <c r="B4119" s="0">
+        <v>24</v>
+      </c>
+      <c r="C4119" s="0">
+        <v>2928</v>
+      </c>
+      <c r="D4119" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4120">
+      <c r="A4120" s="0">
+        <v>5132</v>
+      </c>
+      <c r="B4120" s="0">
+        <v>24</v>
+      </c>
+      <c r="C4120" s="0">
+        <v>2929</v>
+      </c>
+      <c r="D4120" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4121">
+      <c r="A4121" s="0">
+        <v>5133</v>
+      </c>
+      <c r="B4121" s="0">
+        <v>24</v>
+      </c>
+      <c r="C4121" s="0">
+        <v>2930</v>
+      </c>
+      <c r="D4121" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4122">
+      <c r="A4122" s="0">
+        <v>5134</v>
+      </c>
+      <c r="B4122" s="0">
+        <v>24</v>
+      </c>
+      <c r="C4122" s="0">
+        <v>2937</v>
+      </c>
+      <c r="D4122" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4123">
+      <c r="A4123" s="0">
+        <v>5135</v>
+      </c>
+      <c r="B4123" s="0">
+        <v>24</v>
+      </c>
+      <c r="C4123" s="0">
+        <v>2957</v>
+      </c>
+      <c r="D4123" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4124">
+      <c r="A4124" s="0">
+        <v>5136</v>
+      </c>
+      <c r="B4124" s="0">
+        <v>24</v>
+      </c>
+      <c r="C4124" s="0">
+        <v>2956</v>
+      </c>
+      <c r="D4124" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4125">
+      <c r="A4125" s="0">
+        <v>5137</v>
+      </c>
+      <c r="B4125" s="0">
+        <v>24</v>
+      </c>
+      <c r="C4125" s="0">
+        <v>2935</v>
+      </c>
+      <c r="D4125" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4126">
+      <c r="A4126" s="0">
+        <v>5138</v>
+      </c>
+      <c r="B4126" s="0">
+        <v>24</v>
+      </c>
+      <c r="C4126" s="0">
+        <v>2941</v>
+      </c>
+      <c r="D4126" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4127">
+      <c r="A4127" s="0">
+        <v>5139</v>
+      </c>
+      <c r="B4127" s="0">
+        <v>24</v>
+      </c>
+      <c r="C4127" s="0">
+        <v>2939</v>
+      </c>
+      <c r="D4127" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4128">
+      <c r="A4128" s="0">
+        <v>5140</v>
+      </c>
+      <c r="B4128" s="0">
+        <v>24</v>
+      </c>
+      <c r="C4128" s="0">
+        <v>2960</v>
+      </c>
+      <c r="D4128" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4129">
+      <c r="A4129" s="0">
+        <v>5141</v>
+      </c>
+      <c r="B4129" s="0">
+        <v>24</v>
+      </c>
+      <c r="C4129" s="0">
+        <v>2966</v>
+      </c>
+      <c r="D4129" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4130">
+      <c r="A4130" s="0">
+        <v>5142</v>
+      </c>
+      <c r="B4130" s="0">
+        <v>24</v>
+      </c>
+      <c r="C4130" s="0">
+        <v>2943</v>
+      </c>
+      <c r="D4130" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4131">
+      <c r="A4131" s="0">
+        <v>5143</v>
+      </c>
+      <c r="B4131" s="0">
+        <v>24</v>
+      </c>
+      <c r="C4131" s="0">
+        <v>2950</v>
+      </c>
+      <c r="D4131" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4132">
+      <c r="A4132" s="0">
+        <v>5144</v>
+      </c>
+      <c r="B4132" s="0">
+        <v>24</v>
+      </c>
+      <c r="C4132" s="0">
+        <v>2949</v>
+      </c>
+      <c r="D4132" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4133">
+      <c r="A4133" s="0">
+        <v>5145</v>
+      </c>
+      <c r="B4133" s="0">
+        <v>24</v>
+      </c>
+      <c r="C4133" s="0">
+        <v>2953</v>
+      </c>
+      <c r="D4133" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4134">
+      <c r="A4134" s="0">
+        <v>5146</v>
+      </c>
+      <c r="B4134" s="0">
+        <v>24</v>
+      </c>
+      <c r="C4134" s="0">
+        <v>2955</v>
+      </c>
+      <c r="D4134" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4135">
+      <c r="A4135" s="0">
+        <v>5147</v>
+      </c>
+      <c r="B4135" s="0">
+        <v>24</v>
+      </c>
+      <c r="C4135" s="0">
+        <v>2961</v>
+      </c>
+      <c r="D4135" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4136">
+      <c r="A4136" s="0">
+        <v>5148</v>
+      </c>
+      <c r="B4136" s="0">
+        <v>24</v>
+      </c>
+      <c r="C4136" s="0">
+        <v>2964</v>
+      </c>
+      <c r="D4136" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4137">
+      <c r="A4137" s="0">
+        <v>5149</v>
+      </c>
+      <c r="B4137" s="0">
+        <v>24</v>
+      </c>
+      <c r="C4137" s="0">
+        <v>2965</v>
+      </c>
+      <c r="D4137" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4138">
+      <c r="A4138" s="0">
+        <v>5150</v>
+      </c>
+      <c r="B4138" s="0">
+        <v>24</v>
+      </c>
+      <c r="C4138" s="0">
+        <v>2945</v>
+      </c>
+      <c r="D4138" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4139">
+      <c r="A4139" s="0">
+        <v>5151</v>
+      </c>
+      <c r="B4139" s="0">
+        <v>24</v>
+      </c>
+      <c r="C4139" s="0">
+        <v>2967</v>
+      </c>
+      <c r="D4139" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4140">
+      <c r="A4140" s="0">
+        <v>5152</v>
+      </c>
+      <c r="B4140" s="0">
+        <v>24</v>
+      </c>
+      <c r="C4140" s="0">
+        <v>2968</v>
+      </c>
+      <c r="D4140" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4141">
+      <c r="A4141" s="0">
+        <v>5153</v>
+      </c>
+      <c r="B4141" s="0">
+        <v>24</v>
+      </c>
+      <c r="C4141" s="0">
+        <v>2971</v>
+      </c>
+      <c r="D4141" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4142">
+      <c r="A4142" s="0">
+        <v>5154</v>
+      </c>
+      <c r="B4142" s="0">
+        <v>24</v>
+      </c>
+      <c r="C4142" s="0">
+        <v>2951</v>
+      </c>
+      <c r="D4142" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4143">
+      <c r="A4143" s="0">
+        <v>5155</v>
+      </c>
+      <c r="B4143" s="0">
+        <v>24</v>
+      </c>
+      <c r="C4143" s="0">
+        <v>2951</v>
+      </c>
+      <c r="D4143" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4144">
+      <c r="A4144" s="0">
+        <v>5156</v>
+      </c>
+      <c r="B4144" s="0">
+        <v>143</v>
+      </c>
+      <c r="C4144" s="0">
+        <v>2972</v>
+      </c>
+      <c r="D4144" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4145">
+      <c r="A4145" s="0">
+        <v>5157</v>
+      </c>
+      <c r="B4145" s="0">
+        <v>143</v>
+      </c>
+      <c r="C4145" s="0">
+        <v>2973</v>
+      </c>
+      <c r="D4145" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4146">
+      <c r="A4146" s="0">
+        <v>5158</v>
+      </c>
+      <c r="B4146" s="0">
+        <v>143</v>
+      </c>
+      <c r="C4146" s="0">
+        <v>2974</v>
+      </c>
+      <c r="D4146" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4147">
+      <c r="A4147" s="0">
+        <v>5159</v>
+      </c>
+      <c r="B4147" s="0">
+        <v>143</v>
+      </c>
+      <c r="C4147" s="0">
+        <v>2975</v>
+      </c>
+      <c r="D4147" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4148">
+      <c r="A4148" s="0">
+        <v>5160</v>
+      </c>
+      <c r="B4148" s="0">
+        <v>143</v>
+      </c>
+      <c r="C4148" s="0">
+        <v>2976</v>
+      </c>
+      <c r="D4148" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4149">
+      <c r="A4149" s="0">
+        <v>5161</v>
+      </c>
+      <c r="B4149" s="0">
+        <v>143</v>
+      </c>
+      <c r="C4149" s="0">
+        <v>2977</v>
+      </c>
+      <c r="D4149" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4150">
+      <c r="A4150" s="0">
+        <v>5162</v>
+      </c>
+      <c r="B4150" s="0">
+        <v>143</v>
+      </c>
+      <c r="C4150" s="0">
+        <v>2978</v>
+      </c>
+      <c r="D4150" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4151">
+      <c r="A4151" s="0">
+        <v>5163</v>
+      </c>
+      <c r="B4151" s="0">
+        <v>143</v>
+      </c>
+      <c r="C4151" s="0">
+        <v>2979</v>
+      </c>
+      <c r="D4151" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4152">
+      <c r="A4152" s="0">
+        <v>5164</v>
+      </c>
+      <c r="B4152" s="0">
+        <v>143</v>
+      </c>
+      <c r="C4152" s="0">
+        <v>2980</v>
+      </c>
+      <c r="D4152" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4153">
+      <c r="A4153" s="0">
+        <v>5165</v>
+      </c>
+      <c r="B4153" s="0">
+        <v>143</v>
+      </c>
+      <c r="C4153" s="0">
+        <v>2981</v>
+      </c>
+      <c r="D4153" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4154">
+      <c r="A4154" s="0">
+        <v>5166</v>
+      </c>
+      <c r="B4154" s="0">
+        <v>143</v>
+      </c>
+      <c r="C4154" s="0">
+        <v>2982</v>
+      </c>
+      <c r="D4154" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4155">
+      <c r="A4155" s="0">
+        <v>5167</v>
+      </c>
+      <c r="B4155" s="0">
+        <v>143</v>
+      </c>
+      <c r="C4155" s="0">
+        <v>2983</v>
+      </c>
+      <c r="D4155" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4156">
+      <c r="A4156" s="0">
+        <v>5168</v>
+      </c>
+      <c r="B4156" s="0">
+        <v>143</v>
+      </c>
+      <c r="C4156" s="0">
+        <v>2984</v>
+      </c>
+      <c r="D4156" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4157">
+      <c r="A4157" s="0">
+        <v>5169</v>
+      </c>
+      <c r="B4157" s="0">
+        <v>143</v>
+      </c>
+      <c r="C4157" s="0">
+        <v>2985</v>
+      </c>
+      <c r="D4157" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4158">
+      <c r="A4158" s="0">
+        <v>5170</v>
+      </c>
+      <c r="B4158" s="0">
+        <v>143</v>
+      </c>
+      <c r="C4158" s="0">
+        <v>2986</v>
+      </c>
+      <c r="D4158" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4159">
+      <c r="A4159" s="0">
+        <v>5171</v>
+      </c>
+      <c r="B4159" s="0">
+        <v>143</v>
+      </c>
+      <c r="C4159" s="0">
+        <v>2987</v>
+      </c>
+      <c r="D4159" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4160">
+      <c r="A4160" s="0">
+        <v>5172</v>
+      </c>
+      <c r="B4160" s="0">
+        <v>143</v>
+      </c>
+      <c r="C4160" s="0">
+        <v>2988</v>
+      </c>
+      <c r="D4160" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4161">
+      <c r="A4161" s="0">
+        <v>5173</v>
+      </c>
+      <c r="B4161" s="0">
+        <v>143</v>
+      </c>
+      <c r="C4161" s="0">
+        <v>2989</v>
+      </c>
+      <c r="D4161" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4162">
+      <c r="A4162" s="0">
+        <v>5174</v>
+      </c>
+      <c r="B4162" s="0">
+        <v>143</v>
+      </c>
+      <c r="C4162" s="0">
+        <v>2990</v>
+      </c>
+      <c r="D4162" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4163">
+      <c r="A4163" s="0">
+        <v>5175</v>
+      </c>
+      <c r="B4163" s="0">
+        <v>143</v>
+      </c>
+      <c r="C4163" s="0">
+        <v>2991</v>
+      </c>
+      <c r="D4163" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4164">
+      <c r="A4164" s="0">
+        <v>5176</v>
+      </c>
+      <c r="B4164" s="0">
+        <v>143</v>
+      </c>
+      <c r="C4164" s="0">
+        <v>2992</v>
+      </c>
+      <c r="D4164" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4165">
+      <c r="A4165" s="0">
+        <v>5177</v>
+      </c>
+      <c r="B4165" s="0">
+        <v>143</v>
+      </c>
+      <c r="C4165" s="0">
+        <v>2993</v>
+      </c>
+      <c r="D4165" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4166">
+      <c r="A4166" s="0">
+        <v>5178</v>
+      </c>
+      <c r="B4166" s="0">
+        <v>143</v>
+      </c>
+      <c r="C4166" s="0">
+        <v>2994</v>
+      </c>
+      <c r="D4166" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4167">
+      <c r="A4167" s="0">
+        <v>5179</v>
+      </c>
+      <c r="B4167" s="0">
+        <v>143</v>
+      </c>
+      <c r="C4167" s="0">
+        <v>2995</v>
+      </c>
+      <c r="D4167" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4168">
+      <c r="A4168" s="0">
+        <v>5180</v>
+      </c>
+      <c r="B4168" s="0">
+        <v>143</v>
+      </c>
+      <c r="C4168" s="0">
+        <v>2996</v>
+      </c>
+      <c r="D4168" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4169">
+      <c r="A4169" s="0">
+        <v>5181</v>
+      </c>
+      <c r="B4169" s="0">
+        <v>143</v>
+      </c>
+      <c r="C4169" s="0">
+        <v>2997</v>
+      </c>
+      <c r="D4169" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4170">
+      <c r="A4170" s="0">
+        <v>5182</v>
+      </c>
+      <c r="B4170" s="0">
+        <v>143</v>
+      </c>
+      <c r="C4170" s="0">
+        <v>2998</v>
+      </c>
+      <c r="D4170" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4171">
+      <c r="A4171" s="0">
+        <v>5183</v>
+      </c>
+      <c r="B4171" s="0">
+        <v>143</v>
+      </c>
+      <c r="C4171" s="0">
+        <v>2999</v>
+      </c>
+      <c r="D4171" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4172">
+      <c r="A4172" s="0">
+        <v>5184</v>
+      </c>
+      <c r="B4172" s="0">
+        <v>143</v>
+      </c>
+      <c r="C4172" s="0">
+        <v>3000</v>
+      </c>
+      <c r="D4172" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4173">
+      <c r="A4173" s="0">
+        <v>5185</v>
+      </c>
+      <c r="B4173" s="0">
+        <v>143</v>
+      </c>
+      <c r="C4173" s="0">
+        <v>3001</v>
+      </c>
+      <c r="D4173" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4174">
+      <c r="A4174" s="0">
+        <v>5186</v>
+      </c>
+      <c r="B4174" s="0">
+        <v>143</v>
+      </c>
+      <c r="C4174" s="0">
+        <v>3002</v>
+      </c>
+      <c r="D4174" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4175">
+      <c r="A4175" s="0">
+        <v>5187</v>
+      </c>
+      <c r="B4175" s="0">
+        <v>143</v>
+      </c>
+      <c r="C4175" s="0">
+        <v>3003</v>
+      </c>
+      <c r="D4175" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4176">
+      <c r="A4176" s="0">
+        <v>5188</v>
+      </c>
+      <c r="B4176" s="0">
+        <v>143</v>
+      </c>
+      <c r="C4176" s="0">
+        <v>3004</v>
+      </c>
+      <c r="D4176" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4177">
+      <c r="A4177" s="0">
+        <v>5189</v>
+      </c>
+      <c r="B4177" s="0">
+        <v>143</v>
+      </c>
+      <c r="C4177" s="0">
+        <v>3005</v>
+      </c>
+      <c r="D4177" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4178">
+      <c r="A4178" s="0">
+        <v>5190</v>
+      </c>
+      <c r="B4178" s="0">
+        <v>143</v>
+      </c>
+      <c r="C4178" s="0">
+        <v>3006</v>
+      </c>
+      <c r="D4178" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4179">
+      <c r="A4179" s="0">
+        <v>5191</v>
+      </c>
+      <c r="B4179" s="0">
+        <v>143</v>
+      </c>
+      <c r="C4179" s="0">
+        <v>3007</v>
+      </c>
+      <c r="D4179" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4180">
+      <c r="A4180" s="0">
+        <v>5192</v>
+      </c>
+      <c r="B4180" s="0">
+        <v>143</v>
+      </c>
+      <c r="C4180" s="0">
+        <v>3008</v>
+      </c>
+      <c r="D4180" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4181">
+      <c r="A4181" s="0">
+        <v>5193</v>
+      </c>
+      <c r="B4181" s="0">
+        <v>143</v>
+      </c>
+      <c r="C4181" s="0">
+        <v>3009</v>
+      </c>
+      <c r="D4181" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4182">
+      <c r="A4182" s="0">
+        <v>5194</v>
+      </c>
+      <c r="B4182" s="0">
+        <v>143</v>
+      </c>
+      <c r="C4182" s="0">
+        <v>3010</v>
+      </c>
+      <c r="D4182" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4183">
+      <c r="A4183" s="0">
+        <v>5195</v>
+      </c>
+      <c r="B4183" s="0">
+        <v>143</v>
+      </c>
+      <c r="C4183" s="0">
+        <v>3011</v>
+      </c>
+      <c r="D4183" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4184">
+      <c r="A4184" s="0">
+        <v>5196</v>
+      </c>
+      <c r="B4184" s="0">
+        <v>143</v>
+      </c>
+      <c r="C4184" s="0">
+        <v>3012</v>
+      </c>
+      <c r="D4184" s="0">
+        <v>41</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4185">
+      <c r="A4185" s="0">
+        <v>5197</v>
+      </c>
+      <c r="B4185" s="0">
+        <v>143</v>
+      </c>
+      <c r="C4185" s="0">
+        <v>3013</v>
+      </c>
+      <c r="D4185" s="0">
+        <v>42</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4186">
+      <c r="A4186" s="0">
+        <v>5198</v>
+      </c>
+      <c r="B4186" s="0">
+        <v>143</v>
+      </c>
+      <c r="C4186" s="0">
+        <v>3014</v>
+      </c>
+      <c r="D4186" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4187">
+      <c r="A4187" s="0">
+        <v>5199</v>
+      </c>
+      <c r="B4187" s="0">
+        <v>143</v>
+      </c>
+      <c r="C4187" s="0">
+        <v>3015</v>
+      </c>
+      <c r="D4187" s="0">
+        <v>44</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4188">
+      <c r="A4188" s="0">
+        <v>5200</v>
+      </c>
+      <c r="B4188" s="0">
+        <v>143</v>
+      </c>
+      <c r="C4188" s="0">
+        <v>3016</v>
+      </c>
+      <c r="D4188" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4189">
+      <c r="A4189" s="0">
+        <v>5201</v>
+      </c>
+      <c r="B4189" s="0">
+        <v>143</v>
+      </c>
+      <c r="C4189" s="0">
+        <v>3017</v>
+      </c>
+      <c r="D4189" s="0">
+        <v>46</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4190">
+      <c r="A4190" s="0">
+        <v>5202</v>
+      </c>
+      <c r="B4190" s="0">
+        <v>143</v>
+      </c>
+      <c r="C4190" s="0">
+        <v>3018</v>
+      </c>
+      <c r="D4190" s="0">
+        <v>47</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4191">
+      <c r="A4191" s="0">
+        <v>5203</v>
+      </c>
+      <c r="B4191" s="0">
+        <v>148</v>
+      </c>
+      <c r="C4191" s="0">
+        <v>2973</v>
+      </c>
+      <c r="D4191" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4192">
+      <c r="A4192" s="0">
+        <v>5204</v>
+      </c>
+      <c r="B4192" s="0">
+        <v>148</v>
+      </c>
+      <c r="C4192" s="0">
+        <v>2975</v>
+      </c>
+      <c r="D4192" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4193">
+      <c r="A4193" s="0">
+        <v>5205</v>
+      </c>
+      <c r="B4193" s="0">
+        <v>148</v>
+      </c>
+      <c r="C4193" s="0">
+        <v>2976</v>
+      </c>
+      <c r="D4193" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4194">
+      <c r="A4194" s="0">
+        <v>5206</v>
+      </c>
+      <c r="B4194" s="0">
+        <v>148</v>
+      </c>
+      <c r="C4194" s="0">
+        <v>2977</v>
+      </c>
+      <c r="D4194" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4195">
+      <c r="A4195" s="0">
+        <v>5207</v>
+      </c>
+      <c r="B4195" s="0">
+        <v>148</v>
+      </c>
+      <c r="C4195" s="0">
+        <v>2984</v>
+      </c>
+      <c r="D4195" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4196">
+      <c r="A4196" s="0">
+        <v>5208</v>
+      </c>
+      <c r="B4196" s="0">
+        <v>148</v>
+      </c>
+      <c r="C4196" s="0">
+        <v>3004</v>
+      </c>
+      <c r="D4196" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4197">
+      <c r="A4197" s="0">
+        <v>5209</v>
+      </c>
+      <c r="B4197" s="0">
+        <v>148</v>
+      </c>
+      <c r="C4197" s="0">
+        <v>3003</v>
+      </c>
+      <c r="D4197" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4198">
+      <c r="A4198" s="0">
+        <v>5210</v>
+      </c>
+      <c r="B4198" s="0">
+        <v>148</v>
+      </c>
+      <c r="C4198" s="0">
+        <v>2982</v>
+      </c>
+      <c r="D4198" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4199">
+      <c r="A4199" s="0">
+        <v>5211</v>
+      </c>
+      <c r="B4199" s="0">
+        <v>148</v>
+      </c>
+      <c r="C4199" s="0">
+        <v>2988</v>
+      </c>
+      <c r="D4199" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4200">
+      <c r="A4200" s="0">
+        <v>5212</v>
+      </c>
+      <c r="B4200" s="0">
+        <v>148</v>
+      </c>
+      <c r="C4200" s="0">
+        <v>2986</v>
+      </c>
+      <c r="D4200" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4201">
+      <c r="A4201" s="0">
+        <v>5213</v>
+      </c>
+      <c r="B4201" s="0">
+        <v>148</v>
+      </c>
+      <c r="C4201" s="0">
+        <v>3007</v>
+      </c>
+      <c r="D4201" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4202">
+      <c r="A4202" s="0">
+        <v>5214</v>
+      </c>
+      <c r="B4202" s="0">
+        <v>148</v>
+      </c>
+      <c r="C4202" s="0">
+        <v>3013</v>
+      </c>
+      <c r="D4202" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4203">
+      <c r="A4203" s="0">
+        <v>5215</v>
+      </c>
+      <c r="B4203" s="0">
+        <v>148</v>
+      </c>
+      <c r="C4203" s="0">
+        <v>2990</v>
+      </c>
+      <c r="D4203" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4204">
+      <c r="A4204" s="0">
+        <v>5216</v>
+      </c>
+      <c r="B4204" s="0">
+        <v>148</v>
+      </c>
+      <c r="C4204" s="0">
+        <v>2997</v>
+      </c>
+      <c r="D4204" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4205">
+      <c r="A4205" s="0">
+        <v>5217</v>
+      </c>
+      <c r="B4205" s="0">
+        <v>148</v>
+      </c>
+      <c r="C4205" s="0">
+        <v>2996</v>
+      </c>
+      <c r="D4205" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4206">
+      <c r="A4206" s="0">
+        <v>5218</v>
+      </c>
+      <c r="B4206" s="0">
+        <v>148</v>
+      </c>
+      <c r="C4206" s="0">
+        <v>3000</v>
+      </c>
+      <c r="D4206" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4207">
+      <c r="A4207" s="0">
+        <v>5219</v>
+      </c>
+      <c r="B4207" s="0">
+        <v>148</v>
+      </c>
+      <c r="C4207" s="0">
+        <v>3002</v>
+      </c>
+      <c r="D4207" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4208">
+      <c r="A4208" s="0">
+        <v>5220</v>
+      </c>
+      <c r="B4208" s="0">
+        <v>148</v>
+      </c>
+      <c r="C4208" s="0">
+        <v>3008</v>
+      </c>
+      <c r="D4208" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4209">
+      <c r="A4209" s="0">
+        <v>5221</v>
+      </c>
+      <c r="B4209" s="0">
+        <v>148</v>
+      </c>
+      <c r="C4209" s="0">
+        <v>3011</v>
+      </c>
+      <c r="D4209" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4210">
+      <c r="A4210" s="0">
+        <v>5222</v>
+      </c>
+      <c r="B4210" s="0">
+        <v>148</v>
+      </c>
+      <c r="C4210" s="0">
+        <v>3012</v>
+      </c>
+      <c r="D4210" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4211">
+      <c r="A4211" s="0">
+        <v>5223</v>
+      </c>
+      <c r="B4211" s="0">
+        <v>148</v>
+      </c>
+      <c r="C4211" s="0">
+        <v>2992</v>
+      </c>
+      <c r="D4211" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4212">
+      <c r="A4212" s="0">
+        <v>5224</v>
+      </c>
+      <c r="B4212" s="0">
+        <v>148</v>
+      </c>
+      <c r="C4212" s="0">
+        <v>3014</v>
+      </c>
+      <c r="D4212" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4213">
+      <c r="A4213" s="0">
+        <v>5225</v>
+      </c>
+      <c r="B4213" s="0">
+        <v>148</v>
+      </c>
+      <c r="C4213" s="0">
+        <v>3015</v>
+      </c>
+      <c r="D4213" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4214">
+      <c r="A4214" s="0">
+        <v>5226</v>
+      </c>
+      <c r="B4214" s="0">
+        <v>148</v>
+      </c>
+      <c r="C4214" s="0">
+        <v>3018</v>
+      </c>
+      <c r="D4214" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4215">
+      <c r="A4215" s="0">
+        <v>5227</v>
+      </c>
+      <c r="B4215" s="0">
+        <v>148</v>
+      </c>
+      <c r="C4215" s="0">
+        <v>2998</v>
+      </c>
+      <c r="D4215" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4216">
+      <c r="A4216" s="0">
+        <v>5228</v>
+      </c>
+      <c r="B4216" s="0">
+        <v>147</v>
+      </c>
+      <c r="C4216" s="0">
+        <v>3019</v>
+      </c>
+      <c r="D4216" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4217">
+      <c r="A4217" s="0">
+        <v>5229</v>
+      </c>
+      <c r="B4217" s="0">
+        <v>147</v>
+      </c>
+      <c r="C4217" s="0">
+        <v>3020</v>
+      </c>
+      <c r="D4217" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4218">
+      <c r="A4218" s="0">
+        <v>5230</v>
+      </c>
+      <c r="B4218" s="0">
+        <v>147</v>
+      </c>
+      <c r="C4218" s="0">
+        <v>3021</v>
+      </c>
+      <c r="D4218" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4219">
+      <c r="A4219" s="0">
+        <v>5231</v>
+      </c>
+      <c r="B4219" s="0">
+        <v>147</v>
+      </c>
+      <c r="C4219" s="0">
+        <v>3022</v>
+      </c>
+      <c r="D4219" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4220">
+      <c r="A4220" s="0">
+        <v>5232</v>
+      </c>
+      <c r="B4220" s="0">
+        <v>147</v>
+      </c>
+      <c r="C4220" s="0">
+        <v>3023</v>
+      </c>
+      <c r="D4220" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4221">
+      <c r="A4221" s="0">
+        <v>5233</v>
+      </c>
+      <c r="B4221" s="0">
+        <v>147</v>
+      </c>
+      <c r="C4221" s="0">
+        <v>3024</v>
+      </c>
+      <c r="D4221" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4222">
+      <c r="A4222" s="0">
+        <v>5234</v>
+      </c>
+      <c r="B4222" s="0">
+        <v>147</v>
+      </c>
+      <c r="C4222" s="0">
+        <v>3025</v>
+      </c>
+      <c r="D4222" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4223">
+      <c r="A4223" s="0">
+        <v>5235</v>
+      </c>
+      <c r="B4223" s="0">
+        <v>147</v>
+      </c>
+      <c r="C4223" s="0">
+        <v>3026</v>
+      </c>
+      <c r="D4223" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4224">
+      <c r="A4224" s="0">
+        <v>5236</v>
+      </c>
+      <c r="B4224" s="0">
+        <v>147</v>
+      </c>
+      <c r="C4224" s="0">
+        <v>3027</v>
+      </c>
+      <c r="D4224" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4225">
+      <c r="A4225" s="0">
+        <v>5237</v>
+      </c>
+      <c r="B4225" s="0">
+        <v>147</v>
+      </c>
+      <c r="C4225" s="0">
+        <v>3028</v>
+      </c>
+      <c r="D4225" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4226">
+      <c r="A4226" s="0">
+        <v>5238</v>
+      </c>
+      <c r="B4226" s="0">
+        <v>147</v>
+      </c>
+      <c r="C4226" s="0">
+        <v>3029</v>
+      </c>
+      <c r="D4226" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4227">
+      <c r="A4227" s="0">
+        <v>5239</v>
+      </c>
+      <c r="B4227" s="0">
+        <v>147</v>
+      </c>
+      <c r="C4227" s="0">
+        <v>3030</v>
+      </c>
+      <c r="D4227" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4228">
+      <c r="A4228" s="0">
+        <v>5240</v>
+      </c>
+      <c r="B4228" s="0">
+        <v>147</v>
+      </c>
+      <c r="C4228" s="0">
+        <v>3031</v>
+      </c>
+      <c r="D4228" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4229">
+      <c r="A4229" s="0">
+        <v>5241</v>
+      </c>
+      <c r="B4229" s="0">
+        <v>147</v>
+      </c>
+      <c r="C4229" s="0">
+        <v>3032</v>
+      </c>
+      <c r="D4229" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4230">
+      <c r="A4230" s="0">
+        <v>5242</v>
+      </c>
+      <c r="B4230" s="0">
+        <v>147</v>
+      </c>
+      <c r="C4230" s="0">
+        <v>3033</v>
+      </c>
+      <c r="D4230" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4231">
+      <c r="A4231" s="0">
+        <v>5243</v>
+      </c>
+      <c r="B4231" s="0">
+        <v>147</v>
+      </c>
+      <c r="C4231" s="0">
+        <v>3034</v>
+      </c>
+      <c r="D4231" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4232">
+      <c r="A4232" s="0">
+        <v>5244</v>
+      </c>
+      <c r="B4232" s="0">
+        <v>147</v>
+      </c>
+      <c r="C4232" s="0">
+        <v>3035</v>
+      </c>
+      <c r="D4232" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4233">
+      <c r="A4233" s="0">
+        <v>5245</v>
+      </c>
+      <c r="B4233" s="0">
+        <v>147</v>
+      </c>
+      <c r="C4233" s="0">
+        <v>3036</v>
+      </c>
+      <c r="D4233" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4234">
+      <c r="A4234" s="0">
+        <v>5246</v>
+      </c>
+      <c r="B4234" s="0">
+        <v>147</v>
+      </c>
+      <c r="C4234" s="0">
+        <v>3037</v>
+      </c>
+      <c r="D4234" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4235">
+      <c r="A4235" s="0">
+        <v>5247</v>
+      </c>
+      <c r="B4235" s="0">
+        <v>147</v>
+      </c>
+      <c r="C4235" s="0">
+        <v>3038</v>
+      </c>
+      <c r="D4235" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4236">
+      <c r="A4236" s="0">
+        <v>5248</v>
+      </c>
+      <c r="B4236" s="0">
+        <v>147</v>
+      </c>
+      <c r="C4236" s="0">
+        <v>3039</v>
+      </c>
+      <c r="D4236" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4237">
+      <c r="A4237" s="0">
+        <v>5249</v>
+      </c>
+      <c r="B4237" s="0">
+        <v>147</v>
+      </c>
+      <c r="C4237" s="0">
+        <v>3040</v>
+      </c>
+      <c r="D4237" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4238">
+      <c r="A4238" s="0">
+        <v>5250</v>
+      </c>
+      <c r="B4238" s="0">
+        <v>147</v>
+      </c>
+      <c r="C4238" s="0">
+        <v>3041</v>
+      </c>
+      <c r="D4238" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4239">
+      <c r="A4239" s="0">
+        <v>5251</v>
+      </c>
+      <c r="B4239" s="0">
+        <v>147</v>
+      </c>
+      <c r="C4239" s="0">
+        <v>3042</v>
+      </c>
+      <c r="D4239" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4240">
+      <c r="A4240" s="0">
+        <v>5252</v>
+      </c>
+      <c r="B4240" s="0">
+        <v>147</v>
+      </c>
+      <c r="C4240" s="0">
+        <v>3043</v>
+      </c>
+      <c r="D4240" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4241">
+      <c r="A4241" s="0">
+        <v>5253</v>
+      </c>
+      <c r="B4241" s="0">
+        <v>147</v>
+      </c>
+      <c r="C4241" s="0">
+        <v>3044</v>
+      </c>
+      <c r="D4241" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4242">
+      <c r="A4242" s="0">
+        <v>5254</v>
+      </c>
+      <c r="B4242" s="0">
+        <v>147</v>
+      </c>
+      <c r="C4242" s="0">
+        <v>3045</v>
+      </c>
+      <c r="D4242" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4243">
+      <c r="A4243" s="0">
+        <v>5255</v>
+      </c>
+      <c r="B4243" s="0">
+        <v>147</v>
+      </c>
+      <c r="C4243" s="0">
+        <v>3046</v>
+      </c>
+      <c r="D4243" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4244">
+      <c r="A4244" s="0">
+        <v>5256</v>
+      </c>
+      <c r="B4244" s="0">
+        <v>147</v>
+      </c>
+      <c r="C4244" s="0">
+        <v>3047</v>
+      </c>
+      <c r="D4244" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4245">
+      <c r="A4245" s="0">
+        <v>5257</v>
+      </c>
+      <c r="B4245" s="0">
+        <v>147</v>
+      </c>
+      <c r="C4245" s="0">
+        <v>3048</v>
+      </c>
+      <c r="D4245" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4246">
+      <c r="A4246" s="0">
+        <v>5258</v>
+      </c>
+      <c r="B4246" s="0">
+        <v>147</v>
+      </c>
+      <c r="C4246" s="0">
+        <v>3049</v>
+      </c>
+      <c r="D4246" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4247">
+      <c r="A4247" s="0">
+        <v>5259</v>
+      </c>
+      <c r="B4247" s="0">
+        <v>147</v>
+      </c>
+      <c r="C4247" s="0">
+        <v>3050</v>
+      </c>
+      <c r="D4247" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4248">
+      <c r="A4248" s="0">
+        <v>5260</v>
+      </c>
+      <c r="B4248" s="0">
+        <v>147</v>
+      </c>
+      <c r="C4248" s="0">
+        <v>3051</v>
+      </c>
+      <c r="D4248" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4249">
+      <c r="A4249" s="0">
+        <v>5261</v>
+      </c>
+      <c r="B4249" s="0">
+        <v>147</v>
+      </c>
+      <c r="C4249" s="0">
+        <v>3052</v>
+      </c>
+      <c r="D4249" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4250">
+      <c r="A4250" s="0">
+        <v>5262</v>
+      </c>
+      <c r="B4250" s="0">
+        <v>147</v>
+      </c>
+      <c r="C4250" s="0">
+        <v>3053</v>
+      </c>
+      <c r="D4250" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4251">
+      <c r="A4251" s="0">
+        <v>5263</v>
+      </c>
+      <c r="B4251" s="0">
+        <v>147</v>
+      </c>
+      <c r="C4251" s="0">
+        <v>3054</v>
+      </c>
+      <c r="D4251" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4252">
+      <c r="A4252" s="0">
+        <v>5264</v>
+      </c>
+      <c r="B4252" s="0">
+        <v>147</v>
+      </c>
+      <c r="C4252" s="0">
+        <v>3055</v>
+      </c>
+      <c r="D4252" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4253">
+      <c r="A4253" s="0">
+        <v>5265</v>
+      </c>
+      <c r="B4253" s="0">
+        <v>147</v>
+      </c>
+      <c r="C4253" s="0">
+        <v>3056</v>
+      </c>
+      <c r="D4253" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4254">
+      <c r="A4254" s="0">
+        <v>5266</v>
+      </c>
+      <c r="B4254" s="0">
+        <v>147</v>
+      </c>
+      <c r="C4254" s="0">
+        <v>3057</v>
+      </c>
+      <c r="D4254" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4255">
+      <c r="A4255" s="0">
+        <v>5267</v>
+      </c>
+      <c r="B4255" s="0">
+        <v>147</v>
+      </c>
+      <c r="C4255" s="0">
+        <v>3058</v>
+      </c>
+      <c r="D4255" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4256">
+      <c r="A4256" s="0">
+        <v>5268</v>
+      </c>
+      <c r="B4256" s="0">
+        <v>147</v>
+      </c>
+      <c r="C4256" s="0">
+        <v>3059</v>
+      </c>
+      <c r="D4256" s="0">
+        <v>41</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4257">
+      <c r="A4257" s="0">
+        <v>5269</v>
+      </c>
+      <c r="B4257" s="0">
+        <v>147</v>
+      </c>
+      <c r="C4257" s="0">
+        <v>3060</v>
+      </c>
+      <c r="D4257" s="0">
+        <v>42</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4258">
+      <c r="A4258" s="0">
+        <v>5270</v>
+      </c>
+      <c r="B4258" s="0">
+        <v>147</v>
+      </c>
+      <c r="C4258" s="0">
+        <v>3061</v>
+      </c>
+      <c r="D4258" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4259">
+      <c r="A4259" s="0">
+        <v>5271</v>
+      </c>
+      <c r="B4259" s="0">
+        <v>147</v>
+      </c>
+      <c r="C4259" s="0">
+        <v>3062</v>
+      </c>
+      <c r="D4259" s="0">
+        <v>44</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4260">
+      <c r="A4260" s="0">
+        <v>5272</v>
+      </c>
+      <c r="B4260" s="0">
+        <v>147</v>
+      </c>
+      <c r="C4260" s="0">
+        <v>3063</v>
+      </c>
+      <c r="D4260" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4261">
+      <c r="A4261" s="0">
+        <v>5273</v>
+      </c>
+      <c r="B4261" s="0">
+        <v>147</v>
+      </c>
+      <c r="C4261" s="0">
+        <v>3064</v>
+      </c>
+      <c r="D4261" s="0">
+        <v>46</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4262">
+      <c r="A4262" s="0">
+        <v>5274</v>
+      </c>
+      <c r="B4262" s="0">
+        <v>147</v>
+      </c>
+      <c r="C4262" s="0">
+        <v>3065</v>
+      </c>
+      <c r="D4262" s="0">
+        <v>47</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4263">
+      <c r="A4263" s="0">
+        <v>5275</v>
+      </c>
+      <c r="B4263" s="0">
+        <v>149</v>
+      </c>
+      <c r="C4263" s="0">
+        <v>3020</v>
+      </c>
+      <c r="D4263" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4264">
+      <c r="A4264" s="0">
+        <v>5276</v>
+      </c>
+      <c r="B4264" s="0">
+        <v>149</v>
+      </c>
+      <c r="C4264" s="0">
+        <v>3022</v>
+      </c>
+      <c r="D4264" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4265">
+      <c r="A4265" s="0">
+        <v>5277</v>
+      </c>
+      <c r="B4265" s="0">
+        <v>149</v>
+      </c>
+      <c r="C4265" s="0">
+        <v>3023</v>
+      </c>
+      <c r="D4265" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4266">
+      <c r="A4266" s="0">
+        <v>5278</v>
+      </c>
+      <c r="B4266" s="0">
+        <v>149</v>
+      </c>
+      <c r="C4266" s="0">
+        <v>3024</v>
+      </c>
+      <c r="D4266" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4267">
+      <c r="A4267" s="0">
+        <v>5279</v>
+      </c>
+      <c r="B4267" s="0">
+        <v>149</v>
+      </c>
+      <c r="C4267" s="0">
+        <v>3031</v>
+      </c>
+      <c r="D4267" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4268">
+      <c r="A4268" s="0">
+        <v>5280</v>
+      </c>
+      <c r="B4268" s="0">
+        <v>149</v>
+      </c>
+      <c r="C4268" s="0">
+        <v>3051</v>
+      </c>
+      <c r="D4268" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4269">
+      <c r="A4269" s="0">
+        <v>5281</v>
+      </c>
+      <c r="B4269" s="0">
+        <v>149</v>
+      </c>
+      <c r="C4269" s="0">
+        <v>3050</v>
+      </c>
+      <c r="D4269" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4270">
+      <c r="A4270" s="0">
+        <v>5282</v>
+      </c>
+      <c r="B4270" s="0">
+        <v>149</v>
+      </c>
+      <c r="C4270" s="0">
+        <v>3029</v>
+      </c>
+      <c r="D4270" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4271">
+      <c r="A4271" s="0">
+        <v>5283</v>
+      </c>
+      <c r="B4271" s="0">
+        <v>149</v>
+      </c>
+      <c r="C4271" s="0">
+        <v>3035</v>
+      </c>
+      <c r="D4271" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4272">
+      <c r="A4272" s="0">
+        <v>5284</v>
+      </c>
+      <c r="B4272" s="0">
+        <v>149</v>
+      </c>
+      <c r="C4272" s="0">
+        <v>3033</v>
+      </c>
+      <c r="D4272" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4273">
+      <c r="A4273" s="0">
+        <v>5285</v>
+      </c>
+      <c r="B4273" s="0">
+        <v>149</v>
+      </c>
+      <c r="C4273" s="0">
+        <v>3054</v>
+      </c>
+      <c r="D4273" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4274">
+      <c r="A4274" s="0">
+        <v>5286</v>
+      </c>
+      <c r="B4274" s="0">
+        <v>149</v>
+      </c>
+      <c r="C4274" s="0">
+        <v>3060</v>
+      </c>
+      <c r="D4274" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4275">
+      <c r="A4275" s="0">
+        <v>5287</v>
+      </c>
+      <c r="B4275" s="0">
+        <v>149</v>
+      </c>
+      <c r="C4275" s="0">
+        <v>3037</v>
+      </c>
+      <c r="D4275" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4276">
+      <c r="A4276" s="0">
+        <v>5288</v>
+      </c>
+      <c r="B4276" s="0">
+        <v>149</v>
+      </c>
+      <c r="C4276" s="0">
+        <v>3044</v>
+      </c>
+      <c r="D4276" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4277">
+      <c r="A4277" s="0">
+        <v>5289</v>
+      </c>
+      <c r="B4277" s="0">
+        <v>149</v>
+      </c>
+      <c r="C4277" s="0">
+        <v>3043</v>
+      </c>
+      <c r="D4277" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4278">
+      <c r="A4278" s="0">
+        <v>5290</v>
+      </c>
+      <c r="B4278" s="0">
+        <v>149</v>
+      </c>
+      <c r="C4278" s="0">
+        <v>3047</v>
+      </c>
+      <c r="D4278" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4279">
+      <c r="A4279" s="0">
+        <v>5291</v>
+      </c>
+      <c r="B4279" s="0">
+        <v>149</v>
+      </c>
+      <c r="C4279" s="0">
+        <v>3049</v>
+      </c>
+      <c r="D4279" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4280">
+      <c r="A4280" s="0">
+        <v>5292</v>
+      </c>
+      <c r="B4280" s="0">
+        <v>149</v>
+      </c>
+      <c r="C4280" s="0">
+        <v>3055</v>
+      </c>
+      <c r="D4280" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4281">
+      <c r="A4281" s="0">
+        <v>5293</v>
+      </c>
+      <c r="B4281" s="0">
+        <v>149</v>
+      </c>
+      <c r="C4281" s="0">
+        <v>3058</v>
+      </c>
+      <c r="D4281" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4282">
+      <c r="A4282" s="0">
+        <v>5294</v>
+      </c>
+      <c r="B4282" s="0">
+        <v>149</v>
+      </c>
+      <c r="C4282" s="0">
+        <v>3059</v>
+      </c>
+      <c r="D4282" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4283">
+      <c r="A4283" s="0">
+        <v>5295</v>
+      </c>
+      <c r="B4283" s="0">
+        <v>149</v>
+      </c>
+      <c r="C4283" s="0">
+        <v>3039</v>
+      </c>
+      <c r="D4283" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4284">
+      <c r="A4284" s="0">
+        <v>5296</v>
+      </c>
+      <c r="B4284" s="0">
+        <v>149</v>
+      </c>
+      <c r="C4284" s="0">
+        <v>3061</v>
+      </c>
+      <c r="D4284" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4285">
+      <c r="A4285" s="0">
+        <v>5297</v>
+      </c>
+      <c r="B4285" s="0">
+        <v>149</v>
+      </c>
+      <c r="C4285" s="0">
+        <v>3062</v>
+      </c>
+      <c r="D4285" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4286">
+      <c r="A4286" s="0">
+        <v>5298</v>
+      </c>
+      <c r="B4286" s="0">
+        <v>149</v>
+      </c>
+      <c r="C4286" s="0">
+        <v>3065</v>
+      </c>
+      <c r="D4286" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4287">
+      <c r="A4287" s="0">
+        <v>5299</v>
+      </c>
+      <c r="B4287" s="0">
+        <v>149</v>
+      </c>
+      <c r="C4287" s="0">
+        <v>3045</v>
+      </c>
+      <c r="D4287" s="0">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rcads/data/xls/23_InstrumentItemMap.xlsx
+++ b/rcads/data/xls/23_InstrumentItemMap.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="_23_InstrumentItemMap"/>
   </sheets>
   <definedNames>
-    <definedName name="_23_InstrumentItemMap">'_23_InstrumentItemMap'!$A$1:$E$4287</definedName>
+    <definedName name="_23_InstrumentItemMap">'_23_InstrumentItemMap'!$A$1:$E$4719</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -343,7 +343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4287"/>
+  <dimension ref="A1:E4719"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -61249,6 +61249,6054 @@
         <v>25</v>
       </c>
     </row>
+    <row outlineLevel="0" r="4288">
+      <c r="A4288" s="0">
+        <v>5300</v>
+      </c>
+      <c r="B4288" s="0">
+        <v>166</v>
+      </c>
+      <c r="C4288" s="0">
+        <v>3066</v>
+      </c>
+      <c r="D4288" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4289">
+      <c r="A4289" s="0">
+        <v>5301</v>
+      </c>
+      <c r="B4289" s="0">
+        <v>166</v>
+      </c>
+      <c r="C4289" s="0">
+        <v>3067</v>
+      </c>
+      <c r="D4289" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4290">
+      <c r="A4290" s="0">
+        <v>5302</v>
+      </c>
+      <c r="B4290" s="0">
+        <v>166</v>
+      </c>
+      <c r="C4290" s="0">
+        <v>3068</v>
+      </c>
+      <c r="D4290" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4291">
+      <c r="A4291" s="0">
+        <v>5303</v>
+      </c>
+      <c r="B4291" s="0">
+        <v>166</v>
+      </c>
+      <c r="C4291" s="0">
+        <v>3069</v>
+      </c>
+      <c r="D4291" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4292">
+      <c r="A4292" s="0">
+        <v>5304</v>
+      </c>
+      <c r="B4292" s="0">
+        <v>166</v>
+      </c>
+      <c r="C4292" s="0">
+        <v>3070</v>
+      </c>
+      <c r="D4292" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4293">
+      <c r="A4293" s="0">
+        <v>5305</v>
+      </c>
+      <c r="B4293" s="0">
+        <v>166</v>
+      </c>
+      <c r="C4293" s="0">
+        <v>3071</v>
+      </c>
+      <c r="D4293" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4294">
+      <c r="A4294" s="0">
+        <v>5306</v>
+      </c>
+      <c r="B4294" s="0">
+        <v>166</v>
+      </c>
+      <c r="C4294" s="0">
+        <v>3072</v>
+      </c>
+      <c r="D4294" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4295">
+      <c r="A4295" s="0">
+        <v>5307</v>
+      </c>
+      <c r="B4295" s="0">
+        <v>166</v>
+      </c>
+      <c r="C4295" s="0">
+        <v>3073</v>
+      </c>
+      <c r="D4295" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4296">
+      <c r="A4296" s="0">
+        <v>5308</v>
+      </c>
+      <c r="B4296" s="0">
+        <v>166</v>
+      </c>
+      <c r="C4296" s="0">
+        <v>3074</v>
+      </c>
+      <c r="D4296" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4297">
+      <c r="A4297" s="0">
+        <v>5309</v>
+      </c>
+      <c r="B4297" s="0">
+        <v>166</v>
+      </c>
+      <c r="C4297" s="0">
+        <v>3075</v>
+      </c>
+      <c r="D4297" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4298">
+      <c r="A4298" s="0">
+        <v>5310</v>
+      </c>
+      <c r="B4298" s="0">
+        <v>166</v>
+      </c>
+      <c r="C4298" s="0">
+        <v>3076</v>
+      </c>
+      <c r="D4298" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4299">
+      <c r="A4299" s="0">
+        <v>5311</v>
+      </c>
+      <c r="B4299" s="0">
+        <v>166</v>
+      </c>
+      <c r="C4299" s="0">
+        <v>3077</v>
+      </c>
+      <c r="D4299" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4300">
+      <c r="A4300" s="0">
+        <v>5312</v>
+      </c>
+      <c r="B4300" s="0">
+        <v>166</v>
+      </c>
+      <c r="C4300" s="0">
+        <v>3078</v>
+      </c>
+      <c r="D4300" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4301">
+      <c r="A4301" s="0">
+        <v>5313</v>
+      </c>
+      <c r="B4301" s="0">
+        <v>166</v>
+      </c>
+      <c r="C4301" s="0">
+        <v>3079</v>
+      </c>
+      <c r="D4301" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4302">
+      <c r="A4302" s="0">
+        <v>5314</v>
+      </c>
+      <c r="B4302" s="0">
+        <v>166</v>
+      </c>
+      <c r="C4302" s="0">
+        <v>3080</v>
+      </c>
+      <c r="D4302" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4303">
+      <c r="A4303" s="0">
+        <v>5315</v>
+      </c>
+      <c r="B4303" s="0">
+        <v>166</v>
+      </c>
+      <c r="C4303" s="0">
+        <v>3081</v>
+      </c>
+      <c r="D4303" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4304">
+      <c r="A4304" s="0">
+        <v>5316</v>
+      </c>
+      <c r="B4304" s="0">
+        <v>166</v>
+      </c>
+      <c r="C4304" s="0">
+        <v>3082</v>
+      </c>
+      <c r="D4304" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4305">
+      <c r="A4305" s="0">
+        <v>5317</v>
+      </c>
+      <c r="B4305" s="0">
+        <v>166</v>
+      </c>
+      <c r="C4305" s="0">
+        <v>3083</v>
+      </c>
+      <c r="D4305" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4306">
+      <c r="A4306" s="0">
+        <v>5318</v>
+      </c>
+      <c r="B4306" s="0">
+        <v>166</v>
+      </c>
+      <c r="C4306" s="0">
+        <v>3084</v>
+      </c>
+      <c r="D4306" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4307">
+      <c r="A4307" s="0">
+        <v>5319</v>
+      </c>
+      <c r="B4307" s="0">
+        <v>166</v>
+      </c>
+      <c r="C4307" s="0">
+        <v>3085</v>
+      </c>
+      <c r="D4307" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4308">
+      <c r="A4308" s="0">
+        <v>5320</v>
+      </c>
+      <c r="B4308" s="0">
+        <v>166</v>
+      </c>
+      <c r="C4308" s="0">
+        <v>3086</v>
+      </c>
+      <c r="D4308" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4309">
+      <c r="A4309" s="0">
+        <v>5321</v>
+      </c>
+      <c r="B4309" s="0">
+        <v>166</v>
+      </c>
+      <c r="C4309" s="0">
+        <v>3087</v>
+      </c>
+      <c r="D4309" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4310">
+      <c r="A4310" s="0">
+        <v>5322</v>
+      </c>
+      <c r="B4310" s="0">
+        <v>166</v>
+      </c>
+      <c r="C4310" s="0">
+        <v>3088</v>
+      </c>
+      <c r="D4310" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4311">
+      <c r="A4311" s="0">
+        <v>5323</v>
+      </c>
+      <c r="B4311" s="0">
+        <v>166</v>
+      </c>
+      <c r="C4311" s="0">
+        <v>3089</v>
+      </c>
+      <c r="D4311" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4312">
+      <c r="A4312" s="0">
+        <v>5324</v>
+      </c>
+      <c r="B4312" s="0">
+        <v>166</v>
+      </c>
+      <c r="C4312" s="0">
+        <v>3090</v>
+      </c>
+      <c r="D4312" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4313">
+      <c r="A4313" s="0">
+        <v>5325</v>
+      </c>
+      <c r="B4313" s="0">
+        <v>166</v>
+      </c>
+      <c r="C4313" s="0">
+        <v>3091</v>
+      </c>
+      <c r="D4313" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4314">
+      <c r="A4314" s="0">
+        <v>5326</v>
+      </c>
+      <c r="B4314" s="0">
+        <v>166</v>
+      </c>
+      <c r="C4314" s="0">
+        <v>3092</v>
+      </c>
+      <c r="D4314" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4315">
+      <c r="A4315" s="0">
+        <v>5327</v>
+      </c>
+      <c r="B4315" s="0">
+        <v>166</v>
+      </c>
+      <c r="C4315" s="0">
+        <v>3093</v>
+      </c>
+      <c r="D4315" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4316">
+      <c r="A4316" s="0">
+        <v>5328</v>
+      </c>
+      <c r="B4316" s="0">
+        <v>166</v>
+      </c>
+      <c r="C4316" s="0">
+        <v>3094</v>
+      </c>
+      <c r="D4316" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4317">
+      <c r="A4317" s="0">
+        <v>5329</v>
+      </c>
+      <c r="B4317" s="0">
+        <v>166</v>
+      </c>
+      <c r="C4317" s="0">
+        <v>3095</v>
+      </c>
+      <c r="D4317" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4318">
+      <c r="A4318" s="0">
+        <v>5330</v>
+      </c>
+      <c r="B4318" s="0">
+        <v>166</v>
+      </c>
+      <c r="C4318" s="0">
+        <v>3096</v>
+      </c>
+      <c r="D4318" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4319">
+      <c r="A4319" s="0">
+        <v>5331</v>
+      </c>
+      <c r="B4319" s="0">
+        <v>166</v>
+      </c>
+      <c r="C4319" s="0">
+        <v>3097</v>
+      </c>
+      <c r="D4319" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4320">
+      <c r="A4320" s="0">
+        <v>5332</v>
+      </c>
+      <c r="B4320" s="0">
+        <v>166</v>
+      </c>
+      <c r="C4320" s="0">
+        <v>3098</v>
+      </c>
+      <c r="D4320" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4321">
+      <c r="A4321" s="0">
+        <v>5333</v>
+      </c>
+      <c r="B4321" s="0">
+        <v>166</v>
+      </c>
+      <c r="C4321" s="0">
+        <v>3099</v>
+      </c>
+      <c r="D4321" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4322">
+      <c r="A4322" s="0">
+        <v>5334</v>
+      </c>
+      <c r="B4322" s="0">
+        <v>166</v>
+      </c>
+      <c r="C4322" s="0">
+        <v>3100</v>
+      </c>
+      <c r="D4322" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4323">
+      <c r="A4323" s="0">
+        <v>5335</v>
+      </c>
+      <c r="B4323" s="0">
+        <v>166</v>
+      </c>
+      <c r="C4323" s="0">
+        <v>3101</v>
+      </c>
+      <c r="D4323" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4324">
+      <c r="A4324" s="0">
+        <v>5336</v>
+      </c>
+      <c r="B4324" s="0">
+        <v>166</v>
+      </c>
+      <c r="C4324" s="0">
+        <v>3102</v>
+      </c>
+      <c r="D4324" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4325">
+      <c r="A4325" s="0">
+        <v>5337</v>
+      </c>
+      <c r="B4325" s="0">
+        <v>166</v>
+      </c>
+      <c r="C4325" s="0">
+        <v>3103</v>
+      </c>
+      <c r="D4325" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4326">
+      <c r="A4326" s="0">
+        <v>5338</v>
+      </c>
+      <c r="B4326" s="0">
+        <v>166</v>
+      </c>
+      <c r="C4326" s="0">
+        <v>3104</v>
+      </c>
+      <c r="D4326" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4327">
+      <c r="A4327" s="0">
+        <v>5339</v>
+      </c>
+      <c r="B4327" s="0">
+        <v>166</v>
+      </c>
+      <c r="C4327" s="0">
+        <v>3105</v>
+      </c>
+      <c r="D4327" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4328">
+      <c r="A4328" s="0">
+        <v>5340</v>
+      </c>
+      <c r="B4328" s="0">
+        <v>166</v>
+      </c>
+      <c r="C4328" s="0">
+        <v>3106</v>
+      </c>
+      <c r="D4328" s="0">
+        <v>41</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4329">
+      <c r="A4329" s="0">
+        <v>5341</v>
+      </c>
+      <c r="B4329" s="0">
+        <v>166</v>
+      </c>
+      <c r="C4329" s="0">
+        <v>3107</v>
+      </c>
+      <c r="D4329" s="0">
+        <v>42</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4330">
+      <c r="A4330" s="0">
+        <v>5342</v>
+      </c>
+      <c r="B4330" s="0">
+        <v>166</v>
+      </c>
+      <c r="C4330" s="0">
+        <v>3108</v>
+      </c>
+      <c r="D4330" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4331">
+      <c r="A4331" s="0">
+        <v>5343</v>
+      </c>
+      <c r="B4331" s="0">
+        <v>166</v>
+      </c>
+      <c r="C4331" s="0">
+        <v>3109</v>
+      </c>
+      <c r="D4331" s="0">
+        <v>44</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4332">
+      <c r="A4332" s="0">
+        <v>5344</v>
+      </c>
+      <c r="B4332" s="0">
+        <v>166</v>
+      </c>
+      <c r="C4332" s="0">
+        <v>3110</v>
+      </c>
+      <c r="D4332" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4333">
+      <c r="A4333" s="0">
+        <v>5345</v>
+      </c>
+      <c r="B4333" s="0">
+        <v>166</v>
+      </c>
+      <c r="C4333" s="0">
+        <v>3111</v>
+      </c>
+      <c r="D4333" s="0">
+        <v>46</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4334">
+      <c r="A4334" s="0">
+        <v>5346</v>
+      </c>
+      <c r="B4334" s="0">
+        <v>166</v>
+      </c>
+      <c r="C4334" s="0">
+        <v>3112</v>
+      </c>
+      <c r="D4334" s="0">
+        <v>47</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4335">
+      <c r="A4335" s="0">
+        <v>5347</v>
+      </c>
+      <c r="B4335" s="0">
+        <v>168</v>
+      </c>
+      <c r="C4335" s="0">
+        <v>3067</v>
+      </c>
+      <c r="D4335" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4336">
+      <c r="A4336" s="0">
+        <v>5348</v>
+      </c>
+      <c r="B4336" s="0">
+        <v>168</v>
+      </c>
+      <c r="C4336" s="0">
+        <v>3069</v>
+      </c>
+      <c r="D4336" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4337">
+      <c r="A4337" s="0">
+        <v>5349</v>
+      </c>
+      <c r="B4337" s="0">
+        <v>168</v>
+      </c>
+      <c r="C4337" s="0">
+        <v>3070</v>
+      </c>
+      <c r="D4337" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4338">
+      <c r="A4338" s="0">
+        <v>5350</v>
+      </c>
+      <c r="B4338" s="0">
+        <v>168</v>
+      </c>
+      <c r="C4338" s="0">
+        <v>3071</v>
+      </c>
+      <c r="D4338" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4339">
+      <c r="A4339" s="0">
+        <v>5351</v>
+      </c>
+      <c r="B4339" s="0">
+        <v>168</v>
+      </c>
+      <c r="C4339" s="0">
+        <v>3078</v>
+      </c>
+      <c r="D4339" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4340">
+      <c r="A4340" s="0">
+        <v>5352</v>
+      </c>
+      <c r="B4340" s="0">
+        <v>168</v>
+      </c>
+      <c r="C4340" s="0">
+        <v>3098</v>
+      </c>
+      <c r="D4340" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4341">
+      <c r="A4341" s="0">
+        <v>5353</v>
+      </c>
+      <c r="B4341" s="0">
+        <v>168</v>
+      </c>
+      <c r="C4341" s="0">
+        <v>3097</v>
+      </c>
+      <c r="D4341" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4342">
+      <c r="A4342" s="0">
+        <v>5354</v>
+      </c>
+      <c r="B4342" s="0">
+        <v>168</v>
+      </c>
+      <c r="C4342" s="0">
+        <v>3076</v>
+      </c>
+      <c r="D4342" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4343">
+      <c r="A4343" s="0">
+        <v>5355</v>
+      </c>
+      <c r="B4343" s="0">
+        <v>168</v>
+      </c>
+      <c r="C4343" s="0">
+        <v>3082</v>
+      </c>
+      <c r="D4343" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4344">
+      <c r="A4344" s="0">
+        <v>5356</v>
+      </c>
+      <c r="B4344" s="0">
+        <v>168</v>
+      </c>
+      <c r="C4344" s="0">
+        <v>3080</v>
+      </c>
+      <c r="D4344" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4345">
+      <c r="A4345" s="0">
+        <v>5357</v>
+      </c>
+      <c r="B4345" s="0">
+        <v>168</v>
+      </c>
+      <c r="C4345" s="0">
+        <v>3101</v>
+      </c>
+      <c r="D4345" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4346">
+      <c r="A4346" s="0">
+        <v>5358</v>
+      </c>
+      <c r="B4346" s="0">
+        <v>168</v>
+      </c>
+      <c r="C4346" s="0">
+        <v>3107</v>
+      </c>
+      <c r="D4346" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4347">
+      <c r="A4347" s="0">
+        <v>5359</v>
+      </c>
+      <c r="B4347" s="0">
+        <v>168</v>
+      </c>
+      <c r="C4347" s="0">
+        <v>3084</v>
+      </c>
+      <c r="D4347" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4348">
+      <c r="A4348" s="0">
+        <v>5360</v>
+      </c>
+      <c r="B4348" s="0">
+        <v>168</v>
+      </c>
+      <c r="C4348" s="0">
+        <v>3091</v>
+      </c>
+      <c r="D4348" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4349">
+      <c r="A4349" s="0">
+        <v>5361</v>
+      </c>
+      <c r="B4349" s="0">
+        <v>168</v>
+      </c>
+      <c r="C4349" s="0">
+        <v>3090</v>
+      </c>
+      <c r="D4349" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4350">
+      <c r="A4350" s="0">
+        <v>5362</v>
+      </c>
+      <c r="B4350" s="0">
+        <v>168</v>
+      </c>
+      <c r="C4350" s="0">
+        <v>3094</v>
+      </c>
+      <c r="D4350" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4351">
+      <c r="A4351" s="0">
+        <v>5363</v>
+      </c>
+      <c r="B4351" s="0">
+        <v>168</v>
+      </c>
+      <c r="C4351" s="0">
+        <v>3096</v>
+      </c>
+      <c r="D4351" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4352">
+      <c r="A4352" s="0">
+        <v>5364</v>
+      </c>
+      <c r="B4352" s="0">
+        <v>168</v>
+      </c>
+      <c r="C4352" s="0">
+        <v>3102</v>
+      </c>
+      <c r="D4352" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4353">
+      <c r="A4353" s="0">
+        <v>5365</v>
+      </c>
+      <c r="B4353" s="0">
+        <v>168</v>
+      </c>
+      <c r="C4353" s="0">
+        <v>3105</v>
+      </c>
+      <c r="D4353" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4354">
+      <c r="A4354" s="0">
+        <v>5366</v>
+      </c>
+      <c r="B4354" s="0">
+        <v>168</v>
+      </c>
+      <c r="C4354" s="0">
+        <v>3106</v>
+      </c>
+      <c r="D4354" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4355">
+      <c r="A4355" s="0">
+        <v>5367</v>
+      </c>
+      <c r="B4355" s="0">
+        <v>168</v>
+      </c>
+      <c r="C4355" s="0">
+        <v>3086</v>
+      </c>
+      <c r="D4355" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4356">
+      <c r="A4356" s="0">
+        <v>5368</v>
+      </c>
+      <c r="B4356" s="0">
+        <v>168</v>
+      </c>
+      <c r="C4356" s="0">
+        <v>3108</v>
+      </c>
+      <c r="D4356" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4357">
+      <c r="A4357" s="0">
+        <v>5369</v>
+      </c>
+      <c r="B4357" s="0">
+        <v>168</v>
+      </c>
+      <c r="C4357" s="0">
+        <v>3109</v>
+      </c>
+      <c r="D4357" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4358">
+      <c r="A4358" s="0">
+        <v>5370</v>
+      </c>
+      <c r="B4358" s="0">
+        <v>168</v>
+      </c>
+      <c r="C4358" s="0">
+        <v>3112</v>
+      </c>
+      <c r="D4358" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4359">
+      <c r="A4359" s="0">
+        <v>5371</v>
+      </c>
+      <c r="B4359" s="0">
+        <v>168</v>
+      </c>
+      <c r="C4359" s="0">
+        <v>3092</v>
+      </c>
+      <c r="D4359" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4360">
+      <c r="A4360" s="0">
+        <v>5372</v>
+      </c>
+      <c r="B4360" s="0">
+        <v>167</v>
+      </c>
+      <c r="C4360" s="0">
+        <v>3113</v>
+      </c>
+      <c r="D4360" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4361">
+      <c r="A4361" s="0">
+        <v>5373</v>
+      </c>
+      <c r="B4361" s="0">
+        <v>167</v>
+      </c>
+      <c r="C4361" s="0">
+        <v>3114</v>
+      </c>
+      <c r="D4361" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4362">
+      <c r="A4362" s="0">
+        <v>5374</v>
+      </c>
+      <c r="B4362" s="0">
+        <v>167</v>
+      </c>
+      <c r="C4362" s="0">
+        <v>3115</v>
+      </c>
+      <c r="D4362" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4363">
+      <c r="A4363" s="0">
+        <v>5375</v>
+      </c>
+      <c r="B4363" s="0">
+        <v>167</v>
+      </c>
+      <c r="C4363" s="0">
+        <v>3116</v>
+      </c>
+      <c r="D4363" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4364">
+      <c r="A4364" s="0">
+        <v>5376</v>
+      </c>
+      <c r="B4364" s="0">
+        <v>167</v>
+      </c>
+      <c r="C4364" s="0">
+        <v>3117</v>
+      </c>
+      <c r="D4364" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4365">
+      <c r="A4365" s="0">
+        <v>5377</v>
+      </c>
+      <c r="B4365" s="0">
+        <v>167</v>
+      </c>
+      <c r="C4365" s="0">
+        <v>3118</v>
+      </c>
+      <c r="D4365" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4366">
+      <c r="A4366" s="0">
+        <v>5378</v>
+      </c>
+      <c r="B4366" s="0">
+        <v>167</v>
+      </c>
+      <c r="C4366" s="0">
+        <v>3119</v>
+      </c>
+      <c r="D4366" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4367">
+      <c r="A4367" s="0">
+        <v>5379</v>
+      </c>
+      <c r="B4367" s="0">
+        <v>167</v>
+      </c>
+      <c r="C4367" s="0">
+        <v>3120</v>
+      </c>
+      <c r="D4367" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4368">
+      <c r="A4368" s="0">
+        <v>5380</v>
+      </c>
+      <c r="B4368" s="0">
+        <v>167</v>
+      </c>
+      <c r="C4368" s="0">
+        <v>3121</v>
+      </c>
+      <c r="D4368" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4369">
+      <c r="A4369" s="0">
+        <v>5381</v>
+      </c>
+      <c r="B4369" s="0">
+        <v>167</v>
+      </c>
+      <c r="C4369" s="0">
+        <v>3122</v>
+      </c>
+      <c r="D4369" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4370">
+      <c r="A4370" s="0">
+        <v>5382</v>
+      </c>
+      <c r="B4370" s="0">
+        <v>167</v>
+      </c>
+      <c r="C4370" s="0">
+        <v>3123</v>
+      </c>
+      <c r="D4370" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4371">
+      <c r="A4371" s="0">
+        <v>5383</v>
+      </c>
+      <c r="B4371" s="0">
+        <v>167</v>
+      </c>
+      <c r="C4371" s="0">
+        <v>3124</v>
+      </c>
+      <c r="D4371" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4372">
+      <c r="A4372" s="0">
+        <v>5384</v>
+      </c>
+      <c r="B4372" s="0">
+        <v>167</v>
+      </c>
+      <c r="C4372" s="0">
+        <v>3125</v>
+      </c>
+      <c r="D4372" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4373">
+      <c r="A4373" s="0">
+        <v>5385</v>
+      </c>
+      <c r="B4373" s="0">
+        <v>167</v>
+      </c>
+      <c r="C4373" s="0">
+        <v>3126</v>
+      </c>
+      <c r="D4373" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4374">
+      <c r="A4374" s="0">
+        <v>5386</v>
+      </c>
+      <c r="B4374" s="0">
+        <v>167</v>
+      </c>
+      <c r="C4374" s="0">
+        <v>3127</v>
+      </c>
+      <c r="D4374" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4375">
+      <c r="A4375" s="0">
+        <v>5387</v>
+      </c>
+      <c r="B4375" s="0">
+        <v>167</v>
+      </c>
+      <c r="C4375" s="0">
+        <v>3128</v>
+      </c>
+      <c r="D4375" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4376">
+      <c r="A4376" s="0">
+        <v>5388</v>
+      </c>
+      <c r="B4376" s="0">
+        <v>167</v>
+      </c>
+      <c r="C4376" s="0">
+        <v>3129</v>
+      </c>
+      <c r="D4376" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4377">
+      <c r="A4377" s="0">
+        <v>5389</v>
+      </c>
+      <c r="B4377" s="0">
+        <v>167</v>
+      </c>
+      <c r="C4377" s="0">
+        <v>3130</v>
+      </c>
+      <c r="D4377" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4378">
+      <c r="A4378" s="0">
+        <v>5390</v>
+      </c>
+      <c r="B4378" s="0">
+        <v>167</v>
+      </c>
+      <c r="C4378" s="0">
+        <v>3131</v>
+      </c>
+      <c r="D4378" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4379">
+      <c r="A4379" s="0">
+        <v>5391</v>
+      </c>
+      <c r="B4379" s="0">
+        <v>167</v>
+      </c>
+      <c r="C4379" s="0">
+        <v>3132</v>
+      </c>
+      <c r="D4379" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4380">
+      <c r="A4380" s="0">
+        <v>5392</v>
+      </c>
+      <c r="B4380" s="0">
+        <v>167</v>
+      </c>
+      <c r="C4380" s="0">
+        <v>3133</v>
+      </c>
+      <c r="D4380" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4381">
+      <c r="A4381" s="0">
+        <v>5393</v>
+      </c>
+      <c r="B4381" s="0">
+        <v>167</v>
+      </c>
+      <c r="C4381" s="0">
+        <v>3134</v>
+      </c>
+      <c r="D4381" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4382">
+      <c r="A4382" s="0">
+        <v>5394</v>
+      </c>
+      <c r="B4382" s="0">
+        <v>167</v>
+      </c>
+      <c r="C4382" s="0">
+        <v>3135</v>
+      </c>
+      <c r="D4382" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4383">
+      <c r="A4383" s="0">
+        <v>5395</v>
+      </c>
+      <c r="B4383" s="0">
+        <v>167</v>
+      </c>
+      <c r="C4383" s="0">
+        <v>3136</v>
+      </c>
+      <c r="D4383" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4384">
+      <c r="A4384" s="0">
+        <v>5396</v>
+      </c>
+      <c r="B4384" s="0">
+        <v>167</v>
+      </c>
+      <c r="C4384" s="0">
+        <v>3137</v>
+      </c>
+      <c r="D4384" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4385">
+      <c r="A4385" s="0">
+        <v>5397</v>
+      </c>
+      <c r="B4385" s="0">
+        <v>167</v>
+      </c>
+      <c r="C4385" s="0">
+        <v>3138</v>
+      </c>
+      <c r="D4385" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4386">
+      <c r="A4386" s="0">
+        <v>5398</v>
+      </c>
+      <c r="B4386" s="0">
+        <v>167</v>
+      </c>
+      <c r="C4386" s="0">
+        <v>3139</v>
+      </c>
+      <c r="D4386" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4387">
+      <c r="A4387" s="0">
+        <v>5399</v>
+      </c>
+      <c r="B4387" s="0">
+        <v>167</v>
+      </c>
+      <c r="C4387" s="0">
+        <v>3140</v>
+      </c>
+      <c r="D4387" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4388">
+      <c r="A4388" s="0">
+        <v>5400</v>
+      </c>
+      <c r="B4388" s="0">
+        <v>167</v>
+      </c>
+      <c r="C4388" s="0">
+        <v>3141</v>
+      </c>
+      <c r="D4388" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4389">
+      <c r="A4389" s="0">
+        <v>5401</v>
+      </c>
+      <c r="B4389" s="0">
+        <v>167</v>
+      </c>
+      <c r="C4389" s="0">
+        <v>3142</v>
+      </c>
+      <c r="D4389" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4390">
+      <c r="A4390" s="0">
+        <v>5402</v>
+      </c>
+      <c r="B4390" s="0">
+        <v>167</v>
+      </c>
+      <c r="C4390" s="0">
+        <v>3143</v>
+      </c>
+      <c r="D4390" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4391">
+      <c r="A4391" s="0">
+        <v>5403</v>
+      </c>
+      <c r="B4391" s="0">
+        <v>167</v>
+      </c>
+      <c r="C4391" s="0">
+        <v>3144</v>
+      </c>
+      <c r="D4391" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4392">
+      <c r="A4392" s="0">
+        <v>5404</v>
+      </c>
+      <c r="B4392" s="0">
+        <v>167</v>
+      </c>
+      <c r="C4392" s="0">
+        <v>3145</v>
+      </c>
+      <c r="D4392" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4393">
+      <c r="A4393" s="0">
+        <v>5405</v>
+      </c>
+      <c r="B4393" s="0">
+        <v>167</v>
+      </c>
+      <c r="C4393" s="0">
+        <v>3146</v>
+      </c>
+      <c r="D4393" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4394">
+      <c r="A4394" s="0">
+        <v>5406</v>
+      </c>
+      <c r="B4394" s="0">
+        <v>167</v>
+      </c>
+      <c r="C4394" s="0">
+        <v>3147</v>
+      </c>
+      <c r="D4394" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4395">
+      <c r="A4395" s="0">
+        <v>5407</v>
+      </c>
+      <c r="B4395" s="0">
+        <v>167</v>
+      </c>
+      <c r="C4395" s="0">
+        <v>3148</v>
+      </c>
+      <c r="D4395" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4396">
+      <c r="A4396" s="0">
+        <v>5408</v>
+      </c>
+      <c r="B4396" s="0">
+        <v>167</v>
+      </c>
+      <c r="C4396" s="0">
+        <v>3149</v>
+      </c>
+      <c r="D4396" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4397">
+      <c r="A4397" s="0">
+        <v>5409</v>
+      </c>
+      <c r="B4397" s="0">
+        <v>167</v>
+      </c>
+      <c r="C4397" s="0">
+        <v>3150</v>
+      </c>
+      <c r="D4397" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4398">
+      <c r="A4398" s="0">
+        <v>5410</v>
+      </c>
+      <c r="B4398" s="0">
+        <v>167</v>
+      </c>
+      <c r="C4398" s="0">
+        <v>3151</v>
+      </c>
+      <c r="D4398" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4399">
+      <c r="A4399" s="0">
+        <v>5411</v>
+      </c>
+      <c r="B4399" s="0">
+        <v>167</v>
+      </c>
+      <c r="C4399" s="0">
+        <v>3152</v>
+      </c>
+      <c r="D4399" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4400">
+      <c r="A4400" s="0">
+        <v>5412</v>
+      </c>
+      <c r="B4400" s="0">
+        <v>167</v>
+      </c>
+      <c r="C4400" s="0">
+        <v>3153</v>
+      </c>
+      <c r="D4400" s="0">
+        <v>41</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4401">
+      <c r="A4401" s="0">
+        <v>5413</v>
+      </c>
+      <c r="B4401" s="0">
+        <v>167</v>
+      </c>
+      <c r="C4401" s="0">
+        <v>3154</v>
+      </c>
+      <c r="D4401" s="0">
+        <v>42</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4402">
+      <c r="A4402" s="0">
+        <v>5414</v>
+      </c>
+      <c r="B4402" s="0">
+        <v>167</v>
+      </c>
+      <c r="C4402" s="0">
+        <v>3155</v>
+      </c>
+      <c r="D4402" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4403">
+      <c r="A4403" s="0">
+        <v>5415</v>
+      </c>
+      <c r="B4403" s="0">
+        <v>167</v>
+      </c>
+      <c r="C4403" s="0">
+        <v>3156</v>
+      </c>
+      <c r="D4403" s="0">
+        <v>44</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4404">
+      <c r="A4404" s="0">
+        <v>5416</v>
+      </c>
+      <c r="B4404" s="0">
+        <v>167</v>
+      </c>
+      <c r="C4404" s="0">
+        <v>3157</v>
+      </c>
+      <c r="D4404" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4405">
+      <c r="A4405" s="0">
+        <v>5417</v>
+      </c>
+      <c r="B4405" s="0">
+        <v>167</v>
+      </c>
+      <c r="C4405" s="0">
+        <v>3158</v>
+      </c>
+      <c r="D4405" s="0">
+        <v>46</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4406">
+      <c r="A4406" s="0">
+        <v>5418</v>
+      </c>
+      <c r="B4406" s="0">
+        <v>167</v>
+      </c>
+      <c r="C4406" s="0">
+        <v>3159</v>
+      </c>
+      <c r="D4406" s="0">
+        <v>47</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4407">
+      <c r="A4407" s="0">
+        <v>5419</v>
+      </c>
+      <c r="B4407" s="0">
+        <v>169</v>
+      </c>
+      <c r="C4407" s="0">
+        <v>3114</v>
+      </c>
+      <c r="D4407" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4408">
+      <c r="A4408" s="0">
+        <v>5420</v>
+      </c>
+      <c r="B4408" s="0">
+        <v>169</v>
+      </c>
+      <c r="C4408" s="0">
+        <v>3116</v>
+      </c>
+      <c r="D4408" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4409">
+      <c r="A4409" s="0">
+        <v>5421</v>
+      </c>
+      <c r="B4409" s="0">
+        <v>169</v>
+      </c>
+      <c r="C4409" s="0">
+        <v>3117</v>
+      </c>
+      <c r="D4409" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4410">
+      <c r="A4410" s="0">
+        <v>5422</v>
+      </c>
+      <c r="B4410" s="0">
+        <v>169</v>
+      </c>
+      <c r="C4410" s="0">
+        <v>3118</v>
+      </c>
+      <c r="D4410" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4411">
+      <c r="A4411" s="0">
+        <v>5423</v>
+      </c>
+      <c r="B4411" s="0">
+        <v>169</v>
+      </c>
+      <c r="C4411" s="0">
+        <v>3125</v>
+      </c>
+      <c r="D4411" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4412">
+      <c r="A4412" s="0">
+        <v>5424</v>
+      </c>
+      <c r="B4412" s="0">
+        <v>169</v>
+      </c>
+      <c r="C4412" s="0">
+        <v>3145</v>
+      </c>
+      <c r="D4412" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4413">
+      <c r="A4413" s="0">
+        <v>5425</v>
+      </c>
+      <c r="B4413" s="0">
+        <v>169</v>
+      </c>
+      <c r="C4413" s="0">
+        <v>3144</v>
+      </c>
+      <c r="D4413" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4414">
+      <c r="A4414" s="0">
+        <v>5426</v>
+      </c>
+      <c r="B4414" s="0">
+        <v>169</v>
+      </c>
+      <c r="C4414" s="0">
+        <v>3123</v>
+      </c>
+      <c r="D4414" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4415">
+      <c r="A4415" s="0">
+        <v>5427</v>
+      </c>
+      <c r="B4415" s="0">
+        <v>169</v>
+      </c>
+      <c r="C4415" s="0">
+        <v>3129</v>
+      </c>
+      <c r="D4415" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4416">
+      <c r="A4416" s="0">
+        <v>5428</v>
+      </c>
+      <c r="B4416" s="0">
+        <v>169</v>
+      </c>
+      <c r="C4416" s="0">
+        <v>3127</v>
+      </c>
+      <c r="D4416" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4417">
+      <c r="A4417" s="0">
+        <v>5429</v>
+      </c>
+      <c r="B4417" s="0">
+        <v>169</v>
+      </c>
+      <c r="C4417" s="0">
+        <v>3148</v>
+      </c>
+      <c r="D4417" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4418">
+      <c r="A4418" s="0">
+        <v>5430</v>
+      </c>
+      <c r="B4418" s="0">
+        <v>169</v>
+      </c>
+      <c r="C4418" s="0">
+        <v>3154</v>
+      </c>
+      <c r="D4418" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4419">
+      <c r="A4419" s="0">
+        <v>5431</v>
+      </c>
+      <c r="B4419" s="0">
+        <v>169</v>
+      </c>
+      <c r="C4419" s="0">
+        <v>3131</v>
+      </c>
+      <c r="D4419" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4420">
+      <c r="A4420" s="0">
+        <v>5432</v>
+      </c>
+      <c r="B4420" s="0">
+        <v>169</v>
+      </c>
+      <c r="C4420" s="0">
+        <v>3138</v>
+      </c>
+      <c r="D4420" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4421">
+      <c r="A4421" s="0">
+        <v>5433</v>
+      </c>
+      <c r="B4421" s="0">
+        <v>169</v>
+      </c>
+      <c r="C4421" s="0">
+        <v>3137</v>
+      </c>
+      <c r="D4421" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4422">
+      <c r="A4422" s="0">
+        <v>5434</v>
+      </c>
+      <c r="B4422" s="0">
+        <v>169</v>
+      </c>
+      <c r="C4422" s="0">
+        <v>3141</v>
+      </c>
+      <c r="D4422" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4423">
+      <c r="A4423" s="0">
+        <v>5435</v>
+      </c>
+      <c r="B4423" s="0">
+        <v>169</v>
+      </c>
+      <c r="C4423" s="0">
+        <v>3143</v>
+      </c>
+      <c r="D4423" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4424">
+      <c r="A4424" s="0">
+        <v>5436</v>
+      </c>
+      <c r="B4424" s="0">
+        <v>169</v>
+      </c>
+      <c r="C4424" s="0">
+        <v>3149</v>
+      </c>
+      <c r="D4424" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4425">
+      <c r="A4425" s="0">
+        <v>5437</v>
+      </c>
+      <c r="B4425" s="0">
+        <v>169</v>
+      </c>
+      <c r="C4425" s="0">
+        <v>3152</v>
+      </c>
+      <c r="D4425" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4426">
+      <c r="A4426" s="0">
+        <v>5438</v>
+      </c>
+      <c r="B4426" s="0">
+        <v>169</v>
+      </c>
+      <c r="C4426" s="0">
+        <v>3153</v>
+      </c>
+      <c r="D4426" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4427">
+      <c r="A4427" s="0">
+        <v>5439</v>
+      </c>
+      <c r="B4427" s="0">
+        <v>169</v>
+      </c>
+      <c r="C4427" s="0">
+        <v>3133</v>
+      </c>
+      <c r="D4427" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4428">
+      <c r="A4428" s="0">
+        <v>5440</v>
+      </c>
+      <c r="B4428" s="0">
+        <v>169</v>
+      </c>
+      <c r="C4428" s="0">
+        <v>3155</v>
+      </c>
+      <c r="D4428" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4429">
+      <c r="A4429" s="0">
+        <v>5441</v>
+      </c>
+      <c r="B4429" s="0">
+        <v>169</v>
+      </c>
+      <c r="C4429" s="0">
+        <v>3156</v>
+      </c>
+      <c r="D4429" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4430">
+      <c r="A4430" s="0">
+        <v>5442</v>
+      </c>
+      <c r="B4430" s="0">
+        <v>169</v>
+      </c>
+      <c r="C4430" s="0">
+        <v>3159</v>
+      </c>
+      <c r="D4430" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4431">
+      <c r="A4431" s="0">
+        <v>5443</v>
+      </c>
+      <c r="B4431" s="0">
+        <v>169</v>
+      </c>
+      <c r="C4431" s="0">
+        <v>3139</v>
+      </c>
+      <c r="D4431" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4432">
+      <c r="A4432" s="0">
+        <v>5444</v>
+      </c>
+      <c r="B4432" s="0">
+        <v>109</v>
+      </c>
+      <c r="C4432" s="0">
+        <v>3160</v>
+      </c>
+      <c r="D4432" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4433">
+      <c r="A4433" s="0">
+        <v>5445</v>
+      </c>
+      <c r="B4433" s="0">
+        <v>109</v>
+      </c>
+      <c r="C4433" s="0">
+        <v>3161</v>
+      </c>
+      <c r="D4433" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4434">
+      <c r="A4434" s="0">
+        <v>5446</v>
+      </c>
+      <c r="B4434" s="0">
+        <v>141</v>
+      </c>
+      <c r="C4434" s="0">
+        <v>3161</v>
+      </c>
+      <c r="D4434" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4435">
+      <c r="A4435" s="0">
+        <v>5447</v>
+      </c>
+      <c r="B4435" s="0">
+        <v>109</v>
+      </c>
+      <c r="C4435" s="0">
+        <v>3162</v>
+      </c>
+      <c r="D4435" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4436">
+      <c r="A4436" s="0">
+        <v>5448</v>
+      </c>
+      <c r="B4436" s="0">
+        <v>109</v>
+      </c>
+      <c r="C4436" s="0">
+        <v>3163</v>
+      </c>
+      <c r="D4436" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4437">
+      <c r="A4437" s="0">
+        <v>5449</v>
+      </c>
+      <c r="B4437" s="0">
+        <v>141</v>
+      </c>
+      <c r="C4437" s="0">
+        <v>3163</v>
+      </c>
+      <c r="D4437" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4438">
+      <c r="A4438" s="0">
+        <v>5450</v>
+      </c>
+      <c r="B4438" s="0">
+        <v>141</v>
+      </c>
+      <c r="C4438" s="0">
+        <v>3164</v>
+      </c>
+      <c r="D4438" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4439">
+      <c r="A4439" s="0">
+        <v>5451</v>
+      </c>
+      <c r="B4439" s="0">
+        <v>109</v>
+      </c>
+      <c r="C4439" s="0">
+        <v>3164</v>
+      </c>
+      <c r="D4439" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4440">
+      <c r="A4440" s="0">
+        <v>5452</v>
+      </c>
+      <c r="B4440" s="0">
+        <v>109</v>
+      </c>
+      <c r="C4440" s="0">
+        <v>3165</v>
+      </c>
+      <c r="D4440" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4441">
+      <c r="A4441" s="0">
+        <v>5453</v>
+      </c>
+      <c r="B4441" s="0">
+        <v>141</v>
+      </c>
+      <c r="C4441" s="0">
+        <v>3165</v>
+      </c>
+      <c r="D4441" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4442">
+      <c r="A4442" s="0">
+        <v>5454</v>
+      </c>
+      <c r="B4442" s="0">
+        <v>109</v>
+      </c>
+      <c r="C4442" s="0">
+        <v>3166</v>
+      </c>
+      <c r="D4442" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4443">
+      <c r="A4443" s="0">
+        <v>5455</v>
+      </c>
+      <c r="B4443" s="0">
+        <v>109</v>
+      </c>
+      <c r="C4443" s="0">
+        <v>3167</v>
+      </c>
+      <c r="D4443" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4444">
+      <c r="A4444" s="0">
+        <v>5456</v>
+      </c>
+      <c r="B4444" s="0">
+        <v>109</v>
+      </c>
+      <c r="C4444" s="0">
+        <v>3168</v>
+      </c>
+      <c r="D4444" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4445">
+      <c r="A4445" s="0">
+        <v>5457</v>
+      </c>
+      <c r="B4445" s="0">
+        <v>109</v>
+      </c>
+      <c r="C4445" s="0">
+        <v>3169</v>
+      </c>
+      <c r="D4445" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4446">
+      <c r="A4446" s="0">
+        <v>5458</v>
+      </c>
+      <c r="B4446" s="0">
+        <v>109</v>
+      </c>
+      <c r="C4446" s="0">
+        <v>3170</v>
+      </c>
+      <c r="D4446" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4447">
+      <c r="A4447" s="0">
+        <v>5459</v>
+      </c>
+      <c r="B4447" s="0">
+        <v>141</v>
+      </c>
+      <c r="C4447" s="0">
+        <v>3170</v>
+      </c>
+      <c r="D4447" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4448">
+      <c r="A4448" s="0">
+        <v>5460</v>
+      </c>
+      <c r="B4448" s="0">
+        <v>109</v>
+      </c>
+      <c r="C4448" s="0">
+        <v>3171</v>
+      </c>
+      <c r="D4448" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4449">
+      <c r="A4449" s="0">
+        <v>5461</v>
+      </c>
+      <c r="B4449" s="0">
+        <v>141</v>
+      </c>
+      <c r="C4449" s="0">
+        <v>3172</v>
+      </c>
+      <c r="D4449" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4450">
+      <c r="A4450" s="0">
+        <v>5462</v>
+      </c>
+      <c r="B4450" s="0">
+        <v>109</v>
+      </c>
+      <c r="C4450" s="0">
+        <v>3172</v>
+      </c>
+      <c r="D4450" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4451">
+      <c r="A4451" s="0">
+        <v>5463</v>
+      </c>
+      <c r="B4451" s="0">
+        <v>109</v>
+      </c>
+      <c r="C4451" s="0">
+        <v>3173</v>
+      </c>
+      <c r="D4451" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4452">
+      <c r="A4452" s="0">
+        <v>5464</v>
+      </c>
+      <c r="B4452" s="0">
+        <v>109</v>
+      </c>
+      <c r="C4452" s="0">
+        <v>3174</v>
+      </c>
+      <c r="D4452" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4453">
+      <c r="A4453" s="0">
+        <v>5465</v>
+      </c>
+      <c r="B4453" s="0">
+        <v>141</v>
+      </c>
+      <c r="C4453" s="0">
+        <v>3174</v>
+      </c>
+      <c r="D4453" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4454">
+      <c r="A4454" s="0">
+        <v>5466</v>
+      </c>
+      <c r="B4454" s="0">
+        <v>109</v>
+      </c>
+      <c r="C4454" s="0">
+        <v>3175</v>
+      </c>
+      <c r="D4454" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4455">
+      <c r="A4455" s="0">
+        <v>5467</v>
+      </c>
+      <c r="B4455" s="0">
+        <v>109</v>
+      </c>
+      <c r="C4455" s="0">
+        <v>3176</v>
+      </c>
+      <c r="D4455" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4456">
+      <c r="A4456" s="0">
+        <v>5468</v>
+      </c>
+      <c r="B4456" s="0">
+        <v>141</v>
+      </c>
+      <c r="C4456" s="0">
+        <v>3176</v>
+      </c>
+      <c r="D4456" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4457">
+      <c r="A4457" s="0">
+        <v>5469</v>
+      </c>
+      <c r="B4457" s="0">
+        <v>109</v>
+      </c>
+      <c r="C4457" s="0">
+        <v>3177</v>
+      </c>
+      <c r="D4457" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4458">
+      <c r="A4458" s="0">
+        <v>5470</v>
+      </c>
+      <c r="B4458" s="0">
+        <v>109</v>
+      </c>
+      <c r="C4458" s="0">
+        <v>3178</v>
+      </c>
+      <c r="D4458" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4459">
+      <c r="A4459" s="0">
+        <v>5471</v>
+      </c>
+      <c r="B4459" s="0">
+        <v>141</v>
+      </c>
+      <c r="C4459" s="0">
+        <v>3178</v>
+      </c>
+      <c r="D4459" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4460">
+      <c r="A4460" s="0">
+        <v>5472</v>
+      </c>
+      <c r="B4460" s="0">
+        <v>109</v>
+      </c>
+      <c r="C4460" s="0">
+        <v>3179</v>
+      </c>
+      <c r="D4460" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4461">
+      <c r="A4461" s="0">
+        <v>5473</v>
+      </c>
+      <c r="B4461" s="0">
+        <v>109</v>
+      </c>
+      <c r="C4461" s="0">
+        <v>3180</v>
+      </c>
+      <c r="D4461" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4462">
+      <c r="A4462" s="0">
+        <v>5474</v>
+      </c>
+      <c r="B4462" s="0">
+        <v>141</v>
+      </c>
+      <c r="C4462" s="0">
+        <v>3180</v>
+      </c>
+      <c r="D4462" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4463">
+      <c r="A4463" s="0">
+        <v>5475</v>
+      </c>
+      <c r="B4463" s="0">
+        <v>109</v>
+      </c>
+      <c r="C4463" s="0">
+        <v>3181</v>
+      </c>
+      <c r="D4463" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4464">
+      <c r="A4464" s="0">
+        <v>5476</v>
+      </c>
+      <c r="B4464" s="0">
+        <v>109</v>
+      </c>
+      <c r="C4464" s="0">
+        <v>3182</v>
+      </c>
+      <c r="D4464" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4465">
+      <c r="A4465" s="0">
+        <v>5477</v>
+      </c>
+      <c r="B4465" s="0">
+        <v>109</v>
+      </c>
+      <c r="C4465" s="0">
+        <v>3183</v>
+      </c>
+      <c r="D4465" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4466">
+      <c r="A4466" s="0">
+        <v>5478</v>
+      </c>
+      <c r="B4466" s="0">
+        <v>109</v>
+      </c>
+      <c r="C4466" s="0">
+        <v>3184</v>
+      </c>
+      <c r="D4466" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4467">
+      <c r="A4467" s="0">
+        <v>5479</v>
+      </c>
+      <c r="B4467" s="0">
+        <v>141</v>
+      </c>
+      <c r="C4467" s="0">
+        <v>3184</v>
+      </c>
+      <c r="D4467" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4468">
+      <c r="A4468" s="0">
+        <v>5480</v>
+      </c>
+      <c r="B4468" s="0">
+        <v>109</v>
+      </c>
+      <c r="C4468" s="0">
+        <v>3185</v>
+      </c>
+      <c r="D4468" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4469">
+      <c r="A4469" s="0">
+        <v>5481</v>
+      </c>
+      <c r="B4469" s="0">
+        <v>141</v>
+      </c>
+      <c r="C4469" s="0">
+        <v>3185</v>
+      </c>
+      <c r="D4469" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4470">
+      <c r="A4470" s="0">
+        <v>5482</v>
+      </c>
+      <c r="B4470" s="0">
+        <v>109</v>
+      </c>
+      <c r="C4470" s="0">
+        <v>3186</v>
+      </c>
+      <c r="D4470" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4471">
+      <c r="A4471" s="0">
+        <v>5483</v>
+      </c>
+      <c r="B4471" s="0">
+        <v>141</v>
+      </c>
+      <c r="C4471" s="0">
+        <v>3186</v>
+      </c>
+      <c r="D4471" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4472">
+      <c r="A4472" s="0">
+        <v>5484</v>
+      </c>
+      <c r="B4472" s="0">
+        <v>109</v>
+      </c>
+      <c r="C4472" s="0">
+        <v>3187</v>
+      </c>
+      <c r="D4472" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4473">
+      <c r="A4473" s="0">
+        <v>5485</v>
+      </c>
+      <c r="B4473" s="0">
+        <v>109</v>
+      </c>
+      <c r="C4473" s="0">
+        <v>3188</v>
+      </c>
+      <c r="D4473" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4474">
+      <c r="A4474" s="0">
+        <v>5486</v>
+      </c>
+      <c r="B4474" s="0">
+        <v>141</v>
+      </c>
+      <c r="C4474" s="0">
+        <v>3188</v>
+      </c>
+      <c r="D4474" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4475">
+      <c r="A4475" s="0">
+        <v>5487</v>
+      </c>
+      <c r="B4475" s="0">
+        <v>109</v>
+      </c>
+      <c r="C4475" s="0">
+        <v>3189</v>
+      </c>
+      <c r="D4475" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4476">
+      <c r="A4476" s="0">
+        <v>5488</v>
+      </c>
+      <c r="B4476" s="0">
+        <v>109</v>
+      </c>
+      <c r="C4476" s="0">
+        <v>3190</v>
+      </c>
+      <c r="D4476" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4477">
+      <c r="A4477" s="0">
+        <v>5489</v>
+      </c>
+      <c r="B4477" s="0">
+        <v>141</v>
+      </c>
+      <c r="C4477" s="0">
+        <v>3190</v>
+      </c>
+      <c r="D4477" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4478">
+      <c r="A4478" s="0">
+        <v>5490</v>
+      </c>
+      <c r="B4478" s="0">
+        <v>109</v>
+      </c>
+      <c r="C4478" s="0">
+        <v>3191</v>
+      </c>
+      <c r="D4478" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4479">
+      <c r="A4479" s="0">
+        <v>5491</v>
+      </c>
+      <c r="B4479" s="0">
+        <v>141</v>
+      </c>
+      <c r="C4479" s="0">
+        <v>3191</v>
+      </c>
+      <c r="D4479" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4480">
+      <c r="A4480" s="0">
+        <v>5492</v>
+      </c>
+      <c r="B4480" s="0">
+        <v>109</v>
+      </c>
+      <c r="C4480" s="0">
+        <v>3192</v>
+      </c>
+      <c r="D4480" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4481">
+      <c r="A4481" s="0">
+        <v>5493</v>
+      </c>
+      <c r="B4481" s="0">
+        <v>141</v>
+      </c>
+      <c r="C4481" s="0">
+        <v>3192</v>
+      </c>
+      <c r="D4481" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4482">
+      <c r="A4482" s="0">
+        <v>5494</v>
+      </c>
+      <c r="B4482" s="0">
+        <v>109</v>
+      </c>
+      <c r="C4482" s="0">
+        <v>3193</v>
+      </c>
+      <c r="D4482" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4483">
+      <c r="A4483" s="0">
+        <v>5495</v>
+      </c>
+      <c r="B4483" s="0">
+        <v>109</v>
+      </c>
+      <c r="C4483" s="0">
+        <v>3194</v>
+      </c>
+      <c r="D4483" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4484">
+      <c r="A4484" s="0">
+        <v>5496</v>
+      </c>
+      <c r="B4484" s="0">
+        <v>109</v>
+      </c>
+      <c r="C4484" s="0">
+        <v>3195</v>
+      </c>
+      <c r="D4484" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4485">
+      <c r="A4485" s="0">
+        <v>5497</v>
+      </c>
+      <c r="B4485" s="0">
+        <v>141</v>
+      </c>
+      <c r="C4485" s="0">
+        <v>3195</v>
+      </c>
+      <c r="D4485" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4486">
+      <c r="A4486" s="0">
+        <v>5498</v>
+      </c>
+      <c r="B4486" s="0">
+        <v>109</v>
+      </c>
+      <c r="C4486" s="0">
+        <v>3196</v>
+      </c>
+      <c r="D4486" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4487">
+      <c r="A4487" s="0">
+        <v>5499</v>
+      </c>
+      <c r="B4487" s="0">
+        <v>141</v>
+      </c>
+      <c r="C4487" s="0">
+        <v>3196</v>
+      </c>
+      <c r="D4487" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4488">
+      <c r="A4488" s="0">
+        <v>5500</v>
+      </c>
+      <c r="B4488" s="0">
+        <v>109</v>
+      </c>
+      <c r="C4488" s="0">
+        <v>3197</v>
+      </c>
+      <c r="D4488" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4489">
+      <c r="A4489" s="0">
+        <v>5501</v>
+      </c>
+      <c r="B4489" s="0">
+        <v>109</v>
+      </c>
+      <c r="C4489" s="0">
+        <v>3198</v>
+      </c>
+      <c r="D4489" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4490">
+      <c r="A4490" s="0">
+        <v>5502</v>
+      </c>
+      <c r="B4490" s="0">
+        <v>109</v>
+      </c>
+      <c r="C4490" s="0">
+        <v>3199</v>
+      </c>
+      <c r="D4490" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4491">
+      <c r="A4491" s="0">
+        <v>5503</v>
+      </c>
+      <c r="B4491" s="0">
+        <v>141</v>
+      </c>
+      <c r="C4491" s="0">
+        <v>3199</v>
+      </c>
+      <c r="D4491" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4492">
+      <c r="A4492" s="0">
+        <v>5504</v>
+      </c>
+      <c r="B4492" s="0">
+        <v>109</v>
+      </c>
+      <c r="C4492" s="0">
+        <v>3200</v>
+      </c>
+      <c r="D4492" s="0">
+        <v>41</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4493">
+      <c r="A4493" s="0">
+        <v>5505</v>
+      </c>
+      <c r="B4493" s="0">
+        <v>141</v>
+      </c>
+      <c r="C4493" s="0">
+        <v>3200</v>
+      </c>
+      <c r="D4493" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4494">
+      <c r="A4494" s="0">
+        <v>5506</v>
+      </c>
+      <c r="B4494" s="0">
+        <v>109</v>
+      </c>
+      <c r="C4494" s="0">
+        <v>3201</v>
+      </c>
+      <c r="D4494" s="0">
+        <v>42</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4495">
+      <c r="A4495" s="0">
+        <v>5507</v>
+      </c>
+      <c r="B4495" s="0">
+        <v>141</v>
+      </c>
+      <c r="C4495" s="0">
+        <v>3201</v>
+      </c>
+      <c r="D4495" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4496">
+      <c r="A4496" s="0">
+        <v>5508</v>
+      </c>
+      <c r="B4496" s="0">
+        <v>109</v>
+      </c>
+      <c r="C4496" s="0">
+        <v>3202</v>
+      </c>
+      <c r="D4496" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4497">
+      <c r="A4497" s="0">
+        <v>5509</v>
+      </c>
+      <c r="B4497" s="0">
+        <v>141</v>
+      </c>
+      <c r="C4497" s="0">
+        <v>3202</v>
+      </c>
+      <c r="D4497" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4498">
+      <c r="A4498" s="0">
+        <v>5510</v>
+      </c>
+      <c r="B4498" s="0">
+        <v>109</v>
+      </c>
+      <c r="C4498" s="0">
+        <v>3203</v>
+      </c>
+      <c r="D4498" s="0">
+        <v>44</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4499">
+      <c r="A4499" s="0">
+        <v>5511</v>
+      </c>
+      <c r="B4499" s="0">
+        <v>141</v>
+      </c>
+      <c r="C4499" s="0">
+        <v>3203</v>
+      </c>
+      <c r="D4499" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4500">
+      <c r="A4500" s="0">
+        <v>5512</v>
+      </c>
+      <c r="B4500" s="0">
+        <v>109</v>
+      </c>
+      <c r="C4500" s="0">
+        <v>3204</v>
+      </c>
+      <c r="D4500" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4501">
+      <c r="A4501" s="0">
+        <v>5513</v>
+      </c>
+      <c r="B4501" s="0">
+        <v>109</v>
+      </c>
+      <c r="C4501" s="0">
+        <v>3205</v>
+      </c>
+      <c r="D4501" s="0">
+        <v>46</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4502">
+      <c r="A4502" s="0">
+        <v>5514</v>
+      </c>
+      <c r="B4502" s="0">
+        <v>109</v>
+      </c>
+      <c r="C4502" s="0">
+        <v>3206</v>
+      </c>
+      <c r="D4502" s="0">
+        <v>47</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4503">
+      <c r="A4503" s="0">
+        <v>5515</v>
+      </c>
+      <c r="B4503" s="0">
+        <v>141</v>
+      </c>
+      <c r="C4503" s="0">
+        <v>3206</v>
+      </c>
+      <c r="D4503" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4504">
+      <c r="A4504" s="0">
+        <v>5516</v>
+      </c>
+      <c r="B4504" s="0">
+        <v>110</v>
+      </c>
+      <c r="C4504" s="0">
+        <v>3207</v>
+      </c>
+      <c r="D4504" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4505">
+      <c r="A4505" s="0">
+        <v>5517</v>
+      </c>
+      <c r="B4505" s="0">
+        <v>110</v>
+      </c>
+      <c r="C4505" s="0">
+        <v>3208</v>
+      </c>
+      <c r="D4505" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4506">
+      <c r="A4506" s="0">
+        <v>5518</v>
+      </c>
+      <c r="B4506" s="0">
+        <v>142</v>
+      </c>
+      <c r="C4506" s="0">
+        <v>3208</v>
+      </c>
+      <c r="D4506" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4507">
+      <c r="A4507" s="0">
+        <v>5519</v>
+      </c>
+      <c r="B4507" s="0">
+        <v>110</v>
+      </c>
+      <c r="C4507" s="0">
+        <v>3209</v>
+      </c>
+      <c r="D4507" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4508">
+      <c r="A4508" s="0">
+        <v>5520</v>
+      </c>
+      <c r="B4508" s="0">
+        <v>110</v>
+      </c>
+      <c r="C4508" s="0">
+        <v>3210</v>
+      </c>
+      <c r="D4508" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4509">
+      <c r="A4509" s="0">
+        <v>5521</v>
+      </c>
+      <c r="B4509" s="0">
+        <v>142</v>
+      </c>
+      <c r="C4509" s="0">
+        <v>3210</v>
+      </c>
+      <c r="D4509" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4510">
+      <c r="A4510" s="0">
+        <v>5522</v>
+      </c>
+      <c r="B4510" s="0">
+        <v>110</v>
+      </c>
+      <c r="C4510" s="0">
+        <v>3211</v>
+      </c>
+      <c r="D4510" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4511">
+      <c r="A4511" s="0">
+        <v>5523</v>
+      </c>
+      <c r="B4511" s="0">
+        <v>142</v>
+      </c>
+      <c r="C4511" s="0">
+        <v>3211</v>
+      </c>
+      <c r="D4511" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4512">
+      <c r="A4512" s="0">
+        <v>5524</v>
+      </c>
+      <c r="B4512" s="0">
+        <v>110</v>
+      </c>
+      <c r="C4512" s="0">
+        <v>3212</v>
+      </c>
+      <c r="D4512" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4513">
+      <c r="A4513" s="0">
+        <v>5525</v>
+      </c>
+      <c r="B4513" s="0">
+        <v>142</v>
+      </c>
+      <c r="C4513" s="0">
+        <v>3212</v>
+      </c>
+      <c r="D4513" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4514">
+      <c r="A4514" s="0">
+        <v>5526</v>
+      </c>
+      <c r="B4514" s="0">
+        <v>110</v>
+      </c>
+      <c r="C4514" s="0">
+        <v>3213</v>
+      </c>
+      <c r="D4514" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4515">
+      <c r="A4515" s="0">
+        <v>5527</v>
+      </c>
+      <c r="B4515" s="0">
+        <v>110</v>
+      </c>
+      <c r="C4515" s="0">
+        <v>3214</v>
+      </c>
+      <c r="D4515" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4516">
+      <c r="A4516" s="0">
+        <v>5528</v>
+      </c>
+      <c r="B4516" s="0">
+        <v>110</v>
+      </c>
+      <c r="C4516" s="0">
+        <v>3215</v>
+      </c>
+      <c r="D4516" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4517">
+      <c r="A4517" s="0">
+        <v>5529</v>
+      </c>
+      <c r="B4517" s="0">
+        <v>110</v>
+      </c>
+      <c r="C4517" s="0">
+        <v>3216</v>
+      </c>
+      <c r="D4517" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4518">
+      <c r="A4518" s="0">
+        <v>5530</v>
+      </c>
+      <c r="B4518" s="0">
+        <v>110</v>
+      </c>
+      <c r="C4518" s="0">
+        <v>3217</v>
+      </c>
+      <c r="D4518" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4519">
+      <c r="A4519" s="0">
+        <v>5531</v>
+      </c>
+      <c r="B4519" s="0">
+        <v>142</v>
+      </c>
+      <c r="C4519" s="0">
+        <v>3217</v>
+      </c>
+      <c r="D4519" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4520">
+      <c r="A4520" s="0">
+        <v>5532</v>
+      </c>
+      <c r="B4520" s="0">
+        <v>110</v>
+      </c>
+      <c r="C4520" s="0">
+        <v>3218</v>
+      </c>
+      <c r="D4520" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4521">
+      <c r="A4521" s="0">
+        <v>5533</v>
+      </c>
+      <c r="B4521" s="0">
+        <v>110</v>
+      </c>
+      <c r="C4521" s="0">
+        <v>3219</v>
+      </c>
+      <c r="D4521" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4522">
+      <c r="A4522" s="0">
+        <v>5534</v>
+      </c>
+      <c r="B4522" s="0">
+        <v>142</v>
+      </c>
+      <c r="C4522" s="0">
+        <v>3219</v>
+      </c>
+      <c r="D4522" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4523">
+      <c r="A4523" s="0">
+        <v>5535</v>
+      </c>
+      <c r="B4523" s="0">
+        <v>110</v>
+      </c>
+      <c r="C4523" s="0">
+        <v>3220</v>
+      </c>
+      <c r="D4523" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4524">
+      <c r="A4524" s="0">
+        <v>5536</v>
+      </c>
+      <c r="B4524" s="0">
+        <v>110</v>
+      </c>
+      <c r="C4524" s="0">
+        <v>3221</v>
+      </c>
+      <c r="D4524" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4525">
+      <c r="A4525" s="0">
+        <v>5537</v>
+      </c>
+      <c r="B4525" s="0">
+        <v>142</v>
+      </c>
+      <c r="C4525" s="0">
+        <v>3221</v>
+      </c>
+      <c r="D4525" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4526">
+      <c r="A4526" s="0">
+        <v>5538</v>
+      </c>
+      <c r="B4526" s="0">
+        <v>110</v>
+      </c>
+      <c r="C4526" s="0">
+        <v>3222</v>
+      </c>
+      <c r="D4526" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4527">
+      <c r="A4527" s="0">
+        <v>5539</v>
+      </c>
+      <c r="B4527" s="0">
+        <v>110</v>
+      </c>
+      <c r="C4527" s="0">
+        <v>3223</v>
+      </c>
+      <c r="D4527" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4528">
+      <c r="A4528" s="0">
+        <v>5540</v>
+      </c>
+      <c r="B4528" s="0">
+        <v>142</v>
+      </c>
+      <c r="C4528" s="0">
+        <v>3223</v>
+      </c>
+      <c r="D4528" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4529">
+      <c r="A4529" s="0">
+        <v>5541</v>
+      </c>
+      <c r="B4529" s="0">
+        <v>110</v>
+      </c>
+      <c r="C4529" s="0">
+        <v>3224</v>
+      </c>
+      <c r="D4529" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4530">
+      <c r="A4530" s="0">
+        <v>5542</v>
+      </c>
+      <c r="B4530" s="0">
+        <v>110</v>
+      </c>
+      <c r="C4530" s="0">
+        <v>3225</v>
+      </c>
+      <c r="D4530" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4531">
+      <c r="A4531" s="0">
+        <v>5543</v>
+      </c>
+      <c r="B4531" s="0">
+        <v>142</v>
+      </c>
+      <c r="C4531" s="0">
+        <v>3225</v>
+      </c>
+      <c r="D4531" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4532">
+      <c r="A4532" s="0">
+        <v>5544</v>
+      </c>
+      <c r="B4532" s="0">
+        <v>110</v>
+      </c>
+      <c r="C4532" s="0">
+        <v>3226</v>
+      </c>
+      <c r="D4532" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4533">
+      <c r="A4533" s="0">
+        <v>5545</v>
+      </c>
+      <c r="B4533" s="0">
+        <v>110</v>
+      </c>
+      <c r="C4533" s="0">
+        <v>3227</v>
+      </c>
+      <c r="D4533" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4534">
+      <c r="A4534" s="0">
+        <v>5546</v>
+      </c>
+      <c r="B4534" s="0">
+        <v>142</v>
+      </c>
+      <c r="C4534" s="0">
+        <v>3227</v>
+      </c>
+      <c r="D4534" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4535">
+      <c r="A4535" s="0">
+        <v>5547</v>
+      </c>
+      <c r="B4535" s="0">
+        <v>110</v>
+      </c>
+      <c r="C4535" s="0">
+        <v>3228</v>
+      </c>
+      <c r="D4535" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4536">
+      <c r="A4536" s="0">
+        <v>5548</v>
+      </c>
+      <c r="B4536" s="0">
+        <v>110</v>
+      </c>
+      <c r="C4536" s="0">
+        <v>3229</v>
+      </c>
+      <c r="D4536" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4537">
+      <c r="A4537" s="0">
+        <v>5549</v>
+      </c>
+      <c r="B4537" s="0">
+        <v>110</v>
+      </c>
+      <c r="C4537" s="0">
+        <v>3230</v>
+      </c>
+      <c r="D4537" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4538">
+      <c r="A4538" s="0">
+        <v>5550</v>
+      </c>
+      <c r="B4538" s="0">
+        <v>110</v>
+      </c>
+      <c r="C4538" s="0">
+        <v>3231</v>
+      </c>
+      <c r="D4538" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4539">
+      <c r="A4539" s="0">
+        <v>5551</v>
+      </c>
+      <c r="B4539" s="0">
+        <v>142</v>
+      </c>
+      <c r="C4539" s="0">
+        <v>3231</v>
+      </c>
+      <c r="D4539" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4540">
+      <c r="A4540" s="0">
+        <v>5552</v>
+      </c>
+      <c r="B4540" s="0">
+        <v>110</v>
+      </c>
+      <c r="C4540" s="0">
+        <v>3232</v>
+      </c>
+      <c r="D4540" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4541">
+      <c r="A4541" s="0">
+        <v>5553</v>
+      </c>
+      <c r="B4541" s="0">
+        <v>142</v>
+      </c>
+      <c r="C4541" s="0">
+        <v>3232</v>
+      </c>
+      <c r="D4541" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4542">
+      <c r="A4542" s="0">
+        <v>5554</v>
+      </c>
+      <c r="B4542" s="0">
+        <v>110</v>
+      </c>
+      <c r="C4542" s="0">
+        <v>3233</v>
+      </c>
+      <c r="D4542" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4543">
+      <c r="A4543" s="0">
+        <v>5555</v>
+      </c>
+      <c r="B4543" s="0">
+        <v>142</v>
+      </c>
+      <c r="C4543" s="0">
+        <v>3233</v>
+      </c>
+      <c r="D4543" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4544">
+      <c r="A4544" s="0">
+        <v>5556</v>
+      </c>
+      <c r="B4544" s="0">
+        <v>110</v>
+      </c>
+      <c r="C4544" s="0">
+        <v>3234</v>
+      </c>
+      <c r="D4544" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4545">
+      <c r="A4545" s="0">
+        <v>5557</v>
+      </c>
+      <c r="B4545" s="0">
+        <v>110</v>
+      </c>
+      <c r="C4545" s="0">
+        <v>3235</v>
+      </c>
+      <c r="D4545" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4546">
+      <c r="A4546" s="0">
+        <v>5558</v>
+      </c>
+      <c r="B4546" s="0">
+        <v>142</v>
+      </c>
+      <c r="C4546" s="0">
+        <v>3235</v>
+      </c>
+      <c r="D4546" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4547">
+      <c r="A4547" s="0">
+        <v>5559</v>
+      </c>
+      <c r="B4547" s="0">
+        <v>110</v>
+      </c>
+      <c r="C4547" s="0">
+        <v>3236</v>
+      </c>
+      <c r="D4547" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4548">
+      <c r="A4548" s="0">
+        <v>5560</v>
+      </c>
+      <c r="B4548" s="0">
+        <v>110</v>
+      </c>
+      <c r="C4548" s="0">
+        <v>3237</v>
+      </c>
+      <c r="D4548" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4549">
+      <c r="A4549" s="0">
+        <v>5561</v>
+      </c>
+      <c r="B4549" s="0">
+        <v>142</v>
+      </c>
+      <c r="C4549" s="0">
+        <v>3237</v>
+      </c>
+      <c r="D4549" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4550">
+      <c r="A4550" s="0">
+        <v>5562</v>
+      </c>
+      <c r="B4550" s="0">
+        <v>110</v>
+      </c>
+      <c r="C4550" s="0">
+        <v>3238</v>
+      </c>
+      <c r="D4550" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4551">
+      <c r="A4551" s="0">
+        <v>5563</v>
+      </c>
+      <c r="B4551" s="0">
+        <v>142</v>
+      </c>
+      <c r="C4551" s="0">
+        <v>3238</v>
+      </c>
+      <c r="D4551" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4552">
+      <c r="A4552" s="0">
+        <v>5564</v>
+      </c>
+      <c r="B4552" s="0">
+        <v>110</v>
+      </c>
+      <c r="C4552" s="0">
+        <v>3239</v>
+      </c>
+      <c r="D4552" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4553">
+      <c r="A4553" s="0">
+        <v>5565</v>
+      </c>
+      <c r="B4553" s="0">
+        <v>142</v>
+      </c>
+      <c r="C4553" s="0">
+        <v>3239</v>
+      </c>
+      <c r="D4553" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4554">
+      <c r="A4554" s="0">
+        <v>5566</v>
+      </c>
+      <c r="B4554" s="0">
+        <v>110</v>
+      </c>
+      <c r="C4554" s="0">
+        <v>3240</v>
+      </c>
+      <c r="D4554" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4555">
+      <c r="A4555" s="0">
+        <v>5567</v>
+      </c>
+      <c r="B4555" s="0">
+        <v>110</v>
+      </c>
+      <c r="C4555" s="0">
+        <v>3241</v>
+      </c>
+      <c r="D4555" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4556">
+      <c r="A4556" s="0">
+        <v>5568</v>
+      </c>
+      <c r="B4556" s="0">
+        <v>110</v>
+      </c>
+      <c r="C4556" s="0">
+        <v>3242</v>
+      </c>
+      <c r="D4556" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4557">
+      <c r="A4557" s="0">
+        <v>5569</v>
+      </c>
+      <c r="B4557" s="0">
+        <v>142</v>
+      </c>
+      <c r="C4557" s="0">
+        <v>3242</v>
+      </c>
+      <c r="D4557" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4558">
+      <c r="A4558" s="0">
+        <v>5570</v>
+      </c>
+      <c r="B4558" s="0">
+        <v>110</v>
+      </c>
+      <c r="C4558" s="0">
+        <v>3243</v>
+      </c>
+      <c r="D4558" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4559">
+      <c r="A4559" s="0">
+        <v>5571</v>
+      </c>
+      <c r="B4559" s="0">
+        <v>142</v>
+      </c>
+      <c r="C4559" s="0">
+        <v>3243</v>
+      </c>
+      <c r="D4559" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4560">
+      <c r="A4560" s="0">
+        <v>5572</v>
+      </c>
+      <c r="B4560" s="0">
+        <v>110</v>
+      </c>
+      <c r="C4560" s="0">
+        <v>3244</v>
+      </c>
+      <c r="D4560" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4561">
+      <c r="A4561" s="0">
+        <v>5573</v>
+      </c>
+      <c r="B4561" s="0">
+        <v>110</v>
+      </c>
+      <c r="C4561" s="0">
+        <v>3245</v>
+      </c>
+      <c r="D4561" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4562">
+      <c r="A4562" s="0">
+        <v>5574</v>
+      </c>
+      <c r="B4562" s="0">
+        <v>110</v>
+      </c>
+      <c r="C4562" s="0">
+        <v>3246</v>
+      </c>
+      <c r="D4562" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4563">
+      <c r="A4563" s="0">
+        <v>5575</v>
+      </c>
+      <c r="B4563" s="0">
+        <v>142</v>
+      </c>
+      <c r="C4563" s="0">
+        <v>3246</v>
+      </c>
+      <c r="D4563" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4564">
+      <c r="A4564" s="0">
+        <v>5576</v>
+      </c>
+      <c r="B4564" s="0">
+        <v>142</v>
+      </c>
+      <c r="C4564" s="0">
+        <v>3247</v>
+      </c>
+      <c r="D4564" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4565">
+      <c r="A4565" s="0">
+        <v>5577</v>
+      </c>
+      <c r="B4565" s="0">
+        <v>110</v>
+      </c>
+      <c r="C4565" s="0">
+        <v>3247</v>
+      </c>
+      <c r="D4565" s="0">
+        <v>41</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4566">
+      <c r="A4566" s="0">
+        <v>5578</v>
+      </c>
+      <c r="B4566" s="0">
+        <v>110</v>
+      </c>
+      <c r="C4566" s="0">
+        <v>3248</v>
+      </c>
+      <c r="D4566" s="0">
+        <v>42</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4567">
+      <c r="A4567" s="0">
+        <v>5579</v>
+      </c>
+      <c r="B4567" s="0">
+        <v>142</v>
+      </c>
+      <c r="C4567" s="0">
+        <v>3248</v>
+      </c>
+      <c r="D4567" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4568">
+      <c r="A4568" s="0">
+        <v>5580</v>
+      </c>
+      <c r="B4568" s="0">
+        <v>110</v>
+      </c>
+      <c r="C4568" s="0">
+        <v>3249</v>
+      </c>
+      <c r="D4568" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4569">
+      <c r="A4569" s="0">
+        <v>5581</v>
+      </c>
+      <c r="B4569" s="0">
+        <v>142</v>
+      </c>
+      <c r="C4569" s="0">
+        <v>3249</v>
+      </c>
+      <c r="D4569" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4570">
+      <c r="A4570" s="0">
+        <v>5582</v>
+      </c>
+      <c r="B4570" s="0">
+        <v>110</v>
+      </c>
+      <c r="C4570" s="0">
+        <v>3250</v>
+      </c>
+      <c r="D4570" s="0">
+        <v>44</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4571">
+      <c r="A4571" s="0">
+        <v>5583</v>
+      </c>
+      <c r="B4571" s="0">
+        <v>142</v>
+      </c>
+      <c r="C4571" s="0">
+        <v>3250</v>
+      </c>
+      <c r="D4571" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4572">
+      <c r="A4572" s="0">
+        <v>5584</v>
+      </c>
+      <c r="B4572" s="0">
+        <v>110</v>
+      </c>
+      <c r="C4572" s="0">
+        <v>3251</v>
+      </c>
+      <c r="D4572" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4573">
+      <c r="A4573" s="0">
+        <v>5585</v>
+      </c>
+      <c r="B4573" s="0">
+        <v>110</v>
+      </c>
+      <c r="C4573" s="0">
+        <v>3252</v>
+      </c>
+      <c r="D4573" s="0">
+        <v>46</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4574">
+      <c r="A4574" s="0">
+        <v>5586</v>
+      </c>
+      <c r="B4574" s="0">
+        <v>110</v>
+      </c>
+      <c r="C4574" s="0">
+        <v>3253</v>
+      </c>
+      <c r="D4574" s="0">
+        <v>47</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4575">
+      <c r="A4575" s="0">
+        <v>5587</v>
+      </c>
+      <c r="B4575" s="0">
+        <v>142</v>
+      </c>
+      <c r="C4575" s="0">
+        <v>3253</v>
+      </c>
+      <c r="D4575" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4576">
+      <c r="A4576" s="0">
+        <v>5588</v>
+      </c>
+      <c r="B4576" s="0">
+        <v>162</v>
+      </c>
+      <c r="C4576" s="0">
+        <v>3254</v>
+      </c>
+      <c r="D4576" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4577">
+      <c r="A4577" s="0">
+        <v>5589</v>
+      </c>
+      <c r="B4577" s="0">
+        <v>162</v>
+      </c>
+      <c r="C4577" s="0">
+        <v>3255</v>
+      </c>
+      <c r="D4577" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4578">
+      <c r="A4578" s="0">
+        <v>5590</v>
+      </c>
+      <c r="B4578" s="0">
+        <v>162</v>
+      </c>
+      <c r="C4578" s="0">
+        <v>3256</v>
+      </c>
+      <c r="D4578" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4579">
+      <c r="A4579" s="0">
+        <v>5591</v>
+      </c>
+      <c r="B4579" s="0">
+        <v>162</v>
+      </c>
+      <c r="C4579" s="0">
+        <v>3257</v>
+      </c>
+      <c r="D4579" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4580">
+      <c r="A4580" s="0">
+        <v>5592</v>
+      </c>
+      <c r="B4580" s="0">
+        <v>162</v>
+      </c>
+      <c r="C4580" s="0">
+        <v>3258</v>
+      </c>
+      <c r="D4580" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4581">
+      <c r="A4581" s="0">
+        <v>5593</v>
+      </c>
+      <c r="B4581" s="0">
+        <v>162</v>
+      </c>
+      <c r="C4581" s="0">
+        <v>3259</v>
+      </c>
+      <c r="D4581" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4582">
+      <c r="A4582" s="0">
+        <v>5594</v>
+      </c>
+      <c r="B4582" s="0">
+        <v>162</v>
+      </c>
+      <c r="C4582" s="0">
+        <v>3260</v>
+      </c>
+      <c r="D4582" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4583">
+      <c r="A4583" s="0">
+        <v>5595</v>
+      </c>
+      <c r="B4583" s="0">
+        <v>162</v>
+      </c>
+      <c r="C4583" s="0">
+        <v>3261</v>
+      </c>
+      <c r="D4583" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4584">
+      <c r="A4584" s="0">
+        <v>5596</v>
+      </c>
+      <c r="B4584" s="0">
+        <v>162</v>
+      </c>
+      <c r="C4584" s="0">
+        <v>3262</v>
+      </c>
+      <c r="D4584" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4585">
+      <c r="A4585" s="0">
+        <v>5597</v>
+      </c>
+      <c r="B4585" s="0">
+        <v>162</v>
+      </c>
+      <c r="C4585" s="0">
+        <v>3263</v>
+      </c>
+      <c r="D4585" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4586">
+      <c r="A4586" s="0">
+        <v>5598</v>
+      </c>
+      <c r="B4586" s="0">
+        <v>162</v>
+      </c>
+      <c r="C4586" s="0">
+        <v>3264</v>
+      </c>
+      <c r="D4586" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4587">
+      <c r="A4587" s="0">
+        <v>5599</v>
+      </c>
+      <c r="B4587" s="0">
+        <v>162</v>
+      </c>
+      <c r="C4587" s="0">
+        <v>3265</v>
+      </c>
+      <c r="D4587" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4588">
+      <c r="A4588" s="0">
+        <v>5600</v>
+      </c>
+      <c r="B4588" s="0">
+        <v>162</v>
+      </c>
+      <c r="C4588" s="0">
+        <v>3266</v>
+      </c>
+      <c r="D4588" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4589">
+      <c r="A4589" s="0">
+        <v>5601</v>
+      </c>
+      <c r="B4589" s="0">
+        <v>162</v>
+      </c>
+      <c r="C4589" s="0">
+        <v>3267</v>
+      </c>
+      <c r="D4589" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4590">
+      <c r="A4590" s="0">
+        <v>5602</v>
+      </c>
+      <c r="B4590" s="0">
+        <v>162</v>
+      </c>
+      <c r="C4590" s="0">
+        <v>3268</v>
+      </c>
+      <c r="D4590" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4591">
+      <c r="A4591" s="0">
+        <v>5603</v>
+      </c>
+      <c r="B4591" s="0">
+        <v>162</v>
+      </c>
+      <c r="C4591" s="0">
+        <v>3269</v>
+      </c>
+      <c r="D4591" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4592">
+      <c r="A4592" s="0">
+        <v>5604</v>
+      </c>
+      <c r="B4592" s="0">
+        <v>162</v>
+      </c>
+      <c r="C4592" s="0">
+        <v>3270</v>
+      </c>
+      <c r="D4592" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4593">
+      <c r="A4593" s="0">
+        <v>5605</v>
+      </c>
+      <c r="B4593" s="0">
+        <v>162</v>
+      </c>
+      <c r="C4593" s="0">
+        <v>3271</v>
+      </c>
+      <c r="D4593" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4594">
+      <c r="A4594" s="0">
+        <v>5606</v>
+      </c>
+      <c r="B4594" s="0">
+        <v>162</v>
+      </c>
+      <c r="C4594" s="0">
+        <v>3272</v>
+      </c>
+      <c r="D4594" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4595">
+      <c r="A4595" s="0">
+        <v>5607</v>
+      </c>
+      <c r="B4595" s="0">
+        <v>162</v>
+      </c>
+      <c r="C4595" s="0">
+        <v>3273</v>
+      </c>
+      <c r="D4595" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4596">
+      <c r="A4596" s="0">
+        <v>5608</v>
+      </c>
+      <c r="B4596" s="0">
+        <v>162</v>
+      </c>
+      <c r="C4596" s="0">
+        <v>3274</v>
+      </c>
+      <c r="D4596" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4597">
+      <c r="A4597" s="0">
+        <v>5609</v>
+      </c>
+      <c r="B4597" s="0">
+        <v>162</v>
+      </c>
+      <c r="C4597" s="0">
+        <v>3275</v>
+      </c>
+      <c r="D4597" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4598">
+      <c r="A4598" s="0">
+        <v>5610</v>
+      </c>
+      <c r="B4598" s="0">
+        <v>162</v>
+      </c>
+      <c r="C4598" s="0">
+        <v>3276</v>
+      </c>
+      <c r="D4598" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4599">
+      <c r="A4599" s="0">
+        <v>5611</v>
+      </c>
+      <c r="B4599" s="0">
+        <v>162</v>
+      </c>
+      <c r="C4599" s="0">
+        <v>3277</v>
+      </c>
+      <c r="D4599" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4600">
+      <c r="A4600" s="0">
+        <v>5612</v>
+      </c>
+      <c r="B4600" s="0">
+        <v>162</v>
+      </c>
+      <c r="C4600" s="0">
+        <v>3278</v>
+      </c>
+      <c r="D4600" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4601">
+      <c r="A4601" s="0">
+        <v>5613</v>
+      </c>
+      <c r="B4601" s="0">
+        <v>162</v>
+      </c>
+      <c r="C4601" s="0">
+        <v>3279</v>
+      </c>
+      <c r="D4601" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4602">
+      <c r="A4602" s="0">
+        <v>5614</v>
+      </c>
+      <c r="B4602" s="0">
+        <v>162</v>
+      </c>
+      <c r="C4602" s="0">
+        <v>3280</v>
+      </c>
+      <c r="D4602" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4603">
+      <c r="A4603" s="0">
+        <v>5615</v>
+      </c>
+      <c r="B4603" s="0">
+        <v>162</v>
+      </c>
+      <c r="C4603" s="0">
+        <v>3281</v>
+      </c>
+      <c r="D4603" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4604">
+      <c r="A4604" s="0">
+        <v>5616</v>
+      </c>
+      <c r="B4604" s="0">
+        <v>162</v>
+      </c>
+      <c r="C4604" s="0">
+        <v>3282</v>
+      </c>
+      <c r="D4604" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4605">
+      <c r="A4605" s="0">
+        <v>5617</v>
+      </c>
+      <c r="B4605" s="0">
+        <v>162</v>
+      </c>
+      <c r="C4605" s="0">
+        <v>3283</v>
+      </c>
+      <c r="D4605" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4606">
+      <c r="A4606" s="0">
+        <v>5618</v>
+      </c>
+      <c r="B4606" s="0">
+        <v>162</v>
+      </c>
+      <c r="C4606" s="0">
+        <v>3284</v>
+      </c>
+      <c r="D4606" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4607">
+      <c r="A4607" s="0">
+        <v>5619</v>
+      </c>
+      <c r="B4607" s="0">
+        <v>162</v>
+      </c>
+      <c r="C4607" s="0">
+        <v>3285</v>
+      </c>
+      <c r="D4607" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4608">
+      <c r="A4608" s="0">
+        <v>5620</v>
+      </c>
+      <c r="B4608" s="0">
+        <v>162</v>
+      </c>
+      <c r="C4608" s="0">
+        <v>3286</v>
+      </c>
+      <c r="D4608" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4609">
+      <c r="A4609" s="0">
+        <v>5621</v>
+      </c>
+      <c r="B4609" s="0">
+        <v>162</v>
+      </c>
+      <c r="C4609" s="0">
+        <v>3287</v>
+      </c>
+      <c r="D4609" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4610">
+      <c r="A4610" s="0">
+        <v>5622</v>
+      </c>
+      <c r="B4610" s="0">
+        <v>162</v>
+      </c>
+      <c r="C4610" s="0">
+        <v>3288</v>
+      </c>
+      <c r="D4610" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4611">
+      <c r="A4611" s="0">
+        <v>5623</v>
+      </c>
+      <c r="B4611" s="0">
+        <v>162</v>
+      </c>
+      <c r="C4611" s="0">
+        <v>3289</v>
+      </c>
+      <c r="D4611" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4612">
+      <c r="A4612" s="0">
+        <v>5624</v>
+      </c>
+      <c r="B4612" s="0">
+        <v>162</v>
+      </c>
+      <c r="C4612" s="0">
+        <v>3290</v>
+      </c>
+      <c r="D4612" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4613">
+      <c r="A4613" s="0">
+        <v>5625</v>
+      </c>
+      <c r="B4613" s="0">
+        <v>162</v>
+      </c>
+      <c r="C4613" s="0">
+        <v>3291</v>
+      </c>
+      <c r="D4613" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4614">
+      <c r="A4614" s="0">
+        <v>5626</v>
+      </c>
+      <c r="B4614" s="0">
+        <v>162</v>
+      </c>
+      <c r="C4614" s="0">
+        <v>3292</v>
+      </c>
+      <c r="D4614" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4615">
+      <c r="A4615" s="0">
+        <v>5627</v>
+      </c>
+      <c r="B4615" s="0">
+        <v>162</v>
+      </c>
+      <c r="C4615" s="0">
+        <v>3293</v>
+      </c>
+      <c r="D4615" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4616">
+      <c r="A4616" s="0">
+        <v>5628</v>
+      </c>
+      <c r="B4616" s="0">
+        <v>162</v>
+      </c>
+      <c r="C4616" s="0">
+        <v>3294</v>
+      </c>
+      <c r="D4616" s="0">
+        <v>41</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4617">
+      <c r="A4617" s="0">
+        <v>5629</v>
+      </c>
+      <c r="B4617" s="0">
+        <v>162</v>
+      </c>
+      <c r="C4617" s="0">
+        <v>3295</v>
+      </c>
+      <c r="D4617" s="0">
+        <v>42</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4618">
+      <c r="A4618" s="0">
+        <v>5630</v>
+      </c>
+      <c r="B4618" s="0">
+        <v>162</v>
+      </c>
+      <c r="C4618" s="0">
+        <v>3296</v>
+      </c>
+      <c r="D4618" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4619">
+      <c r="A4619" s="0">
+        <v>5631</v>
+      </c>
+      <c r="B4619" s="0">
+        <v>162</v>
+      </c>
+      <c r="C4619" s="0">
+        <v>3297</v>
+      </c>
+      <c r="D4619" s="0">
+        <v>44</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4620">
+      <c r="A4620" s="0">
+        <v>5632</v>
+      </c>
+      <c r="B4620" s="0">
+        <v>162</v>
+      </c>
+      <c r="C4620" s="0">
+        <v>3298</v>
+      </c>
+      <c r="D4620" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4621">
+      <c r="A4621" s="0">
+        <v>5633</v>
+      </c>
+      <c r="B4621" s="0">
+        <v>162</v>
+      </c>
+      <c r="C4621" s="0">
+        <v>3299</v>
+      </c>
+      <c r="D4621" s="0">
+        <v>46</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4622">
+      <c r="A4622" s="0">
+        <v>5634</v>
+      </c>
+      <c r="B4622" s="0">
+        <v>162</v>
+      </c>
+      <c r="C4622" s="0">
+        <v>3300</v>
+      </c>
+      <c r="D4622" s="0">
+        <v>47</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4623">
+      <c r="A4623" s="0">
+        <v>5635</v>
+      </c>
+      <c r="B4623" s="0">
+        <v>164</v>
+      </c>
+      <c r="C4623" s="0">
+        <v>3255</v>
+      </c>
+      <c r="D4623" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4624">
+      <c r="A4624" s="0">
+        <v>5636</v>
+      </c>
+      <c r="B4624" s="0">
+        <v>164</v>
+      </c>
+      <c r="C4624" s="0">
+        <v>3257</v>
+      </c>
+      <c r="D4624" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4625">
+      <c r="A4625" s="0">
+        <v>5637</v>
+      </c>
+      <c r="B4625" s="0">
+        <v>164</v>
+      </c>
+      <c r="C4625" s="0">
+        <v>3258</v>
+      </c>
+      <c r="D4625" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4626">
+      <c r="A4626" s="0">
+        <v>5638</v>
+      </c>
+      <c r="B4626" s="0">
+        <v>164</v>
+      </c>
+      <c r="C4626" s="0">
+        <v>3259</v>
+      </c>
+      <c r="D4626" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4627">
+      <c r="A4627" s="0">
+        <v>5639</v>
+      </c>
+      <c r="B4627" s="0">
+        <v>164</v>
+      </c>
+      <c r="C4627" s="0">
+        <v>3266</v>
+      </c>
+      <c r="D4627" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4628">
+      <c r="A4628" s="0">
+        <v>5640</v>
+      </c>
+      <c r="B4628" s="0">
+        <v>164</v>
+      </c>
+      <c r="C4628" s="0">
+        <v>3286</v>
+      </c>
+      <c r="D4628" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4629">
+      <c r="A4629" s="0">
+        <v>5641</v>
+      </c>
+      <c r="B4629" s="0">
+        <v>164</v>
+      </c>
+      <c r="C4629" s="0">
+        <v>3285</v>
+      </c>
+      <c r="D4629" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4630">
+      <c r="A4630" s="0">
+        <v>5642</v>
+      </c>
+      <c r="B4630" s="0">
+        <v>164</v>
+      </c>
+      <c r="C4630" s="0">
+        <v>3264</v>
+      </c>
+      <c r="D4630" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4631">
+      <c r="A4631" s="0">
+        <v>5643</v>
+      </c>
+      <c r="B4631" s="0">
+        <v>164</v>
+      </c>
+      <c r="C4631" s="0">
+        <v>3270</v>
+      </c>
+      <c r="D4631" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4632">
+      <c r="A4632" s="0">
+        <v>5644</v>
+      </c>
+      <c r="B4632" s="0">
+        <v>164</v>
+      </c>
+      <c r="C4632" s="0">
+        <v>3268</v>
+      </c>
+      <c r="D4632" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4633">
+      <c r="A4633" s="0">
+        <v>5645</v>
+      </c>
+      <c r="B4633" s="0">
+        <v>164</v>
+      </c>
+      <c r="C4633" s="0">
+        <v>3289</v>
+      </c>
+      <c r="D4633" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4634">
+      <c r="A4634" s="0">
+        <v>5646</v>
+      </c>
+      <c r="B4634" s="0">
+        <v>164</v>
+      </c>
+      <c r="C4634" s="0">
+        <v>3295</v>
+      </c>
+      <c r="D4634" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4635">
+      <c r="A4635" s="0">
+        <v>5647</v>
+      </c>
+      <c r="B4635" s="0">
+        <v>164</v>
+      </c>
+      <c r="C4635" s="0">
+        <v>3272</v>
+      </c>
+      <c r="D4635" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4636">
+      <c r="A4636" s="0">
+        <v>5648</v>
+      </c>
+      <c r="B4636" s="0">
+        <v>164</v>
+      </c>
+      <c r="C4636" s="0">
+        <v>3279</v>
+      </c>
+      <c r="D4636" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4637">
+      <c r="A4637" s="0">
+        <v>5649</v>
+      </c>
+      <c r="B4637" s="0">
+        <v>164</v>
+      </c>
+      <c r="C4637" s="0">
+        <v>3278</v>
+      </c>
+      <c r="D4637" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4638">
+      <c r="A4638" s="0">
+        <v>5650</v>
+      </c>
+      <c r="B4638" s="0">
+        <v>164</v>
+      </c>
+      <c r="C4638" s="0">
+        <v>3282</v>
+      </c>
+      <c r="D4638" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4639">
+      <c r="A4639" s="0">
+        <v>5651</v>
+      </c>
+      <c r="B4639" s="0">
+        <v>164</v>
+      </c>
+      <c r="C4639" s="0">
+        <v>3284</v>
+      </c>
+      <c r="D4639" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4640">
+      <c r="A4640" s="0">
+        <v>5652</v>
+      </c>
+      <c r="B4640" s="0">
+        <v>164</v>
+      </c>
+      <c r="C4640" s="0">
+        <v>3290</v>
+      </c>
+      <c r="D4640" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4641">
+      <c r="A4641" s="0">
+        <v>5653</v>
+      </c>
+      <c r="B4641" s="0">
+        <v>164</v>
+      </c>
+      <c r="C4641" s="0">
+        <v>3293</v>
+      </c>
+      <c r="D4641" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4642">
+      <c r="A4642" s="0">
+        <v>5654</v>
+      </c>
+      <c r="B4642" s="0">
+        <v>164</v>
+      </c>
+      <c r="C4642" s="0">
+        <v>3294</v>
+      </c>
+      <c r="D4642" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4643">
+      <c r="A4643" s="0">
+        <v>5655</v>
+      </c>
+      <c r="B4643" s="0">
+        <v>164</v>
+      </c>
+      <c r="C4643" s="0">
+        <v>3274</v>
+      </c>
+      <c r="D4643" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4644">
+      <c r="A4644" s="0">
+        <v>5656</v>
+      </c>
+      <c r="B4644" s="0">
+        <v>164</v>
+      </c>
+      <c r="C4644" s="0">
+        <v>3296</v>
+      </c>
+      <c r="D4644" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4645">
+      <c r="A4645" s="0">
+        <v>5657</v>
+      </c>
+      <c r="B4645" s="0">
+        <v>164</v>
+      </c>
+      <c r="C4645" s="0">
+        <v>3297</v>
+      </c>
+      <c r="D4645" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4646">
+      <c r="A4646" s="0">
+        <v>5658</v>
+      </c>
+      <c r="B4646" s="0">
+        <v>164</v>
+      </c>
+      <c r="C4646" s="0">
+        <v>3300</v>
+      </c>
+      <c r="D4646" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4647">
+      <c r="A4647" s="0">
+        <v>5659</v>
+      </c>
+      <c r="B4647" s="0">
+        <v>164</v>
+      </c>
+      <c r="C4647" s="0">
+        <v>3280</v>
+      </c>
+      <c r="D4647" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4648">
+      <c r="A4648" s="0">
+        <v>5660</v>
+      </c>
+      <c r="B4648" s="0">
+        <v>163</v>
+      </c>
+      <c r="C4648" s="0">
+        <v>3301</v>
+      </c>
+      <c r="D4648" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4649">
+      <c r="A4649" s="0">
+        <v>5661</v>
+      </c>
+      <c r="B4649" s="0">
+        <v>163</v>
+      </c>
+      <c r="C4649" s="0">
+        <v>3302</v>
+      </c>
+      <c r="D4649" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4650">
+      <c r="A4650" s="0">
+        <v>5662</v>
+      </c>
+      <c r="B4650" s="0">
+        <v>163</v>
+      </c>
+      <c r="C4650" s="0">
+        <v>3303</v>
+      </c>
+      <c r="D4650" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4651">
+      <c r="A4651" s="0">
+        <v>5663</v>
+      </c>
+      <c r="B4651" s="0">
+        <v>163</v>
+      </c>
+      <c r="C4651" s="0">
+        <v>3304</v>
+      </c>
+      <c r="D4651" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4652">
+      <c r="A4652" s="0">
+        <v>5664</v>
+      </c>
+      <c r="B4652" s="0">
+        <v>163</v>
+      </c>
+      <c r="C4652" s="0">
+        <v>3305</v>
+      </c>
+      <c r="D4652" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4653">
+      <c r="A4653" s="0">
+        <v>5665</v>
+      </c>
+      <c r="B4653" s="0">
+        <v>163</v>
+      </c>
+      <c r="C4653" s="0">
+        <v>3306</v>
+      </c>
+      <c r="D4653" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4654">
+      <c r="A4654" s="0">
+        <v>5666</v>
+      </c>
+      <c r="B4654" s="0">
+        <v>163</v>
+      </c>
+      <c r="C4654" s="0">
+        <v>3307</v>
+      </c>
+      <c r="D4654" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4655">
+      <c r="A4655" s="0">
+        <v>5667</v>
+      </c>
+      <c r="B4655" s="0">
+        <v>163</v>
+      </c>
+      <c r="C4655" s="0">
+        <v>3308</v>
+      </c>
+      <c r="D4655" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4656">
+      <c r="A4656" s="0">
+        <v>5668</v>
+      </c>
+      <c r="B4656" s="0">
+        <v>163</v>
+      </c>
+      <c r="C4656" s="0">
+        <v>3309</v>
+      </c>
+      <c r="D4656" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4657">
+      <c r="A4657" s="0">
+        <v>5669</v>
+      </c>
+      <c r="B4657" s="0">
+        <v>163</v>
+      </c>
+      <c r="C4657" s="0">
+        <v>3310</v>
+      </c>
+      <c r="D4657" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4658">
+      <c r="A4658" s="0">
+        <v>5670</v>
+      </c>
+      <c r="B4658" s="0">
+        <v>163</v>
+      </c>
+      <c r="C4658" s="0">
+        <v>3311</v>
+      </c>
+      <c r="D4658" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4659">
+      <c r="A4659" s="0">
+        <v>5671</v>
+      </c>
+      <c r="B4659" s="0">
+        <v>163</v>
+      </c>
+      <c r="C4659" s="0">
+        <v>3312</v>
+      </c>
+      <c r="D4659" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4660">
+      <c r="A4660" s="0">
+        <v>5672</v>
+      </c>
+      <c r="B4660" s="0">
+        <v>163</v>
+      </c>
+      <c r="C4660" s="0">
+        <v>3313</v>
+      </c>
+      <c r="D4660" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4661">
+      <c r="A4661" s="0">
+        <v>5673</v>
+      </c>
+      <c r="B4661" s="0">
+        <v>163</v>
+      </c>
+      <c r="C4661" s="0">
+        <v>3314</v>
+      </c>
+      <c r="D4661" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4662">
+      <c r="A4662" s="0">
+        <v>5674</v>
+      </c>
+      <c r="B4662" s="0">
+        <v>163</v>
+      </c>
+      <c r="C4662" s="0">
+        <v>3315</v>
+      </c>
+      <c r="D4662" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4663">
+      <c r="A4663" s="0">
+        <v>5675</v>
+      </c>
+      <c r="B4663" s="0">
+        <v>163</v>
+      </c>
+      <c r="C4663" s="0">
+        <v>3316</v>
+      </c>
+      <c r="D4663" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4664">
+      <c r="A4664" s="0">
+        <v>5676</v>
+      </c>
+      <c r="B4664" s="0">
+        <v>163</v>
+      </c>
+      <c r="C4664" s="0">
+        <v>3317</v>
+      </c>
+      <c r="D4664" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4665">
+      <c r="A4665" s="0">
+        <v>5677</v>
+      </c>
+      <c r="B4665" s="0">
+        <v>163</v>
+      </c>
+      <c r="C4665" s="0">
+        <v>3318</v>
+      </c>
+      <c r="D4665" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4666">
+      <c r="A4666" s="0">
+        <v>5678</v>
+      </c>
+      <c r="B4666" s="0">
+        <v>163</v>
+      </c>
+      <c r="C4666" s="0">
+        <v>3319</v>
+      </c>
+      <c r="D4666" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4667">
+      <c r="A4667" s="0">
+        <v>5679</v>
+      </c>
+      <c r="B4667" s="0">
+        <v>163</v>
+      </c>
+      <c r="C4667" s="0">
+        <v>3320</v>
+      </c>
+      <c r="D4667" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4668">
+      <c r="A4668" s="0">
+        <v>5680</v>
+      </c>
+      <c r="B4668" s="0">
+        <v>163</v>
+      </c>
+      <c r="C4668" s="0">
+        <v>3321</v>
+      </c>
+      <c r="D4668" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4669">
+      <c r="A4669" s="0">
+        <v>5681</v>
+      </c>
+      <c r="B4669" s="0">
+        <v>163</v>
+      </c>
+      <c r="C4669" s="0">
+        <v>3322</v>
+      </c>
+      <c r="D4669" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4670">
+      <c r="A4670" s="0">
+        <v>5682</v>
+      </c>
+      <c r="B4670" s="0">
+        <v>163</v>
+      </c>
+      <c r="C4670" s="0">
+        <v>3323</v>
+      </c>
+      <c r="D4670" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4671">
+      <c r="A4671" s="0">
+        <v>5683</v>
+      </c>
+      <c r="B4671" s="0">
+        <v>163</v>
+      </c>
+      <c r="C4671" s="0">
+        <v>3324</v>
+      </c>
+      <c r="D4671" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4672">
+      <c r="A4672" s="0">
+        <v>5684</v>
+      </c>
+      <c r="B4672" s="0">
+        <v>163</v>
+      </c>
+      <c r="C4672" s="0">
+        <v>3325</v>
+      </c>
+      <c r="D4672" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4673">
+      <c r="A4673" s="0">
+        <v>5685</v>
+      </c>
+      <c r="B4673" s="0">
+        <v>163</v>
+      </c>
+      <c r="C4673" s="0">
+        <v>3326</v>
+      </c>
+      <c r="D4673" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4674">
+      <c r="A4674" s="0">
+        <v>5686</v>
+      </c>
+      <c r="B4674" s="0">
+        <v>163</v>
+      </c>
+      <c r="C4674" s="0">
+        <v>3327</v>
+      </c>
+      <c r="D4674" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4675">
+      <c r="A4675" s="0">
+        <v>5687</v>
+      </c>
+      <c r="B4675" s="0">
+        <v>163</v>
+      </c>
+      <c r="C4675" s="0">
+        <v>3328</v>
+      </c>
+      <c r="D4675" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4676">
+      <c r="A4676" s="0">
+        <v>5688</v>
+      </c>
+      <c r="B4676" s="0">
+        <v>163</v>
+      </c>
+      <c r="C4676" s="0">
+        <v>3329</v>
+      </c>
+      <c r="D4676" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4677">
+      <c r="A4677" s="0">
+        <v>5689</v>
+      </c>
+      <c r="B4677" s="0">
+        <v>163</v>
+      </c>
+      <c r="C4677" s="0">
+        <v>3330</v>
+      </c>
+      <c r="D4677" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4678">
+      <c r="A4678" s="0">
+        <v>5690</v>
+      </c>
+      <c r="B4678" s="0">
+        <v>163</v>
+      </c>
+      <c r="C4678" s="0">
+        <v>3331</v>
+      </c>
+      <c r="D4678" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4679">
+      <c r="A4679" s="0">
+        <v>5691</v>
+      </c>
+      <c r="B4679" s="0">
+        <v>163</v>
+      </c>
+      <c r="C4679" s="0">
+        <v>3332</v>
+      </c>
+      <c r="D4679" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4680">
+      <c r="A4680" s="0">
+        <v>5692</v>
+      </c>
+      <c r="B4680" s="0">
+        <v>163</v>
+      </c>
+      <c r="C4680" s="0">
+        <v>3333</v>
+      </c>
+      <c r="D4680" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4681">
+      <c r="A4681" s="0">
+        <v>5693</v>
+      </c>
+      <c r="B4681" s="0">
+        <v>163</v>
+      </c>
+      <c r="C4681" s="0">
+        <v>3334</v>
+      </c>
+      <c r="D4681" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4682">
+      <c r="A4682" s="0">
+        <v>5694</v>
+      </c>
+      <c r="B4682" s="0">
+        <v>163</v>
+      </c>
+      <c r="C4682" s="0">
+        <v>3335</v>
+      </c>
+      <c r="D4682" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4683">
+      <c r="A4683" s="0">
+        <v>5695</v>
+      </c>
+      <c r="B4683" s="0">
+        <v>163</v>
+      </c>
+      <c r="C4683" s="0">
+        <v>3336</v>
+      </c>
+      <c r="D4683" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4684">
+      <c r="A4684" s="0">
+        <v>5696</v>
+      </c>
+      <c r="B4684" s="0">
+        <v>163</v>
+      </c>
+      <c r="C4684" s="0">
+        <v>3337</v>
+      </c>
+      <c r="D4684" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4685">
+      <c r="A4685" s="0">
+        <v>5697</v>
+      </c>
+      <c r="B4685" s="0">
+        <v>163</v>
+      </c>
+      <c r="C4685" s="0">
+        <v>3338</v>
+      </c>
+      <c r="D4685" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4686">
+      <c r="A4686" s="0">
+        <v>5698</v>
+      </c>
+      <c r="B4686" s="0">
+        <v>163</v>
+      </c>
+      <c r="C4686" s="0">
+        <v>3339</v>
+      </c>
+      <c r="D4686" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4687">
+      <c r="A4687" s="0">
+        <v>5699</v>
+      </c>
+      <c r="B4687" s="0">
+        <v>163</v>
+      </c>
+      <c r="C4687" s="0">
+        <v>3340</v>
+      </c>
+      <c r="D4687" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4688">
+      <c r="A4688" s="0">
+        <v>5700</v>
+      </c>
+      <c r="B4688" s="0">
+        <v>163</v>
+      </c>
+      <c r="C4688" s="0">
+        <v>3341</v>
+      </c>
+      <c r="D4688" s="0">
+        <v>41</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4689">
+      <c r="A4689" s="0">
+        <v>5701</v>
+      </c>
+      <c r="B4689" s="0">
+        <v>163</v>
+      </c>
+      <c r="C4689" s="0">
+        <v>3342</v>
+      </c>
+      <c r="D4689" s="0">
+        <v>42</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4690">
+      <c r="A4690" s="0">
+        <v>5702</v>
+      </c>
+      <c r="B4690" s="0">
+        <v>163</v>
+      </c>
+      <c r="C4690" s="0">
+        <v>3343</v>
+      </c>
+      <c r="D4690" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4691">
+      <c r="A4691" s="0">
+        <v>5703</v>
+      </c>
+      <c r="B4691" s="0">
+        <v>163</v>
+      </c>
+      <c r="C4691" s="0">
+        <v>3344</v>
+      </c>
+      <c r="D4691" s="0">
+        <v>44</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4692">
+      <c r="A4692" s="0">
+        <v>5704</v>
+      </c>
+      <c r="B4692" s="0">
+        <v>163</v>
+      </c>
+      <c r="C4692" s="0">
+        <v>3345</v>
+      </c>
+      <c r="D4692" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4693">
+      <c r="A4693" s="0">
+        <v>5705</v>
+      </c>
+      <c r="B4693" s="0">
+        <v>163</v>
+      </c>
+      <c r="C4693" s="0">
+        <v>3346</v>
+      </c>
+      <c r="D4693" s="0">
+        <v>46</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4694">
+      <c r="A4694" s="0">
+        <v>5706</v>
+      </c>
+      <c r="B4694" s="0">
+        <v>163</v>
+      </c>
+      <c r="C4694" s="0">
+        <v>3347</v>
+      </c>
+      <c r="D4694" s="0">
+        <v>47</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4695">
+      <c r="A4695" s="0">
+        <v>5707</v>
+      </c>
+      <c r="B4695" s="0">
+        <v>165</v>
+      </c>
+      <c r="C4695" s="0">
+        <v>3302</v>
+      </c>
+      <c r="D4695" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4696">
+      <c r="A4696" s="0">
+        <v>5708</v>
+      </c>
+      <c r="B4696" s="0">
+        <v>165</v>
+      </c>
+      <c r="C4696" s="0">
+        <v>3304</v>
+      </c>
+      <c r="D4696" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4697">
+      <c r="A4697" s="0">
+        <v>5709</v>
+      </c>
+      <c r="B4697" s="0">
+        <v>165</v>
+      </c>
+      <c r="C4697" s="0">
+        <v>3305</v>
+      </c>
+      <c r="D4697" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4698">
+      <c r="A4698" s="0">
+        <v>5710</v>
+      </c>
+      <c r="B4698" s="0">
+        <v>165</v>
+      </c>
+      <c r="C4698" s="0">
+        <v>3306</v>
+      </c>
+      <c r="D4698" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4699">
+      <c r="A4699" s="0">
+        <v>5711</v>
+      </c>
+      <c r="B4699" s="0">
+        <v>165</v>
+      </c>
+      <c r="C4699" s="0">
+        <v>3313</v>
+      </c>
+      <c r="D4699" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4700">
+      <c r="A4700" s="0">
+        <v>5712</v>
+      </c>
+      <c r="B4700" s="0">
+        <v>165</v>
+      </c>
+      <c r="C4700" s="0">
+        <v>3333</v>
+      </c>
+      <c r="D4700" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4701">
+      <c r="A4701" s="0">
+        <v>5713</v>
+      </c>
+      <c r="B4701" s="0">
+        <v>165</v>
+      </c>
+      <c r="C4701" s="0">
+        <v>3332</v>
+      </c>
+      <c r="D4701" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4702">
+      <c r="A4702" s="0">
+        <v>5714</v>
+      </c>
+      <c r="B4702" s="0">
+        <v>165</v>
+      </c>
+      <c r="C4702" s="0">
+        <v>3311</v>
+      </c>
+      <c r="D4702" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4703">
+      <c r="A4703" s="0">
+        <v>5715</v>
+      </c>
+      <c r="B4703" s="0">
+        <v>165</v>
+      </c>
+      <c r="C4703" s="0">
+        <v>3317</v>
+      </c>
+      <c r="D4703" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4704">
+      <c r="A4704" s="0">
+        <v>5716</v>
+      </c>
+      <c r="B4704" s="0">
+        <v>165</v>
+      </c>
+      <c r="C4704" s="0">
+        <v>3315</v>
+      </c>
+      <c r="D4704" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4705">
+      <c r="A4705" s="0">
+        <v>5717</v>
+      </c>
+      <c r="B4705" s="0">
+        <v>165</v>
+      </c>
+      <c r="C4705" s="0">
+        <v>3336</v>
+      </c>
+      <c r="D4705" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4706">
+      <c r="A4706" s="0">
+        <v>5718</v>
+      </c>
+      <c r="B4706" s="0">
+        <v>165</v>
+      </c>
+      <c r="C4706" s="0">
+        <v>3342</v>
+      </c>
+      <c r="D4706" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4707">
+      <c r="A4707" s="0">
+        <v>5719</v>
+      </c>
+      <c r="B4707" s="0">
+        <v>165</v>
+      </c>
+      <c r="C4707" s="0">
+        <v>3319</v>
+      </c>
+      <c r="D4707" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4708">
+      <c r="A4708" s="0">
+        <v>5720</v>
+      </c>
+      <c r="B4708" s="0">
+        <v>165</v>
+      </c>
+      <c r="C4708" s="0">
+        <v>3326</v>
+      </c>
+      <c r="D4708" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4709">
+      <c r="A4709" s="0">
+        <v>5721</v>
+      </c>
+      <c r="B4709" s="0">
+        <v>165</v>
+      </c>
+      <c r="C4709" s="0">
+        <v>3325</v>
+      </c>
+      <c r="D4709" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4710">
+      <c r="A4710" s="0">
+        <v>5722</v>
+      </c>
+      <c r="B4710" s="0">
+        <v>165</v>
+      </c>
+      <c r="C4710" s="0">
+        <v>3329</v>
+      </c>
+      <c r="D4710" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4711">
+      <c r="A4711" s="0">
+        <v>5723</v>
+      </c>
+      <c r="B4711" s="0">
+        <v>165</v>
+      </c>
+      <c r="C4711" s="0">
+        <v>3331</v>
+      </c>
+      <c r="D4711" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4712">
+      <c r="A4712" s="0">
+        <v>5724</v>
+      </c>
+      <c r="B4712" s="0">
+        <v>165</v>
+      </c>
+      <c r="C4712" s="0">
+        <v>3337</v>
+      </c>
+      <c r="D4712" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4713">
+      <c r="A4713" s="0">
+        <v>5725</v>
+      </c>
+      <c r="B4713" s="0">
+        <v>165</v>
+      </c>
+      <c r="C4713" s="0">
+        <v>3340</v>
+      </c>
+      <c r="D4713" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4714">
+      <c r="A4714" s="0">
+        <v>5726</v>
+      </c>
+      <c r="B4714" s="0">
+        <v>165</v>
+      </c>
+      <c r="C4714" s="0">
+        <v>3341</v>
+      </c>
+      <c r="D4714" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4715">
+      <c r="A4715" s="0">
+        <v>5727</v>
+      </c>
+      <c r="B4715" s="0">
+        <v>165</v>
+      </c>
+      <c r="C4715" s="0">
+        <v>3321</v>
+      </c>
+      <c r="D4715" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4716">
+      <c r="A4716" s="0">
+        <v>5728</v>
+      </c>
+      <c r="B4716" s="0">
+        <v>165</v>
+      </c>
+      <c r="C4716" s="0">
+        <v>3343</v>
+      </c>
+      <c r="D4716" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4717">
+      <c r="A4717" s="0">
+        <v>5729</v>
+      </c>
+      <c r="B4717" s="0">
+        <v>165</v>
+      </c>
+      <c r="C4717" s="0">
+        <v>3344</v>
+      </c>
+      <c r="D4717" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4718">
+      <c r="A4718" s="0">
+        <v>5730</v>
+      </c>
+      <c r="B4718" s="0">
+        <v>165</v>
+      </c>
+      <c r="C4718" s="0">
+        <v>3347</v>
+      </c>
+      <c r="D4718" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4719">
+      <c r="A4719" s="0">
+        <v>5731</v>
+      </c>
+      <c r="B4719" s="0">
+        <v>165</v>
+      </c>
+      <c r="C4719" s="0">
+        <v>3327</v>
+      </c>
+      <c r="D4719" s="0">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
